--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\rs_icfes-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\R_IEOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1CFB82-5E8E-49AA-BC9E-69F88E3EA8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72335241-8402-427A-99DE-67170064757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1039">
   <si>
     <t>Grupo</t>
   </si>
@@ -3145,6 +3145,18 @@
   </si>
   <si>
     <t>SILGADO BARBA MARCEDIS</t>
+  </si>
+  <si>
+    <t>1013381067</t>
+  </si>
+  <si>
+    <t>1035974363</t>
+  </si>
+  <si>
+    <t>RIOS RAMIREZ SARA</t>
+  </si>
+  <si>
+    <t>ED1</t>
   </si>
 </sst>
 </file>
@@ -14847,11 +14859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1208"/>
+  <dimension ref="A1:K1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1043" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1200" sqref="G1200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1209" sqref="K1209:K1245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -57833,6 +57845,1301 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1209" spans="1:11" ht="15" customHeight="1">
+      <c r="A1209" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1209">
+        <v>403.9</v>
+      </c>
+      <c r="E1209">
+        <v>92</v>
+      </c>
+      <c r="F1209">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G1209">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="H1209">
+        <v>84</v>
+      </c>
+      <c r="I1209">
+        <v>78.2</v>
+      </c>
+      <c r="J1209" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1209" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" ht="15" customHeight="1">
+      <c r="A1210" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1210">
+        <v>402</v>
+      </c>
+      <c r="E1210">
+        <v>78</v>
+      </c>
+      <c r="F1210">
+        <v>78</v>
+      </c>
+      <c r="G1210">
+        <v>84.5</v>
+      </c>
+      <c r="H1210">
+        <v>80</v>
+      </c>
+      <c r="I1210">
+        <v>83.6</v>
+      </c>
+      <c r="J1210" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1210" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11" ht="15" customHeight="1">
+      <c r="A1211" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1211">
+        <v>359.8</v>
+      </c>
+      <c r="E1211">
+        <v>78</v>
+      </c>
+      <c r="F1211">
+        <v>73.2</v>
+      </c>
+      <c r="G1211">
+        <v>69</v>
+      </c>
+      <c r="H1211">
+        <v>62</v>
+      </c>
+      <c r="I1211">
+        <v>89.1</v>
+      </c>
+      <c r="J1211" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1211" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11" ht="15" customHeight="1">
+      <c r="A1212" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1212">
+        <v>345.2</v>
+      </c>
+      <c r="E1212">
+        <v>72</v>
+      </c>
+      <c r="F1212">
+        <v>68.3</v>
+      </c>
+      <c r="G1212">
+        <v>62.1</v>
+      </c>
+      <c r="H1212">
+        <v>72</v>
+      </c>
+      <c r="I1212">
+        <v>74.5</v>
+      </c>
+      <c r="J1212" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1212" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11" ht="15" customHeight="1">
+      <c r="A1213" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1213">
+        <v>327</v>
+      </c>
+      <c r="E1213">
+        <v>46</v>
+      </c>
+      <c r="F1213">
+        <v>70.7</v>
+      </c>
+      <c r="G1213">
+        <v>67.2</v>
+      </c>
+      <c r="H1213">
+        <v>80</v>
+      </c>
+      <c r="I1213">
+        <v>58.2</v>
+      </c>
+      <c r="J1213" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1213" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11" ht="15" customHeight="1">
+      <c r="A1214" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1214">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="E1214">
+        <v>62</v>
+      </c>
+      <c r="F1214">
+        <v>58.5</v>
+      </c>
+      <c r="G1214">
+        <v>62.1</v>
+      </c>
+      <c r="H1214">
+        <v>72</v>
+      </c>
+      <c r="I1214">
+        <v>83.6</v>
+      </c>
+      <c r="J1214" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1214" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11" ht="15" customHeight="1">
+      <c r="A1215" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1215">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="E1215">
+        <v>54</v>
+      </c>
+      <c r="F1215">
+        <v>56.1</v>
+      </c>
+      <c r="G1215">
+        <v>60.3</v>
+      </c>
+      <c r="H1215">
+        <v>78</v>
+      </c>
+      <c r="I1215">
+        <v>90.9</v>
+      </c>
+      <c r="J1215" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1215" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" ht="15" customHeight="1">
+      <c r="A1216" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1216">
+        <v>320.7</v>
+      </c>
+      <c r="E1216">
+        <v>66</v>
+      </c>
+      <c r="F1216">
+        <v>58.5</v>
+      </c>
+      <c r="G1216">
+        <v>65.5</v>
+      </c>
+      <c r="H1216">
+        <v>60</v>
+      </c>
+      <c r="I1216">
+        <v>83.6</v>
+      </c>
+      <c r="J1216" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1216" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11" ht="15" customHeight="1">
+      <c r="A1217" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1217">
+        <v>318.7</v>
+      </c>
+      <c r="E1217">
+        <v>74</v>
+      </c>
+      <c r="F1217">
+        <v>63.4</v>
+      </c>
+      <c r="G1217">
+        <v>50</v>
+      </c>
+      <c r="H1217">
+        <v>70</v>
+      </c>
+      <c r="I1217">
+        <v>56.4</v>
+      </c>
+      <c r="J1217" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1217" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11" ht="15" customHeight="1">
+      <c r="A1218" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1218">
+        <v>314.3</v>
+      </c>
+      <c r="E1218">
+        <v>54</v>
+      </c>
+      <c r="F1218">
+        <v>63.4</v>
+      </c>
+      <c r="G1218">
+        <v>60.3</v>
+      </c>
+      <c r="H1218">
+        <v>68</v>
+      </c>
+      <c r="I1218">
+        <v>80</v>
+      </c>
+      <c r="J1218" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1218" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" ht="15" customHeight="1">
+      <c r="A1219" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1219">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="E1219">
+        <v>56</v>
+      </c>
+      <c r="F1219">
+        <v>65.8</v>
+      </c>
+      <c r="G1219">
+        <v>58.6</v>
+      </c>
+      <c r="H1219">
+        <v>64</v>
+      </c>
+      <c r="I1219">
+        <v>67.3</v>
+      </c>
+      <c r="J1219" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1219" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11" ht="15" customHeight="1">
+      <c r="A1220" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1220">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="E1220">
+        <v>52</v>
+      </c>
+      <c r="F1220">
+        <v>68.3</v>
+      </c>
+      <c r="G1220">
+        <v>67.2</v>
+      </c>
+      <c r="H1220">
+        <v>58</v>
+      </c>
+      <c r="I1220">
+        <v>61.8</v>
+      </c>
+      <c r="J1220" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1220" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11" ht="15" customHeight="1">
+      <c r="A1221" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1221">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="E1221">
+        <v>66</v>
+      </c>
+      <c r="F1221">
+        <v>70.7</v>
+      </c>
+      <c r="G1221">
+        <v>44.8</v>
+      </c>
+      <c r="H1221">
+        <v>76</v>
+      </c>
+      <c r="I1221">
+        <v>21.8</v>
+      </c>
+      <c r="J1221" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1221" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" ht="15" customHeight="1">
+      <c r="A1222" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1222">
+        <v>298.5</v>
+      </c>
+      <c r="E1222">
+        <v>56</v>
+      </c>
+      <c r="F1222">
+        <v>51.2</v>
+      </c>
+      <c r="G1222">
+        <v>65.5</v>
+      </c>
+      <c r="H1222">
+        <v>72</v>
+      </c>
+      <c r="I1222">
+        <v>41.8</v>
+      </c>
+      <c r="J1222" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1222" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11" ht="15" customHeight="1">
+      <c r="A1223" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1223">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="E1223">
+        <v>64</v>
+      </c>
+      <c r="F1223">
+        <v>61</v>
+      </c>
+      <c r="G1223">
+        <v>53.5</v>
+      </c>
+      <c r="H1223">
+        <v>56</v>
+      </c>
+      <c r="I1223">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J1223" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1223" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11" ht="15" customHeight="1">
+      <c r="A1224" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1224">
+        <v>295.10000000000002</v>
+      </c>
+      <c r="E1224">
+        <v>50</v>
+      </c>
+      <c r="F1224">
+        <v>63.4</v>
+      </c>
+      <c r="G1224">
+        <v>53.5</v>
+      </c>
+      <c r="H1224">
+        <v>64</v>
+      </c>
+      <c r="I1224">
+        <v>74.5</v>
+      </c>
+      <c r="J1224" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1224" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11" ht="15" customHeight="1">
+      <c r="A1225" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1225">
+        <v>291.2</v>
+      </c>
+      <c r="E1225">
+        <v>70</v>
+      </c>
+      <c r="F1225">
+        <v>46.3</v>
+      </c>
+      <c r="G1225">
+        <v>56.9</v>
+      </c>
+      <c r="H1225">
+        <v>64</v>
+      </c>
+      <c r="I1225">
+        <v>45.5</v>
+      </c>
+      <c r="J1225" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1225" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11" ht="15" customHeight="1">
+      <c r="A1226" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1226">
+        <v>283.3</v>
+      </c>
+      <c r="E1226">
+        <v>58</v>
+      </c>
+      <c r="F1226">
+        <v>53.7</v>
+      </c>
+      <c r="G1226">
+        <v>44.8</v>
+      </c>
+      <c r="H1226">
+        <v>66</v>
+      </c>
+      <c r="I1226">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J1226" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1226" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11" ht="15" customHeight="1">
+      <c r="A1227" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1227">
+        <v>274.8</v>
+      </c>
+      <c r="E1227">
+        <v>62</v>
+      </c>
+      <c r="F1227">
+        <v>43.9</v>
+      </c>
+      <c r="G1227">
+        <v>60.3</v>
+      </c>
+      <c r="H1227">
+        <v>58</v>
+      </c>
+      <c r="I1227">
+        <v>41.8</v>
+      </c>
+      <c r="J1227" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1227" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11" ht="15" customHeight="1">
+      <c r="A1228" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1228">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="E1228">
+        <v>40</v>
+      </c>
+      <c r="F1228">
+        <v>53.7</v>
+      </c>
+      <c r="G1228">
+        <v>63.8</v>
+      </c>
+      <c r="H1228">
+        <v>56</v>
+      </c>
+      <c r="I1228">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J1228" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1228" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:11" ht="15" customHeight="1">
+      <c r="A1229" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1229">
+        <v>270.8</v>
+      </c>
+      <c r="E1229">
+        <v>64</v>
+      </c>
+      <c r="F1229">
+        <v>31.7</v>
+      </c>
+      <c r="G1229">
+        <v>63.8</v>
+      </c>
+      <c r="H1229">
+        <v>54</v>
+      </c>
+      <c r="I1229">
+        <v>63.6</v>
+      </c>
+      <c r="J1229" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1229" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:11" ht="15" customHeight="1">
+      <c r="A1230" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1230">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="E1230">
+        <v>58</v>
+      </c>
+      <c r="F1230">
+        <v>36.6</v>
+      </c>
+      <c r="G1230">
+        <v>60.3</v>
+      </c>
+      <c r="H1230">
+        <v>46</v>
+      </c>
+      <c r="I1230">
+        <v>89.1</v>
+      </c>
+      <c r="J1230" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1230" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:11" ht="15" customHeight="1">
+      <c r="A1231" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1231">
+        <v>255.5</v>
+      </c>
+      <c r="E1231">
+        <v>52</v>
+      </c>
+      <c r="F1231">
+        <v>63.4</v>
+      </c>
+      <c r="G1231">
+        <v>31</v>
+      </c>
+      <c r="H1231">
+        <v>58</v>
+      </c>
+      <c r="I1231">
+        <v>50.9</v>
+      </c>
+      <c r="J1231" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1231" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:11" ht="15" customHeight="1">
+      <c r="A1232" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1232">
+        <v>252.6</v>
+      </c>
+      <c r="E1232">
+        <v>52</v>
+      </c>
+      <c r="F1232">
+        <v>46.3</v>
+      </c>
+      <c r="G1232">
+        <v>43.1</v>
+      </c>
+      <c r="H1232">
+        <v>66</v>
+      </c>
+      <c r="I1232">
+        <v>34.5</v>
+      </c>
+      <c r="J1232" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1232" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:11" ht="15" customHeight="1">
+      <c r="A1233" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1233">
+        <v>252.4</v>
+      </c>
+      <c r="E1233">
+        <v>44</v>
+      </c>
+      <c r="F1233">
+        <v>56.1</v>
+      </c>
+      <c r="G1233">
+        <v>43.1</v>
+      </c>
+      <c r="H1233">
+        <v>64</v>
+      </c>
+      <c r="I1233">
+        <v>34.5</v>
+      </c>
+      <c r="J1233" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1233" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:11" ht="15" customHeight="1">
+      <c r="A1234" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1234">
+        <v>229.3</v>
+      </c>
+      <c r="E1234">
+        <v>48</v>
+      </c>
+      <c r="F1234">
+        <v>39</v>
+      </c>
+      <c r="G1234">
+        <v>37.9</v>
+      </c>
+      <c r="H1234">
+        <v>52</v>
+      </c>
+      <c r="I1234">
+        <v>65.5</v>
+      </c>
+      <c r="J1234" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1234" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:11" ht="15" customHeight="1">
+      <c r="A1235" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1235">
+        <v>228.8</v>
+      </c>
+      <c r="E1235">
+        <v>30</v>
+      </c>
+      <c r="F1235">
+        <v>43.9</v>
+      </c>
+      <c r="G1235">
+        <v>50</v>
+      </c>
+      <c r="H1235">
+        <v>58</v>
+      </c>
+      <c r="I1235">
+        <v>49.1</v>
+      </c>
+      <c r="J1235" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1235" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:11" ht="15" customHeight="1">
+      <c r="A1236" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1236">
+        <v>216.2</v>
+      </c>
+      <c r="E1236">
+        <v>28</v>
+      </c>
+      <c r="F1236">
+        <v>46.3</v>
+      </c>
+      <c r="G1236">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H1236">
+        <v>60</v>
+      </c>
+      <c r="I1236">
+        <v>40</v>
+      </c>
+      <c r="J1236" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1236" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:11" ht="15" customHeight="1">
+      <c r="A1237" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1237">
+        <v>205.3</v>
+      </c>
+      <c r="E1237">
+        <v>32</v>
+      </c>
+      <c r="F1237">
+        <v>41.5</v>
+      </c>
+      <c r="G1237">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H1237">
+        <v>46</v>
+      </c>
+      <c r="I1237">
+        <v>56.4</v>
+      </c>
+      <c r="J1237" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1237" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:11" ht="15" customHeight="1">
+      <c r="A1238" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1238">
+        <v>198.5</v>
+      </c>
+      <c r="E1238">
+        <v>20</v>
+      </c>
+      <c r="F1238">
+        <v>53.7</v>
+      </c>
+      <c r="G1238">
+        <v>22.4</v>
+      </c>
+      <c r="H1238">
+        <v>62</v>
+      </c>
+      <c r="I1238">
+        <v>41.8</v>
+      </c>
+      <c r="J1238" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1238" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:11" ht="15" customHeight="1">
+      <c r="A1239" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1239">
+        <v>193.8</v>
+      </c>
+      <c r="E1239">
+        <v>48</v>
+      </c>
+      <c r="F1239">
+        <v>53.7</v>
+      </c>
+      <c r="G1239">
+        <v>27.6</v>
+      </c>
+      <c r="H1239">
+        <v>26</v>
+      </c>
+      <c r="I1239">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J1239" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1239" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:11" ht="15" customHeight="1">
+      <c r="A1240" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1240">
+        <v>183.7</v>
+      </c>
+      <c r="E1240">
+        <v>36</v>
+      </c>
+      <c r="F1240">
+        <v>21.9</v>
+      </c>
+      <c r="G1240">
+        <v>43.1</v>
+      </c>
+      <c r="H1240">
+        <v>40</v>
+      </c>
+      <c r="I1240">
+        <v>54.5</v>
+      </c>
+      <c r="J1240" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1240" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:11" ht="15" customHeight="1">
+      <c r="A1241" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1241">
+        <v>176</v>
+      </c>
+      <c r="E1241">
+        <v>40</v>
+      </c>
+      <c r="F1241">
+        <v>29.3</v>
+      </c>
+      <c r="G1241">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H1241">
+        <v>38</v>
+      </c>
+      <c r="I1241">
+        <v>27.3</v>
+      </c>
+      <c r="J1241" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1241" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:11" ht="15" customHeight="1">
+      <c r="A1242" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1242">
+        <v>160.6</v>
+      </c>
+      <c r="E1242">
+        <v>40</v>
+      </c>
+      <c r="F1242">
+        <v>24.4</v>
+      </c>
+      <c r="G1242">
+        <v>34.5</v>
+      </c>
+      <c r="H1242">
+        <v>30</v>
+      </c>
+      <c r="I1242">
+        <v>30.9</v>
+      </c>
+      <c r="J1242" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1242" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:11" ht="15" customHeight="1">
+      <c r="A1243" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1243">
+        <v>145.9</v>
+      </c>
+      <c r="E1243">
+        <v>24</v>
+      </c>
+      <c r="F1243">
+        <v>34.1</v>
+      </c>
+      <c r="G1243">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H1243">
+        <v>20</v>
+      </c>
+      <c r="I1243">
+        <v>36.4</v>
+      </c>
+      <c r="J1243" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1243" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:11" ht="15" customHeight="1">
+      <c r="A1244" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1244">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="E1244">
+        <v>34</v>
+      </c>
+      <c r="F1244">
+        <v>36.6</v>
+      </c>
+      <c r="G1244">
+        <v>24.1</v>
+      </c>
+      <c r="H1244">
+        <v>20</v>
+      </c>
+      <c r="I1244">
+        <v>34.5</v>
+      </c>
+      <c r="J1244" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1244" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:11" ht="15" customHeight="1">
+      <c r="A1245" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1245">
+        <v>137.4</v>
+      </c>
+      <c r="E1245">
+        <v>26</v>
+      </c>
+      <c r="F1245">
+        <v>26.8</v>
+      </c>
+      <c r="G1245">
+        <v>34.5</v>
+      </c>
+      <c r="H1245">
+        <v>16</v>
+      </c>
+      <c r="I1245">
+        <v>47.3</v>
+      </c>
+      <c r="J1245" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1245" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1064" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\R_IEOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72335241-8402-427A-99DE-67170064757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF21B97F-BE43-4E81-BAC0-51041DB563C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$1064</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$1387</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5151" uniqueCount="1038">
   <si>
     <t>Grupo</t>
   </si>
@@ -2232,9 +2232,6 @@
     <t>7212590</t>
   </si>
   <si>
-    <t>COLMENAREZ SALCEDO LISANYS JACKELINE</t>
-  </si>
-  <si>
     <t>1035977791</t>
   </si>
   <si>
@@ -3138,9 +3135,6 @@
     <t>MANTILLA ARAQUE VALERYN CAMILA</t>
   </si>
   <si>
-    <t>CARDENA SERNA DANIEL ANDRES</t>
-  </si>
-  <si>
     <t>DAVID CASTRILLON MARIA DEL PILAR</t>
   </si>
   <si>
@@ -3157,13 +3151,16 @@
   </si>
   <si>
     <t>ED1</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3192,6 +3189,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3201,10 +3204,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3213,7 +3242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3239,6 +3268,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3267,7 +3302,7 @@
       <sheetName val="SI_1_LC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="D2" t="str">
@@ -14859,11 +14894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1245"/>
+  <dimension ref="A1:K1387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1209" sqref="K1209:K1245"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1354" sqref="C1354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -40613,7 +40648,7 @@
         <v>729</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>730</v>
+        <v>1022</v>
       </c>
       <c r="D736" s="4">
         <v>168</v>
@@ -40645,10 +40680,10 @@
         <v>680</v>
       </c>
       <c r="B737" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C737" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="C737" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="D737" s="4">
         <v>168</v>
@@ -40680,10 +40715,10 @@
         <v>680</v>
       </c>
       <c r="B738" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C738" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="C738" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="D738" s="4">
         <v>168</v>
@@ -40715,10 +40750,10 @@
         <v>680</v>
       </c>
       <c r="B739" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C739" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="C739" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="D739" s="4">
         <v>167</v>
@@ -40750,10 +40785,10 @@
         <v>680</v>
       </c>
       <c r="B740" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C740" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="C740" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="D740" s="4">
         <v>166</v>
@@ -40785,10 +40820,10 @@
         <v>680</v>
       </c>
       <c r="B741" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C741" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="C741" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="D741" s="4">
         <v>166</v>
@@ -40820,10 +40855,10 @@
         <v>680</v>
       </c>
       <c r="B742" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C742" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="C742" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="D742" s="4">
         <v>157</v>
@@ -40855,10 +40890,10 @@
         <v>680</v>
       </c>
       <c r="B743" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C743" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="C743" s="3" t="s">
-        <v>744</v>
       </c>
       <c r="D743" s="4">
         <v>157</v>
@@ -40890,10 +40925,10 @@
         <v>680</v>
       </c>
       <c r="B744" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C744" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="C744" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="D744" s="4">
         <v>156</v>
@@ -40925,10 +40960,10 @@
         <v>680</v>
       </c>
       <c r="B745" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C745" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="C745" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="D745" s="4">
         <v>144</v>
@@ -40960,10 +40995,10 @@
         <v>680</v>
       </c>
       <c r="B746" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C746" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="C746" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="D746" s="4">
         <v>130</v>
@@ -40998,7 +41033,7 @@
         <v>1102578092</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D747" s="4">
         <v>93</v>
@@ -41057,7 +41092,7 @@
         <v>2024</v>
       </c>
       <c r="K748" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="749" spans="1:11" ht="14.25" customHeight="1">
@@ -41092,7 +41127,7 @@
         <v>2024</v>
       </c>
       <c r="K749" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="750" spans="1:11" ht="14.25" customHeight="1">
@@ -41127,7 +41162,7 @@
         <v>2024</v>
       </c>
       <c r="K750" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="751" spans="1:11" ht="14.25" customHeight="1">
@@ -41162,7 +41197,7 @@
         <v>2024</v>
       </c>
       <c r="K751" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="752" spans="1:11" ht="14.25" customHeight="1">
@@ -41197,7 +41232,7 @@
         <v>2024</v>
       </c>
       <c r="K752" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="753" spans="1:11" ht="14.25" customHeight="1">
@@ -41232,7 +41267,7 @@
         <v>2024</v>
       </c>
       <c r="K753" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="754" spans="1:11" ht="14.25" customHeight="1">
@@ -41267,7 +41302,7 @@
         <v>2024</v>
       </c>
       <c r="K754" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="755" spans="1:11" ht="14.25" customHeight="1">
@@ -41302,7 +41337,7 @@
         <v>2024</v>
       </c>
       <c r="K755" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="756" spans="1:11" ht="14.25" customHeight="1">
@@ -41337,7 +41372,7 @@
         <v>2024</v>
       </c>
       <c r="K756" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="757" spans="1:11" ht="14.25" customHeight="1">
@@ -41372,7 +41407,7 @@
         <v>2024</v>
       </c>
       <c r="K757" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="758" spans="1:11" ht="14.25" customHeight="1">
@@ -41407,7 +41442,7 @@
         <v>2024</v>
       </c>
       <c r="K758" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="759" spans="1:11" ht="14.25" customHeight="1">
@@ -41442,7 +41477,7 @@
         <v>2024</v>
       </c>
       <c r="K759" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="760" spans="1:11" ht="14.25" customHeight="1">
@@ -41477,7 +41512,7 @@
         <v>2024</v>
       </c>
       <c r="K760" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="761" spans="1:11" ht="14.25" customHeight="1">
@@ -41512,7 +41547,7 @@
         <v>2024</v>
       </c>
       <c r="K761" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="762" spans="1:11" ht="14.25" customHeight="1">
@@ -41547,7 +41582,7 @@
         <v>2024</v>
       </c>
       <c r="K762" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="763" spans="1:11" ht="14.25" customHeight="1">
@@ -41582,7 +41617,7 @@
         <v>2024</v>
       </c>
       <c r="K763" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="764" spans="1:11" ht="14.25" customHeight="1">
@@ -41617,7 +41652,7 @@
         <v>2024</v>
       </c>
       <c r="K764" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="765" spans="1:11" ht="14.25" customHeight="1">
@@ -41652,7 +41687,7 @@
         <v>2024</v>
       </c>
       <c r="K765" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="766" spans="1:11" ht="14.25" customHeight="1">
@@ -41660,10 +41695,10 @@
         <v>413</v>
       </c>
       <c r="B766" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C766" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="C766" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="D766" s="4">
         <v>360</v>
@@ -41687,7 +41722,7 @@
         <v>2024</v>
       </c>
       <c r="K766" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="767" spans="1:11" ht="14.25" customHeight="1">
@@ -41722,7 +41757,7 @@
         <v>2024</v>
       </c>
       <c r="K767" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="768" spans="1:11" ht="14.25" customHeight="1">
@@ -41757,7 +41792,7 @@
         <v>2024</v>
       </c>
       <c r="K768" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="769" spans="1:11" ht="14.25" customHeight="1">
@@ -41792,7 +41827,7 @@
         <v>2024</v>
       </c>
       <c r="K769" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="770" spans="1:11" ht="14.25" customHeight="1">
@@ -41827,7 +41862,7 @@
         <v>2024</v>
       </c>
       <c r="K770" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="771" spans="1:11" ht="14.25" customHeight="1">
@@ -41862,7 +41897,7 @@
         <v>2024</v>
       </c>
       <c r="K771" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="772" spans="1:11" ht="14.25" customHeight="1">
@@ -41897,7 +41932,7 @@
         <v>2024</v>
       </c>
       <c r="K772" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="773" spans="1:11" ht="14.25" customHeight="1">
@@ -41932,7 +41967,7 @@
         <v>2024</v>
       </c>
       <c r="K773" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="774" spans="1:11" ht="14.25" customHeight="1">
@@ -41967,7 +42002,7 @@
         <v>2024</v>
       </c>
       <c r="K774" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="775" spans="1:11" ht="14.25" customHeight="1">
@@ -42002,7 +42037,7 @@
         <v>2024</v>
       </c>
       <c r="K775" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="776" spans="1:11" ht="14.25" customHeight="1">
@@ -42037,7 +42072,7 @@
         <v>2024</v>
       </c>
       <c r="K776" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="777" spans="1:11" ht="14.25" customHeight="1">
@@ -42072,7 +42107,7 @@
         <v>2024</v>
       </c>
       <c r="K777" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="778" spans="1:11" ht="14.25" customHeight="1">
@@ -42107,7 +42142,7 @@
         <v>2024</v>
       </c>
       <c r="K778" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="779" spans="1:11" ht="14.25" customHeight="1">
@@ -42142,7 +42177,7 @@
         <v>2024</v>
       </c>
       <c r="K779" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="780" spans="1:11" ht="14.25" customHeight="1">
@@ -42177,7 +42212,7 @@
         <v>2024</v>
       </c>
       <c r="K780" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="781" spans="1:11" ht="14.25" customHeight="1">
@@ -42212,7 +42247,7 @@
         <v>2024</v>
       </c>
       <c r="K781" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="782" spans="1:11" ht="14.25" customHeight="1">
@@ -42247,7 +42282,7 @@
         <v>2024</v>
       </c>
       <c r="K782" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="783" spans="1:11" ht="14.25" customHeight="1">
@@ -42282,7 +42317,7 @@
         <v>2024</v>
       </c>
       <c r="K783" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="784" spans="1:11" ht="14.25" customHeight="1">
@@ -42317,7 +42352,7 @@
         <v>2024</v>
       </c>
       <c r="K784" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="785" spans="1:11" ht="14.25" customHeight="1">
@@ -42352,7 +42387,7 @@
         <v>2024</v>
       </c>
       <c r="K785" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="786" spans="1:11" ht="14.25" customHeight="1">
@@ -42387,7 +42422,7 @@
         <v>2024</v>
       </c>
       <c r="K786" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="787" spans="1:11" ht="14.25" customHeight="1">
@@ -42422,7 +42457,7 @@
         <v>2024</v>
       </c>
       <c r="K787" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="788" spans="1:11" ht="14.25" customHeight="1">
@@ -42457,7 +42492,7 @@
         <v>2024</v>
       </c>
       <c r="K788" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="789" spans="1:11" ht="14.25" customHeight="1">
@@ -42492,7 +42527,7 @@
         <v>2024</v>
       </c>
       <c r="K789" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="790" spans="1:11" ht="14.25" customHeight="1">
@@ -42527,7 +42562,7 @@
         <v>2024</v>
       </c>
       <c r="K790" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="791" spans="1:11" ht="14.25" customHeight="1">
@@ -42562,7 +42597,7 @@
         <v>2024</v>
       </c>
       <c r="K791" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="792" spans="1:11" ht="14.25" customHeight="1">
@@ -42597,7 +42632,7 @@
         <v>2024</v>
       </c>
       <c r="K792" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="793" spans="1:11" ht="14.25" customHeight="1">
@@ -42632,7 +42667,7 @@
         <v>2024</v>
       </c>
       <c r="K793" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="794" spans="1:11" ht="14.25" customHeight="1">
@@ -42667,7 +42702,7 @@
         <v>2024</v>
       </c>
       <c r="K794" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="795" spans="1:11" ht="14.25" customHeight="1">
@@ -42702,7 +42737,7 @@
         <v>2024</v>
       </c>
       <c r="K795" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="796" spans="1:11" ht="14.25" customHeight="1">
@@ -42737,7 +42772,7 @@
         <v>2024</v>
       </c>
       <c r="K796" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="797" spans="1:11" ht="14.25" customHeight="1">
@@ -42772,7 +42807,7 @@
         <v>2024</v>
       </c>
       <c r="K797" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="798" spans="1:11" ht="14.25" customHeight="1">
@@ -42807,7 +42842,7 @@
         <v>2024</v>
       </c>
       <c r="K798" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="799" spans="1:11" ht="14.25" customHeight="1">
@@ -42842,7 +42877,7 @@
         <v>2024</v>
       </c>
       <c r="K799" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="800" spans="1:11" ht="14.25" customHeight="1">
@@ -42877,7 +42912,7 @@
         <v>2024</v>
       </c>
       <c r="K800" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="801" spans="1:11" ht="14.25" customHeight="1">
@@ -42912,7 +42947,7 @@
         <v>2024</v>
       </c>
       <c r="K801" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="802" spans="1:11" ht="14.25" customHeight="1">
@@ -42947,7 +42982,7 @@
         <v>2024</v>
       </c>
       <c r="K802" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="803" spans="1:11" ht="14.25" customHeight="1">
@@ -42982,7 +43017,7 @@
         <v>2024</v>
       </c>
       <c r="K803" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="804" spans="1:11" ht="14.25" customHeight="1">
@@ -43017,7 +43052,7 @@
         <v>2024</v>
       </c>
       <c r="K804" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="805" spans="1:11" ht="14.25" customHeight="1">
@@ -43052,7 +43087,7 @@
         <v>2024</v>
       </c>
       <c r="K805" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="806" spans="1:11" ht="14.25" customHeight="1">
@@ -43087,7 +43122,7 @@
         <v>2024</v>
       </c>
       <c r="K806" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="807" spans="1:11" ht="14.25" customHeight="1">
@@ -43122,7 +43157,7 @@
         <v>2024</v>
       </c>
       <c r="K807" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="808" spans="1:11" ht="14.25" customHeight="1">
@@ -43157,7 +43192,7 @@
         <v>2024</v>
       </c>
       <c r="K808" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="809" spans="1:11" ht="14.25" customHeight="1">
@@ -43192,7 +43227,7 @@
         <v>2024</v>
       </c>
       <c r="K809" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="810" spans="1:11" ht="14.25" customHeight="1">
@@ -43227,7 +43262,7 @@
         <v>2024</v>
       </c>
       <c r="K810" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="811" spans="1:11" ht="14.25" customHeight="1">
@@ -43262,7 +43297,7 @@
         <v>2024</v>
       </c>
       <c r="K811" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="812" spans="1:11" ht="14.25" customHeight="1">
@@ -43297,7 +43332,7 @@
         <v>2024</v>
       </c>
       <c r="K812" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="813" spans="1:11" ht="14.25" customHeight="1">
@@ -43332,7 +43367,7 @@
         <v>2024</v>
       </c>
       <c r="K813" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="814" spans="1:11" ht="14.25" customHeight="1">
@@ -43367,7 +43402,7 @@
         <v>2024</v>
       </c>
       <c r="K814" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="815" spans="1:11" ht="14.25" customHeight="1">
@@ -43402,7 +43437,7 @@
         <v>2024</v>
       </c>
       <c r="K815" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="816" spans="1:11" ht="14.25" customHeight="1">
@@ -43437,7 +43472,7 @@
         <v>2024</v>
       </c>
       <c r="K816" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="817" spans="1:11" ht="14.25" customHeight="1">
@@ -43472,7 +43507,7 @@
         <v>2024</v>
       </c>
       <c r="K817" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="818" spans="1:11" ht="14.25" customHeight="1">
@@ -43507,7 +43542,7 @@
         <v>2024</v>
       </c>
       <c r="K818" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="819" spans="1:11" ht="14.25" customHeight="1">
@@ -43542,7 +43577,7 @@
         <v>2024</v>
       </c>
       <c r="K819" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="820" spans="1:11" ht="14.25" customHeight="1">
@@ -43577,7 +43612,7 @@
         <v>2024</v>
       </c>
       <c r="K820" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="821" spans="1:11" ht="14.25" customHeight="1">
@@ -43612,7 +43647,7 @@
         <v>2024</v>
       </c>
       <c r="K821" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="822" spans="1:11" ht="14.25" customHeight="1">
@@ -43647,7 +43682,7 @@
         <v>2024</v>
       </c>
       <c r="K822" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="823" spans="1:11" ht="14.25" customHeight="1">
@@ -43682,7 +43717,7 @@
         <v>2024</v>
       </c>
       <c r="K823" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="824" spans="1:11" ht="14.25" customHeight="1">
@@ -43717,7 +43752,7 @@
         <v>2024</v>
       </c>
       <c r="K824" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="825" spans="1:11" ht="14.25" customHeight="1">
@@ -43752,7 +43787,7 @@
         <v>2024</v>
       </c>
       <c r="K825" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="826" spans="1:11" ht="14.25" customHeight="1">
@@ -43787,7 +43822,7 @@
         <v>2024</v>
       </c>
       <c r="K826" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="827" spans="1:11" ht="14.25" customHeight="1">
@@ -43822,7 +43857,7 @@
         <v>2024</v>
       </c>
       <c r="K827" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="828" spans="1:11" ht="14.25" customHeight="1">
@@ -43857,7 +43892,7 @@
         <v>2024</v>
       </c>
       <c r="K828" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="829" spans="1:11" ht="14.25" customHeight="1">
@@ -43892,7 +43927,7 @@
         <v>2024</v>
       </c>
       <c r="K829" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="830" spans="1:11" ht="14.25" customHeight="1">
@@ -43927,7 +43962,7 @@
         <v>2024</v>
       </c>
       <c r="K830" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="831" spans="1:11" ht="14.25" customHeight="1">
@@ -43962,7 +43997,7 @@
         <v>2024</v>
       </c>
       <c r="K831" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="832" spans="1:11" ht="14.25" customHeight="1">
@@ -43997,7 +44032,7 @@
         <v>2024</v>
       </c>
       <c r="K832" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="833" spans="1:11" ht="14.25" customHeight="1">
@@ -44032,7 +44067,7 @@
         <v>2024</v>
       </c>
       <c r="K833" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="834" spans="1:11" ht="14.25" customHeight="1">
@@ -44067,7 +44102,7 @@
         <v>2024</v>
       </c>
       <c r="K834" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="835" spans="1:11" ht="14.25" customHeight="1">
@@ -44102,7 +44137,7 @@
         <v>2024</v>
       </c>
       <c r="K835" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="836" spans="1:11" ht="14.25" customHeight="1">
@@ -44137,7 +44172,7 @@
         <v>2024</v>
       </c>
       <c r="K836" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="837" spans="1:11" ht="14.25" customHeight="1">
@@ -44172,7 +44207,7 @@
         <v>2024</v>
       </c>
       <c r="K837" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="838" spans="1:11" ht="14.25" customHeight="1">
@@ -44207,7 +44242,7 @@
         <v>2024</v>
       </c>
       <c r="K838" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="839" spans="1:11" ht="14.25" customHeight="1">
@@ -44242,7 +44277,7 @@
         <v>2024</v>
       </c>
       <c r="K839" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="840" spans="1:11" ht="14.25" customHeight="1">
@@ -44277,7 +44312,7 @@
         <v>2024</v>
       </c>
       <c r="K840" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="841" spans="1:11" ht="14.25" customHeight="1">
@@ -44312,7 +44347,7 @@
         <v>2024</v>
       </c>
       <c r="K841" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="842" spans="1:11" ht="14.25" customHeight="1">
@@ -44347,7 +44382,7 @@
         <v>2024</v>
       </c>
       <c r="K842" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="843" spans="1:11" ht="14.25" customHeight="1">
@@ -44382,7 +44417,7 @@
         <v>2024</v>
       </c>
       <c r="K843" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="844" spans="1:11" ht="14.25" customHeight="1">
@@ -44417,7 +44452,7 @@
         <v>2024</v>
       </c>
       <c r="K844" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="845" spans="1:11" ht="14.25" customHeight="1">
@@ -44452,7 +44487,7 @@
         <v>2024</v>
       </c>
       <c r="K845" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="846" spans="1:11" ht="14.25" customHeight="1">
@@ -44487,7 +44522,7 @@
         <v>2024</v>
       </c>
       <c r="K846" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="847" spans="1:11" ht="14.25" customHeight="1">
@@ -44522,7 +44557,7 @@
         <v>2024</v>
       </c>
       <c r="K847" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="848" spans="1:11" ht="14.25" customHeight="1">
@@ -44557,7 +44592,7 @@
         <v>2024</v>
       </c>
       <c r="K848" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="849" spans="1:11" ht="14.25" customHeight="1">
@@ -44592,7 +44627,7 @@
         <v>2024</v>
       </c>
       <c r="K849" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="850" spans="1:11" ht="14.25" customHeight="1">
@@ -44627,7 +44662,7 @@
         <v>2024</v>
       </c>
       <c r="K850" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="851" spans="1:11" ht="14.25" customHeight="1">
@@ -44662,7 +44697,7 @@
         <v>2024</v>
       </c>
       <c r="K851" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="852" spans="1:11" ht="14.25" customHeight="1">
@@ -44697,7 +44732,7 @@
         <v>2024</v>
       </c>
       <c r="K852" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="853" spans="1:11" ht="14.25" customHeight="1">
@@ -44732,7 +44767,7 @@
         <v>2024</v>
       </c>
       <c r="K853" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="854" spans="1:11" ht="14.25" customHeight="1">
@@ -44767,7 +44802,7 @@
         <v>2024</v>
       </c>
       <c r="K854" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="855" spans="1:11" ht="14.25" customHeight="1">
@@ -44802,7 +44837,7 @@
         <v>2024</v>
       </c>
       <c r="K855" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="856" spans="1:11" ht="14.25" customHeight="1">
@@ -44837,7 +44872,7 @@
         <v>2024</v>
       </c>
       <c r="K856" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="857" spans="1:11" ht="14.25" customHeight="1">
@@ -44872,7 +44907,7 @@
         <v>2024</v>
       </c>
       <c r="K857" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="858" spans="1:11" ht="14.25" customHeight="1">
@@ -44907,7 +44942,7 @@
         <v>2024</v>
       </c>
       <c r="K858" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="859" spans="1:11" ht="14.25" customHeight="1">
@@ -44942,7 +44977,7 @@
         <v>2024</v>
       </c>
       <c r="K859" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="860" spans="1:11" ht="14.25" customHeight="1">
@@ -44977,7 +45012,7 @@
         <v>2024</v>
       </c>
       <c r="K860" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="861" spans="1:11" ht="14.25" customHeight="1">
@@ -45012,7 +45047,7 @@
         <v>2024</v>
       </c>
       <c r="K861" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="862" spans="1:11" ht="14.25" customHeight="1">
@@ -45047,7 +45082,7 @@
         <v>2024</v>
       </c>
       <c r="K862" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="863" spans="1:11" ht="14.25" customHeight="1">
@@ -45082,7 +45117,7 @@
         <v>2024</v>
       </c>
       <c r="K863" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="864" spans="1:11" ht="14.25" customHeight="1">
@@ -45117,7 +45152,7 @@
         <v>2024</v>
       </c>
       <c r="K864" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="865" spans="1:11" ht="14.25" customHeight="1">
@@ -45152,7 +45187,7 @@
         <v>2024</v>
       </c>
       <c r="K865" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="866" spans="1:11" ht="14.25" customHeight="1">
@@ -45187,7 +45222,7 @@
         <v>2024</v>
       </c>
       <c r="K866" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="867" spans="1:11" ht="14.25" customHeight="1">
@@ -45222,7 +45257,7 @@
         <v>2024</v>
       </c>
       <c r="K867" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="868" spans="1:11" ht="14.25" customHeight="1">
@@ -45257,7 +45292,7 @@
         <v>2024</v>
       </c>
       <c r="K868" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="869" spans="1:11" ht="14.25" customHeight="1">
@@ -45292,7 +45327,7 @@
         <v>2024</v>
       </c>
       <c r="K869" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="870" spans="1:11" ht="14.25" customHeight="1">
@@ -45327,7 +45362,7 @@
         <v>2024</v>
       </c>
       <c r="K870" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="871" spans="1:11" ht="14.25" customHeight="1">
@@ -45362,7 +45397,7 @@
         <v>2024</v>
       </c>
       <c r="K871" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="872" spans="1:11" ht="14.25" customHeight="1">
@@ -45397,7 +45432,7 @@
         <v>2024</v>
       </c>
       <c r="K872" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="873" spans="1:11" ht="14.25" customHeight="1">
@@ -45432,7 +45467,7 @@
         <v>2024</v>
       </c>
       <c r="K873" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="874" spans="1:11" ht="14.25" customHeight="1">
@@ -45467,7 +45502,7 @@
         <v>2024</v>
       </c>
       <c r="K874" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="875" spans="1:11" ht="14.25" customHeight="1">
@@ -45502,7 +45537,7 @@
         <v>2024</v>
       </c>
       <c r="K875" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="876" spans="1:11" ht="14.25" customHeight="1">
@@ -45537,7 +45572,7 @@
         <v>2024</v>
       </c>
       <c r="K876" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="877" spans="1:11" ht="14.25" customHeight="1">
@@ -45572,7 +45607,7 @@
         <v>2024</v>
       </c>
       <c r="K877" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="878" spans="1:11" ht="14.25" customHeight="1">
@@ -45607,7 +45642,7 @@
         <v>2024</v>
       </c>
       <c r="K878" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="879" spans="1:11" ht="14.25" customHeight="1">
@@ -45642,7 +45677,7 @@
         <v>2024</v>
       </c>
       <c r="K879" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="880" spans="1:11" ht="14.25" customHeight="1">
@@ -45677,7 +45712,7 @@
         <v>2024</v>
       </c>
       <c r="K880" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="881" spans="1:11" ht="14.25" customHeight="1">
@@ -45712,7 +45747,7 @@
         <v>2024</v>
       </c>
       <c r="K881" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="882" spans="1:11" ht="14.25" customHeight="1">
@@ -45747,7 +45782,7 @@
         <v>2024</v>
       </c>
       <c r="K882" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="883" spans="1:11" ht="14.25" customHeight="1">
@@ -45782,7 +45817,7 @@
         <v>2024</v>
       </c>
       <c r="K883" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="884" spans="1:11" ht="14.25" customHeight="1">
@@ -45817,7 +45852,7 @@
         <v>2024</v>
       </c>
       <c r="K884" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="885" spans="1:11" ht="14.25" customHeight="1">
@@ -45852,7 +45887,7 @@
         <v>2024</v>
       </c>
       <c r="K885" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="886" spans="1:11" ht="14.25" customHeight="1">
@@ -45887,7 +45922,7 @@
         <v>2024</v>
       </c>
       <c r="K886" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="887" spans="1:11" ht="14.25" customHeight="1">
@@ -45922,7 +45957,7 @@
         <v>2024</v>
       </c>
       <c r="K887" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="888" spans="1:11" ht="14.25" customHeight="1">
@@ -45957,7 +45992,7 @@
         <v>2024</v>
       </c>
       <c r="K888" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="889" spans="1:11" ht="14.25" customHeight="1">
@@ -45992,7 +46027,7 @@
         <v>2024</v>
       </c>
       <c r="K889" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="890" spans="1:11" ht="14.25" customHeight="1">
@@ -46027,7 +46062,7 @@
         <v>2024</v>
       </c>
       <c r="K890" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="891" spans="1:11" ht="14.25" customHeight="1">
@@ -46062,7 +46097,7 @@
         <v>2024</v>
       </c>
       <c r="K891" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="892" spans="1:11" ht="14.25" customHeight="1">
@@ -46097,7 +46132,7 @@
         <v>2024</v>
       </c>
       <c r="K892" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="893" spans="1:11" ht="14.25" customHeight="1">
@@ -46132,7 +46167,7 @@
         <v>2024</v>
       </c>
       <c r="K893" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="894" spans="1:11" ht="14.25" customHeight="1">
@@ -46167,7 +46202,7 @@
         <v>2024</v>
       </c>
       <c r="K894" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="895" spans="1:11" ht="14.25" customHeight="1">
@@ -46202,7 +46237,7 @@
         <v>2024</v>
       </c>
       <c r="K895" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="896" spans="1:11" ht="14.25" customHeight="1">
@@ -46237,7 +46272,7 @@
         <v>2024</v>
       </c>
       <c r="K896" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="897" spans="1:11" ht="14.25" customHeight="1">
@@ -46272,7 +46307,7 @@
         <v>2024</v>
       </c>
       <c r="K897" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="898" spans="1:11" ht="14.25" customHeight="1">
@@ -46307,7 +46342,7 @@
         <v>2024</v>
       </c>
       <c r="K898" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="899" spans="1:11" ht="14.25" customHeight="1">
@@ -46342,7 +46377,7 @@
         <v>2024</v>
       </c>
       <c r="K899" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="900" spans="1:11" ht="14.25" customHeight="1">
@@ -46377,7 +46412,7 @@
         <v>2024</v>
       </c>
       <c r="K900" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="901" spans="1:11" ht="14.25" customHeight="1">
@@ -46412,7 +46447,7 @@
         <v>2024</v>
       </c>
       <c r="K901" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="902" spans="1:11" ht="14.25" customHeight="1">
@@ -46447,7 +46482,7 @@
         <v>2024</v>
       </c>
       <c r="K902" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="903" spans="1:11" ht="14.25" customHeight="1">
@@ -46482,7 +46517,7 @@
         <v>2024</v>
       </c>
       <c r="K903" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="904" spans="1:11" ht="14.25" customHeight="1">
@@ -46517,7 +46552,7 @@
         <v>2024</v>
       </c>
       <c r="K904" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="905" spans="1:11" ht="14.25" customHeight="1">
@@ -46552,7 +46587,7 @@
         <v>2024</v>
       </c>
       <c r="K905" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="906" spans="1:11" ht="14.25" customHeight="1">
@@ -46587,7 +46622,7 @@
         <v>2024</v>
       </c>
       <c r="K906" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="907" spans="1:11" ht="14.25" customHeight="1">
@@ -46622,7 +46657,7 @@
         <v>2024</v>
       </c>
       <c r="K907" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="908" spans="1:11" ht="14.25" customHeight="1">
@@ -46657,7 +46692,7 @@
         <v>2024</v>
       </c>
       <c r="K908" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="909" spans="1:11" ht="14.25" customHeight="1">
@@ -46692,7 +46727,7 @@
         <v>2024</v>
       </c>
       <c r="K909" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="910" spans="1:11" ht="14.25" customHeight="1">
@@ -46727,7 +46762,7 @@
         <v>2024</v>
       </c>
       <c r="K910" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="911" spans="1:11" ht="14.25" customHeight="1">
@@ -46762,7 +46797,7 @@
         <v>2024</v>
       </c>
       <c r="K911" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="912" spans="1:11" ht="14.25" customHeight="1">
@@ -46797,7 +46832,7 @@
         <v>2024</v>
       </c>
       <c r="K912" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="913" spans="1:11" ht="14.25" customHeight="1">
@@ -46832,7 +46867,7 @@
         <v>2024</v>
       </c>
       <c r="K913" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="914" spans="1:11" ht="14.25" customHeight="1">
@@ -46867,7 +46902,7 @@
         <v>2024</v>
       </c>
       <c r="K914" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="915" spans="1:11" ht="14.25" customHeight="1">
@@ -46902,7 +46937,7 @@
         <v>2024</v>
       </c>
       <c r="K915" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="916" spans="1:11" ht="14.25" customHeight="1">
@@ -46937,7 +46972,7 @@
         <v>2024</v>
       </c>
       <c r="K916" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="917" spans="1:11" ht="14.25" customHeight="1">
@@ -46972,7 +47007,7 @@
         <v>2024</v>
       </c>
       <c r="K917" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="918" spans="1:11" ht="14.25" customHeight="1">
@@ -47007,7 +47042,7 @@
         <v>2024</v>
       </c>
       <c r="K918" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="919" spans="1:11" ht="14.25" customHeight="1">
@@ -47042,7 +47077,7 @@
         <v>2024</v>
       </c>
       <c r="K919" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="920" spans="1:11" ht="14.25" customHeight="1">
@@ -47077,7 +47112,7 @@
         <v>2024</v>
       </c>
       <c r="K920" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="921" spans="1:11" ht="14.25" customHeight="1">
@@ -47112,7 +47147,7 @@
         <v>2024</v>
       </c>
       <c r="K921" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="922" spans="1:11" ht="14.25" customHeight="1">
@@ -47147,7 +47182,7 @@
         <v>2024</v>
       </c>
       <c r="K922" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="923" spans="1:11" ht="14.25" customHeight="1">
@@ -47182,7 +47217,7 @@
         <v>2024</v>
       </c>
       <c r="K923" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="924" spans="1:11" ht="14.25" customHeight="1">
@@ -47217,7 +47252,7 @@
         <v>2024</v>
       </c>
       <c r="K924" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="925" spans="1:11" ht="14.25" customHeight="1">
@@ -47252,7 +47287,7 @@
         <v>2024</v>
       </c>
       <c r="K925" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="926" spans="1:11" ht="14.25" customHeight="1">
@@ -47287,7 +47322,7 @@
         <v>2024</v>
       </c>
       <c r="K926" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="927" spans="1:11" ht="14.25" customHeight="1">
@@ -47322,7 +47357,7 @@
         <v>2024</v>
       </c>
       <c r="K927" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="928" spans="1:11" ht="15" customHeight="1">
@@ -47330,10 +47365,10 @@
         <v>1001</v>
       </c>
       <c r="B928" t="s">
+        <v>809</v>
+      </c>
+      <c r="C928" t="s">
         <v>810</v>
-      </c>
-      <c r="C928" t="s">
-        <v>811</v>
       </c>
       <c r="D928" s="8">
         <f>(3*(E928+F928+G928+H928)+I928)*5/13</f>
@@ -47370,10 +47405,10 @@
         <v>1001</v>
       </c>
       <c r="B929" t="s">
+        <v>774</v>
+      </c>
+      <c r="C929" t="s">
         <v>775</v>
-      </c>
-      <c r="C929" t="s">
-        <v>776</v>
       </c>
       <c r="D929" s="8">
         <f t="shared" ref="D929:D992" si="0">(3*(E929+F929+G929+H929)+I929)*5/13</f>
@@ -47410,10 +47445,10 @@
         <v>1001</v>
       </c>
       <c r="B930" t="s">
+        <v>801</v>
+      </c>
+      <c r="C930" t="s">
         <v>802</v>
-      </c>
-      <c r="C930" t="s">
-        <v>803</v>
       </c>
       <c r="D930" s="8">
         <f t="shared" si="0"/>
@@ -47450,10 +47485,10 @@
         <v>1001</v>
       </c>
       <c r="B931" t="s">
+        <v>768</v>
+      </c>
+      <c r="C931" t="s">
         <v>769</v>
-      </c>
-      <c r="C931" t="s">
-        <v>770</v>
       </c>
       <c r="D931" s="8">
         <f t="shared" si="0"/>
@@ -47490,10 +47525,10 @@
         <v>1001</v>
       </c>
       <c r="B932" t="s">
+        <v>766</v>
+      </c>
+      <c r="C932" t="s">
         <v>767</v>
-      </c>
-      <c r="C932" t="s">
-        <v>768</v>
       </c>
       <c r="D932" s="8">
         <f t="shared" si="0"/>
@@ -47530,10 +47565,10 @@
         <v>1001</v>
       </c>
       <c r="B933" t="s">
+        <v>760</v>
+      </c>
+      <c r="C933" t="s">
         <v>761</v>
-      </c>
-      <c r="C933" t="s">
-        <v>762</v>
       </c>
       <c r="D933" s="8">
         <f t="shared" si="0"/>
@@ -47570,10 +47605,10 @@
         <v>1001</v>
       </c>
       <c r="B934" t="s">
+        <v>827</v>
+      </c>
+      <c r="C934" t="s">
         <v>828</v>
-      </c>
-      <c r="C934" t="s">
-        <v>829</v>
       </c>
       <c r="D934" s="8">
         <f t="shared" si="0"/>
@@ -47610,10 +47645,10 @@
         <v>1001</v>
       </c>
       <c r="B935" t="s">
+        <v>821</v>
+      </c>
+      <c r="C935" t="s">
         <v>822</v>
-      </c>
-      <c r="C935" t="s">
-        <v>823</v>
       </c>
       <c r="D935" s="8">
         <f t="shared" si="0"/>
@@ -47650,10 +47685,10 @@
         <v>1001</v>
       </c>
       <c r="B936" t="s">
+        <v>782</v>
+      </c>
+      <c r="C936" t="s">
         <v>783</v>
-      </c>
-      <c r="C936" t="s">
-        <v>784</v>
       </c>
       <c r="D936" s="8">
         <f t="shared" si="0"/>
@@ -47690,10 +47725,10 @@
         <v>1001</v>
       </c>
       <c r="B937" t="s">
+        <v>762</v>
+      </c>
+      <c r="C937" t="s">
         <v>763</v>
-      </c>
-      <c r="C937" t="s">
-        <v>764</v>
       </c>
       <c r="D937" s="8">
         <f t="shared" si="0"/>
@@ -47730,10 +47765,10 @@
         <v>1001</v>
       </c>
       <c r="B938" t="s">
+        <v>772</v>
+      </c>
+      <c r="C938" t="s">
         <v>773</v>
-      </c>
-      <c r="C938" t="s">
-        <v>774</v>
       </c>
       <c r="D938" s="8">
         <f t="shared" si="0"/>
@@ -47770,10 +47805,10 @@
         <v>1001</v>
       </c>
       <c r="B939" t="s">
+        <v>776</v>
+      </c>
+      <c r="C939" t="s">
         <v>777</v>
-      </c>
-      <c r="C939" t="s">
-        <v>778</v>
       </c>
       <c r="D939" s="8">
         <f t="shared" si="0"/>
@@ -47810,10 +47845,10 @@
         <v>1001</v>
       </c>
       <c r="B940" t="s">
+        <v>796</v>
+      </c>
+      <c r="C940" t="s">
         <v>797</v>
-      </c>
-      <c r="C940" t="s">
-        <v>798</v>
       </c>
       <c r="D940" s="8">
         <f t="shared" si="0"/>
@@ -47890,10 +47925,10 @@
         <v>1001</v>
       </c>
       <c r="B942" t="s">
+        <v>813</v>
+      </c>
+      <c r="C942" t="s">
         <v>814</v>
-      </c>
-      <c r="C942" t="s">
-        <v>815</v>
       </c>
       <c r="D942" s="8">
         <f t="shared" si="0"/>
@@ -47930,10 +47965,10 @@
         <v>1001</v>
       </c>
       <c r="B943" t="s">
+        <v>778</v>
+      </c>
+      <c r="C943" t="s">
         <v>779</v>
-      </c>
-      <c r="C943" t="s">
-        <v>780</v>
       </c>
       <c r="D943" s="8">
         <f t="shared" si="0"/>
@@ -47970,10 +48005,10 @@
         <v>1001</v>
       </c>
       <c r="B944" t="s">
+        <v>770</v>
+      </c>
+      <c r="C944" t="s">
         <v>771</v>
-      </c>
-      <c r="C944" t="s">
-        <v>772</v>
       </c>
       <c r="D944" s="8">
         <f t="shared" si="0"/>
@@ -48010,10 +48045,10 @@
         <v>1001</v>
       </c>
       <c r="B945" t="s">
+        <v>786</v>
+      </c>
+      <c r="C945" t="s">
         <v>787</v>
-      </c>
-      <c r="C945" t="s">
-        <v>788</v>
       </c>
       <c r="D945" s="8">
         <f t="shared" si="0"/>
@@ -48050,10 +48085,10 @@
         <v>1001</v>
       </c>
       <c r="B946" t="s">
+        <v>803</v>
+      </c>
+      <c r="C946" t="s">
         <v>804</v>
-      </c>
-      <c r="C946" t="s">
-        <v>805</v>
       </c>
       <c r="D946" s="8">
         <f t="shared" si="0"/>
@@ -48090,10 +48125,10 @@
         <v>1001</v>
       </c>
       <c r="B947" t="s">
+        <v>811</v>
+      </c>
+      <c r="C947" t="s">
         <v>812</v>
-      </c>
-      <c r="C947" t="s">
-        <v>813</v>
       </c>
       <c r="D947" s="8">
         <f t="shared" si="0"/>
@@ -48130,10 +48165,10 @@
         <v>1001</v>
       </c>
       <c r="B948" t="s">
+        <v>788</v>
+      </c>
+      <c r="C948" t="s">
         <v>789</v>
-      </c>
-      <c r="C948" t="s">
-        <v>790</v>
       </c>
       <c r="D948" s="8">
         <f t="shared" si="0"/>
@@ -48173,7 +48208,7 @@
         <v>603</v>
       </c>
       <c r="C949" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D949" s="8">
         <f t="shared" si="0"/>
@@ -48210,10 +48245,10 @@
         <v>1001</v>
       </c>
       <c r="B950" t="s">
+        <v>825</v>
+      </c>
+      <c r="C950" t="s">
         <v>826</v>
-      </c>
-      <c r="C950" t="s">
-        <v>827</v>
       </c>
       <c r="D950" s="8">
         <f t="shared" si="0"/>
@@ -48250,10 +48285,10 @@
         <v>1001</v>
       </c>
       <c r="B951" t="s">
+        <v>831</v>
+      </c>
+      <c r="C951" t="s">
         <v>832</v>
-      </c>
-      <c r="C951" t="s">
-        <v>833</v>
       </c>
       <c r="D951" s="8">
         <f t="shared" si="0"/>
@@ -48290,10 +48325,10 @@
         <v>1001</v>
       </c>
       <c r="B952" t="s">
+        <v>807</v>
+      </c>
+      <c r="C952" t="s">
         <v>808</v>
-      </c>
-      <c r="C952" t="s">
-        <v>809</v>
       </c>
       <c r="D952" s="8">
         <f t="shared" si="0"/>
@@ -48370,10 +48405,10 @@
         <v>1001</v>
       </c>
       <c r="B954" t="s">
+        <v>829</v>
+      </c>
+      <c r="C954" t="s">
         <v>830</v>
-      </c>
-      <c r="C954" t="s">
-        <v>831</v>
       </c>
       <c r="D954" s="8">
         <f t="shared" si="0"/>
@@ -48410,10 +48445,10 @@
         <v>1001</v>
       </c>
       <c r="B955" t="s">
+        <v>756</v>
+      </c>
+      <c r="C955" t="s">
         <v>757</v>
-      </c>
-      <c r="C955" t="s">
-        <v>758</v>
       </c>
       <c r="D955" s="8">
         <f t="shared" si="0"/>
@@ -48450,10 +48485,10 @@
         <v>1001</v>
       </c>
       <c r="B956" t="s">
+        <v>764</v>
+      </c>
+      <c r="C956" t="s">
         <v>765</v>
-      </c>
-      <c r="C956" t="s">
-        <v>766</v>
       </c>
       <c r="D956" s="8">
         <f t="shared" si="0"/>
@@ -48490,10 +48525,10 @@
         <v>1001</v>
       </c>
       <c r="B957" t="s">
+        <v>758</v>
+      </c>
+      <c r="C957" t="s">
         <v>759</v>
-      </c>
-      <c r="C957" t="s">
-        <v>760</v>
       </c>
       <c r="D957" s="8">
         <f t="shared" si="0"/>
@@ -48530,10 +48565,10 @@
         <v>1001</v>
       </c>
       <c r="B958" t="s">
+        <v>817</v>
+      </c>
+      <c r="C958" t="s">
         <v>818</v>
-      </c>
-      <c r="C958" t="s">
-        <v>819</v>
       </c>
       <c r="D958" s="8">
         <f t="shared" si="0"/>
@@ -48570,10 +48605,10 @@
         <v>1001</v>
       </c>
       <c r="B959" t="s">
+        <v>754</v>
+      </c>
+      <c r="C959" t="s">
         <v>755</v>
-      </c>
-      <c r="C959" t="s">
-        <v>756</v>
       </c>
       <c r="D959" s="8">
         <f t="shared" si="0"/>
@@ -48610,10 +48645,10 @@
         <v>1001</v>
       </c>
       <c r="B960" t="s">
+        <v>805</v>
+      </c>
+      <c r="C960" t="s">
         <v>806</v>
-      </c>
-      <c r="C960" t="s">
-        <v>807</v>
       </c>
       <c r="D960" s="8">
         <f t="shared" si="0"/>
@@ -48650,10 +48685,10 @@
         <v>1001</v>
       </c>
       <c r="B961" t="s">
+        <v>780</v>
+      </c>
+      <c r="C961" t="s">
         <v>781</v>
-      </c>
-      <c r="C961" t="s">
-        <v>782</v>
       </c>
       <c r="D961" s="8">
         <f t="shared" si="0"/>
@@ -48690,10 +48725,10 @@
         <v>1001</v>
       </c>
       <c r="B962" t="s">
+        <v>790</v>
+      </c>
+      <c r="C962" t="s">
         <v>791</v>
-      </c>
-      <c r="C962" t="s">
-        <v>792</v>
       </c>
       <c r="D962" s="8">
         <f t="shared" si="0"/>
@@ -48730,10 +48765,10 @@
         <v>1001</v>
       </c>
       <c r="B963" t="s">
+        <v>784</v>
+      </c>
+      <c r="C963" t="s">
         <v>785</v>
-      </c>
-      <c r="C963" t="s">
-        <v>786</v>
       </c>
       <c r="D963" s="8">
         <f t="shared" si="0"/>
@@ -48773,7 +48808,7 @@
         <v>640</v>
       </c>
       <c r="C964" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D964" s="8">
         <f t="shared" si="0"/>
@@ -48810,10 +48845,10 @@
         <v>1001</v>
       </c>
       <c r="B965" t="s">
+        <v>794</v>
+      </c>
+      <c r="C965" t="s">
         <v>795</v>
-      </c>
-      <c r="C965" t="s">
-        <v>796</v>
       </c>
       <c r="D965" s="8">
         <f t="shared" si="0"/>
@@ -48850,10 +48885,10 @@
         <v>1001</v>
       </c>
       <c r="B966" t="s">
+        <v>819</v>
+      </c>
+      <c r="C966" t="s">
         <v>820</v>
-      </c>
-      <c r="C966" t="s">
-        <v>821</v>
       </c>
       <c r="D966" s="8">
         <f t="shared" si="0"/>
@@ -48930,10 +48965,10 @@
         <v>1001</v>
       </c>
       <c r="B968" t="s">
+        <v>798</v>
+      </c>
+      <c r="C968" t="s">
         <v>799</v>
-      </c>
-      <c r="C968" t="s">
-        <v>800</v>
       </c>
       <c r="D968" s="8">
         <f t="shared" si="0"/>
@@ -48970,10 +49005,10 @@
         <v>1001</v>
       </c>
       <c r="B969" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C969" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D969" s="8">
         <f t="shared" si="0"/>
@@ -49010,10 +49045,10 @@
         <v>1001</v>
       </c>
       <c r="B970" t="s">
+        <v>823</v>
+      </c>
+      <c r="C970" t="s">
         <v>824</v>
-      </c>
-      <c r="C970" t="s">
-        <v>825</v>
       </c>
       <c r="D970" s="8">
         <f t="shared" si="0"/>
@@ -49050,10 +49085,10 @@
         <v>1001</v>
       </c>
       <c r="B971" t="s">
+        <v>792</v>
+      </c>
+      <c r="C971" t="s">
         <v>793</v>
-      </c>
-      <c r="C971" t="s">
-        <v>794</v>
       </c>
       <c r="D971" s="8">
         <f t="shared" si="0"/>
@@ -49090,10 +49125,10 @@
         <v>1002</v>
       </c>
       <c r="B972" t="s">
+        <v>833</v>
+      </c>
+      <c r="C972" t="s">
         <v>834</v>
-      </c>
-      <c r="C972" t="s">
-        <v>835</v>
       </c>
       <c r="D972" s="8">
         <f t="shared" si="0"/>
@@ -49130,10 +49165,10 @@
         <v>1002</v>
       </c>
       <c r="B973" t="s">
+        <v>837</v>
+      </c>
+      <c r="C973" t="s">
         <v>838</v>
-      </c>
-      <c r="C973" t="s">
-        <v>839</v>
       </c>
       <c r="D973" s="8">
         <f t="shared" si="0"/>
@@ -49170,10 +49205,10 @@
         <v>1002</v>
       </c>
       <c r="B974" t="s">
+        <v>835</v>
+      </c>
+      <c r="C974" t="s">
         <v>836</v>
-      </c>
-      <c r="C974" t="s">
-        <v>837</v>
       </c>
       <c r="D974" s="8">
         <f t="shared" si="0"/>
@@ -49210,10 +49245,10 @@
         <v>1002</v>
       </c>
       <c r="B975" t="s">
+        <v>875</v>
+      </c>
+      <c r="C975" t="s">
         <v>876</v>
-      </c>
-      <c r="C975" t="s">
-        <v>877</v>
       </c>
       <c r="D975" s="8">
         <f t="shared" si="0"/>
@@ -49250,10 +49285,10 @@
         <v>1002</v>
       </c>
       <c r="B976" t="s">
+        <v>849</v>
+      </c>
+      <c r="C976" t="s">
         <v>850</v>
-      </c>
-      <c r="C976" t="s">
-        <v>851</v>
       </c>
       <c r="D976" s="8">
         <f t="shared" si="0"/>
@@ -49290,10 +49325,10 @@
         <v>1002</v>
       </c>
       <c r="B977" t="s">
+        <v>873</v>
+      </c>
+      <c r="C977" t="s">
         <v>874</v>
-      </c>
-      <c r="C977" t="s">
-        <v>875</v>
       </c>
       <c r="D977" s="8">
         <f t="shared" si="0"/>
@@ -49330,10 +49365,10 @@
         <v>1002</v>
       </c>
       <c r="B978" t="s">
+        <v>877</v>
+      </c>
+      <c r="C978" t="s">
         <v>878</v>
-      </c>
-      <c r="C978" t="s">
-        <v>879</v>
       </c>
       <c r="D978" s="8">
         <f t="shared" si="0"/>
@@ -49370,10 +49405,10 @@
         <v>1002</v>
       </c>
       <c r="B979" t="s">
+        <v>863</v>
+      </c>
+      <c r="C979" t="s">
         <v>864</v>
-      </c>
-      <c r="C979" t="s">
-        <v>865</v>
       </c>
       <c r="D979" s="8">
         <f t="shared" si="0"/>
@@ -49410,10 +49445,10 @@
         <v>1002</v>
       </c>
       <c r="B980" t="s">
+        <v>853</v>
+      </c>
+      <c r="C980" t="s">
         <v>854</v>
-      </c>
-      <c r="C980" t="s">
-        <v>855</v>
       </c>
       <c r="D980" s="8">
         <f t="shared" si="0"/>
@@ -49450,10 +49485,10 @@
         <v>1002</v>
       </c>
       <c r="B981" t="s">
+        <v>841</v>
+      </c>
+      <c r="C981" t="s">
         <v>842</v>
-      </c>
-      <c r="C981" t="s">
-        <v>843</v>
       </c>
       <c r="D981" s="8">
         <f t="shared" si="0"/>
@@ -49490,10 +49525,10 @@
         <v>1002</v>
       </c>
       <c r="B982" t="s">
+        <v>871</v>
+      </c>
+      <c r="C982" t="s">
         <v>872</v>
-      </c>
-      <c r="C982" t="s">
-        <v>873</v>
       </c>
       <c r="D982" s="8">
         <f t="shared" si="0"/>
@@ -49530,10 +49565,10 @@
         <v>1002</v>
       </c>
       <c r="B983" t="s">
+        <v>867</v>
+      </c>
+      <c r="C983" t="s">
         <v>868</v>
-      </c>
-      <c r="C983" t="s">
-        <v>869</v>
       </c>
       <c r="D983" s="8">
         <f t="shared" si="0"/>
@@ -49570,10 +49605,10 @@
         <v>1002</v>
       </c>
       <c r="B984" t="s">
+        <v>897</v>
+      </c>
+      <c r="C984" t="s">
         <v>898</v>
-      </c>
-      <c r="C984" t="s">
-        <v>899</v>
       </c>
       <c r="D984" s="8">
         <f t="shared" si="0"/>
@@ -49610,10 +49645,10 @@
         <v>1002</v>
       </c>
       <c r="B985" t="s">
+        <v>893</v>
+      </c>
+      <c r="C985" t="s">
         <v>894</v>
-      </c>
-      <c r="C985" t="s">
-        <v>895</v>
       </c>
       <c r="D985" s="8" t="e">
         <f t="shared" si="0"/>
@@ -49650,10 +49685,10 @@
         <v>1002</v>
       </c>
       <c r="B986" t="s">
+        <v>857</v>
+      </c>
+      <c r="C986" t="s">
         <v>858</v>
-      </c>
-      <c r="C986" t="s">
-        <v>859</v>
       </c>
       <c r="D986" s="8">
         <f t="shared" si="0"/>
@@ -49690,10 +49725,10 @@
         <v>1002</v>
       </c>
       <c r="B987" t="s">
+        <v>891</v>
+      </c>
+      <c r="C987" t="s">
         <v>892</v>
-      </c>
-      <c r="C987" t="s">
-        <v>893</v>
       </c>
       <c r="D987" s="8">
         <f t="shared" si="0"/>
@@ -49730,10 +49765,10 @@
         <v>1002</v>
       </c>
       <c r="B988" t="s">
+        <v>881</v>
+      </c>
+      <c r="C988" t="s">
         <v>882</v>
-      </c>
-      <c r="C988" t="s">
-        <v>883</v>
       </c>
       <c r="D988" s="8">
         <f t="shared" si="0"/>
@@ -49770,10 +49805,10 @@
         <v>1002</v>
       </c>
       <c r="B989" t="s">
+        <v>887</v>
+      </c>
+      <c r="C989" t="s">
         <v>888</v>
-      </c>
-      <c r="C989" t="s">
-        <v>889</v>
       </c>
       <c r="D989" s="8" t="e">
         <f t="shared" si="0"/>
@@ -49810,10 +49845,10 @@
         <v>1002</v>
       </c>
       <c r="B990" t="s">
+        <v>883</v>
+      </c>
+      <c r="C990" t="s">
         <v>884</v>
-      </c>
-      <c r="C990" t="s">
-        <v>885</v>
       </c>
       <c r="D990" s="8">
         <f t="shared" si="0"/>
@@ -49850,10 +49885,10 @@
         <v>1002</v>
       </c>
       <c r="B991" t="s">
+        <v>851</v>
+      </c>
+      <c r="C991" t="s">
         <v>852</v>
-      </c>
-      <c r="C991" t="s">
-        <v>853</v>
       </c>
       <c r="D991" s="8">
         <f t="shared" si="0"/>
@@ -49890,10 +49925,10 @@
         <v>1002</v>
       </c>
       <c r="B992" t="s">
+        <v>855</v>
+      </c>
+      <c r="C992" t="s">
         <v>856</v>
-      </c>
-      <c r="C992" t="s">
-        <v>857</v>
       </c>
       <c r="D992" s="8">
         <f t="shared" si="0"/>
@@ -49930,10 +49965,10 @@
         <v>1002</v>
       </c>
       <c r="B993" t="s">
+        <v>869</v>
+      </c>
+      <c r="C993" t="s">
         <v>870</v>
-      </c>
-      <c r="C993" t="s">
-        <v>871</v>
       </c>
       <c r="D993" s="8" t="e">
         <f t="shared" ref="D993:D1056" si="1">(3*(E993+F993+G993+H993)+I993)*5/13</f>
@@ -49970,10 +50005,10 @@
         <v>1002</v>
       </c>
       <c r="B994" t="s">
+        <v>865</v>
+      </c>
+      <c r="C994" t="s">
         <v>866</v>
-      </c>
-      <c r="C994" t="s">
-        <v>867</v>
       </c>
       <c r="D994" s="8">
         <f t="shared" si="1"/>
@@ -50010,10 +50045,10 @@
         <v>1002</v>
       </c>
       <c r="B995" t="s">
+        <v>861</v>
+      </c>
+      <c r="C995" t="s">
         <v>862</v>
-      </c>
-      <c r="C995" t="s">
-        <v>863</v>
       </c>
       <c r="D995" s="8">
         <f t="shared" si="1"/>
@@ -50050,10 +50085,10 @@
         <v>1002</v>
       </c>
       <c r="B996" t="s">
+        <v>843</v>
+      </c>
+      <c r="C996" t="s">
         <v>844</v>
-      </c>
-      <c r="C996" t="s">
-        <v>845</v>
       </c>
       <c r="D996" s="8">
         <f t="shared" si="1"/>
@@ -50090,10 +50125,10 @@
         <v>1002</v>
       </c>
       <c r="B997" t="s">
+        <v>889</v>
+      </c>
+      <c r="C997" t="s">
         <v>890</v>
-      </c>
-      <c r="C997" t="s">
-        <v>891</v>
       </c>
       <c r="D997" s="8">
         <f t="shared" si="1"/>
@@ -50130,10 +50165,10 @@
         <v>1002</v>
       </c>
       <c r="B998" t="s">
+        <v>847</v>
+      </c>
+      <c r="C998" t="s">
         <v>848</v>
-      </c>
-      <c r="C998" t="s">
-        <v>849</v>
       </c>
       <c r="D998" s="8">
         <f t="shared" si="1"/>
@@ -50170,10 +50205,10 @@
         <v>1002</v>
       </c>
       <c r="B999" t="s">
+        <v>879</v>
+      </c>
+      <c r="C999" t="s">
         <v>880</v>
-      </c>
-      <c r="C999" t="s">
-        <v>881</v>
       </c>
       <c r="D999" s="8">
         <f t="shared" si="1"/>
@@ -50210,10 +50245,10 @@
         <v>1002</v>
       </c>
       <c r="B1000" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1000" t="s">
         <v>896</v>
-      </c>
-      <c r="C1000" t="s">
-        <v>897</v>
       </c>
       <c r="D1000" s="8">
         <f t="shared" si="1"/>
@@ -50250,10 +50285,10 @@
         <v>1002</v>
       </c>
       <c r="B1001" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1001" t="s">
         <v>846</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>847</v>
       </c>
       <c r="D1001" s="8">
         <f t="shared" si="1"/>
@@ -50290,10 +50325,10 @@
         <v>1002</v>
       </c>
       <c r="B1002" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1002" t="s">
         <v>860</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>861</v>
       </c>
       <c r="D1002" s="8">
         <f t="shared" si="1"/>
@@ -50330,10 +50365,10 @@
         <v>1002</v>
       </c>
       <c r="B1003" t="s">
+        <v>885</v>
+      </c>
+      <c r="C1003" t="s">
         <v>886</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>887</v>
       </c>
       <c r="D1003" s="8" t="e">
         <f t="shared" si="1"/>
@@ -50370,10 +50405,10 @@
         <v>1002</v>
       </c>
       <c r="B1004" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1004" t="s">
         <v>840</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>841</v>
       </c>
       <c r="D1004" s="8">
         <f t="shared" si="1"/>
@@ -50410,10 +50445,10 @@
         <v>1003</v>
       </c>
       <c r="B1005" t="s">
+        <v>913</v>
+      </c>
+      <c r="C1005" t="s">
         <v>914</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>915</v>
       </c>
       <c r="D1005" s="8">
         <f t="shared" si="1"/>
@@ -50450,10 +50485,10 @@
         <v>1003</v>
       </c>
       <c r="B1006" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1006" t="s">
         <v>900</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>901</v>
       </c>
       <c r="D1006" s="8">
         <f t="shared" si="1"/>
@@ -50490,10 +50525,10 @@
         <v>1003</v>
       </c>
       <c r="B1007" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1007" t="s">
         <v>930</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>931</v>
       </c>
       <c r="D1007" s="8">
         <f t="shared" si="1"/>
@@ -50530,10 +50565,10 @@
         <v>1003</v>
       </c>
       <c r="B1008" t="s">
+        <v>927</v>
+      </c>
+      <c r="C1008" t="s">
         <v>928</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>929</v>
       </c>
       <c r="D1008" s="8">
         <f t="shared" si="1"/>
@@ -50570,10 +50605,10 @@
         <v>1003</v>
       </c>
       <c r="B1009" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1009" t="s">
         <v>910</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>911</v>
       </c>
       <c r="D1009" s="8">
         <f t="shared" si="1"/>
@@ -50610,10 +50645,10 @@
         <v>1003</v>
       </c>
       <c r="B1010" t="s">
+        <v>955</v>
+      </c>
+      <c r="C1010" t="s">
         <v>956</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>957</v>
       </c>
       <c r="D1010" s="8">
         <f t="shared" si="1"/>
@@ -50650,10 +50685,10 @@
         <v>1003</v>
       </c>
       <c r="B1011" t="s">
+        <v>923</v>
+      </c>
+      <c r="C1011" t="s">
         <v>924</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>925</v>
       </c>
       <c r="D1011" s="8">
         <f t="shared" si="1"/>
@@ -50690,10 +50725,10 @@
         <v>1003</v>
       </c>
       <c r="B1012" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1012" t="s">
         <v>920</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>921</v>
       </c>
       <c r="D1012" s="8">
         <f t="shared" si="1"/>
@@ -50730,10 +50765,10 @@
         <v>1003</v>
       </c>
       <c r="B1013" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1013" t="s">
         <v>908</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>909</v>
       </c>
       <c r="D1013" s="8">
         <f t="shared" si="1"/>
@@ -50770,10 +50805,10 @@
         <v>1003</v>
       </c>
       <c r="B1014" t="s">
+        <v>905</v>
+      </c>
+      <c r="C1014" t="s">
         <v>906</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>907</v>
       </c>
       <c r="D1014" s="8">
         <f t="shared" si="1"/>
@@ -50810,10 +50845,10 @@
         <v>1003</v>
       </c>
       <c r="B1015" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1015" t="s">
         <v>932</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>933</v>
       </c>
       <c r="D1015" s="8">
         <f t="shared" si="1"/>
@@ -50850,10 +50885,10 @@
         <v>1003</v>
       </c>
       <c r="B1016" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1016" t="s">
         <v>922</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>923</v>
       </c>
       <c r="D1016" s="8">
         <f t="shared" si="1"/>
@@ -50890,10 +50925,10 @@
         <v>1003</v>
       </c>
       <c r="B1017" t="s">
+        <v>947</v>
+      </c>
+      <c r="C1017" t="s">
         <v>948</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>949</v>
       </c>
       <c r="D1017" s="8">
         <f t="shared" si="1"/>
@@ -50930,10 +50965,10 @@
         <v>1003</v>
       </c>
       <c r="B1018" t="s">
+        <v>957</v>
+      </c>
+      <c r="C1018" t="s">
         <v>958</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>959</v>
       </c>
       <c r="D1018" s="8">
         <f t="shared" si="1"/>
@@ -50970,10 +51005,10 @@
         <v>1003</v>
       </c>
       <c r="B1019" t="s">
+        <v>917</v>
+      </c>
+      <c r="C1019" t="s">
         <v>918</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>919</v>
       </c>
       <c r="D1019" s="8">
         <f t="shared" si="1"/>
@@ -51010,10 +51045,10 @@
         <v>1003</v>
       </c>
       <c r="B1020" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1020" t="s">
         <v>936</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>937</v>
       </c>
       <c r="D1020" s="8">
         <f t="shared" si="1"/>
@@ -51050,10 +51085,10 @@
         <v>1003</v>
       </c>
       <c r="B1021" t="s">
+        <v>939</v>
+      </c>
+      <c r="C1021" t="s">
         <v>940</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>941</v>
       </c>
       <c r="D1021" s="8">
         <f t="shared" si="1"/>
@@ -51090,10 +51125,10 @@
         <v>1003</v>
       </c>
       <c r="B1022" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1022" t="s">
         <v>954</v>
-      </c>
-      <c r="C1022" t="s">
-        <v>955</v>
       </c>
       <c r="D1022" s="8">
         <f t="shared" si="1"/>
@@ -51130,10 +51165,10 @@
         <v>1003</v>
       </c>
       <c r="B1023" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1023" t="s">
         <v>950</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>951</v>
       </c>
       <c r="D1023" s="8">
         <f t="shared" si="1"/>
@@ -51170,10 +51205,10 @@
         <v>1003</v>
       </c>
       <c r="B1024" t="s">
+        <v>951</v>
+      </c>
+      <c r="C1024" t="s">
         <v>952</v>
-      </c>
-      <c r="C1024" t="s">
-        <v>953</v>
       </c>
       <c r="D1024" s="8">
         <f t="shared" si="1"/>
@@ -51210,10 +51245,10 @@
         <v>1003</v>
       </c>
       <c r="B1025" t="s">
+        <v>925</v>
+      </c>
+      <c r="C1025" t="s">
         <v>926</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>927</v>
       </c>
       <c r="D1025" s="8">
         <f t="shared" si="1"/>
@@ -51250,10 +51285,10 @@
         <v>1003</v>
       </c>
       <c r="B1026" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1026" t="s">
         <v>904</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>905</v>
       </c>
       <c r="D1026" s="8">
         <f t="shared" si="1"/>
@@ -51290,10 +51325,10 @@
         <v>1003</v>
       </c>
       <c r="B1027" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1027" t="s">
         <v>938</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>939</v>
       </c>
       <c r="D1027" s="8">
         <f t="shared" si="1"/>
@@ -51330,10 +51365,10 @@
         <v>1003</v>
       </c>
       <c r="B1028" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1028" t="s">
         <v>902</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>903</v>
       </c>
       <c r="D1028" s="8">
         <f t="shared" si="1"/>
@@ -51370,10 +51405,10 @@
         <v>1003</v>
       </c>
       <c r="B1029" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1029" t="s">
         <v>934</v>
-      </c>
-      <c r="C1029" t="s">
-        <v>935</v>
       </c>
       <c r="D1029" s="8">
         <f t="shared" si="1"/>
@@ -51410,10 +51445,10 @@
         <v>1003</v>
       </c>
       <c r="B1030" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1030" t="s">
         <v>942</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>943</v>
       </c>
       <c r="D1030" s="8">
         <f t="shared" si="1"/>
@@ -51450,10 +51485,10 @@
         <v>1003</v>
       </c>
       <c r="B1031" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1031" t="s">
         <v>946</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>947</v>
       </c>
       <c r="D1031" s="8">
         <f t="shared" si="1"/>
@@ -51490,10 +51525,10 @@
         <v>1003</v>
       </c>
       <c r="B1032" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1032" t="s">
         <v>944</v>
-      </c>
-      <c r="C1032" t="s">
-        <v>945</v>
       </c>
       <c r="D1032" s="8">
         <f t="shared" si="1"/>
@@ -51530,10 +51565,10 @@
         <v>1003</v>
       </c>
       <c r="B1033" t="s">
+        <v>911</v>
+      </c>
+      <c r="C1033" t="s">
         <v>912</v>
-      </c>
-      <c r="C1033" t="s">
-        <v>913</v>
       </c>
       <c r="D1033" s="8">
         <f t="shared" si="1"/>
@@ -51570,10 +51605,10 @@
         <v>1003</v>
       </c>
       <c r="B1034" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1034" t="s">
         <v>916</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>917</v>
       </c>
       <c r="D1034" s="8">
         <f t="shared" si="1"/>
@@ -51610,10 +51645,10 @@
         <v>1004</v>
       </c>
       <c r="B1035" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1035" t="s">
         <v>960</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>961</v>
       </c>
       <c r="D1035" s="8">
         <f t="shared" si="1"/>
@@ -51650,10 +51685,10 @@
         <v>1004</v>
       </c>
       <c r="B1036" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1036" t="s">
         <v>997</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>998</v>
       </c>
       <c r="D1036" s="8">
         <f t="shared" si="1"/>
@@ -51690,10 +51725,10 @@
         <v>1004</v>
       </c>
       <c r="B1037" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1037" t="s">
         <v>1007</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>1008</v>
       </c>
       <c r="D1037" s="8">
         <f t="shared" si="1"/>
@@ -51730,10 +51765,10 @@
         <v>1004</v>
       </c>
       <c r="B1038" t="s">
+        <v>961</v>
+      </c>
+      <c r="C1038" t="s">
         <v>962</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>963</v>
       </c>
       <c r="D1038" s="8">
         <f t="shared" si="1"/>
@@ -51770,10 +51805,10 @@
         <v>1004</v>
       </c>
       <c r="B1039" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1039" t="s">
         <v>1015</v>
-      </c>
-      <c r="C1039" t="s">
-        <v>1016</v>
       </c>
       <c r="D1039" s="8">
         <f t="shared" si="1"/>
@@ -51810,10 +51845,10 @@
         <v>1004</v>
       </c>
       <c r="B1040" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1040" t="s">
         <v>966</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>967</v>
       </c>
       <c r="D1040" s="8">
         <f t="shared" si="1"/>
@@ -51850,10 +51885,10 @@
         <v>1004</v>
       </c>
       <c r="B1041" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1041" t="s">
         <v>1013</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1014</v>
       </c>
       <c r="D1041" s="8">
         <f t="shared" si="1"/>
@@ -51890,10 +51925,10 @@
         <v>1004</v>
       </c>
       <c r="B1042" t="s">
+        <v>982</v>
+      </c>
+      <c r="C1042" t="s">
         <v>983</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>984</v>
       </c>
       <c r="D1042" s="8">
         <f t="shared" si="1"/>
@@ -51930,10 +51965,10 @@
         <v>1004</v>
       </c>
       <c r="B1043" t="s">
+        <v>988</v>
+      </c>
+      <c r="C1043" t="s">
         <v>989</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>990</v>
       </c>
       <c r="D1043" s="8">
         <f t="shared" si="1"/>
@@ -51970,10 +52005,10 @@
         <v>1004</v>
       </c>
       <c r="B1044" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1044" t="s">
         <v>991</v>
-      </c>
-      <c r="C1044" t="s">
-        <v>992</v>
       </c>
       <c r="D1044" s="8">
         <f t="shared" si="1"/>
@@ -52013,7 +52048,7 @@
         <v>534</v>
       </c>
       <c r="C1045" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D1045" s="8">
         <f t="shared" si="1"/>
@@ -52050,10 +52085,10 @@
         <v>1004</v>
       </c>
       <c r="B1046" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1046" t="s">
         <v>1009</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>1010</v>
       </c>
       <c r="D1046" s="8">
         <f t="shared" si="1"/>
@@ -52090,10 +52125,10 @@
         <v>1004</v>
       </c>
       <c r="B1047" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1047" t="s">
         <v>980</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>981</v>
       </c>
       <c r="D1047" s="8">
         <f t="shared" si="1"/>
@@ -52130,10 +52165,10 @@
         <v>1004</v>
       </c>
       <c r="B1048" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1048" t="s">
         <v>964</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>965</v>
       </c>
       <c r="D1048" s="8">
         <f t="shared" si="1"/>
@@ -52170,10 +52205,10 @@
         <v>1004</v>
       </c>
       <c r="B1049" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1049" t="s">
         <v>1011</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>1012</v>
       </c>
       <c r="D1049" s="8" t="e">
         <f t="shared" si="1"/>
@@ -52210,10 +52245,10 @@
         <v>1004</v>
       </c>
       <c r="B1050" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1050" t="s">
         <v>1003</v>
-      </c>
-      <c r="C1050" t="s">
-        <v>1004</v>
       </c>
       <c r="D1050" s="8">
         <f t="shared" si="1"/>
@@ -52250,10 +52285,10 @@
         <v>1004</v>
       </c>
       <c r="B1051" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1051" t="s">
         <v>974</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>975</v>
       </c>
       <c r="D1051" s="8">
         <f t="shared" si="1"/>
@@ -52290,10 +52325,10 @@
         <v>1004</v>
       </c>
       <c r="B1052" t="s">
+        <v>994</v>
+      </c>
+      <c r="C1052" t="s">
         <v>995</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>996</v>
       </c>
       <c r="D1052" s="8">
         <f t="shared" si="1"/>
@@ -52330,10 +52365,10 @@
         <v>1004</v>
       </c>
       <c r="B1053" t="s">
+        <v>969</v>
+      </c>
+      <c r="C1053" t="s">
         <v>970</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>971</v>
       </c>
       <c r="D1053" s="8">
         <f t="shared" si="1"/>
@@ -52370,10 +52405,10 @@
         <v>1004</v>
       </c>
       <c r="B1054" t="s">
+        <v>986</v>
+      </c>
+      <c r="C1054" t="s">
         <v>987</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>988</v>
       </c>
       <c r="D1054" s="8">
         <f t="shared" si="1"/>
@@ -52410,10 +52445,10 @@
         <v>1004</v>
       </c>
       <c r="B1055" t="s">
+        <v>971</v>
+      </c>
+      <c r="C1055" t="s">
         <v>972</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>973</v>
       </c>
       <c r="D1055" s="8">
         <f t="shared" si="1"/>
@@ -52450,10 +52485,10 @@
         <v>1004</v>
       </c>
       <c r="B1056" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1056" t="s">
         <v>978</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>979</v>
       </c>
       <c r="D1056" s="8">
         <f t="shared" si="1"/>
@@ -52490,10 +52525,10 @@
         <v>1004</v>
       </c>
       <c r="B1057" t="s">
+        <v>992</v>
+      </c>
+      <c r="C1057" t="s">
         <v>993</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>994</v>
       </c>
       <c r="D1057" s="8">
         <f t="shared" ref="D1057:D1064" si="2">(3*(E1057+F1057+G1057+H1057)+I1057)*5/13</f>
@@ -52530,10 +52565,10 @@
         <v>1004</v>
       </c>
       <c r="B1058" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1058" t="s">
         <v>999</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>1000</v>
       </c>
       <c r="D1058" s="8">
         <f t="shared" si="2"/>
@@ -52570,10 +52605,10 @@
         <v>1004</v>
       </c>
       <c r="B1059" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1059" t="s">
         <v>1005</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>1006</v>
       </c>
       <c r="D1059" s="8">
         <f t="shared" si="2"/>
@@ -52610,10 +52645,10 @@
         <v>1004</v>
       </c>
       <c r="B1060" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1060" t="s">
         <v>1001</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>1002</v>
       </c>
       <c r="D1060" s="8">
         <f t="shared" si="2"/>
@@ -52650,10 +52685,10 @@
         <v>1004</v>
       </c>
       <c r="B1061" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1061" t="s">
         <v>976</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>977</v>
       </c>
       <c r="D1061" s="8">
         <f t="shared" si="2"/>
@@ -52690,10 +52725,10 @@
         <v>1004</v>
       </c>
       <c r="B1062" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1062" t="s">
         <v>985</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>986</v>
       </c>
       <c r="D1062" s="8">
         <f t="shared" si="2"/>
@@ -52730,10 +52765,10 @@
         <v>1004</v>
       </c>
       <c r="B1063" t="s">
+        <v>967</v>
+      </c>
+      <c r="C1063" t="s">
         <v>968</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>969</v>
       </c>
       <c r="D1063" s="8">
         <f t="shared" si="2"/>
@@ -52770,10 +52805,10 @@
         <v>1004</v>
       </c>
       <c r="B1064" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1064" t="s">
         <v>1017</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>1018</v>
       </c>
       <c r="D1064" s="8">
         <f t="shared" si="2"/>
@@ -52950,10 +52985,10 @@
         <v>409</v>
       </c>
       <c r="B1069" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1069" t="s">
         <v>1019</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>1020</v>
       </c>
       <c r="D1069">
         <v>231</v>
@@ -53020,10 +53055,10 @@
         <v>409</v>
       </c>
       <c r="B1071" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1071" t="s">
         <v>1021</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>1022</v>
       </c>
       <c r="D1071">
         <v>200</v>
@@ -53093,7 +53128,7 @@
         <v>729</v>
       </c>
       <c r="C1073" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D1073">
         <v>217</v>
@@ -53160,10 +53195,10 @@
         <v>409</v>
       </c>
       <c r="B1075" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1075" t="s">
         <v>733</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>734</v>
       </c>
       <c r="D1075">
         <v>253</v>
@@ -53475,10 +53510,10 @@
         <v>409</v>
       </c>
       <c r="B1084" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1084" t="s">
         <v>737</v>
-      </c>
-      <c r="C1084" t="s">
-        <v>738</v>
       </c>
       <c r="D1084">
         <v>197</v>
@@ -53545,10 +53580,10 @@
         <v>409</v>
       </c>
       <c r="B1086" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1086" t="s">
         <v>747</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>748</v>
       </c>
       <c r="D1086">
         <v>200</v>
@@ -53615,10 +53650,10 @@
         <v>409</v>
       </c>
       <c r="B1088" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1088" t="s">
         <v>741</v>
-      </c>
-      <c r="C1088" t="s">
-        <v>742</v>
       </c>
       <c r="D1088">
         <v>155</v>
@@ -53860,10 +53895,10 @@
         <v>409</v>
       </c>
       <c r="B1095" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1095" t="s">
         <v>1024</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>1025</v>
       </c>
       <c r="D1095">
         <v>211</v>
@@ -53930,10 +53965,10 @@
         <v>409</v>
       </c>
       <c r="B1097" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1097" t="s">
         <v>735</v>
-      </c>
-      <c r="C1097" t="s">
-        <v>736</v>
       </c>
       <c r="D1097">
         <v>202</v>
@@ -53965,10 +54000,10 @@
         <v>409</v>
       </c>
       <c r="B1098" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1098" t="s">
         <v>739</v>
-      </c>
-      <c r="C1098" t="s">
-        <v>740</v>
       </c>
       <c r="D1098">
         <v>221</v>
@@ -54490,10 +54525,10 @@
         <v>411</v>
       </c>
       <c r="B1113" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1113" t="s">
         <v>1026</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>1027</v>
       </c>
       <c r="D1113">
         <v>160</v>
@@ -55330,10 +55365,10 @@
         <v>411</v>
       </c>
       <c r="B1137" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1137" t="s">
         <v>1028</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>1029</v>
       </c>
       <c r="D1137">
         <v>233</v>
@@ -55820,10 +55855,10 @@
         <v>412</v>
       </c>
       <c r="B1151" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1151" t="s">
         <v>1030</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>1031</v>
       </c>
       <c r="D1151">
         <v>298</v>
@@ -56628,7 +56663,7 @@
         <v>719</v>
       </c>
       <c r="C1174" t="s">
-        <v>1032</v>
+        <v>720</v>
       </c>
       <c r="D1174">
         <v>178</v>
@@ -56838,7 +56873,7 @@
         <v>723</v>
       </c>
       <c r="C1180" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D1180">
         <v>230</v>
@@ -57150,10 +57185,10 @@
         <v>413</v>
       </c>
       <c r="B1189" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1189" t="s">
         <v>743</v>
-      </c>
-      <c r="C1189" t="s">
-        <v>744</v>
       </c>
       <c r="D1189">
         <v>216</v>
@@ -57643,7 +57678,7 @@
         <v>24</v>
       </c>
       <c r="C1203" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D1203">
         <v>14</v>
@@ -57877,7 +57912,7 @@
         <v>2025</v>
       </c>
       <c r="K1209" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1210" spans="1:11" ht="15" customHeight="1">
@@ -57912,7 +57947,7 @@
         <v>2025</v>
       </c>
       <c r="K1210" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1211" spans="1:11" ht="15" customHeight="1">
@@ -57947,7 +57982,7 @@
         <v>2025</v>
       </c>
       <c r="K1211" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1212" spans="1:11" ht="15" customHeight="1">
@@ -57955,7 +57990,7 @@
         <v>413</v>
       </c>
       <c r="B1212" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C1212" t="s">
         <v>615</v>
@@ -57982,7 +58017,7 @@
         <v>2025</v>
       </c>
       <c r="K1212" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1213" spans="1:11" ht="15" customHeight="1">
@@ -58017,7 +58052,7 @@
         <v>2025</v>
       </c>
       <c r="K1213" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1214" spans="1:11" ht="15" customHeight="1">
@@ -58052,7 +58087,7 @@
         <v>2025</v>
       </c>
       <c r="K1214" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1215" spans="1:11" ht="15" customHeight="1">
@@ -58060,10 +58095,10 @@
         <v>413</v>
       </c>
       <c r="B1215" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C1215" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D1215">
         <v>321.60000000000002</v>
@@ -58087,7 +58122,7 @@
         <v>2025</v>
       </c>
       <c r="K1215" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1216" spans="1:11" ht="15" customHeight="1">
@@ -58122,7 +58157,7 @@
         <v>2025</v>
       </c>
       <c r="K1216" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1217" spans="1:11" ht="15" customHeight="1">
@@ -58157,7 +58192,7 @@
         <v>2025</v>
       </c>
       <c r="K1217" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1218" spans="1:11" ht="15" customHeight="1">
@@ -58192,7 +58227,7 @@
         <v>2025</v>
       </c>
       <c r="K1218" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1219" spans="1:11" ht="15" customHeight="1">
@@ -58227,7 +58262,7 @@
         <v>2025</v>
       </c>
       <c r="K1219" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1220" spans="1:11" ht="15" customHeight="1">
@@ -58262,7 +58297,7 @@
         <v>2025</v>
       </c>
       <c r="K1220" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1221" spans="1:11" ht="15" customHeight="1">
@@ -58297,7 +58332,7 @@
         <v>2025</v>
       </c>
       <c r="K1221" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1222" spans="1:11" ht="15" customHeight="1">
@@ -58332,7 +58367,7 @@
         <v>2025</v>
       </c>
       <c r="K1222" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1223" spans="1:11" ht="15" customHeight="1">
@@ -58367,7 +58402,7 @@
         <v>2025</v>
       </c>
       <c r="K1223" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1224" spans="1:11" ht="15" customHeight="1">
@@ -58402,7 +58437,7 @@
         <v>2025</v>
       </c>
       <c r="K1224" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1225" spans="1:11" ht="15" customHeight="1">
@@ -58437,7 +58472,7 @@
         <v>2025</v>
       </c>
       <c r="K1225" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1226" spans="1:11" ht="15" customHeight="1">
@@ -58472,7 +58507,7 @@
         <v>2025</v>
       </c>
       <c r="K1226" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1227" spans="1:11" ht="15" customHeight="1">
@@ -58483,7 +58518,7 @@
         <v>723</v>
       </c>
       <c r="C1227" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D1227">
         <v>274.8</v>
@@ -58507,7 +58542,7 @@
         <v>2025</v>
       </c>
       <c r="K1227" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1228" spans="1:11" ht="15" customHeight="1">
@@ -58542,7 +58577,7 @@
         <v>2025</v>
       </c>
       <c r="K1228" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1229" spans="1:11" ht="15" customHeight="1">
@@ -58577,7 +58612,7 @@
         <v>2025</v>
       </c>
       <c r="K1229" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1230" spans="1:11" ht="15" customHeight="1">
@@ -58612,7 +58647,7 @@
         <v>2025</v>
       </c>
       <c r="K1230" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1231" spans="1:11" ht="15" customHeight="1">
@@ -58647,7 +58682,7 @@
         <v>2025</v>
       </c>
       <c r="K1231" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1232" spans="1:11" ht="15" customHeight="1">
@@ -58682,7 +58717,7 @@
         <v>2025</v>
       </c>
       <c r="K1232" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1233" spans="1:11" ht="15" customHeight="1">
@@ -58717,7 +58752,7 @@
         <v>2025</v>
       </c>
       <c r="K1233" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1234" spans="1:11" ht="15" customHeight="1">
@@ -58752,7 +58787,7 @@
         <v>2025</v>
       </c>
       <c r="K1234" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1235" spans="1:11" ht="15" customHeight="1">
@@ -58787,7 +58822,7 @@
         <v>2025</v>
       </c>
       <c r="K1235" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1236" spans="1:11" ht="15" customHeight="1">
@@ -58795,10 +58830,10 @@
         <v>413</v>
       </c>
       <c r="B1236" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1236" t="s">
         <v>743</v>
-      </c>
-      <c r="C1236" t="s">
-        <v>744</v>
       </c>
       <c r="D1236">
         <v>216.2</v>
@@ -58822,7 +58857,7 @@
         <v>2025</v>
       </c>
       <c r="K1236" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1237" spans="1:11" ht="15" customHeight="1">
@@ -58857,7 +58892,7 @@
         <v>2025</v>
       </c>
       <c r="K1237" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1238" spans="1:11" ht="15" customHeight="1">
@@ -58892,7 +58927,7 @@
         <v>2025</v>
       </c>
       <c r="K1238" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1239" spans="1:11" ht="15" customHeight="1">
@@ -58927,7 +58962,7 @@
         <v>2025</v>
       </c>
       <c r="K1239" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1240" spans="1:11" ht="15" customHeight="1">
@@ -58962,7 +58997,7 @@
         <v>2025</v>
       </c>
       <c r="K1240" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1241" spans="1:11" ht="15" customHeight="1">
@@ -58997,7 +59032,7 @@
         <v>2025</v>
       </c>
       <c r="K1241" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1242" spans="1:11" ht="15" customHeight="1">
@@ -59032,7 +59067,7 @@
         <v>2025</v>
       </c>
       <c r="K1242" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1243" spans="1:11" ht="15" customHeight="1">
@@ -59067,7 +59102,7 @@
         <v>2025</v>
       </c>
       <c r="K1243" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1244" spans="1:11" ht="15" customHeight="1">
@@ -59102,7 +59137,7 @@
         <v>2025</v>
       </c>
       <c r="K1244" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1245" spans="1:11" ht="15" customHeight="1">
@@ -59137,11 +59172,4981 @@
         <v>2025</v>
       </c>
       <c r="K1245" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:11" ht="15" customHeight="1">
+      <c r="A1246" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1246">
+        <v>190</v>
+      </c>
+      <c r="E1246">
+        <v>26</v>
+      </c>
+      <c r="F1246">
+        <v>48.78</v>
+      </c>
+      <c r="G1246">
+        <v>25.86</v>
+      </c>
+      <c r="H1246">
+        <v>36</v>
+      </c>
+      <c r="I1246">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1246" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:11" ht="15" customHeight="1">
+      <c r="A1247" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1247">
+        <v>181</v>
+      </c>
+      <c r="E1247">
+        <v>26</v>
+      </c>
+      <c r="F1247">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1247">
+        <v>27.59</v>
+      </c>
+      <c r="H1247">
+        <v>38</v>
+      </c>
+      <c r="I1247">
+        <v>76.36</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1247" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:11" ht="15" customHeight="1">
+      <c r="A1248" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1248">
+        <v>271</v>
+      </c>
+      <c r="E1248">
+        <v>40</v>
+      </c>
+      <c r="F1248">
+        <v>73.17</v>
+      </c>
+      <c r="G1248">
+        <v>27.59</v>
+      </c>
+      <c r="H1248">
+        <v>66</v>
+      </c>
+      <c r="I1248">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1248" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:11" ht="15" customHeight="1">
+      <c r="A1249" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1249">
+        <v>252</v>
+      </c>
+      <c r="E1249">
+        <v>36</v>
+      </c>
+      <c r="F1249">
+        <v>63.41</v>
+      </c>
+      <c r="G1249">
+        <v>46.55</v>
+      </c>
+      <c r="H1249">
+        <v>52</v>
+      </c>
+      <c r="I1249">
+        <v>60</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1249" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:11" ht="15" customHeight="1">
+      <c r="A1250" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1250">
+        <v>235</v>
+      </c>
+      <c r="E1250">
+        <v>34</v>
+      </c>
+      <c r="F1250">
+        <v>58.54</v>
+      </c>
+      <c r="G1250">
+        <v>44.83</v>
+      </c>
+      <c r="H1250">
+        <v>48</v>
+      </c>
+      <c r="I1250">
+        <v>54.55</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1250" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:11" ht="15" customHeight="1">
+      <c r="A1251" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1251">
+        <v>211</v>
+      </c>
+      <c r="E1251">
+        <v>38</v>
+      </c>
+      <c r="F1251">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1251">
+        <v>51.72</v>
+      </c>
+      <c r="H1251">
+        <v>36</v>
+      </c>
+      <c r="I1251">
+        <v>60</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1251" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:11" ht="15" customHeight="1">
+      <c r="A1252" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1252">
+        <v>303</v>
+      </c>
+      <c r="E1252">
+        <v>42</v>
+      </c>
+      <c r="F1252">
+        <v>70.73</v>
+      </c>
+      <c r="G1252">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H1252">
+        <v>60</v>
+      </c>
+      <c r="I1252">
+        <v>67.27</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1252" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:11" ht="15" customHeight="1">
+      <c r="A1253" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1253">
+        <v>133</v>
+      </c>
+      <c r="E1253">
+        <v>8</v>
+      </c>
+      <c r="F1253">
+        <v>48.78</v>
+      </c>
+      <c r="G1253">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H1253">
+        <v>30</v>
+      </c>
+      <c r="I1253">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1253" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:11" ht="15" customHeight="1">
+      <c r="A1254" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1254" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1254">
+        <v>236</v>
+      </c>
+      <c r="E1254">
+        <v>26</v>
+      </c>
+      <c r="F1254">
+        <v>51.22</v>
+      </c>
+      <c r="G1254">
+        <v>60.34</v>
+      </c>
+      <c r="H1254">
+        <v>44</v>
+      </c>
+      <c r="I1254">
+        <v>67.27</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1254" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:11" ht="15" customHeight="1">
+      <c r="A1255" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1255">
+        <v>252</v>
+      </c>
+      <c r="E1255">
+        <v>22</v>
+      </c>
+      <c r="F1255">
+        <v>82.93</v>
+      </c>
+      <c r="G1255">
+        <v>48.28</v>
+      </c>
+      <c r="H1255">
+        <v>44</v>
+      </c>
+      <c r="I1255">
+        <v>61.82</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1255" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:11" ht="15" customHeight="1">
+      <c r="A1256" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1256">
+        <v>267</v>
+      </c>
+      <c r="E1256">
+        <v>34</v>
+      </c>
+      <c r="F1256">
+        <v>60.98</v>
+      </c>
+      <c r="G1256">
+        <v>65.52</v>
+      </c>
+      <c r="H1256">
+        <v>44</v>
+      </c>
+      <c r="I1256">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1256" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:11" ht="15" customHeight="1">
+      <c r="A1257" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1257">
+        <v>239</v>
+      </c>
+      <c r="E1257">
+        <v>36</v>
+      </c>
+      <c r="F1257">
+        <v>46.34</v>
+      </c>
+      <c r="G1257">
+        <v>53.45</v>
+      </c>
+      <c r="H1257">
+        <v>44</v>
+      </c>
+      <c r="I1257">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1257" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:11" ht="15" customHeight="1">
+      <c r="A1258" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1258">
+        <v>203</v>
+      </c>
+      <c r="E1258">
+        <v>34</v>
+      </c>
+      <c r="F1258">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1258">
+        <v>44.83</v>
+      </c>
+      <c r="H1258">
+        <v>38</v>
+      </c>
+      <c r="I1258">
+        <v>65.45</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1258" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:11" ht="15" customHeight="1">
+      <c r="A1259" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1259">
+        <v>298</v>
+      </c>
+      <c r="E1259">
+        <v>40</v>
+      </c>
+      <c r="F1259">
+        <v>78.05</v>
+      </c>
+      <c r="G1259">
+        <v>65.52</v>
+      </c>
+      <c r="H1259">
+        <v>56</v>
+      </c>
+      <c r="I1259">
+        <v>54.55</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1259" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:11" ht="15" customHeight="1">
+      <c r="A1260" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1260">
+        <v>283</v>
+      </c>
+      <c r="E1260">
+        <v>44</v>
+      </c>
+      <c r="F1260">
+        <v>60.98</v>
+      </c>
+      <c r="G1260">
+        <v>58.62</v>
+      </c>
+      <c r="H1260">
+        <v>54</v>
+      </c>
+      <c r="I1260">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1260" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:11" ht="15" customHeight="1">
+      <c r="A1261" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1261">
+        <v>259</v>
+      </c>
+      <c r="E1261">
+        <v>52</v>
+      </c>
+      <c r="F1261">
+        <v>53.66</v>
+      </c>
+      <c r="G1261">
+        <v>41.38</v>
+      </c>
+      <c r="H1261">
+        <v>50</v>
+      </c>
+      <c r="I1261">
+        <v>80</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1261" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:11" ht="15" customHeight="1">
+      <c r="A1262" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1262">
+        <v>260</v>
+      </c>
+      <c r="E1262">
+        <v>34</v>
+      </c>
+      <c r="F1262">
+        <v>60.98</v>
+      </c>
+      <c r="G1262">
+        <v>56.9</v>
+      </c>
+      <c r="H1262">
+        <v>46</v>
+      </c>
+      <c r="I1262">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1262" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:11" ht="15" customHeight="1">
+      <c r="A1263" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1263">
+        <v>211</v>
+      </c>
+      <c r="E1263">
+        <v>32</v>
+      </c>
+      <c r="F1263">
+        <v>48.78</v>
+      </c>
+      <c r="G1263">
+        <v>41.38</v>
+      </c>
+      <c r="H1263">
+        <v>46</v>
+      </c>
+      <c r="I1263">
+        <v>41.82</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1263" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:11" ht="15" customHeight="1">
+      <c r="A1264" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1264">
+        <v>243</v>
+      </c>
+      <c r="E1264">
+        <v>32</v>
+      </c>
+      <c r="F1264">
+        <v>58.54</v>
+      </c>
+      <c r="G1264">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H1264">
+        <v>70</v>
+      </c>
+      <c r="I1264">
+        <v>45.45</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1264" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:11" ht="15" customHeight="1">
+      <c r="A1265" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1265">
+        <v>223</v>
+      </c>
+      <c r="E1265">
+        <v>12</v>
+      </c>
+      <c r="F1265">
+        <v>58.54</v>
+      </c>
+      <c r="G1265">
+        <v>44.83</v>
+      </c>
+      <c r="H1265">
+        <v>56</v>
+      </c>
+      <c r="I1265">
+        <v>65.45</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1265" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:11" ht="15" customHeight="1">
+      <c r="A1266" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1266">
+        <v>260</v>
+      </c>
+      <c r="E1266">
+        <v>30</v>
+      </c>
+      <c r="F1266">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1266">
+        <v>60.34</v>
+      </c>
+      <c r="H1266">
+        <v>46</v>
+      </c>
+      <c r="I1266">
+        <v>61.82</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1266" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:11" ht="15" customHeight="1">
+      <c r="A1267" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1267">
+        <v>260</v>
+      </c>
+      <c r="E1267">
+        <v>22</v>
+      </c>
+      <c r="F1267">
+        <v>58.54</v>
+      </c>
+      <c r="G1267">
+        <v>63.79</v>
+      </c>
+      <c r="H1267">
+        <v>58</v>
+      </c>
+      <c r="I1267">
+        <v>67.27</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1267" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:11" ht="15" customHeight="1">
+      <c r="A1268" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1268">
+        <v>213</v>
+      </c>
+      <c r="E1268">
+        <v>26</v>
+      </c>
+      <c r="F1268">
+        <v>58.54</v>
+      </c>
+      <c r="G1268">
+        <v>46.55</v>
+      </c>
+      <c r="H1268">
+        <v>38</v>
+      </c>
+      <c r="I1268">
+        <v>45.45</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1268" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:11" ht="15" customHeight="1">
+      <c r="A1269" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1269">
+        <v>192</v>
+      </c>
+      <c r="E1269">
+        <v>20</v>
+      </c>
+      <c r="F1269">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1269">
+        <v>32.76</v>
+      </c>
+      <c r="H1269">
+        <v>50</v>
+      </c>
+      <c r="I1269">
+        <v>72.73</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1269" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:11" ht="15" customHeight="1">
+      <c r="A1270" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1270">
+        <v>233</v>
+      </c>
+      <c r="E1270">
+        <v>36</v>
+      </c>
+      <c r="F1270">
+        <v>56.1</v>
+      </c>
+      <c r="G1270">
+        <v>48.28</v>
+      </c>
+      <c r="H1270">
+        <v>46</v>
+      </c>
+      <c r="I1270">
+        <v>45.45</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1270" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:11" ht="15" customHeight="1">
+      <c r="A1271" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1271">
+        <v>246</v>
+      </c>
+      <c r="E1271">
+        <v>34</v>
+      </c>
+      <c r="F1271">
+        <v>53.66</v>
+      </c>
+      <c r="G1271">
+        <v>43.1</v>
+      </c>
+      <c r="H1271">
+        <v>64</v>
+      </c>
+      <c r="I1271">
+        <v>54.55</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1271" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:11" ht="15" customHeight="1">
+      <c r="A1272" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1272">
+        <v>243</v>
+      </c>
+      <c r="E1272">
+        <v>32</v>
+      </c>
+      <c r="F1272">
+        <v>63.41</v>
+      </c>
+      <c r="G1272">
+        <v>46.55</v>
+      </c>
+      <c r="H1272">
+        <v>54</v>
+      </c>
+      <c r="I1272">
+        <v>43.64</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1272" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:11" ht="15" customHeight="1">
+      <c r="A1273" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1273">
+        <v>142</v>
+      </c>
+      <c r="E1273">
+        <v>18</v>
+      </c>
+      <c r="F1273">
+        <v>43.9</v>
+      </c>
+      <c r="G1273">
+        <v>29.31</v>
+      </c>
+      <c r="H1273">
+        <v>26</v>
+      </c>
+      <c r="I1273">
+        <v>16.36</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1273" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:11" ht="15" customHeight="1">
+      <c r="A1274" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1274">
+        <v>224</v>
+      </c>
+      <c r="E1274">
+        <v>32</v>
+      </c>
+      <c r="F1274">
+        <v>56.1</v>
+      </c>
+      <c r="G1274">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1274">
+        <v>50</v>
+      </c>
+      <c r="I1274">
+        <v>49.09</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1274" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:11" ht="15" customHeight="1">
+      <c r="A1275" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1275">
+        <v>184</v>
+      </c>
+      <c r="E1275">
+        <v>24</v>
+      </c>
+      <c r="F1275">
+        <v>53.66</v>
+      </c>
+      <c r="G1275">
+        <v>43.1</v>
+      </c>
+      <c r="H1275">
+        <v>30</v>
+      </c>
+      <c r="I1275">
+        <v>25.45</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1275" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:11" ht="15" customHeight="1">
+      <c r="A1276" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1276">
+        <v>228</v>
+      </c>
+      <c r="E1276">
+        <v>40</v>
+      </c>
+      <c r="F1276">
+        <v>48.78</v>
+      </c>
+      <c r="G1276">
+        <v>46.55</v>
+      </c>
+      <c r="H1276">
+        <v>40</v>
+      </c>
+      <c r="I1276">
+        <v>65.45</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1276" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:11" ht="15" customHeight="1">
+      <c r="A1277" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1277">
+        <v>263</v>
+      </c>
+      <c r="E1277">
+        <v>48</v>
+      </c>
+      <c r="F1277">
+        <v>53.66</v>
+      </c>
+      <c r="G1277">
+        <v>51.72</v>
+      </c>
+      <c r="H1277">
+        <v>58</v>
+      </c>
+      <c r="I1277">
+        <v>49.09</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1277" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11" ht="15" customHeight="1">
+      <c r="A1278" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1278">
+        <v>253</v>
+      </c>
+      <c r="E1278">
+        <v>36</v>
+      </c>
+      <c r="F1278">
+        <v>56.1</v>
+      </c>
+      <c r="G1278">
+        <v>60.34</v>
+      </c>
+      <c r="H1278">
+        <v>40</v>
+      </c>
+      <c r="I1278">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1278" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:11" ht="15" customHeight="1">
+      <c r="A1279" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1279">
+        <v>234</v>
+      </c>
+      <c r="E1279">
+        <v>20</v>
+      </c>
+      <c r="F1279">
+        <v>63.41</v>
+      </c>
+      <c r="G1279">
+        <v>50</v>
+      </c>
+      <c r="H1279">
+        <v>42</v>
+      </c>
+      <c r="I1279">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1279" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11" ht="15" customHeight="1">
+      <c r="A1280" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1280">
+        <v>297</v>
+      </c>
+      <c r="E1280">
+        <v>40</v>
+      </c>
+      <c r="F1280">
+        <v>73.17</v>
+      </c>
+      <c r="G1280">
+        <v>62.07</v>
+      </c>
+      <c r="H1280">
+        <v>62</v>
+      </c>
+      <c r="I1280">
+        <v>60</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1280" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:11" ht="15" customHeight="1">
+      <c r="A1281" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1281">
+        <v>280</v>
+      </c>
+      <c r="E1281">
+        <v>36</v>
+      </c>
+      <c r="F1281">
+        <v>73.17</v>
+      </c>
+      <c r="G1281">
+        <v>55.17</v>
+      </c>
+      <c r="H1281">
+        <v>58</v>
+      </c>
+      <c r="I1281">
+        <v>60</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1281" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11" ht="15" customHeight="1">
+      <c r="A1282" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1282">
+        <v>280</v>
+      </c>
+      <c r="E1282">
+        <v>54</v>
+      </c>
+      <c r="F1282">
+        <v>46.34</v>
+      </c>
+      <c r="G1282">
+        <v>60.34</v>
+      </c>
+      <c r="H1282">
+        <v>56</v>
+      </c>
+      <c r="I1282">
+        <v>76.36</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1282" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11" ht="15" customHeight="1">
+      <c r="A1283" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1283">
+        <v>254</v>
+      </c>
+      <c r="E1283">
+        <v>30</v>
+      </c>
+      <c r="F1283">
+        <v>58.54</v>
+      </c>
+      <c r="G1283">
+        <v>53.45</v>
+      </c>
+      <c r="H1283">
+        <v>58</v>
+      </c>
+      <c r="I1283">
+        <v>60</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1283" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11" ht="15" customHeight="1">
+      <c r="A1284" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1284">
+        <v>234</v>
+      </c>
+      <c r="E1284">
+        <v>30</v>
+      </c>
+      <c r="F1284">
+        <v>56.1</v>
+      </c>
+      <c r="G1284">
+        <v>46.55</v>
+      </c>
+      <c r="H1284">
+        <v>52</v>
+      </c>
+      <c r="I1284">
+        <v>52.73</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1284" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:11" ht="15" customHeight="1">
+      <c r="A1285" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1285">
+        <v>279</v>
+      </c>
+      <c r="E1285">
+        <v>36</v>
+      </c>
+      <c r="F1285">
+        <v>58.54</v>
+      </c>
+      <c r="G1285">
+        <v>53.45</v>
+      </c>
+      <c r="H1285">
+        <v>70</v>
+      </c>
+      <c r="I1285">
+        <v>70.91</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1285" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11" ht="15" customHeight="1">
+      <c r="A1286" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1286">
+        <v>283</v>
+      </c>
+      <c r="E1286">
+        <v>38</v>
+      </c>
+      <c r="F1286">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1286">
+        <v>51.72</v>
+      </c>
+      <c r="H1286">
+        <v>62</v>
+      </c>
+      <c r="I1286">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1286" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11" ht="15" customHeight="1">
+      <c r="A1287" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1287">
+        <v>192</v>
+      </c>
+      <c r="E1287">
+        <v>30</v>
+      </c>
+      <c r="F1287">
+        <v>31.71</v>
+      </c>
+      <c r="G1287">
+        <v>37.93</v>
+      </c>
+      <c r="H1287">
+        <v>46</v>
+      </c>
+      <c r="I1287">
+        <v>60</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1287" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" ht="15" customHeight="1">
+      <c r="A1288" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1288">
+        <v>214</v>
+      </c>
+      <c r="E1288">
+        <v>36</v>
+      </c>
+      <c r="F1288">
+        <v>56.1</v>
+      </c>
+      <c r="G1288">
+        <v>41.38</v>
+      </c>
+      <c r="H1288">
+        <v>36</v>
+      </c>
+      <c r="I1288">
+        <v>47.27</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1288" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11" ht="15" customHeight="1">
+      <c r="A1289" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1289">
+        <v>259</v>
+      </c>
+      <c r="E1289">
+        <v>38</v>
+      </c>
+      <c r="F1289">
+        <v>70.73</v>
+      </c>
+      <c r="G1289">
+        <v>48.28</v>
+      </c>
+      <c r="H1289">
+        <v>46</v>
+      </c>
+      <c r="I1289">
+        <v>61.82</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1289" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11" ht="15" customHeight="1">
+      <c r="A1290" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1290">
+        <v>216</v>
+      </c>
+      <c r="E1290">
+        <v>38</v>
+      </c>
+      <c r="F1290">
+        <v>56.1</v>
+      </c>
+      <c r="G1290">
+        <v>41.38</v>
+      </c>
+      <c r="H1290">
+        <v>40</v>
+      </c>
+      <c r="I1290">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1290" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11" ht="15" customHeight="1">
+      <c r="A1291" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1291">
+        <v>333</v>
+      </c>
+      <c r="E1291">
+        <v>54</v>
+      </c>
+      <c r="F1291">
+        <v>82.93</v>
+      </c>
+      <c r="G1291">
+        <v>68.97</v>
+      </c>
+      <c r="H1291">
+        <v>62</v>
+      </c>
+      <c r="I1291">
+        <v>61.82</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1291" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11" ht="15" customHeight="1">
+      <c r="A1292" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1292">
+        <v>186</v>
+      </c>
+      <c r="E1292">
+        <v>42</v>
+      </c>
+      <c r="F1292">
+        <v>34.15</v>
+      </c>
+      <c r="G1292">
+        <v>32.76</v>
+      </c>
+      <c r="H1292">
+        <v>40</v>
+      </c>
+      <c r="I1292">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1292" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11" ht="15" customHeight="1">
+      <c r="A1293" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1293">
+        <v>161</v>
+      </c>
+      <c r="E1293">
+        <v>22</v>
+      </c>
+      <c r="F1293">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1293">
+        <v>36.21</v>
+      </c>
+      <c r="H1293">
+        <v>28</v>
+      </c>
+      <c r="I1293">
+        <v>41.82</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1293" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11" ht="15" customHeight="1">
+      <c r="A1294" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1294">
+        <v>236</v>
+      </c>
+      <c r="E1294">
+        <v>32</v>
+      </c>
+      <c r="F1294">
+        <v>51.22</v>
+      </c>
+      <c r="G1294">
+        <v>50</v>
+      </c>
+      <c r="H1294">
+        <v>46</v>
+      </c>
+      <c r="I1294">
+        <v>74.55</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1294" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:11" ht="15" customHeight="1">
+      <c r="A1295" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1295">
+        <v>280</v>
+      </c>
+      <c r="E1295">
+        <v>52</v>
+      </c>
+      <c r="F1295">
+        <v>70.73</v>
+      </c>
+      <c r="G1295">
+        <v>53.45</v>
+      </c>
+      <c r="H1295">
+        <v>50</v>
+      </c>
+      <c r="I1295">
+        <v>49.09</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1295" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:11" ht="15" customHeight="1">
+      <c r="A1296" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1296">
+        <v>229</v>
+      </c>
+      <c r="E1296">
+        <v>42</v>
+      </c>
+      <c r="F1296">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1296">
+        <v>31.03</v>
+      </c>
+      <c r="H1296">
+        <v>30</v>
+      </c>
+      <c r="I1296">
+        <v>80</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1296" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:11" ht="15" customHeight="1">
+      <c r="A1297" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1297">
+        <v>154</v>
+      </c>
+      <c r="E1297">
+        <v>32</v>
+      </c>
+      <c r="F1297">
+        <v>31.71</v>
+      </c>
+      <c r="G1297">
+        <v>25.86</v>
+      </c>
+      <c r="H1297">
+        <v>34</v>
+      </c>
+      <c r="I1297">
+        <v>27.27</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1297" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:11" ht="15" customHeight="1">
+      <c r="A1298" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1298">
+        <v>255</v>
+      </c>
+      <c r="E1298">
+        <v>54</v>
+      </c>
+      <c r="F1298">
+        <v>60.98</v>
+      </c>
+      <c r="G1298">
+        <v>32.76</v>
+      </c>
+      <c r="H1298">
+        <v>58</v>
+      </c>
+      <c r="I1298">
+        <v>45.45</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1298" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:11" ht="15" customHeight="1">
+      <c r="A1299" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1299">
+        <v>256</v>
+      </c>
+      <c r="E1299">
+        <v>44</v>
+      </c>
+      <c r="F1299">
+        <v>53.66</v>
+      </c>
+      <c r="G1299">
+        <v>43.1</v>
+      </c>
+      <c r="H1299">
+        <v>62</v>
+      </c>
+      <c r="I1299">
+        <v>56.36</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1299" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11" ht="15" customHeight="1">
+      <c r="A1300" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1300">
+        <v>250</v>
+      </c>
+      <c r="E1300">
+        <v>34</v>
+      </c>
+      <c r="F1300">
+        <v>51.22</v>
+      </c>
+      <c r="G1300">
+        <v>50</v>
+      </c>
+      <c r="H1300">
+        <v>56</v>
+      </c>
+      <c r="I1300">
+        <v>74.55</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1300" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:11" ht="15" customHeight="1">
+      <c r="A1301" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1301">
+        <v>269</v>
+      </c>
+      <c r="E1301">
+        <v>44</v>
+      </c>
+      <c r="F1301">
+        <v>58.54</v>
+      </c>
+      <c r="G1301">
+        <v>53.45</v>
+      </c>
+      <c r="H1301">
+        <v>52</v>
+      </c>
+      <c r="I1301">
+        <v>74.55</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1301" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:11" ht="15" customHeight="1">
+      <c r="A1302" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1302">
+        <v>300</v>
+      </c>
+      <c r="E1302">
+        <v>54</v>
+      </c>
+      <c r="F1302">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1302">
+        <v>56.9</v>
+      </c>
+      <c r="H1302">
+        <v>54</v>
+      </c>
+      <c r="I1302">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1302" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11" ht="15" customHeight="1">
+      <c r="A1303" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1303">
+        <v>276</v>
+      </c>
+      <c r="E1303">
+        <v>58</v>
+      </c>
+      <c r="F1303">
+        <v>43.9</v>
+      </c>
+      <c r="G1303">
+        <v>56.9</v>
+      </c>
+      <c r="H1303">
+        <v>54</v>
+      </c>
+      <c r="I1303">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1303" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11" ht="15" customHeight="1">
+      <c r="A1304" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1304">
+        <v>262</v>
+      </c>
+      <c r="E1304">
+        <v>50</v>
+      </c>
+      <c r="F1304">
+        <v>58.54</v>
+      </c>
+      <c r="G1304">
+        <v>53.45</v>
+      </c>
+      <c r="H1304">
+        <v>44</v>
+      </c>
+      <c r="I1304">
+        <v>61.82</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1304" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11" ht="15" customHeight="1">
+      <c r="A1305" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1305">
+        <v>230</v>
+      </c>
+      <c r="E1305">
+        <v>34</v>
+      </c>
+      <c r="F1305">
+        <v>53.66</v>
+      </c>
+      <c r="G1305">
+        <v>37.93</v>
+      </c>
+      <c r="H1305">
+        <v>50</v>
+      </c>
+      <c r="I1305">
+        <v>70.91</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1305" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" ht="15" customHeight="1">
+      <c r="A1306" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1306">
+        <v>290</v>
+      </c>
+      <c r="E1306">
+        <v>38</v>
+      </c>
+      <c r="F1306">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1306">
+        <v>41.38</v>
+      </c>
+      <c r="H1306">
+        <v>60</v>
+      </c>
+      <c r="I1306">
+        <v>92.73</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1306" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:11" ht="15" customHeight="1">
+      <c r="A1307" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1307">
+        <v>267</v>
+      </c>
+      <c r="E1307">
+        <v>44</v>
+      </c>
+      <c r="F1307">
+        <v>60.98</v>
+      </c>
+      <c r="G1307">
+        <v>48.28</v>
+      </c>
+      <c r="H1307">
+        <v>52</v>
+      </c>
+      <c r="I1307">
+        <v>76.36</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1307" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:11" ht="15" customHeight="1">
+      <c r="A1308" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1308">
+        <v>234</v>
+      </c>
+      <c r="E1308">
+        <v>36</v>
+      </c>
+      <c r="F1308">
+        <v>46.34</v>
+      </c>
+      <c r="G1308">
+        <v>46.55</v>
+      </c>
+      <c r="H1308">
+        <v>52</v>
+      </c>
+      <c r="I1308">
+        <v>65.45</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1308" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:11" ht="15" customHeight="1">
+      <c r="A1309" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1309">
+        <v>282</v>
+      </c>
+      <c r="E1309">
+        <v>54</v>
+      </c>
+      <c r="F1309">
+        <v>63.41</v>
+      </c>
+      <c r="G1309">
+        <v>51.72</v>
+      </c>
+      <c r="H1309">
+        <v>54</v>
+      </c>
+      <c r="I1309">
+        <v>63.64</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1309" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:11" ht="15" customHeight="1">
+      <c r="A1310" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1310">
+        <v>289</v>
+      </c>
+      <c r="E1310">
+        <v>58</v>
+      </c>
+      <c r="F1310">
+        <v>63.41</v>
+      </c>
+      <c r="G1310">
+        <v>56.9</v>
+      </c>
+      <c r="H1310">
+        <v>52</v>
+      </c>
+      <c r="I1310">
+        <v>58.18</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1310" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:11" ht="15" customHeight="1">
+      <c r="A1311" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1311">
+        <v>294</v>
+      </c>
+      <c r="E1311">
+        <v>58</v>
+      </c>
+      <c r="F1311">
+        <v>56.1</v>
+      </c>
+      <c r="G1311">
+        <v>58.62</v>
+      </c>
+      <c r="H1311">
+        <v>56</v>
+      </c>
+      <c r="I1311">
+        <v>76.36</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1311" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:11" ht="15" customHeight="1">
+      <c r="A1312" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1312">
+        <v>267</v>
+      </c>
+      <c r="E1312">
+        <v>52</v>
+      </c>
+      <c r="F1312">
+        <v>53.66</v>
+      </c>
+      <c r="G1312">
+        <v>50</v>
+      </c>
+      <c r="H1312">
+        <v>54</v>
+      </c>
+      <c r="I1312">
+        <v>63.64</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1312" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:11" ht="15" customHeight="1">
+      <c r="A1313" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1313">
+        <v>238</v>
+      </c>
+      <c r="E1313">
+        <v>36</v>
+      </c>
+      <c r="F1313">
+        <v>63.41</v>
+      </c>
+      <c r="G1313">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1313">
+        <v>50</v>
+      </c>
+      <c r="I1313">
+        <v>50.91</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1313" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:11" ht="15" customHeight="1">
+      <c r="A1314" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1314" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1314">
+        <v>257</v>
+      </c>
+      <c r="E1314">
+        <v>32</v>
+      </c>
+      <c r="F1314">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1314">
+        <v>51.72</v>
+      </c>
+      <c r="H1314">
+        <v>56</v>
+      </c>
+      <c r="I1314">
+        <v>50.91</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1314" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:11" ht="15" customHeight="1">
+      <c r="A1315" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1315">
+        <v>231</v>
+      </c>
+      <c r="E1315">
+        <v>32</v>
+      </c>
+      <c r="F1315">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1315">
+        <v>32.76</v>
+      </c>
+      <c r="H1315">
+        <v>42</v>
+      </c>
+      <c r="I1315">
+        <v>74.55</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1315" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:11" ht="15" customHeight="1">
+      <c r="A1316" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1316">
+        <v>239</v>
+      </c>
+      <c r="E1316">
+        <v>34</v>
+      </c>
+      <c r="F1316">
+        <v>58.54</v>
+      </c>
+      <c r="G1316">
+        <v>46.55</v>
+      </c>
+      <c r="H1316">
+        <v>42</v>
+      </c>
+      <c r="I1316">
+        <v>76.36</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1316" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:11" ht="15" customHeight="1">
+      <c r="A1317" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1317">
+        <v>214</v>
+      </c>
+      <c r="E1317">
+        <v>28</v>
+      </c>
+      <c r="F1317">
+        <v>56.1</v>
+      </c>
+      <c r="G1317">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H1317">
+        <v>46</v>
+      </c>
+      <c r="I1317">
+        <v>61.82</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1317" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11" ht="15" customHeight="1">
+      <c r="A1318" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1318">
+        <v>204</v>
+      </c>
+      <c r="E1318">
+        <v>26</v>
+      </c>
+      <c r="F1318">
+        <v>63.41</v>
+      </c>
+      <c r="G1318">
+        <v>24.14</v>
+      </c>
+      <c r="H1318">
+        <v>48</v>
+      </c>
+      <c r="I1318">
+        <v>43.64</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1318" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:11" ht="15" customHeight="1">
+      <c r="A1319" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1319">
+        <v>285</v>
+      </c>
+      <c r="E1319">
+        <v>42</v>
+      </c>
+      <c r="F1319">
+        <v>73.17</v>
+      </c>
+      <c r="G1319">
+        <v>50</v>
+      </c>
+      <c r="H1319">
+        <v>56</v>
+      </c>
+      <c r="I1319">
+        <v>76.36</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1319" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:11" ht="15" customHeight="1">
+      <c r="A1320" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1320">
+        <v>269</v>
+      </c>
+      <c r="E1320">
+        <v>38</v>
+      </c>
+      <c r="F1320">
+        <v>60.98</v>
+      </c>
+      <c r="G1320">
+        <v>48.28</v>
+      </c>
+      <c r="H1320">
+        <v>60</v>
+      </c>
+      <c r="I1320">
+        <v>76.36</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1320" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:11" ht="15" customHeight="1">
+      <c r="A1321" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1321">
+        <v>244</v>
+      </c>
+      <c r="E1321">
+        <v>28</v>
+      </c>
+      <c r="F1321">
+        <v>63.41</v>
+      </c>
+      <c r="G1321">
+        <v>50</v>
+      </c>
+      <c r="H1321">
+        <v>52</v>
+      </c>
+      <c r="I1321">
+        <v>52.73</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1321" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:11" ht="15" customHeight="1">
+      <c r="A1322" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1322">
+        <v>273</v>
+      </c>
+      <c r="E1322">
+        <v>40</v>
+      </c>
+      <c r="F1322">
+        <v>63.41</v>
+      </c>
+      <c r="G1322">
+        <v>48.28</v>
+      </c>
+      <c r="H1322">
+        <v>68</v>
+      </c>
+      <c r="I1322">
+        <v>49.09</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1322" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:11" ht="15" customHeight="1">
+      <c r="A1323" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1323">
+        <v>255</v>
+      </c>
+      <c r="E1323">
+        <v>36</v>
+      </c>
+      <c r="F1323">
+        <v>60.98</v>
+      </c>
+      <c r="G1323">
+        <v>43.1</v>
+      </c>
+      <c r="H1323">
+        <v>64</v>
+      </c>
+      <c r="I1323">
+        <v>49.09</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1323" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11" ht="15" customHeight="1">
+      <c r="A1324" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1324">
+        <v>252</v>
+      </c>
+      <c r="E1324">
+        <v>40</v>
+      </c>
+      <c r="F1324">
+        <v>63.41</v>
+      </c>
+      <c r="G1324">
+        <v>36.21</v>
+      </c>
+      <c r="H1324">
+        <v>58</v>
+      </c>
+      <c r="I1324">
+        <v>61.82</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1324" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:11" ht="15" customHeight="1">
+      <c r="A1325" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1325">
+        <v>304</v>
+      </c>
+      <c r="E1325">
+        <v>52</v>
+      </c>
+      <c r="F1325">
+        <v>75.61</v>
+      </c>
+      <c r="G1325">
+        <v>48.28</v>
+      </c>
+      <c r="H1325">
+        <v>76</v>
+      </c>
+      <c r="I1325">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1325" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:11" ht="15" customHeight="1">
+      <c r="A1326" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1326">
+        <v>321</v>
+      </c>
+      <c r="E1326">
+        <v>40</v>
+      </c>
+      <c r="F1326">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1326">
+        <v>46.55</v>
+      </c>
+      <c r="H1326">
+        <v>80</v>
+      </c>
+      <c r="I1326">
+        <v>90.91</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1326" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:11" ht="15" customHeight="1">
+      <c r="A1327" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1327">
+        <v>132</v>
+      </c>
+      <c r="E1327">
+        <v>14</v>
+      </c>
+      <c r="F1327">
+        <v>31.71</v>
+      </c>
+      <c r="G1327">
+        <v>24.14</v>
+      </c>
+      <c r="H1327">
+        <v>36</v>
+      </c>
+      <c r="I1327">
+        <v>23.64</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1327" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:11" ht="15" customHeight="1">
+      <c r="A1328" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1328">
+        <v>303</v>
+      </c>
+      <c r="E1328">
+        <v>48</v>
+      </c>
+      <c r="F1328">
+        <v>70.73</v>
+      </c>
+      <c r="G1328">
+        <v>58.62</v>
+      </c>
+      <c r="H1328">
+        <v>70</v>
+      </c>
+      <c r="I1328">
+        <v>43.64</v>
+      </c>
+      <c r="J1328" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1328" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:11" ht="15" customHeight="1">
+      <c r="A1329" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1329">
+        <v>229</v>
+      </c>
+      <c r="E1329">
+        <v>36</v>
+      </c>
+      <c r="F1329">
+        <v>51.22</v>
+      </c>
+      <c r="G1329">
+        <v>43.1</v>
+      </c>
+      <c r="H1329">
+        <v>56</v>
+      </c>
+      <c r="I1329">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1329" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:11" ht="15" customHeight="1">
+      <c r="A1330" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1330">
+        <v>276</v>
+      </c>
+      <c r="E1330">
+        <v>42</v>
+      </c>
+      <c r="F1330">
+        <v>63.41</v>
+      </c>
+      <c r="G1330">
+        <v>41.38</v>
+      </c>
+      <c r="H1330">
+        <v>74</v>
+      </c>
+      <c r="I1330">
+        <v>54.55</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1330" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:11" ht="15" customHeight="1">
+      <c r="A1331" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1331">
+        <v>314</v>
+      </c>
+      <c r="E1331">
+        <v>62</v>
+      </c>
+      <c r="F1331">
+        <v>60.98</v>
+      </c>
+      <c r="G1331">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H1331">
+        <v>62</v>
+      </c>
+      <c r="I1331">
+        <v>58.18</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1331" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:11" ht="15" customHeight="1">
+      <c r="A1332" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1332">
+        <v>266</v>
+      </c>
+      <c r="E1332">
+        <v>36</v>
+      </c>
+      <c r="F1332">
+        <v>70.73</v>
+      </c>
+      <c r="G1332">
+        <v>37.93</v>
+      </c>
+      <c r="H1332">
+        <v>70</v>
+      </c>
+      <c r="I1332">
+        <v>47.27</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1332" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:11" ht="15" customHeight="1">
+      <c r="A1333" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1333">
+        <v>257</v>
+      </c>
+      <c r="E1333">
+        <v>48</v>
+      </c>
+      <c r="F1333">
+        <v>48.78</v>
+      </c>
+      <c r="G1333">
+        <v>51.72</v>
+      </c>
+      <c r="H1333">
+        <v>62</v>
+      </c>
+      <c r="I1333">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1333" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:11" ht="15" customHeight="1">
+      <c r="A1334" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1334">
+        <v>271</v>
+      </c>
+      <c r="E1334">
+        <v>52</v>
+      </c>
+      <c r="F1334">
+        <v>48.78</v>
+      </c>
+      <c r="G1334">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H1334">
+        <v>56</v>
+      </c>
+      <c r="I1334">
+        <v>30.91</v>
+      </c>
+      <c r="J1334" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1334" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:11" ht="15" customHeight="1">
+      <c r="A1335" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1335">
+        <v>358</v>
+      </c>
+      <c r="E1335">
+        <v>68</v>
+      </c>
+      <c r="F1335">
+        <v>63.41</v>
+      </c>
+      <c r="G1335">
+        <v>77.59</v>
+      </c>
+      <c r="H1335">
+        <v>78</v>
+      </c>
+      <c r="I1335">
+        <v>67.27</v>
+      </c>
+      <c r="J1335" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1335" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:11" ht="15" customHeight="1">
+      <c r="A1336" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1336">
+        <v>247</v>
+      </c>
+      <c r="E1336">
+        <v>38</v>
+      </c>
+      <c r="F1336">
+        <v>58.54</v>
+      </c>
+      <c r="G1336">
+        <v>43.1</v>
+      </c>
+      <c r="H1336">
+        <v>56</v>
+      </c>
+      <c r="I1336">
+        <v>54.55</v>
+      </c>
+      <c r="J1336" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1336" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:11" ht="15" customHeight="1">
+      <c r="A1337" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1337">
+        <v>236</v>
+      </c>
+      <c r="E1337">
+        <v>36</v>
+      </c>
+      <c r="F1337">
+        <v>60.98</v>
+      </c>
+      <c r="G1337">
+        <v>43.1</v>
+      </c>
+      <c r="H1337">
+        <v>56</v>
+      </c>
+      <c r="I1337">
+        <v>23.64</v>
+      </c>
+      <c r="J1337" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1337" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:11" ht="15" customHeight="1">
+      <c r="A1338" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1338">
+        <v>219</v>
+      </c>
+      <c r="E1338">
+        <v>30</v>
+      </c>
+      <c r="F1338">
+        <v>53.66</v>
+      </c>
+      <c r="G1338">
+        <v>53.45</v>
+      </c>
+      <c r="H1338">
+        <v>46</v>
+      </c>
+      <c r="I1338">
+        <v>20</v>
+      </c>
+      <c r="J1338" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1338" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:11" ht="15" customHeight="1">
+      <c r="A1339" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1339">
+        <v>176</v>
+      </c>
+      <c r="E1339">
+        <v>30</v>
+      </c>
+      <c r="F1339">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1339">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1339">
+        <v>32</v>
+      </c>
+      <c r="I1339">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1339" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1339" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:11" ht="15" customHeight="1">
+      <c r="A1340" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1340">
+        <v>232</v>
+      </c>
+      <c r="E1340">
+        <v>42</v>
+      </c>
+      <c r="F1340">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1340">
+        <v>37.93</v>
+      </c>
+      <c r="H1340">
+        <v>42</v>
+      </c>
+      <c r="I1340">
+        <v>38.18</v>
+      </c>
+      <c r="J1340" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1340" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:11" ht="15" customHeight="1">
+      <c r="A1341" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1341">
+        <v>217</v>
+      </c>
+      <c r="E1341">
+        <v>24</v>
+      </c>
+      <c r="F1341">
+        <v>48.78</v>
+      </c>
+      <c r="G1341">
+        <v>43.1</v>
+      </c>
+      <c r="H1341">
+        <v>48</v>
+      </c>
+      <c r="I1341">
+        <v>70.91</v>
+      </c>
+      <c r="J1341" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1341" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:11" ht="15" customHeight="1">
+      <c r="A1342" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1342">
+        <v>231</v>
+      </c>
+      <c r="E1342">
+        <v>36</v>
+      </c>
+      <c r="F1342">
+        <v>53.66</v>
+      </c>
+      <c r="G1342">
+        <v>43.1</v>
+      </c>
+      <c r="H1342">
+        <v>44</v>
+      </c>
+      <c r="I1342">
+        <v>69.09</v>
+      </c>
+      <c r="J1342" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1342" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:11" ht="15" customHeight="1">
+      <c r="A1343" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1343">
+        <v>241</v>
+      </c>
+      <c r="E1343">
+        <v>26</v>
+      </c>
+      <c r="F1343">
+        <v>75.61</v>
+      </c>
+      <c r="G1343">
+        <v>29.31</v>
+      </c>
+      <c r="H1343">
+        <v>54</v>
+      </c>
+      <c r="I1343">
+        <v>70.91</v>
+      </c>
+      <c r="J1343" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1343" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:11" ht="15" customHeight="1">
+      <c r="A1344" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1344">
+        <v>259</v>
+      </c>
+      <c r="E1344">
+        <v>40</v>
+      </c>
+      <c r="F1344">
+        <v>78.05</v>
+      </c>
+      <c r="G1344">
+        <v>31.03</v>
+      </c>
+      <c r="H1344">
+        <v>56</v>
+      </c>
+      <c r="I1344">
+        <v>56.36</v>
+      </c>
+      <c r="J1344" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1344" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:11" ht="15" customHeight="1">
+      <c r="A1345" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1345">
+        <v>271</v>
+      </c>
+      <c r="E1345">
+        <v>28</v>
+      </c>
+      <c r="F1345">
+        <v>73.17</v>
+      </c>
+      <c r="G1345">
+        <v>53.45</v>
+      </c>
+      <c r="H1345">
+        <v>56</v>
+      </c>
+      <c r="I1345">
+        <v>70.91</v>
+      </c>
+      <c r="J1345" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1345" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:11" ht="15" customHeight="1">
+      <c r="A1346" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1346">
+        <v>325</v>
+      </c>
+      <c r="E1346">
+        <v>40</v>
+      </c>
+      <c r="F1346">
+        <v>85.37</v>
+      </c>
+      <c r="G1346">
+        <v>62.07</v>
+      </c>
+      <c r="H1346">
+        <v>72</v>
+      </c>
+      <c r="I1346">
+        <v>65.45</v>
+      </c>
+      <c r="J1346" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1346" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:11" ht="15" customHeight="1">
+      <c r="A1347" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1347">
+        <v>278</v>
+      </c>
+      <c r="E1347">
+        <v>34</v>
+      </c>
+      <c r="F1347">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1347">
+        <v>63.79</v>
+      </c>
+      <c r="H1347">
+        <v>52</v>
+      </c>
+      <c r="I1347">
+        <v>74.55</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1347" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:11" ht="15" customHeight="1">
+      <c r="A1348" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1348">
+        <v>214</v>
+      </c>
+      <c r="E1348">
+        <v>28</v>
+      </c>
+      <c r="F1348">
+        <v>75.61</v>
+      </c>
+      <c r="G1348">
+        <v>29.31</v>
+      </c>
+      <c r="H1348">
+        <v>36</v>
+      </c>
+      <c r="I1348">
+        <v>47.27</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1348" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:11" ht="15" customHeight="1">
+      <c r="A1349" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1349">
+        <v>231</v>
+      </c>
+      <c r="E1349">
+        <v>26</v>
+      </c>
+      <c r="F1349">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1349">
+        <v>36.21</v>
+      </c>
+      <c r="H1349">
+        <v>48</v>
+      </c>
+      <c r="I1349">
+        <v>70.91</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1349" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:11" ht="15" customHeight="1">
+      <c r="A1350" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1350">
+        <v>306</v>
+      </c>
+      <c r="E1350">
+        <v>44</v>
+      </c>
+      <c r="F1350">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1350">
+        <v>53.45</v>
+      </c>
+      <c r="H1350">
+        <v>66</v>
+      </c>
+      <c r="I1350">
+        <v>63.64</v>
+      </c>
+      <c r="J1350" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1350" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:11" ht="15" customHeight="1">
+      <c r="A1351" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1351">
+        <v>275</v>
+      </c>
+      <c r="E1351">
+        <v>48</v>
+      </c>
+      <c r="F1351">
+        <v>46.34</v>
+      </c>
+      <c r="G1351">
+        <v>60.34</v>
+      </c>
+      <c r="H1351">
+        <v>64</v>
+      </c>
+      <c r="I1351">
+        <v>56.36</v>
+      </c>
+      <c r="J1351" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1351" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:11" ht="15" customHeight="1">
+      <c r="A1352" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1352">
+        <v>288</v>
+      </c>
+      <c r="E1352">
+        <v>62</v>
+      </c>
+      <c r="F1352">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1352">
+        <v>37.93</v>
+      </c>
+      <c r="H1352">
+        <v>58</v>
+      </c>
+      <c r="I1352">
+        <v>69.09</v>
+      </c>
+      <c r="J1352" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1352" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:11" ht="15" customHeight="1">
+      <c r="A1353" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1353">
+        <v>225</v>
+      </c>
+      <c r="E1353">
+        <v>38</v>
+      </c>
+      <c r="F1353">
+        <v>43.9</v>
+      </c>
+      <c r="G1353">
+        <v>51.72</v>
+      </c>
+      <c r="H1353">
+        <v>42</v>
+      </c>
+      <c r="I1353">
+        <v>56.36</v>
+      </c>
+      <c r="J1353" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1353" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:11" ht="15" customHeight="1">
+      <c r="A1354" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1354" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1354">
+        <v>193</v>
+      </c>
+      <c r="E1354">
+        <v>28</v>
+      </c>
+      <c r="F1354">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1354">
+        <v>36.21</v>
+      </c>
+      <c r="H1354">
+        <v>36</v>
+      </c>
+      <c r="I1354">
+        <v>83.64</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1354" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:11" ht="15" customHeight="1">
+      <c r="A1355" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1355">
+        <v>285</v>
+      </c>
+      <c r="E1355">
+        <v>40</v>
+      </c>
+      <c r="F1355">
+        <v>58.54</v>
+      </c>
+      <c r="G1355">
+        <v>68.97</v>
+      </c>
+      <c r="H1355">
+        <v>56</v>
+      </c>
+      <c r="I1355">
+        <v>69.09</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1355" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:11" ht="15" customHeight="1">
+      <c r="A1356" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1356">
+        <v>171</v>
+      </c>
+      <c r="E1356">
+        <v>36</v>
+      </c>
+      <c r="F1356">
+        <v>24.39</v>
+      </c>
+      <c r="G1356">
+        <v>20.69</v>
+      </c>
+      <c r="H1356">
+        <v>44</v>
+      </c>
+      <c r="I1356">
+        <v>67.27</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1356" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:11" ht="15" customHeight="1">
+      <c r="A1357" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1357">
+        <v>259</v>
+      </c>
+      <c r="E1357">
+        <v>48</v>
+      </c>
+      <c r="F1357">
+        <v>60.98</v>
+      </c>
+      <c r="G1357">
+        <v>55.17</v>
+      </c>
+      <c r="H1357">
+        <v>48</v>
+      </c>
+      <c r="I1357">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J1357" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1357" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:11" ht="15" customHeight="1">
+      <c r="A1358" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1358">
+        <v>364</v>
+      </c>
+      <c r="E1358">
+        <v>66</v>
+      </c>
+      <c r="F1358">
+        <v>87.8</v>
+      </c>
+      <c r="G1358">
+        <v>70.69</v>
+      </c>
+      <c r="H1358">
+        <v>60</v>
+      </c>
+      <c r="I1358">
+        <v>90.91</v>
+      </c>
+      <c r="J1358" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1358" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:11" ht="15" customHeight="1">
+      <c r="A1359" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1359">
+        <v>287</v>
+      </c>
+      <c r="E1359">
+        <v>64</v>
+      </c>
+      <c r="F1359">
+        <v>56.1</v>
+      </c>
+      <c r="G1359">
+        <v>53.45</v>
+      </c>
+      <c r="H1359">
+        <v>60</v>
+      </c>
+      <c r="I1359">
+        <v>43.64</v>
+      </c>
+      <c r="J1359" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1359" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:11" ht="15" customHeight="1">
+      <c r="A1360" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1360">
+        <v>292</v>
+      </c>
+      <c r="E1360">
+        <v>54</v>
+      </c>
+      <c r="F1360">
+        <v>58.54</v>
+      </c>
+      <c r="G1360">
+        <v>58.62</v>
+      </c>
+      <c r="H1360">
+        <v>62</v>
+      </c>
+      <c r="I1360">
+        <v>58.18</v>
+      </c>
+      <c r="J1360" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1360" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:11" ht="15" customHeight="1">
+      <c r="A1361" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1361">
+        <v>301</v>
+      </c>
+      <c r="E1361">
+        <v>44</v>
+      </c>
+      <c r="F1361">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1361">
+        <v>58.62</v>
+      </c>
+      <c r="H1361">
+        <v>50</v>
+      </c>
+      <c r="I1361">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1361" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1361" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:11" ht="15" customHeight="1">
+      <c r="A1362" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1362">
+        <v>292</v>
+      </c>
+      <c r="E1362">
+        <v>52</v>
+      </c>
+      <c r="F1362">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1362">
+        <v>48.28</v>
+      </c>
+      <c r="H1362">
+        <v>60</v>
+      </c>
+      <c r="I1362">
+        <v>70.91</v>
+      </c>
+      <c r="J1362" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1362" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:11" ht="15" customHeight="1">
+      <c r="A1363" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1363">
+        <v>350</v>
+      </c>
+      <c r="E1363">
+        <v>64</v>
+      </c>
+      <c r="F1363">
+        <v>78.05</v>
+      </c>
+      <c r="G1363">
+        <v>56.9</v>
+      </c>
+      <c r="H1363">
+        <v>74</v>
+      </c>
+      <c r="I1363">
+        <v>90.91</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1363" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:11" ht="15" customHeight="1">
+      <c r="A1364" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1364">
+        <v>347</v>
+      </c>
+      <c r="E1364">
+        <v>76</v>
+      </c>
+      <c r="F1364">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1364">
+        <v>63.79</v>
+      </c>
+      <c r="H1364">
+        <v>70</v>
+      </c>
+      <c r="I1364">
+        <v>72.73</v>
+      </c>
+      <c r="J1364" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1364" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:11" ht="15" customHeight="1">
+      <c r="A1365" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1365">
+        <v>286</v>
+      </c>
+      <c r="E1365">
+        <v>44</v>
+      </c>
+      <c r="F1365">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1365">
+        <v>56.9</v>
+      </c>
+      <c r="H1365">
+        <v>54</v>
+      </c>
+      <c r="I1365">
+        <v>72.73</v>
+      </c>
+      <c r="J1365" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1365" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:11" ht="15" customHeight="1">
+      <c r="A1366" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1366">
+        <v>138</v>
+      </c>
+      <c r="E1366">
+        <v>30</v>
+      </c>
+      <c r="F1366">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="G1366">
+        <v>25.86</v>
+      </c>
+      <c r="H1366">
+        <v>24</v>
+      </c>
+      <c r="I1366">
+        <v>58.18</v>
+      </c>
+      <c r="J1366" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1366" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:11" ht="15" customHeight="1">
+      <c r="A1367" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1367">
+        <v>146</v>
+      </c>
+      <c r="E1367">
+        <v>24</v>
+      </c>
+      <c r="F1367">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1367">
+        <v>32.76</v>
+      </c>
+      <c r="H1367">
+        <v>22</v>
+      </c>
+      <c r="I1367">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1367" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:11" ht="15" customHeight="1">
+      <c r="A1368" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1368">
+        <v>242</v>
+      </c>
+      <c r="E1368">
+        <v>38</v>
+      </c>
+      <c r="F1368">
+        <v>43.9</v>
+      </c>
+      <c r="G1368">
+        <v>60.34</v>
+      </c>
+      <c r="H1368">
+        <v>48</v>
+      </c>
+      <c r="I1368">
+        <v>58.18</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1368" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:11" ht="15" customHeight="1">
+      <c r="A1369" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1369">
+        <v>82</v>
+      </c>
+      <c r="E1369">
+        <v>18</v>
+      </c>
+      <c r="F1369">
+        <v>46.34</v>
+      </c>
+      <c r="G1369">
+        <v>0</v>
+      </c>
+      <c r="H1369">
+        <v>6</v>
+      </c>
+      <c r="I1369">
+        <v>0</v>
+      </c>
+      <c r="J1369" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1369" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:11" ht="15" customHeight="1">
+      <c r="A1370" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1370">
+        <v>280</v>
+      </c>
+      <c r="E1370">
+        <v>46</v>
+      </c>
+      <c r="F1370">
+        <v>58.54</v>
+      </c>
+      <c r="G1370">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H1370">
+        <v>48</v>
+      </c>
+      <c r="I1370">
+        <v>67.27</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1370" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:11" ht="15" customHeight="1">
+      <c r="A1371" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1371">
+        <v>303</v>
+      </c>
+      <c r="E1371">
+        <v>44</v>
+      </c>
+      <c r="F1371">
+        <v>78.05</v>
+      </c>
+      <c r="G1371">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H1371">
+        <v>54</v>
+      </c>
+      <c r="I1371">
+        <v>56.36</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1371" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:11" ht="15" customHeight="1">
+      <c r="A1372" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1372">
+        <v>301</v>
+      </c>
+      <c r="E1372">
+        <v>50</v>
+      </c>
+      <c r="F1372">
+        <v>63.41</v>
+      </c>
+      <c r="G1372">
+        <v>56.9</v>
+      </c>
+      <c r="H1372">
+        <v>62</v>
+      </c>
+      <c r="I1372">
+        <v>83.64</v>
+      </c>
+      <c r="J1372" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1372" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:11" ht="15" customHeight="1">
+      <c r="A1373" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1373">
+        <v>243</v>
+      </c>
+      <c r="E1373">
+        <v>28</v>
+      </c>
+      <c r="F1373">
+        <v>46.34</v>
+      </c>
+      <c r="G1373">
+        <v>70.69</v>
+      </c>
+      <c r="H1373">
+        <v>46</v>
+      </c>
+      <c r="I1373">
+        <v>58.18</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1373" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:11" ht="15" customHeight="1">
+      <c r="A1374" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1374">
+        <v>206</v>
+      </c>
+      <c r="E1374">
+        <v>28</v>
+      </c>
+      <c r="F1374">
+        <v>41.46</v>
+      </c>
+      <c r="G1374">
+        <v>46.55</v>
+      </c>
+      <c r="H1374">
+        <v>46</v>
+      </c>
+      <c r="I1374">
+        <v>47.27</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1374" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:11" ht="15" customHeight="1">
+      <c r="A1375" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1375">
+        <v>348</v>
+      </c>
+      <c r="E1375">
+        <v>40</v>
+      </c>
+      <c r="F1375">
+        <v>73.17</v>
+      </c>
+      <c r="G1375">
+        <v>77.59</v>
+      </c>
+      <c r="H1375">
+        <v>82</v>
+      </c>
+      <c r="I1375">
+        <v>85.45</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1375" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:11" ht="15" customHeight="1">
+      <c r="A1376" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1376">
+        <v>363</v>
+      </c>
+      <c r="E1376">
+        <v>54</v>
+      </c>
+      <c r="F1376">
+        <v>78.05</v>
+      </c>
+      <c r="G1376">
+        <v>74.14</v>
+      </c>
+      <c r="H1376">
+        <v>80</v>
+      </c>
+      <c r="I1376">
+        <v>83.64</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1376" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:11" ht="15" customHeight="1">
+      <c r="A1377" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1377">
+        <v>284</v>
+      </c>
+      <c r="E1377">
+        <v>38</v>
+      </c>
+      <c r="F1377">
+        <v>73.17</v>
+      </c>
+      <c r="G1377">
+        <v>56.9</v>
+      </c>
+      <c r="H1377">
+        <v>56</v>
+      </c>
+      <c r="I1377">
+        <v>65.45</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1377" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:11" ht="15" customHeight="1">
+      <c r="A1378" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1378">
+        <v>287</v>
+      </c>
+      <c r="E1378">
+        <v>40</v>
+      </c>
+      <c r="F1378">
+        <v>73.17</v>
+      </c>
+      <c r="G1378">
+        <v>60.34</v>
+      </c>
+      <c r="H1378">
+        <v>52</v>
+      </c>
+      <c r="I1378">
+        <v>69.09</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1378" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:11" ht="15" customHeight="1">
+      <c r="A1379" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1379">
+        <v>246</v>
+      </c>
+      <c r="E1379">
+        <v>52</v>
+      </c>
+      <c r="F1379">
+        <v>43.9</v>
+      </c>
+      <c r="G1379">
+        <v>36.21</v>
+      </c>
+      <c r="H1379">
+        <v>58</v>
+      </c>
+      <c r="I1379">
+        <v>69.09</v>
+      </c>
+      <c r="J1379" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1379" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:11" ht="15" customHeight="1">
+      <c r="A1380" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1380">
+        <v>315</v>
+      </c>
+      <c r="E1380">
+        <v>42</v>
+      </c>
+      <c r="F1380">
+        <v>75.61</v>
+      </c>
+      <c r="G1380">
+        <v>58.62</v>
+      </c>
+      <c r="H1380">
+        <v>68</v>
+      </c>
+      <c r="I1380">
+        <v>85.45</v>
+      </c>
+      <c r="J1380" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1380" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:11" ht="15" customHeight="1">
+      <c r="A1381" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1381">
+        <v>321</v>
+      </c>
+      <c r="E1381">
+        <v>50</v>
+      </c>
+      <c r="F1381">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1381">
+        <v>60.34</v>
+      </c>
+      <c r="H1381">
+        <v>64</v>
+      </c>
+      <c r="I1381">
+        <v>69.09</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1381" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:11" ht="15" customHeight="1">
+      <c r="A1382" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1382" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1382">
+        <v>224</v>
+      </c>
+      <c r="E1382">
+        <v>34</v>
+      </c>
+      <c r="F1382">
+        <v>53.66</v>
+      </c>
+      <c r="G1382">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1382">
+        <v>50</v>
+      </c>
+      <c r="I1382">
+        <v>49.09</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1382" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:11" ht="15" customHeight="1">
+      <c r="A1383" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1383">
+        <v>181</v>
+      </c>
+      <c r="E1383">
+        <v>26</v>
+      </c>
+      <c r="F1383">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1383">
+        <v>29.31</v>
+      </c>
+      <c r="H1383">
+        <v>50</v>
+      </c>
+      <c r="I1383">
+        <v>43.64</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1383" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:11" ht="15" customHeight="1">
+      <c r="A1384" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1384">
+        <v>234</v>
+      </c>
+      <c r="E1384">
+        <v>38</v>
+      </c>
+      <c r="F1384">
+        <v>60.98</v>
+      </c>
+      <c r="G1384">
+        <v>46.55</v>
+      </c>
+      <c r="H1384">
+        <v>40</v>
+      </c>
+      <c r="I1384">
+        <v>50.91</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1384" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:11" ht="15" customHeight="1">
+      <c r="A1385" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1385">
+        <v>247</v>
+      </c>
+      <c r="E1385">
+        <v>32</v>
+      </c>
+      <c r="F1385">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1385">
+        <v>55.17</v>
+      </c>
+      <c r="H1385">
+        <v>50</v>
+      </c>
+      <c r="I1385">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1385" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:11" ht="15" customHeight="1">
+      <c r="A1386" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1386">
+        <v>211</v>
+      </c>
+      <c r="E1386">
+        <v>32</v>
+      </c>
+      <c r="F1386">
+        <v>43.9</v>
+      </c>
+      <c r="G1386">
+        <v>44.83</v>
+      </c>
+      <c r="H1386">
+        <v>42</v>
+      </c>
+      <c r="I1386">
+        <v>58.18</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1386" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:11" ht="15" customHeight="1">
+      <c r="A1387" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1387">
+        <v>395</v>
+      </c>
+      <c r="E1387">
+        <v>72</v>
+      </c>
+      <c r="F1387">
+        <v>90.24</v>
+      </c>
+      <c r="G1387">
+        <v>77.59</v>
+      </c>
+      <c r="H1387">
+        <v>74</v>
+      </c>
+      <c r="I1387">
+        <v>83.64</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1387" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1064" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K1387" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\R_IEOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFE346-8505-4708-BC38-AF8FC8FDF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186F9C1-4062-4387-938E-C45970824F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6169" uniqueCount="1146">
   <si>
     <t>Grupo</t>
   </si>
@@ -3211,6 +3211,270 @@
   </si>
   <si>
     <t>VERGARA MEJIA LUCIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETANCUR OCAMPO JERONIMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO CARMONA SUSANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ MONTOYA MARIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESMERAL GONZALEZ MIGUEL ANGEL </t>
+  </si>
+  <si>
+    <t>1023524419</t>
+  </si>
+  <si>
+    <t>ZAPATA RIOS ANA ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ GARCIA EMILY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLINA LENIS KEVIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUGA TORO TOMAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAPATA ZAPATA JUAN CAMILO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTERO ROBLEDO EMILY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALENCIA VARGAS ISABELLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA GAVIRIA JERONIMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREA TABORDA ISABEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCHA SIMANCA SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPERA GUTIERREZ SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES CASTRILLON EMMANUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA OSORIO MELANY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAIZA RESTREPO DANIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO OVIEDO LUIS ANGEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELLEZ HERNANDEZ EDY </t>
+  </si>
+  <si>
+    <t>1017193061</t>
+  </si>
+  <si>
+    <t>MEJIA USUGA YONATHAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPINA VELEZ MANUELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO LAVERDE SAMUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONEO GAVIRIA TOMAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORO MINOTA MARIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS TOBIAN SEBASTIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ GRACIANO SEBASTIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARRA SALAZAR ANDREA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA RADA EZEQUIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAVIRIA CALLE MAURICIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELASQUEZ ARIAS SOFIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLGUIN ARCILA MATIAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELEZ SUAZA ISMAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALENCIA VILLEGAS MATIAS </t>
+  </si>
+  <si>
+    <t>1036453440</t>
+  </si>
+  <si>
+    <t>GARCIA CHICA ANA SOFIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARGO VALLEJO VALERY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPINAL CARDONA ISABELLA </t>
+  </si>
+  <si>
+    <t>N62205716130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSORIO FERRER JULIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">URAN DUQUE THOMAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ CASTRILLON KEBIN SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ ALZATE SALOME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUIZ GARCIA MARIA JOSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVAREZ HINCAPIE PAULINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROYAVE ROMERO LAURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ SANCHEZ LUCIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLOTA VERGARA ALYSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPEDRO SANCHEZ GUADALUPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCES MONTOYA JENNIFER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONDOÑO DUEÑEZ MARIANGEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSTAMANTE CASTRILLON SEBASTIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCHOA MONCADA SOFIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCES RUIZ MATEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAPATA ROLDAN LUCIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ MUÑETON SARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO CORDOBA SAMARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANO CUARTAS SOFIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCAMPO BARRIOS DAVID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGOS DURANGO ALEJANDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVAREZ ARISTIZABAL THOMAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN OSORIO AINARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ BERMUDEZ LAURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTREPO VARGAS MATIAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIN HENAO JUANITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ HERRERA VALERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAVO PEREZ GABRIELA CAROLINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARDILA DURAN SARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREA VALENZUELA ISABELLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ MONTOYA MATIAS </t>
+  </si>
+  <si>
+    <t>N62206683141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASAS GOMEZ VALERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIAS GARCIA GERALDINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATIÑO ROJAS JERONIMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ SAMANTHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTOYA CAÑAS JACOBO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERNANDEZ LOAIZA SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERGARA MEJIA LUCIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ CADAVID SANTIAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELAEZ VALENCIA SUSANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERGARA MEJIA GABRIELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AULAR PINTO EMILY VALERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTREPO PELAEZ VALERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENAVIDES BELALCAZAR ANDRES ALEJANDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONDOÑO MARTINEZ MATEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERNA CALLE MANOLO </t>
   </si>
 </sst>
 </file>
@@ -3326,7 +3590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3357,6 +3621,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3573,18 +3843,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1504"/>
+  <dimension ref="A1:N1641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1487" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1503" sqref="K1503"/>
+      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1505" sqref="A1505:N1641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
@@ -63284,7 +63554,7 @@
         <v>949</v>
       </c>
       <c r="K1357" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1357">
         <v>3</v>
@@ -63328,7 +63598,7 @@
         <v>949</v>
       </c>
       <c r="K1358" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1358">
         <v>2</v>
@@ -63372,7 +63642,7 @@
         <v>949</v>
       </c>
       <c r="K1359" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1359">
         <v>3</v>
@@ -63416,7 +63686,7 @@
         <v>949</v>
       </c>
       <c r="K1360" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1360">
         <v>2</v>
@@ -63460,7 +63730,7 @@
         <v>949</v>
       </c>
       <c r="K1361" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1361">
         <v>4</v>
@@ -63504,7 +63774,7 @@
         <v>949</v>
       </c>
       <c r="K1362" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1362">
         <v>2</v>
@@ -63548,7 +63818,7 @@
         <v>949</v>
       </c>
       <c r="K1363" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1363">
         <v>1</v>
@@ -63592,7 +63862,7 @@
         <v>949</v>
       </c>
       <c r="K1364" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1364">
         <v>2</v>
@@ -63636,7 +63906,7 @@
         <v>949</v>
       </c>
       <c r="K1365" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1365">
         <v>2</v>
@@ -63680,7 +63950,7 @@
         <v>949</v>
       </c>
       <c r="K1366" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1366">
         <v>3</v>
@@ -63724,7 +63994,7 @@
         <v>949</v>
       </c>
       <c r="K1367" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1367">
         <v>2</v>
@@ -63768,7 +64038,7 @@
         <v>949</v>
       </c>
       <c r="K1368" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1368">
         <v>3</v>
@@ -63812,7 +64082,7 @@
         <v>949</v>
       </c>
       <c r="K1369" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1369">
         <v>4</v>
@@ -63856,7 +64126,7 @@
         <v>949</v>
       </c>
       <c r="K1370" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1370">
         <v>3</v>
@@ -63900,7 +64170,7 @@
         <v>949</v>
       </c>
       <c r="K1371" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1371">
         <v>2</v>
@@ -63944,7 +64214,7 @@
         <v>949</v>
       </c>
       <c r="K1372" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1372">
         <v>3</v>
@@ -63988,7 +64258,7 @@
         <v>949</v>
       </c>
       <c r="K1373" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1373">
         <v>2</v>
@@ -64032,7 +64302,7 @@
         <v>949</v>
       </c>
       <c r="K1374" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1374">
         <v>4</v>
@@ -64076,7 +64346,7 @@
         <v>949</v>
       </c>
       <c r="K1375" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1375">
         <v>3</v>
@@ -64120,7 +64390,7 @@
         <v>949</v>
       </c>
       <c r="K1376" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1376">
         <v>3</v>
@@ -64164,7 +64434,7 @@
         <v>949</v>
       </c>
       <c r="K1377" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1377">
         <v>3</v>
@@ -64208,7 +64478,7 @@
         <v>949</v>
       </c>
       <c r="K1378" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1378">
         <v>2</v>
@@ -64252,7 +64522,7 @@
         <v>949</v>
       </c>
       <c r="K1379" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1379">
         <v>4</v>
@@ -64296,7 +64566,7 @@
         <v>949</v>
       </c>
       <c r="K1380" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1380">
         <v>3</v>
@@ -64340,7 +64610,7 @@
         <v>949</v>
       </c>
       <c r="K1381" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1381">
         <v>4</v>
@@ -64384,7 +64654,7 @@
         <v>949</v>
       </c>
       <c r="K1382" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1382">
         <v>4</v>
@@ -64428,7 +64698,7 @@
         <v>949</v>
       </c>
       <c r="K1383" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1383">
         <v>2</v>
@@ -64472,7 +64742,7 @@
         <v>949</v>
       </c>
       <c r="K1384" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1384">
         <v>4</v>
@@ -64516,7 +64786,7 @@
         <v>949</v>
       </c>
       <c r="K1385" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1385">
         <v>3</v>
@@ -64560,7 +64830,7 @@
         <v>949</v>
       </c>
       <c r="K1386" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1386">
         <v>3</v>
@@ -64604,7 +64874,7 @@
         <v>949</v>
       </c>
       <c r="K1387" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1387">
         <v>3</v>
@@ -64648,7 +64918,7 @@
         <v>949</v>
       </c>
       <c r="K1388" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1388">
         <v>3</v>
@@ -64692,7 +64962,7 @@
         <v>949</v>
       </c>
       <c r="K1389" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1389">
         <v>2</v>
@@ -64736,7 +65006,7 @@
         <v>949</v>
       </c>
       <c r="K1390" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1390">
         <v>4</v>
@@ -64780,7 +65050,7 @@
         <v>949</v>
       </c>
       <c r="K1391" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1391">
         <v>3</v>
@@ -64824,7 +65094,7 @@
         <v>949</v>
       </c>
       <c r="K1392" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1392">
         <v>3</v>
@@ -64868,7 +65138,7 @@
         <v>949</v>
       </c>
       <c r="K1393" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1393">
         <v>3</v>
@@ -64912,7 +65182,7 @@
         <v>949</v>
       </c>
       <c r="K1394" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1394">
         <v>3</v>
@@ -64956,7 +65226,7 @@
         <v>949</v>
       </c>
       <c r="K1395" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1395">
         <v>2</v>
@@ -65000,7 +65270,7 @@
         <v>949</v>
       </c>
       <c r="K1396" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1396">
         <v>2</v>
@@ -65044,7 +65314,7 @@
         <v>949</v>
       </c>
       <c r="K1397" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1397">
         <v>3</v>
@@ -65088,7 +65358,7 @@
         <v>949</v>
       </c>
       <c r="K1398" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1398">
         <v>4</v>
@@ -65132,7 +65402,7 @@
         <v>949</v>
       </c>
       <c r="K1399" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1399">
         <v>3</v>
@@ -65176,7 +65446,7 @@
         <v>949</v>
       </c>
       <c r="K1400" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1400">
         <v>3</v>
@@ -65220,7 +65490,7 @@
         <v>949</v>
       </c>
       <c r="K1401" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1401">
         <v>4</v>
@@ -65264,7 +65534,7 @@
         <v>949</v>
       </c>
       <c r="K1402" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1402">
         <v>2</v>
@@ -65308,7 +65578,7 @@
         <v>949</v>
       </c>
       <c r="K1403" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1403">
         <v>2</v>
@@ -65352,7 +65622,7 @@
         <v>949</v>
       </c>
       <c r="K1404" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1404">
         <v>3</v>
@@ -65396,7 +65666,7 @@
         <v>949</v>
       </c>
       <c r="K1405" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1405">
         <v>3</v>
@@ -65440,7 +65710,7 @@
         <v>949</v>
       </c>
       <c r="K1406" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1406">
         <v>3</v>
@@ -65484,7 +65754,7 @@
         <v>949</v>
       </c>
       <c r="K1407" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1407">
         <v>4</v>
@@ -65528,7 +65798,7 @@
         <v>949</v>
       </c>
       <c r="K1408" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1408">
         <v>2</v>
@@ -65572,7 +65842,7 @@
         <v>949</v>
       </c>
       <c r="K1409" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1409">
         <v>2</v>
@@ -65616,7 +65886,7 @@
         <v>949</v>
       </c>
       <c r="K1410" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1410">
         <v>3</v>
@@ -65660,7 +65930,7 @@
         <v>949</v>
       </c>
       <c r="K1411" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1411">
         <v>3</v>
@@ -65704,7 +65974,7 @@
         <v>949</v>
       </c>
       <c r="K1412" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1412">
         <v>3</v>
@@ -65748,7 +66018,7 @@
         <v>949</v>
       </c>
       <c r="K1413" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1413">
         <v>4</v>
@@ -65792,7 +66062,7 @@
         <v>949</v>
       </c>
       <c r="K1414" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1414">
         <v>3</v>
@@ -65836,7 +66106,7 @@
         <v>949</v>
       </c>
       <c r="K1415" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1415">
         <v>4</v>
@@ -65880,7 +66150,7 @@
         <v>949</v>
       </c>
       <c r="K1416" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1416">
         <v>4</v>
@@ -65924,7 +66194,7 @@
         <v>949</v>
       </c>
       <c r="K1417" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1417">
         <v>1</v>
@@ -65968,7 +66238,7 @@
         <v>949</v>
       </c>
       <c r="K1418" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1418">
         <v>2</v>
@@ -66012,7 +66282,7 @@
         <v>949</v>
       </c>
       <c r="K1419" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1419">
         <v>3</v>
@@ -66056,7 +66326,7 @@
         <v>949</v>
       </c>
       <c r="K1420" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1420">
         <v>2</v>
@@ -66100,7 +66370,7 @@
         <v>949</v>
       </c>
       <c r="K1421" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1421">
         <v>4</v>
@@ -66144,7 +66414,7 @@
         <v>949</v>
       </c>
       <c r="K1422" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1422">
         <v>3</v>
@@ -66188,7 +66458,7 @@
         <v>949</v>
       </c>
       <c r="K1423" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1423">
         <v>3</v>
@@ -66232,7 +66502,7 @@
         <v>949</v>
       </c>
       <c r="K1424" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1424">
         <v>4</v>
@@ -66276,7 +66546,7 @@
         <v>949</v>
       </c>
       <c r="K1425" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1425">
         <v>3</v>
@@ -66320,7 +66590,7 @@
         <v>949</v>
       </c>
       <c r="K1426" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1426">
         <v>3</v>
@@ -66364,7 +66634,7 @@
         <v>949</v>
       </c>
       <c r="K1427" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1427">
         <v>3</v>
@@ -66408,7 +66678,7 @@
         <v>949</v>
       </c>
       <c r="K1428" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1428">
         <v>2</v>
@@ -66452,7 +66722,7 @@
         <v>949</v>
       </c>
       <c r="K1429" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1429">
         <v>3</v>
@@ -66496,7 +66766,7 @@
         <v>949</v>
       </c>
       <c r="K1430" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1430">
         <v>2</v>
@@ -66540,7 +66810,7 @@
         <v>949</v>
       </c>
       <c r="K1431" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1431">
         <v>3</v>
@@ -66584,7 +66854,7 @@
         <v>949</v>
       </c>
       <c r="K1432" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1432">
         <v>3</v>
@@ -66628,7 +66898,7 @@
         <v>949</v>
       </c>
       <c r="K1433" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1433">
         <v>3</v>
@@ -66672,7 +66942,7 @@
         <v>949</v>
       </c>
       <c r="K1434" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1434">
         <v>3</v>
@@ -66716,7 +66986,7 @@
         <v>949</v>
       </c>
       <c r="K1435" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1435">
         <v>3</v>
@@ -66760,7 +67030,7 @@
         <v>949</v>
       </c>
       <c r="K1436" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1436">
         <v>4</v>
@@ -66804,7 +67074,7 @@
         <v>949</v>
       </c>
       <c r="K1437" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1437">
         <v>2</v>
@@ -66848,7 +67118,7 @@
         <v>949</v>
       </c>
       <c r="K1438" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1438">
         <v>4</v>
@@ -66892,7 +67162,7 @@
         <v>949</v>
       </c>
       <c r="K1439" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1439">
         <v>2</v>
@@ -66936,7 +67206,7 @@
         <v>949</v>
       </c>
       <c r="K1440" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1440">
         <v>3</v>
@@ -66980,7 +67250,7 @@
         <v>949</v>
       </c>
       <c r="K1441" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1441">
         <v>4</v>
@@ -67024,7 +67294,7 @@
         <v>949</v>
       </c>
       <c r="K1442" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1442">
         <v>3</v>
@@ -67068,7 +67338,7 @@
         <v>949</v>
       </c>
       <c r="K1443" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1443">
         <v>4</v>
@@ -67112,7 +67382,7 @@
         <v>949</v>
       </c>
       <c r="K1444" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1444">
         <v>4</v>
@@ -67156,7 +67426,7 @@
         <v>949</v>
       </c>
       <c r="K1445" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1445">
         <v>4</v>
@@ -67200,7 +67470,7 @@
         <v>949</v>
       </c>
       <c r="K1446" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1446">
         <v>3</v>
@@ -67244,7 +67514,7 @@
         <v>949</v>
       </c>
       <c r="K1447" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1447">
         <v>4</v>
@@ -67288,7 +67558,7 @@
         <v>949</v>
       </c>
       <c r="K1448" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1448">
         <v>1</v>
@@ -67332,7 +67602,7 @@
         <v>949</v>
       </c>
       <c r="K1449" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1449">
         <v>3</v>
@@ -67376,7 +67646,7 @@
         <v>949</v>
       </c>
       <c r="K1450" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1450">
         <v>4</v>
@@ -67420,7 +67690,7 @@
         <v>949</v>
       </c>
       <c r="K1451" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1451">
         <v>3</v>
@@ -67464,7 +67734,7 @@
         <v>949</v>
       </c>
       <c r="K1452" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1452">
         <v>3</v>
@@ -67508,7 +67778,7 @@
         <v>949</v>
       </c>
       <c r="K1453" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1453">
         <v>3</v>
@@ -67552,7 +67822,7 @@
         <v>949</v>
       </c>
       <c r="K1454" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1454">
         <v>1</v>
@@ -67596,7 +67866,7 @@
         <v>949</v>
       </c>
       <c r="K1455" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1455">
         <v>3</v>
@@ -67640,7 +67910,7 @@
         <v>949</v>
       </c>
       <c r="K1456" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1456">
         <v>3</v>
@@ -67684,7 +67954,7 @@
         <v>949</v>
       </c>
       <c r="K1457" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1457">
         <v>2</v>
@@ -67728,7 +67998,7 @@
         <v>949</v>
       </c>
       <c r="K1458" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1458">
         <v>3</v>
@@ -67772,7 +68042,7 @@
         <v>949</v>
       </c>
       <c r="K1459" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1459">
         <v>1</v>
@@ -67816,7 +68086,7 @@
         <v>949</v>
       </c>
       <c r="K1460" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1460">
         <v>3</v>
@@ -67860,7 +68130,7 @@
         <v>949</v>
       </c>
       <c r="K1461" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1461">
         <v>3</v>
@@ -67904,7 +68174,7 @@
         <v>949</v>
       </c>
       <c r="K1462" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1462">
         <v>4</v>
@@ -67948,7 +68218,7 @@
         <v>949</v>
       </c>
       <c r="K1463" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1463">
         <v>4</v>
@@ -67992,7 +68262,7 @@
         <v>949</v>
       </c>
       <c r="K1464" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1464">
         <v>4</v>
@@ -68036,7 +68306,7 @@
         <v>949</v>
       </c>
       <c r="K1465" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1465">
         <v>2</v>
@@ -68080,7 +68350,7 @@
         <v>949</v>
       </c>
       <c r="K1466" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1466">
         <v>3</v>
@@ -68124,7 +68394,7 @@
         <v>949</v>
       </c>
       <c r="K1467" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1467">
         <v>3</v>
@@ -68168,7 +68438,7 @@
         <v>949</v>
       </c>
       <c r="K1468" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1468">
         <v>2</v>
@@ -68212,7 +68482,7 @@
         <v>949</v>
       </c>
       <c r="K1469" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1469">
         <v>3</v>
@@ -68256,7 +68526,7 @@
         <v>949</v>
       </c>
       <c r="K1470" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1470">
         <v>2</v>
@@ -68300,7 +68570,7 @@
         <v>949</v>
       </c>
       <c r="K1471" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1471">
         <v>4</v>
@@ -68344,7 +68614,7 @@
         <v>949</v>
       </c>
       <c r="K1472" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1472">
         <v>4</v>
@@ -68388,7 +68658,7 @@
         <v>949</v>
       </c>
       <c r="K1473" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1473">
         <v>3</v>
@@ -68432,7 +68702,7 @@
         <v>949</v>
       </c>
       <c r="K1474" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1474">
         <v>4</v>
@@ -68476,7 +68746,7 @@
         <v>949</v>
       </c>
       <c r="K1475" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1475">
         <v>1</v>
@@ -68520,7 +68790,7 @@
         <v>949</v>
       </c>
       <c r="K1476" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1476">
         <v>4</v>
@@ -68564,7 +68834,7 @@
         <v>949</v>
       </c>
       <c r="K1477" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1477">
         <v>2</v>
@@ -68608,7 +68878,7 @@
         <v>949</v>
       </c>
       <c r="K1478" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1478">
         <v>1</v>
@@ -68652,7 +68922,7 @@
         <v>949</v>
       </c>
       <c r="K1479" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1479">
         <v>3</v>
@@ -68696,7 +68966,7 @@
         <v>949</v>
       </c>
       <c r="K1480" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1480">
         <v>3</v>
@@ -68740,7 +69010,7 @@
         <v>949</v>
       </c>
       <c r="K1481" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1481">
         <v>3</v>
@@ -68784,7 +69054,7 @@
         <v>949</v>
       </c>
       <c r="K1482" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1482">
         <v>3</v>
@@ -68828,7 +69098,7 @@
         <v>949</v>
       </c>
       <c r="K1483" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1483">
         <v>2</v>
@@ -68872,7 +69142,7 @@
         <v>949</v>
       </c>
       <c r="K1484" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1484">
         <v>2</v>
@@ -68916,7 +69186,7 @@
         <v>949</v>
       </c>
       <c r="K1485" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1485">
         <v>2</v>
@@ -68960,7 +69230,7 @@
         <v>949</v>
       </c>
       <c r="K1486" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1486">
         <v>2</v>
@@ -69004,7 +69274,7 @@
         <v>949</v>
       </c>
       <c r="K1487" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1487">
         <v>3</v>
@@ -69048,7 +69318,7 @@
         <v>949</v>
       </c>
       <c r="K1488" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1488">
         <v>3</v>
@@ -69092,7 +69362,7 @@
         <v>949</v>
       </c>
       <c r="K1489" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1489">
         <v>3</v>
@@ -69136,7 +69406,7 @@
         <v>949</v>
       </c>
       <c r="K1490" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1490">
         <v>4</v>
@@ -69180,7 +69450,7 @@
         <v>949</v>
       </c>
       <c r="K1491" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1491">
         <v>3</v>
@@ -69224,7 +69494,7 @@
         <v>949</v>
       </c>
       <c r="K1492" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1492">
         <v>1</v>
@@ -69268,7 +69538,7 @@
         <v>949</v>
       </c>
       <c r="K1493" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1493">
         <v>4</v>
@@ -69312,7 +69582,7 @@
         <v>949</v>
       </c>
       <c r="K1494" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1494">
         <v>4</v>
@@ -69356,7 +69626,7 @@
         <v>949</v>
       </c>
       <c r="K1495" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1495">
         <v>2</v>
@@ -69400,7 +69670,7 @@
         <v>949</v>
       </c>
       <c r="K1496" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1496">
         <v>3</v>
@@ -69444,7 +69714,7 @@
         <v>949</v>
       </c>
       <c r="K1497" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1497">
         <v>2</v>
@@ -69488,7 +69758,7 @@
         <v>949</v>
       </c>
       <c r="K1498" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1498">
         <v>4</v>
@@ -69532,7 +69802,7 @@
         <v>949</v>
       </c>
       <c r="K1499" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1499">
         <v>2</v>
@@ -69576,7 +69846,7 @@
         <v>949</v>
       </c>
       <c r="K1500" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1500">
         <v>3</v>
@@ -69620,7 +69890,7 @@
         <v>949</v>
       </c>
       <c r="K1501" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1501">
         <v>1</v>
@@ -69664,7 +69934,7 @@
         <v>949</v>
       </c>
       <c r="K1502" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1502">
         <v>4</v>
@@ -69708,7 +69978,7 @@
         <v>949</v>
       </c>
       <c r="K1503" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1503">
         <v>3</v>
@@ -69752,7 +70022,7 @@
         <v>949</v>
       </c>
       <c r="K1504" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="L1504">
         <v>4</v>
@@ -69762,6 +70032,6034 @@
       </c>
       <c r="N1504">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:14" ht="15" customHeight="1">
+      <c r="A1505" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>789</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1505" s="14">
+        <v>181.35769230769228</v>
+      </c>
+      <c r="E1505" s="13">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="F1505" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1505" s="13">
+        <v>34.5</v>
+      </c>
+      <c r="H1505" s="13">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I1505" s="13">
+        <v>62</v>
+      </c>
+      <c r="J1505" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1505" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1505">
+        <v>1</v>
+      </c>
+      <c r="M1505">
+        <v>2</v>
+      </c>
+      <c r="N1505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:14" ht="15" customHeight="1">
+      <c r="A1506" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D1506" s="14">
+        <v>206.25</v>
+      </c>
+      <c r="E1506" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="F1506" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1506" s="13">
+        <v>38.75</v>
+      </c>
+      <c r="H1506" s="13">
+        <v>44.66</v>
+      </c>
+      <c r="I1506" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1506" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1506" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1506">
+        <v>2</v>
+      </c>
+      <c r="M1506">
+        <v>2</v>
+      </c>
+      <c r="N1506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:14" ht="15" customHeight="1">
+      <c r="A1507" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>783</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D1507" s="14">
+        <v>202.21153846153845</v>
+      </c>
+      <c r="E1507" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="F1507" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1507" s="13">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="H1507" s="13">
+        <v>42.66</v>
+      </c>
+      <c r="I1507" s="13">
+        <v>90</v>
+      </c>
+      <c r="J1507" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1507" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1507">
+        <v>1</v>
+      </c>
+      <c r="M1507">
+        <v>2</v>
+      </c>
+      <c r="N1507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:14" ht="15" customHeight="1">
+      <c r="A1508" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1508" s="14">
+        <v>215.2076923076923</v>
+      </c>
+      <c r="E1508" s="13">
+        <v>39</v>
+      </c>
+      <c r="F1508" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1508" s="13">
+        <v>38.58</v>
+      </c>
+      <c r="H1508" s="13">
+        <v>54.58</v>
+      </c>
+      <c r="I1508" s="13">
+        <v>46</v>
+      </c>
+      <c r="J1508" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1508" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1508">
+        <v>2</v>
+      </c>
+      <c r="M1508">
+        <v>2</v>
+      </c>
+      <c r="N1508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:14" ht="15" customHeight="1">
+      <c r="A1509" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>763</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1509" s="14">
+        <v>199.96153846153851</v>
+      </c>
+      <c r="E1509" s="13">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="F1509" s="13">
+        <v>41.46</v>
+      </c>
+      <c r="G1509" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="H1509" s="13">
+        <v>42.58</v>
+      </c>
+      <c r="I1509" s="13">
+        <v>72</v>
+      </c>
+      <c r="J1509" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1509" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1509">
+        <v>2</v>
+      </c>
+      <c r="M1509">
+        <v>2</v>
+      </c>
+      <c r="N1509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:14" ht="15" customHeight="1">
+      <c r="A1510" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1510" s="14">
+        <v>241.47307692307692</v>
+      </c>
+      <c r="E1510" s="13">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="F1510" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1510" s="13">
+        <v>38.75</v>
+      </c>
+      <c r="H1510" s="13">
+        <v>54.42</v>
+      </c>
+      <c r="I1510" s="13">
+        <v>86</v>
+      </c>
+      <c r="J1510" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1510" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1510">
+        <v>2</v>
+      </c>
+      <c r="M1510">
+        <v>2</v>
+      </c>
+      <c r="N1510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:14" ht="15" customHeight="1">
+      <c r="A1511" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1511" s="14">
+        <v>126.09615384615384</v>
+      </c>
+      <c r="E1511" s="13">
+        <v>36.92</v>
+      </c>
+      <c r="F1511" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1511" s="13">
+        <v>22.66</v>
+      </c>
+      <c r="H1511" s="13">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="I1511" s="13">
+        <v>34</v>
+      </c>
+      <c r="J1511" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1511" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1511">
+        <v>1</v>
+      </c>
+      <c r="M1511">
+        <v>2</v>
+      </c>
+      <c r="N1511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:14" ht="15" customHeight="1">
+      <c r="A1512" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1512" s="14">
+        <v>158.98846153846154</v>
+      </c>
+      <c r="E1512" s="13">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="F1512" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1512" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="H1512" s="13">
+        <v>38.42</v>
+      </c>
+      <c r="I1512" s="13">
+        <v>36</v>
+      </c>
+      <c r="J1512" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1512" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1512">
+        <v>1</v>
+      </c>
+      <c r="M1512">
+        <v>2</v>
+      </c>
+      <c r="N1512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:14" ht="15" customHeight="1">
+      <c r="A1513" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1513" s="14">
+        <v>193.92692307692306</v>
+      </c>
+      <c r="E1513" s="13">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="F1513" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1513" s="13">
+        <v>46.92</v>
+      </c>
+      <c r="H1513" s="13">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="I1513" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1513" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1513" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1513">
+        <v>1</v>
+      </c>
+      <c r="M1513">
+        <v>2</v>
+      </c>
+      <c r="N1513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:14" ht="15" customHeight="1">
+      <c r="A1514" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1514" s="14">
+        <v>231.04615384615389</v>
+      </c>
+      <c r="E1514" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="F1514" s="13">
+        <v>46.34</v>
+      </c>
+      <c r="G1514" s="13">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="H1514" s="13">
+        <v>48.66</v>
+      </c>
+      <c r="I1514" s="13">
+        <v>90</v>
+      </c>
+      <c r="J1514" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1514" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1514">
+        <v>2</v>
+      </c>
+      <c r="M1514">
+        <v>2</v>
+      </c>
+      <c r="N1514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:14" ht="15" customHeight="1">
+      <c r="A1515" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>768</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1515" s="14">
+        <v>174.34230769230771</v>
+      </c>
+      <c r="E1515" s="13">
+        <v>34.92</v>
+      </c>
+      <c r="F1515" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1515" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="H1515" s="13">
+        <v>38.42</v>
+      </c>
+      <c r="I1515" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1515" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1515" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1515">
+        <v>2</v>
+      </c>
+      <c r="M1515">
+        <v>1</v>
+      </c>
+      <c r="N1515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:14" ht="15" customHeight="1">
+      <c r="A1516" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>770</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1516" s="14">
+        <v>206.82307692307691</v>
+      </c>
+      <c r="E1516" s="13">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="F1516" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1516" s="13">
+        <v>38.75</v>
+      </c>
+      <c r="H1516" s="13">
+        <v>52.58</v>
+      </c>
+      <c r="I1516" s="13">
+        <v>50</v>
+      </c>
+      <c r="J1516" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1516" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1516">
+        <v>2</v>
+      </c>
+      <c r="M1516">
+        <v>1</v>
+      </c>
+      <c r="N1516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:14" ht="15" customHeight="1">
+      <c r="A1517" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1517" s="14">
+        <v>221.74230769230766</v>
+      </c>
+      <c r="E1517" s="13">
+        <v>34.58</v>
+      </c>
+      <c r="F1517" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1517" s="13">
+        <v>39</v>
+      </c>
+      <c r="H1517" s="13">
+        <v>60.66</v>
+      </c>
+      <c r="I1517" s="13">
+        <v>86</v>
+      </c>
+      <c r="J1517" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1517" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1517">
+        <v>1</v>
+      </c>
+      <c r="M1517">
+        <v>1</v>
+      </c>
+      <c r="N1517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:14" ht="15" customHeight="1">
+      <c r="A1518" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1518" s="14">
+        <v>167.11538461538461</v>
+      </c>
+      <c r="E1518" s="13">
+        <v>32.75</v>
+      </c>
+      <c r="F1518" s="13">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="G1518" s="13">
+        <v>38.58</v>
+      </c>
+      <c r="H1518" s="13">
+        <v>46.66</v>
+      </c>
+      <c r="I1518" s="13">
+        <v>22</v>
+      </c>
+      <c r="J1518" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1518" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1518">
+        <v>1</v>
+      </c>
+      <c r="M1518">
+        <v>1</v>
+      </c>
+      <c r="N1518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:14" ht="15" customHeight="1">
+      <c r="A1519" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>792</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1519" s="14">
+        <v>177.64999999999998</v>
+      </c>
+      <c r="E1519" s="13">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="F1519" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1519" s="13">
+        <v>42.92</v>
+      </c>
+      <c r="H1519" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="I1519" s="13">
+        <v>52</v>
+      </c>
+      <c r="J1519" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1519" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1519">
+        <v>1</v>
+      </c>
+      <c r="M1519">
+        <v>1</v>
+      </c>
+      <c r="N1519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:14" ht="15" customHeight="1">
+      <c r="A1520" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1520" s="14">
+        <v>180.16153846153844</v>
+      </c>
+      <c r="E1520" s="13">
+        <v>32.58</v>
+      </c>
+      <c r="F1520" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1520" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="H1520" s="13">
+        <v>46.75</v>
+      </c>
+      <c r="I1520" s="13">
+        <v>18</v>
+      </c>
+      <c r="J1520" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1520" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1520">
+        <v>1</v>
+      </c>
+      <c r="M1520">
+        <v>1</v>
+      </c>
+      <c r="N1520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:14" ht="15" customHeight="1">
+      <c r="A1521" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1521" s="14">
+        <v>223.01538461538468</v>
+      </c>
+      <c r="E1521" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="F1521" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1521" s="13">
+        <v>39.08</v>
+      </c>
+      <c r="H1521" s="13">
+        <v>52.84</v>
+      </c>
+      <c r="I1521" s="13">
+        <v>90</v>
+      </c>
+      <c r="J1521" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1521" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1521">
+        <v>2</v>
+      </c>
+      <c r="M1521">
+        <v>1</v>
+      </c>
+      <c r="N1521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:14" ht="15" customHeight="1">
+      <c r="A1522" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>776</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1522" s="14">
+        <v>169.48461538461535</v>
+      </c>
+      <c r="E1522" s="13">
+        <v>30.75</v>
+      </c>
+      <c r="F1522" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1522" s="13">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="H1522" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="I1522" s="13">
+        <v>32</v>
+      </c>
+      <c r="J1522" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1522" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1522">
+        <v>1</v>
+      </c>
+      <c r="M1522">
+        <v>1</v>
+      </c>
+      <c r="N1522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:14" ht="15" customHeight="1">
+      <c r="A1523" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1523" s="14">
+        <v>183.56538461538457</v>
+      </c>
+      <c r="E1523" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="F1523" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1523" s="13">
+        <v>34.58</v>
+      </c>
+      <c r="H1523" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="I1523" s="13">
+        <v>72</v>
+      </c>
+      <c r="J1523" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1523" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1523">
+        <v>1</v>
+      </c>
+      <c r="M1523">
+        <v>1</v>
+      </c>
+      <c r="N1523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:14" ht="15" customHeight="1">
+      <c r="A1524" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1524" s="14">
+        <v>187.79999999999998</v>
+      </c>
+      <c r="E1524" s="13">
+        <v>30.34</v>
+      </c>
+      <c r="F1524" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1524" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="H1524" s="13">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="I1524" s="13">
+        <v>84</v>
+      </c>
+      <c r="J1524" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1524" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1524">
+        <v>1</v>
+      </c>
+      <c r="M1524">
+        <v>1</v>
+      </c>
+      <c r="N1524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:14" ht="15" customHeight="1">
+      <c r="A1525" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1525" s="14">
+        <v>159.49230769230769</v>
+      </c>
+      <c r="E1525" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="F1525" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1525" s="13">
+        <v>38.58</v>
+      </c>
+      <c r="H1525" s="13">
+        <v>22.25</v>
+      </c>
+      <c r="I1525" s="13">
+        <v>44</v>
+      </c>
+      <c r="J1525" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1525" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1525">
+        <v>1</v>
+      </c>
+      <c r="M1525">
+        <v>1</v>
+      </c>
+      <c r="N1525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:14" ht="15" customHeight="1">
+      <c r="A1526" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1526" s="14">
+        <v>142.61153846153846</v>
+      </c>
+      <c r="E1526" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="F1526" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1526" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="H1526" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="I1526" s="13">
+        <v>26</v>
+      </c>
+      <c r="J1526" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1526" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1526">
+        <v>1</v>
+      </c>
+      <c r="M1526">
+        <v>1</v>
+      </c>
+      <c r="N1526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:14" ht="15" customHeight="1">
+      <c r="A1527" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1527" s="14">
+        <v>162.84230769230771</v>
+      </c>
+      <c r="E1527" s="13">
+        <v>28.42</v>
+      </c>
+      <c r="F1527" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1527" s="13">
+        <v>24.42</v>
+      </c>
+      <c r="H1527" s="13">
+        <v>48.34</v>
+      </c>
+      <c r="I1527" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1527" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1527" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1527">
+        <v>1</v>
+      </c>
+      <c r="M1527">
+        <v>1</v>
+      </c>
+      <c r="N1527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:14" ht="15" customHeight="1">
+      <c r="A1528" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>801</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1528" s="14">
+        <v>120.0076923076923</v>
+      </c>
+      <c r="E1528" s="13">
+        <v>26.75</v>
+      </c>
+      <c r="F1528" s="13">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="G1528" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="H1528" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="I1528" s="13">
+        <v>26</v>
+      </c>
+      <c r="J1528" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1528" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1528">
+        <v>1</v>
+      </c>
+      <c r="M1528">
+        <v>1</v>
+      </c>
+      <c r="N1528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:14" ht="15" customHeight="1">
+      <c r="A1529" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1529" s="14">
+        <v>177.33076923076925</v>
+      </c>
+      <c r="E1529" s="13">
+        <v>26.66</v>
+      </c>
+      <c r="F1529" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1529" s="13">
+        <v>28.34</v>
+      </c>
+      <c r="H1529" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="I1529" s="13">
+        <v>86</v>
+      </c>
+      <c r="J1529" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1529" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1529">
+        <v>1</v>
+      </c>
+      <c r="M1529">
+        <v>1</v>
+      </c>
+      <c r="N1529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:14" ht="15" customHeight="1">
+      <c r="A1530" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1530" s="14">
+        <v>171.78461538461536</v>
+      </c>
+      <c r="E1530" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="F1530" s="13">
+        <v>41.46</v>
+      </c>
+      <c r="G1530" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="H1530" s="13">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="I1530" s="13">
+        <v>36</v>
+      </c>
+      <c r="J1530" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1530" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1530">
+        <v>2</v>
+      </c>
+      <c r="M1530">
+        <v>1</v>
+      </c>
+      <c r="N1530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:14" ht="15" customHeight="1">
+      <c r="A1531" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1531" s="14">
+        <v>120.58076923076922</v>
+      </c>
+      <c r="E1531" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1531" s="13">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="G1531" s="13">
+        <v>24.66</v>
+      </c>
+      <c r="H1531" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="I1531" s="13">
+        <v>16</v>
+      </c>
+      <c r="J1531" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1531" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1531">
+        <v>1</v>
+      </c>
+      <c r="M1531">
+        <v>1</v>
+      </c>
+      <c r="N1531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:14" ht="15" customHeight="1">
+      <c r="A1532" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1532" s="14">
+        <v>205.6423076923077</v>
+      </c>
+      <c r="E1532" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1532" s="13">
+        <v>51.22</v>
+      </c>
+      <c r="G1532" s="13">
+        <v>30.25</v>
+      </c>
+      <c r="H1532" s="13">
+        <v>53</v>
+      </c>
+      <c r="I1532" s="13">
+        <v>52</v>
+      </c>
+      <c r="J1532" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1532" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1532">
+        <v>3</v>
+      </c>
+      <c r="M1532">
+        <v>1</v>
+      </c>
+      <c r="N1532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:14" ht="15" customHeight="1">
+      <c r="A1533" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1533" s="14">
+        <v>195.95384615384617</v>
+      </c>
+      <c r="E1533" s="13">
+        <v>26.34</v>
+      </c>
+      <c r="F1533" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="G1533" s="13">
+        <v>36.5</v>
+      </c>
+      <c r="H1533" s="13">
+        <v>42.42</v>
+      </c>
+      <c r="I1533" s="13">
+        <v>62</v>
+      </c>
+      <c r="J1533" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1533" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1533">
+        <v>2</v>
+      </c>
+      <c r="M1533">
+        <v>1</v>
+      </c>
+      <c r="N1533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:14" ht="15" customHeight="1">
+      <c r="A1534" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>757</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1534" s="14">
+        <v>195.82692307692307</v>
+      </c>
+      <c r="E1534" s="13">
+        <v>24.66</v>
+      </c>
+      <c r="F1534" s="13">
+        <v>51.22</v>
+      </c>
+      <c r="G1534" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="H1534" s="13">
+        <v>54.75</v>
+      </c>
+      <c r="I1534" s="13">
+        <v>50</v>
+      </c>
+      <c r="J1534" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1534" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1534">
+        <v>3</v>
+      </c>
+      <c r="M1534">
+        <v>1</v>
+      </c>
+      <c r="N1534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:14" ht="15" customHeight="1">
+      <c r="A1535" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D1535" s="14">
+        <v>130.4576923076923</v>
+      </c>
+      <c r="E1535" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="F1535" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1535" s="13">
+        <v>28.34</v>
+      </c>
+      <c r="H1535" s="13">
+        <v>28.42</v>
+      </c>
+      <c r="I1535" s="13">
+        <v>22</v>
+      </c>
+      <c r="J1535" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1535" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1535">
+        <v>1</v>
+      </c>
+      <c r="M1535">
+        <v>1</v>
+      </c>
+      <c r="N1535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:14" ht="15" customHeight="1">
+      <c r="A1536" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1536" s="14">
+        <v>186.72307692307692</v>
+      </c>
+      <c r="E1536" s="13">
+        <v>24.42</v>
+      </c>
+      <c r="F1536" s="13">
+        <v>53.66</v>
+      </c>
+      <c r="G1536" s="13">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="H1536" s="13">
+        <v>58.66</v>
+      </c>
+      <c r="I1536" s="13">
+        <v>26</v>
+      </c>
+      <c r="J1536" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1536" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1536">
+        <v>3</v>
+      </c>
+      <c r="M1536">
+        <v>1</v>
+      </c>
+      <c r="N1536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:14" ht="15" customHeight="1">
+      <c r="A1537" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1537" s="14">
+        <v>184.45</v>
+      </c>
+      <c r="E1537" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="F1537" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1537" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="H1537" s="13">
+        <v>59</v>
+      </c>
+      <c r="I1537" s="13">
+        <v>68</v>
+      </c>
+      <c r="J1537" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1537" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1537">
+        <v>1</v>
+      </c>
+      <c r="M1537">
+        <v>1</v>
+      </c>
+      <c r="N1537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:14" ht="15" customHeight="1">
+      <c r="A1538" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1538" s="14">
+        <v>177.3807692307692</v>
+      </c>
+      <c r="E1538" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="F1538" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1538" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="H1538" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="I1538" s="13">
+        <v>84</v>
+      </c>
+      <c r="J1538" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1538" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1538">
+        <v>1</v>
+      </c>
+      <c r="M1538">
+        <v>1</v>
+      </c>
+      <c r="N1538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:14" ht="15" customHeight="1">
+      <c r="A1539" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1539" s="14">
+        <v>164.87307692307692</v>
+      </c>
+      <c r="E1539" s="13">
+        <v>22.34</v>
+      </c>
+      <c r="F1539" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1539" s="13">
+        <v>34.5</v>
+      </c>
+      <c r="H1539" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I1539" s="13">
+        <v>66</v>
+      </c>
+      <c r="J1539" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1539" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1539">
+        <v>1</v>
+      </c>
+      <c r="M1539">
+        <v>1</v>
+      </c>
+      <c r="N1539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:14" ht="15" customHeight="1">
+      <c r="A1540" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1540" s="14">
+        <v>170.18076923076927</v>
+      </c>
+      <c r="E1540" s="13">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F1540" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1540" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="H1540" s="13">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I1540" s="13">
+        <v>84</v>
+      </c>
+      <c r="J1540" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1540" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1540">
+        <v>1</v>
+      </c>
+      <c r="M1540">
+        <v>1</v>
+      </c>
+      <c r="N1540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:14" ht="15" customHeight="1">
+      <c r="A1541" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1541" s="14">
+        <v>164.67307692307693</v>
+      </c>
+      <c r="E1541" s="13">
+        <v>20.34</v>
+      </c>
+      <c r="F1541" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1541" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="H1541" s="13">
+        <v>52.66</v>
+      </c>
+      <c r="I1541" s="13">
+        <v>44</v>
+      </c>
+      <c r="J1541" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1541" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1541">
+        <v>1</v>
+      </c>
+      <c r="M1541">
+        <v>1</v>
+      </c>
+      <c r="N1541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:14" ht="15" customHeight="1">
+      <c r="A1542" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1542" s="14">
+        <v>156.11153846153849</v>
+      </c>
+      <c r="E1542" s="13">
+        <v>18.16</v>
+      </c>
+      <c r="F1542" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1542" s="13">
+        <v>34.42</v>
+      </c>
+      <c r="H1542" s="13">
+        <v>42.34</v>
+      </c>
+      <c r="I1542" s="13">
+        <v>26</v>
+      </c>
+      <c r="J1542" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1542" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1542">
+        <v>1</v>
+      </c>
+      <c r="M1542">
+        <v>1</v>
+      </c>
+      <c r="N1542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:14" ht="15" customHeight="1">
+      <c r="A1543" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1543" s="14">
+        <v>160.74615384615385</v>
+      </c>
+      <c r="E1543" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="F1543" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1543" s="13">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="H1543" s="13">
+        <v>38.5</v>
+      </c>
+      <c r="I1543" s="13">
+        <v>58</v>
+      </c>
+      <c r="J1543" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1543" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1543">
+        <v>1</v>
+      </c>
+      <c r="M1543">
+        <v>1</v>
+      </c>
+      <c r="N1543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:14" ht="15" customHeight="1">
+      <c r="A1544" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1544" s="14">
+        <v>171.8923076923077</v>
+      </c>
+      <c r="E1544" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="F1544" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1544" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="H1544" s="13">
+        <v>38.58</v>
+      </c>
+      <c r="I1544" s="13">
+        <v>64</v>
+      </c>
+      <c r="J1544" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1544" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1544">
+        <v>1</v>
+      </c>
+      <c r="M1544">
+        <v>1</v>
+      </c>
+      <c r="N1544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:14" ht="15" customHeight="1">
+      <c r="A1545" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1545" s="14">
+        <v>121.95384615384614</v>
+      </c>
+      <c r="E1545" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="F1545" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1545" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="H1545" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I1545" s="13">
+        <v>16</v>
+      </c>
+      <c r="J1545" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1545" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1545">
+        <v>1</v>
+      </c>
+      <c r="M1545">
+        <v>1</v>
+      </c>
+      <c r="N1545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:14" ht="15" customHeight="1">
+      <c r="A1546" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1546" s="14">
+        <v>161.50384615384613</v>
+      </c>
+      <c r="E1546" s="13">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="F1546" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1546" s="13">
+        <v>28.66</v>
+      </c>
+      <c r="H1546" s="13">
+        <v>44.5</v>
+      </c>
+      <c r="I1546" s="13">
+        <v>78</v>
+      </c>
+      <c r="J1546" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1546" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1546">
+        <v>1</v>
+      </c>
+      <c r="M1546">
+        <v>1</v>
+      </c>
+      <c r="N1546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:14" ht="15" customHeight="1">
+      <c r="A1547" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>796</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1547" s="14">
+        <v>143.30384615384617</v>
+      </c>
+      <c r="E1547" s="13">
+        <v>16.34</v>
+      </c>
+      <c r="F1547" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1547" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="H1547" s="13">
+        <v>44.58</v>
+      </c>
+      <c r="I1547" s="13">
+        <v>32</v>
+      </c>
+      <c r="J1547" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1547" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1547">
+        <v>1</v>
+      </c>
+      <c r="M1547">
+        <v>1</v>
+      </c>
+      <c r="N1547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:14" ht="15" customHeight="1">
+      <c r="A1548" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1548" s="14">
+        <v>128.41923076923075</v>
+      </c>
+      <c r="E1548" s="13">
+        <v>12.25</v>
+      </c>
+      <c r="F1548" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1548" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="H1548" s="13">
+        <v>36.42</v>
+      </c>
+      <c r="I1548" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1548" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1548" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1548">
+        <v>1</v>
+      </c>
+      <c r="M1548">
+        <v>1</v>
+      </c>
+      <c r="N1548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:14" ht="15" customHeight="1">
+      <c r="A1549" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1549" s="14">
+        <v>207.02307692307693</v>
+      </c>
+      <c r="E1549" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="F1549" s="13">
+        <v>56.1</v>
+      </c>
+      <c r="G1549" s="13">
+        <v>24.5</v>
+      </c>
+      <c r="H1549" s="13">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="I1549" s="13">
+        <v>78</v>
+      </c>
+      <c r="J1549" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1549" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1549">
+        <v>3</v>
+      </c>
+      <c r="M1549">
+        <v>2</v>
+      </c>
+      <c r="N1549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:14" ht="15" customHeight="1">
+      <c r="A1550" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1550" s="14">
+        <v>241.59230769230768</v>
+      </c>
+      <c r="E1550" s="13">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="F1550" s="13">
+        <v>51.22</v>
+      </c>
+      <c r="G1550" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H1550" s="13">
+        <v>58.84</v>
+      </c>
+      <c r="I1550" s="13">
+        <v>72</v>
+      </c>
+      <c r="J1550" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1550" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1550">
+        <v>3</v>
+      </c>
+      <c r="M1550">
+        <v>1</v>
+      </c>
+      <c r="N1550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:14" ht="15" customHeight="1">
+      <c r="A1551" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1551" s="14">
+        <v>209.7461538461539</v>
+      </c>
+      <c r="E1551" s="13">
+        <v>32.42</v>
+      </c>
+      <c r="F1551" s="13">
+        <v>56.1</v>
+      </c>
+      <c r="G1551" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="H1551" s="13">
+        <v>46.92</v>
+      </c>
+      <c r="I1551" s="13">
+        <v>66</v>
+      </c>
+      <c r="J1551" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1551" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1551">
+        <v>3</v>
+      </c>
+      <c r="M1551">
+        <v>1</v>
+      </c>
+      <c r="N1551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:14" ht="15" customHeight="1">
+      <c r="A1552" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1552" s="14">
+        <v>172.44230769230768</v>
+      </c>
+      <c r="E1552" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="F1552" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1552" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="H1552" s="13">
+        <v>44.5</v>
+      </c>
+      <c r="I1552" s="13">
+        <v>48</v>
+      </c>
+      <c r="J1552" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1552" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1552">
+        <v>1</v>
+      </c>
+      <c r="M1552">
+        <v>1</v>
+      </c>
+      <c r="N1552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:14" ht="15" customHeight="1">
+      <c r="A1553" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>814</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1553" s="14">
+        <v>178.61538461538461</v>
+      </c>
+      <c r="E1553" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="F1553" s="13">
+        <v>41.46</v>
+      </c>
+      <c r="G1553" s="13">
+        <v>34.5</v>
+      </c>
+      <c r="H1553" s="13">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I1553" s="13">
+        <v>42</v>
+      </c>
+      <c r="J1553" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1553" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1553">
+        <v>2</v>
+      </c>
+      <c r="M1553">
+        <v>1</v>
+      </c>
+      <c r="N1553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:14" ht="15" customHeight="1">
+      <c r="A1554" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1554" s="14">
+        <v>187.55</v>
+      </c>
+      <c r="E1554" s="13">
+        <v>30.42</v>
+      </c>
+      <c r="F1554" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1554" s="13">
+        <v>42.58</v>
+      </c>
+      <c r="H1554" s="13">
+        <v>40.5</v>
+      </c>
+      <c r="I1554" s="13">
+        <v>52</v>
+      </c>
+      <c r="J1554" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1554" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1554">
+        <v>1</v>
+      </c>
+      <c r="M1554">
+        <v>1</v>
+      </c>
+      <c r="N1554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:14" ht="15" customHeight="1">
+      <c r="A1555" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>829</v>
+      </c>
+      <c r="D1555" s="14">
+        <v>157.82692307692307</v>
+      </c>
+      <c r="E1555" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="F1555" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1555" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="H1555" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="I1555" s="13">
+        <v>28</v>
+      </c>
+      <c r="J1555" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1555" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1555">
+        <v>1</v>
+      </c>
+      <c r="M1555">
+        <v>1</v>
+      </c>
+      <c r="N1555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:14" ht="15" customHeight="1">
+      <c r="A1556" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>822</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D1556" s="14">
+        <v>159.24230769230766</v>
+      </c>
+      <c r="E1556" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="F1556" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1556" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="H1556" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I1556" s="13">
+        <v>30</v>
+      </c>
+      <c r="J1556" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1556" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1556">
+        <v>2</v>
+      </c>
+      <c r="M1556">
+        <v>1</v>
+      </c>
+      <c r="N1556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:14" ht="15" customHeight="1">
+      <c r="A1557" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1557" s="14">
+        <v>158.1076923076923</v>
+      </c>
+      <c r="E1557" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="F1557" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1557" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="H1557" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I1557" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1557" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1557" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1557">
+        <v>2</v>
+      </c>
+      <c r="M1557">
+        <v>1</v>
+      </c>
+      <c r="N1557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:14" ht="15" customHeight="1">
+      <c r="A1558" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>809</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>810</v>
+      </c>
+      <c r="D1558" s="14">
+        <v>184.52307692307693</v>
+      </c>
+      <c r="E1558" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="F1558" s="13">
+        <v>46.34</v>
+      </c>
+      <c r="G1558" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="H1558" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="I1558" s="13">
+        <v>60</v>
+      </c>
+      <c r="J1558" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1558" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1558">
+        <v>2</v>
+      </c>
+      <c r="M1558">
+        <v>1</v>
+      </c>
+      <c r="N1558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:14" ht="15" customHeight="1">
+      <c r="A1559" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1559" s="14">
+        <v>178.03461538461536</v>
+      </c>
+      <c r="E1559" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1559" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1559" s="13">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="H1559" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="I1559" s="13">
+        <v>50</v>
+      </c>
+      <c r="J1559" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1559" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1559">
+        <v>1</v>
+      </c>
+      <c r="M1559">
+        <v>1</v>
+      </c>
+      <c r="N1559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:14" ht="15" customHeight="1">
+      <c r="A1560" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1560" s="14">
+        <v>162.76538461538459</v>
+      </c>
+      <c r="E1560" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1560" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1560" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="H1560" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="I1560" s="13">
+        <v>52</v>
+      </c>
+      <c r="J1560" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1560" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1560">
+        <v>1</v>
+      </c>
+      <c r="M1560">
+        <v>1</v>
+      </c>
+      <c r="N1560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:14" ht="15" customHeight="1">
+      <c r="A1561" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1561" s="14">
+        <v>162.3807692307692</v>
+      </c>
+      <c r="E1561" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1561" s="13">
+        <v>17.07</v>
+      </c>
+      <c r="G1561" s="13">
+        <v>38.58</v>
+      </c>
+      <c r="H1561" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="I1561" s="13">
+        <v>66</v>
+      </c>
+      <c r="J1561" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1561" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1561">
+        <v>1</v>
+      </c>
+      <c r="M1561">
+        <v>1</v>
+      </c>
+      <c r="N1561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:14" ht="15" customHeight="1">
+      <c r="A1562" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1562" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1562" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="F1562" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1562" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H1562" s="13">
+        <v>16.25</v>
+      </c>
+      <c r="I1562" s="13">
+        <v>30</v>
+      </c>
+      <c r="J1562" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1562" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1562">
+        <v>1</v>
+      </c>
+      <c r="M1562">
+        <v>1</v>
+      </c>
+      <c r="N1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:14" ht="15" customHeight="1">
+      <c r="A1563" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1563" s="14">
+        <v>193.4576923076923</v>
+      </c>
+      <c r="E1563" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="F1563" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1563" s="13">
+        <v>36.5</v>
+      </c>
+      <c r="H1563" s="13">
+        <v>44.66</v>
+      </c>
+      <c r="I1563" s="13">
+        <v>76</v>
+      </c>
+      <c r="J1563" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1563" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1563">
+        <v>2</v>
+      </c>
+      <c r="M1563">
+        <v>1</v>
+      </c>
+      <c r="N1563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:14" ht="15" customHeight="1">
+      <c r="A1564" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1564" s="14">
+        <v>166.39615384615382</v>
+      </c>
+      <c r="E1564" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="F1564" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1564" s="13">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="H1564" s="13">
+        <v>44.58</v>
+      </c>
+      <c r="I1564" s="13">
+        <v>48</v>
+      </c>
+      <c r="J1564" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1564" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1564">
+        <v>1</v>
+      </c>
+      <c r="M1564">
+        <v>1</v>
+      </c>
+      <c r="N1564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:14" ht="15" customHeight="1">
+      <c r="A1565" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1565" s="14">
+        <v>180.2961538461538</v>
+      </c>
+      <c r="E1565" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="F1565" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1565" s="13">
+        <v>39.08</v>
+      </c>
+      <c r="H1565" s="13">
+        <v>48.66</v>
+      </c>
+      <c r="I1565" s="13">
+        <v>44</v>
+      </c>
+      <c r="J1565" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1565" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1565">
+        <v>1</v>
+      </c>
+      <c r="M1565">
+        <v>1</v>
+      </c>
+      <c r="N1565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:14" ht="15" customHeight="1">
+      <c r="A1566" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1566" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1566" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1566" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1566" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="H1566" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I1566" s="13">
+        <v>32</v>
+      </c>
+      <c r="J1566" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1566" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1566">
+        <v>1</v>
+      </c>
+      <c r="M1566">
+        <v>1</v>
+      </c>
+      <c r="N1566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:14" ht="15" customHeight="1">
+      <c r="A1567" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1567" s="14">
+        <v>148.88846153846154</v>
+      </c>
+      <c r="E1567" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1567" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1567" s="13">
+        <v>28.34</v>
+      </c>
+      <c r="H1567" s="13">
+        <v>34.42</v>
+      </c>
+      <c r="I1567" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1567" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1567" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1567">
+        <v>1</v>
+      </c>
+      <c r="M1567">
+        <v>1</v>
+      </c>
+      <c r="N1567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:14" ht="15" customHeight="1">
+      <c r="A1568" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>815</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1568" s="14">
+        <v>172.93076923076927</v>
+      </c>
+      <c r="E1568" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1568" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1568" s="13">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="H1568" s="13">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="I1568" s="13">
+        <v>34</v>
+      </c>
+      <c r="J1568" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1568" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1568">
+        <v>2</v>
+      </c>
+      <c r="M1568">
+        <v>1</v>
+      </c>
+      <c r="N1568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:14" ht="15" customHeight="1">
+      <c r="A1569" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D1569" s="14">
+        <v>163.76538461538465</v>
+      </c>
+      <c r="E1569" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1569" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1569" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="H1569" s="13">
+        <v>46.75</v>
+      </c>
+      <c r="I1569" s="13">
+        <v>48</v>
+      </c>
+      <c r="J1569" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1569" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1569">
+        <v>2</v>
+      </c>
+      <c r="M1569">
+        <v>1</v>
+      </c>
+      <c r="N1569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:14" ht="15" customHeight="1">
+      <c r="A1570" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1570" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1570" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1570" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1570" s="13">
+        <v>26.25</v>
+      </c>
+      <c r="H1570" s="13">
+        <v>54.75</v>
+      </c>
+      <c r="I1570" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J1570" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1570" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1570">
+        <v>1</v>
+      </c>
+      <c r="M1570">
+        <v>1</v>
+      </c>
+      <c r="N1570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:14" ht="15" customHeight="1">
+      <c r="A1571" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1571" s="14">
+        <v>170.4115384615385</v>
+      </c>
+      <c r="E1571" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1571" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1571" s="13">
+        <v>18.34</v>
+      </c>
+      <c r="H1571" s="13">
+        <v>42.42</v>
+      </c>
+      <c r="I1571" s="13">
+        <v>78</v>
+      </c>
+      <c r="J1571" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1571" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1571">
+        <v>2</v>
+      </c>
+      <c r="M1571">
+        <v>1</v>
+      </c>
+      <c r="N1571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:14" ht="15" customHeight="1">
+      <c r="A1572" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1572" s="14">
+        <v>207.7076923076923</v>
+      </c>
+      <c r="E1572" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="F1572" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1572" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="H1572" s="13">
+        <v>57</v>
+      </c>
+      <c r="I1572" s="13">
+        <v>64</v>
+      </c>
+      <c r="J1572" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1572" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1572">
+        <v>2</v>
+      </c>
+      <c r="M1572">
+        <v>1</v>
+      </c>
+      <c r="N1572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:14" ht="15" customHeight="1">
+      <c r="A1573" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1573" s="14">
+        <v>164.1423076923077</v>
+      </c>
+      <c r="E1573" s="13">
+        <v>24.25</v>
+      </c>
+      <c r="F1573" s="13">
+        <v>46.34</v>
+      </c>
+      <c r="G1573" s="13">
+        <v>32.58</v>
+      </c>
+      <c r="H1573" s="13">
+        <v>30.42</v>
+      </c>
+      <c r="I1573" s="13">
+        <v>26</v>
+      </c>
+      <c r="J1573" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1573" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1573">
+        <v>2</v>
+      </c>
+      <c r="M1573">
+        <v>1</v>
+      </c>
+      <c r="N1573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:14" ht="15" customHeight="1">
+      <c r="A1574" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D1574" s="14">
+        <v>137.01538461538462</v>
+      </c>
+      <c r="E1574" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="F1574" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1574" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="H1574" s="13">
+        <v>24.25</v>
+      </c>
+      <c r="I1574" s="13">
+        <v>56</v>
+      </c>
+      <c r="J1574" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1574" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1574">
+        <v>1</v>
+      </c>
+      <c r="M1574">
+        <v>1</v>
+      </c>
+      <c r="N1574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:14" ht="15" customHeight="1">
+      <c r="A1575" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1575" s="14">
+        <v>174.09230769230768</v>
+      </c>
+      <c r="E1575" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="F1575" s="13">
+        <v>41.46</v>
+      </c>
+      <c r="G1575" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="H1575" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="I1575" s="13">
+        <v>42</v>
+      </c>
+      <c r="J1575" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1575" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1575">
+        <v>2</v>
+      </c>
+      <c r="M1575">
+        <v>1</v>
+      </c>
+      <c r="N1575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:14" ht="15" customHeight="1">
+      <c r="A1576" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1576" s="14">
+        <v>160.98076923076923</v>
+      </c>
+      <c r="E1576" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="F1576" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1576" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="H1576" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="I1576" s="13">
+        <v>68</v>
+      </c>
+      <c r="J1576" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1576" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1576">
+        <v>1</v>
+      </c>
+      <c r="M1576">
+        <v>1</v>
+      </c>
+      <c r="N1576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:14" ht="15" customHeight="1">
+      <c r="A1577" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1577" s="14">
+        <v>159.84615384615384</v>
+      </c>
+      <c r="E1577" s="13">
+        <v>22.25</v>
+      </c>
+      <c r="F1577" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1577" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="H1577" s="13">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="I1577" s="13">
+        <v>70</v>
+      </c>
+      <c r="J1577" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1577" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1577">
+        <v>1</v>
+      </c>
+      <c r="M1577">
+        <v>1</v>
+      </c>
+      <c r="N1577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:14" ht="15" customHeight="1">
+      <c r="A1578" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1578" s="14">
+        <v>190.64999999999998</v>
+      </c>
+      <c r="E1578" s="13">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F1578" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="G1578" s="13">
+        <v>20.25</v>
+      </c>
+      <c r="H1578" s="13">
+        <v>52.66</v>
+      </c>
+      <c r="I1578" s="13">
+        <v>84</v>
+      </c>
+      <c r="J1578" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1578" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1578">
+        <v>2</v>
+      </c>
+      <c r="M1578">
+        <v>1</v>
+      </c>
+      <c r="N1578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:14" ht="15" customHeight="1">
+      <c r="A1579" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>819</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1579" s="14">
+        <v>162.31923076923078</v>
+      </c>
+      <c r="E1579" s="13">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F1579" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1579" s="13">
+        <v>26.66</v>
+      </c>
+      <c r="H1579" s="13">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="I1579" s="13">
+        <v>62</v>
+      </c>
+      <c r="J1579" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1579" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1579">
+        <v>2</v>
+      </c>
+      <c r="M1579">
+        <v>1</v>
+      </c>
+      <c r="N1579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:14" ht="15" customHeight="1">
+      <c r="A1580" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1580" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1580" s="13">
+        <v>20.25</v>
+      </c>
+      <c r="F1580" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1580" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H1580" s="13">
+        <v>36.25</v>
+      </c>
+      <c r="I1580" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1580" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1580" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1580">
+        <v>1</v>
+      </c>
+      <c r="M1580">
+        <v>1</v>
+      </c>
+      <c r="N1580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:14" ht="15" customHeight="1">
+      <c r="A1581" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1581" s="14">
+        <v>177.21923076923076</v>
+      </c>
+      <c r="E1581" s="13">
+        <v>16.25</v>
+      </c>
+      <c r="F1581" s="13">
+        <v>46.34</v>
+      </c>
+      <c r="G1581" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="H1581" s="13">
+        <v>50.5</v>
+      </c>
+      <c r="I1581" s="13">
+        <v>30</v>
+      </c>
+      <c r="J1581" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1581" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1581">
+        <v>2</v>
+      </c>
+      <c r="M1581">
+        <v>1</v>
+      </c>
+      <c r="N1581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:14" ht="15" customHeight="1">
+      <c r="A1582" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>855</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1582" s="14">
+        <v>273.5</v>
+      </c>
+      <c r="E1582" s="13">
+        <v>59.34</v>
+      </c>
+      <c r="F1582" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1582" s="13">
+        <v>52.92</v>
+      </c>
+      <c r="H1582" s="13">
+        <v>50.66</v>
+      </c>
+      <c r="I1582" s="13">
+        <v>76</v>
+      </c>
+      <c r="J1582" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1582" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1582">
+        <v>2</v>
+      </c>
+      <c r="M1582">
+        <v>3</v>
+      </c>
+      <c r="N1582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:14" ht="15" customHeight="1">
+      <c r="A1583" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1583" s="14">
+        <v>245.2307692307692</v>
+      </c>
+      <c r="E1583" s="13">
+        <v>41</v>
+      </c>
+      <c r="F1583" s="13">
+        <v>58.54</v>
+      </c>
+      <c r="G1583" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="H1583" s="13">
+        <v>59.16</v>
+      </c>
+      <c r="I1583" s="13">
+        <v>76</v>
+      </c>
+      <c r="J1583" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1583" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1583">
+        <v>3</v>
+      </c>
+      <c r="M1583">
+        <v>2</v>
+      </c>
+      <c r="N1583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:14" ht="15" customHeight="1">
+      <c r="A1584" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1584" s="14">
+        <v>202.32307692307691</v>
+      </c>
+      <c r="E1584" s="13">
+        <v>34.92</v>
+      </c>
+      <c r="F1584" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1584" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="H1584" s="13">
+        <v>42.42</v>
+      </c>
+      <c r="I1584" s="13">
+        <v>62</v>
+      </c>
+      <c r="J1584" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1584" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1584">
+        <v>2</v>
+      </c>
+      <c r="M1584">
+        <v>1</v>
+      </c>
+      <c r="N1584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:14" ht="15" customHeight="1">
+      <c r="A1585" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1585" s="14">
+        <v>204.6192307692308</v>
+      </c>
+      <c r="E1585" s="13">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="F1585" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1585" s="13">
+        <v>42.66</v>
+      </c>
+      <c r="H1585" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="I1585" s="13">
+        <v>68</v>
+      </c>
+      <c r="J1585" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1585" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1585">
+        <v>2</v>
+      </c>
+      <c r="M1585">
+        <v>1</v>
+      </c>
+      <c r="N1585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:14" ht="15" customHeight="1">
+      <c r="A1586" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1586" s="14">
+        <v>202.15000000000003</v>
+      </c>
+      <c r="E1586" s="13">
+        <v>32.75</v>
+      </c>
+      <c r="F1586" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1586" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="H1586" s="13">
+        <v>46.5</v>
+      </c>
+      <c r="I1586" s="13">
+        <v>50</v>
+      </c>
+      <c r="J1586" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1586" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1586">
+        <v>2</v>
+      </c>
+      <c r="M1586">
+        <v>1</v>
+      </c>
+      <c r="N1586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:14" ht="15" customHeight="1">
+      <c r="A1587" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>884</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1587" s="14">
+        <v>139.32692307692307</v>
+      </c>
+      <c r="E1587" s="13">
+        <v>30.84</v>
+      </c>
+      <c r="F1587" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1587" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="H1587" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="I1587" s="13">
+        <v>36</v>
+      </c>
+      <c r="J1587" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1587" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1587">
+        <v>1</v>
+      </c>
+      <c r="M1587">
+        <v>1</v>
+      </c>
+      <c r="N1587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:14" ht="15" customHeight="1">
+      <c r="A1588" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1588" s="14">
+        <v>199.5461538461538</v>
+      </c>
+      <c r="E1588" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="F1588" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1588" s="13">
+        <v>36.5</v>
+      </c>
+      <c r="H1588" s="13">
+        <v>48.84</v>
+      </c>
+      <c r="I1588" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1588" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1588" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1588">
+        <v>2</v>
+      </c>
+      <c r="M1588">
+        <v>1</v>
+      </c>
+      <c r="N1588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:14" ht="15" customHeight="1">
+      <c r="A1589" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1589" s="14">
+        <v>194.83846153846156</v>
+      </c>
+      <c r="E1589" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="F1589" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1589" s="13">
+        <v>34.42</v>
+      </c>
+      <c r="H1589" s="13">
+        <v>48.84</v>
+      </c>
+      <c r="I1589" s="13">
+        <v>48</v>
+      </c>
+      <c r="J1589" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1589" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1589">
+        <v>2</v>
+      </c>
+      <c r="M1589">
+        <v>1</v>
+      </c>
+      <c r="N1589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:14" ht="15" customHeight="1">
+      <c r="A1590" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1590" s="14">
+        <v>204.36538461538458</v>
+      </c>
+      <c r="E1590" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="F1590" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1590" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="H1590" s="13">
+        <v>34.42</v>
+      </c>
+      <c r="I1590" s="13">
+        <v>68</v>
+      </c>
+      <c r="J1590" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1590" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1590">
+        <v>2</v>
+      </c>
+      <c r="M1590">
+        <v>1</v>
+      </c>
+      <c r="N1590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:14" ht="15" customHeight="1">
+      <c r="A1591" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1591" s="14">
+        <v>207.43076923076919</v>
+      </c>
+      <c r="E1591" s="13">
+        <v>30.5</v>
+      </c>
+      <c r="F1591" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1591" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="H1591" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="I1591" s="13">
+        <v>58</v>
+      </c>
+      <c r="J1591" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1591" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1591">
+        <v>2</v>
+      </c>
+      <c r="M1591">
+        <v>1</v>
+      </c>
+      <c r="N1591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:14" ht="15" customHeight="1">
+      <c r="A1592" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>868</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1592" s="14">
+        <v>189.33461538461538</v>
+      </c>
+      <c r="E1592" s="13">
+        <v>30.42</v>
+      </c>
+      <c r="F1592" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1592" s="13">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="H1592" s="13">
+        <v>40.42</v>
+      </c>
+      <c r="I1592" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1592" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1592" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1592">
+        <v>2</v>
+      </c>
+      <c r="M1592">
+        <v>1</v>
+      </c>
+      <c r="N1592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:14" ht="15" customHeight="1">
+      <c r="A1593" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1593" s="14">
+        <v>204.35384615384612</v>
+      </c>
+      <c r="E1593" s="13">
+        <v>30.42</v>
+      </c>
+      <c r="F1593" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1593" s="13">
+        <v>46.66</v>
+      </c>
+      <c r="H1593" s="13">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="I1593" s="13">
+        <v>62</v>
+      </c>
+      <c r="J1593" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1593" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1593">
+        <v>2</v>
+      </c>
+      <c r="M1593">
+        <v>1</v>
+      </c>
+      <c r="N1593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:14" ht="15" customHeight="1">
+      <c r="A1594" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1594" s="14">
+        <v>173.21153846153845</v>
+      </c>
+      <c r="E1594" s="13">
+        <v>28.66</v>
+      </c>
+      <c r="F1594" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1594" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="H1594" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="I1594" s="13">
+        <v>56</v>
+      </c>
+      <c r="J1594" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1594" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1594">
+        <v>1</v>
+      </c>
+      <c r="M1594">
+        <v>1</v>
+      </c>
+      <c r="N1594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:14" ht="15" customHeight="1">
+      <c r="A1595" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>886</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1595" s="14">
+        <v>166.70384615384617</v>
+      </c>
+      <c r="E1595" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="F1595" s="13">
+        <v>24.39</v>
+      </c>
+      <c r="G1595" s="13">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="H1595" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="I1595" s="13">
+        <v>50</v>
+      </c>
+      <c r="J1595" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1595" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1595">
+        <v>1</v>
+      </c>
+      <c r="M1595">
+        <v>1</v>
+      </c>
+      <c r="N1595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:14" ht="15" customHeight="1">
+      <c r="A1596" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>857</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1596" s="14">
+        <v>160.24615384615385</v>
+      </c>
+      <c r="E1596" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="F1596" s="13">
+        <v>41.46</v>
+      </c>
+      <c r="G1596" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="H1596" s="13">
+        <v>28.34</v>
+      </c>
+      <c r="I1596" s="13">
+        <v>48</v>
+      </c>
+      <c r="J1596" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1596" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1596">
+        <v>2</v>
+      </c>
+      <c r="M1596">
+        <v>1</v>
+      </c>
+      <c r="N1596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:14" ht="15" customHeight="1">
+      <c r="A1597" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1597" s="14">
+        <v>174.81153846153848</v>
+      </c>
+      <c r="E1597" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="F1597" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1597" s="13">
+        <v>30.34</v>
+      </c>
+      <c r="H1597" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="I1597" s="13">
+        <v>52</v>
+      </c>
+      <c r="J1597" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1597" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1597">
+        <v>2</v>
+      </c>
+      <c r="M1597">
+        <v>1</v>
+      </c>
+      <c r="N1597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:14" ht="15" customHeight="1">
+      <c r="A1598" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>873</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1598" s="14">
+        <v>157.96538461538461</v>
+      </c>
+      <c r="E1598" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="F1598" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1598" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="H1598" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="I1598" s="13">
+        <v>34</v>
+      </c>
+      <c r="J1598" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1598" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1598">
+        <v>1</v>
+      </c>
+      <c r="M1598">
+        <v>1</v>
+      </c>
+      <c r="N1598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:14" ht="15" customHeight="1">
+      <c r="A1599" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1599" s="14">
+        <v>135.77692307692308</v>
+      </c>
+      <c r="E1599" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1599" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1599" s="13">
+        <v>30.75</v>
+      </c>
+      <c r="H1599" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="I1599" s="13">
+        <v>28</v>
+      </c>
+      <c r="J1599" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1599" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1599">
+        <v>1</v>
+      </c>
+      <c r="M1599">
+        <v>1</v>
+      </c>
+      <c r="N1599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:14" ht="15" customHeight="1">
+      <c r="A1600" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1600" s="14">
+        <v>167.90384615384616</v>
+      </c>
+      <c r="E1600" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1600" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1600" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="H1600" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="I1600" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1600" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1600" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1600">
+        <v>1</v>
+      </c>
+      <c r="M1600">
+        <v>1</v>
+      </c>
+      <c r="N1600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:14" ht="15" customHeight="1">
+      <c r="A1601" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1601" s="14">
+        <v>146.4576923076923</v>
+      </c>
+      <c r="E1601" s="13">
+        <v>24.42</v>
+      </c>
+      <c r="F1601" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1601" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="H1601" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="I1601" s="13">
+        <v>24</v>
+      </c>
+      <c r="J1601" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1601" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1601">
+        <v>1</v>
+      </c>
+      <c r="M1601">
+        <v>1</v>
+      </c>
+      <c r="N1601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:14" ht="15" customHeight="1">
+      <c r="A1602" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1602" s="14">
+        <v>150.87307692307692</v>
+      </c>
+      <c r="E1602" s="13">
+        <v>24.25</v>
+      </c>
+      <c r="F1602" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1602" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="H1602" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="I1602" s="13">
+        <v>38</v>
+      </c>
+      <c r="J1602" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1602" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1602">
+        <v>2</v>
+      </c>
+      <c r="M1602">
+        <v>1</v>
+      </c>
+      <c r="N1602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:14" ht="15" customHeight="1">
+      <c r="A1603" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>848</v>
+      </c>
+      <c r="D1603" s="14">
+        <v>161.21923076923076</v>
+      </c>
+      <c r="E1603" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="F1603" s="13">
+        <v>51.22</v>
+      </c>
+      <c r="G1603" s="13">
+        <v>24.25</v>
+      </c>
+      <c r="H1603" s="13">
+        <v>28.42</v>
+      </c>
+      <c r="I1603" s="13">
+        <v>40</v>
+      </c>
+      <c r="J1603" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1603" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1603">
+        <v>3</v>
+      </c>
+      <c r="M1603">
+        <v>1</v>
+      </c>
+      <c r="N1603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:14" ht="15" customHeight="1">
+      <c r="A1604" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1604" s="14">
+        <v>144.22307692307692</v>
+      </c>
+      <c r="E1604" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="F1604" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1604" s="13">
+        <v>20.34</v>
+      </c>
+      <c r="H1604" s="13">
+        <v>34.75</v>
+      </c>
+      <c r="I1604" s="13">
+        <v>40</v>
+      </c>
+      <c r="J1604" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1604" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1604">
+        <v>1</v>
+      </c>
+      <c r="M1604">
+        <v>1</v>
+      </c>
+      <c r="N1604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:14" ht="15" customHeight="1">
+      <c r="A1605" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>846</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1605" s="14">
+        <v>230.39999999999998</v>
+      </c>
+      <c r="E1605" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="F1605" s="13">
+        <v>56.1</v>
+      </c>
+      <c r="G1605" s="13">
+        <v>38.42</v>
+      </c>
+      <c r="H1605" s="13">
+        <v>58.66</v>
+      </c>
+      <c r="I1605" s="13">
+        <v>78</v>
+      </c>
+      <c r="J1605" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1605" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1605">
+        <v>3</v>
+      </c>
+      <c r="M1605">
+        <v>1</v>
+      </c>
+      <c r="N1605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:14" ht="15" customHeight="1">
+      <c r="A1606" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1606" s="14">
+        <v>140.31923076923078</v>
+      </c>
+      <c r="E1606" s="13">
+        <v>20.34</v>
+      </c>
+      <c r="F1606" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1606" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="H1606" s="13">
+        <v>26.34</v>
+      </c>
+      <c r="I1606" s="13">
+        <v>42</v>
+      </c>
+      <c r="J1606" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1606" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1606">
+        <v>2</v>
+      </c>
+      <c r="M1606">
+        <v>1</v>
+      </c>
+      <c r="N1606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:14" ht="15" customHeight="1">
+      <c r="A1607" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1607" s="14">
+        <v>145.34230769230768</v>
+      </c>
+      <c r="E1607" s="13">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="F1607" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1607" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="H1607" s="13">
+        <v>24.34</v>
+      </c>
+      <c r="I1607" s="13">
+        <v>64</v>
+      </c>
+      <c r="J1607" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1607" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1607">
+        <v>1</v>
+      </c>
+      <c r="M1607">
+        <v>1</v>
+      </c>
+      <c r="N1607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:14" ht="15" customHeight="1">
+      <c r="A1608" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1608" s="14">
+        <v>186.01153846153844</v>
+      </c>
+      <c r="E1608" s="13">
+        <v>18.34</v>
+      </c>
+      <c r="F1608" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1608" s="13">
+        <v>42.58</v>
+      </c>
+      <c r="H1608" s="13">
+        <v>44.58</v>
+      </c>
+      <c r="I1608" s="13">
+        <v>72</v>
+      </c>
+      <c r="J1608" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1608" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1608">
+        <v>1</v>
+      </c>
+      <c r="M1608">
+        <v>1</v>
+      </c>
+      <c r="N1608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:14" ht="15" customHeight="1">
+      <c r="A1609" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1609" s="14">
+        <v>182.1653846153846</v>
+      </c>
+      <c r="E1609" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="F1609" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1609" s="13">
+        <v>42.58</v>
+      </c>
+      <c r="H1609" s="13">
+        <v>44.42</v>
+      </c>
+      <c r="I1609" s="13">
+        <v>68</v>
+      </c>
+      <c r="J1609" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1609" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1609">
+        <v>1</v>
+      </c>
+      <c r="M1609">
+        <v>1</v>
+      </c>
+      <c r="N1609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:14" ht="15" customHeight="1">
+      <c r="A1610" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1610" s="14">
+        <v>189.83076923076922</v>
+      </c>
+      <c r="E1610" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="F1610" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1610" s="13">
+        <v>42.66</v>
+      </c>
+      <c r="H1610" s="13">
+        <v>36.58</v>
+      </c>
+      <c r="I1610" s="13">
+        <v>60</v>
+      </c>
+      <c r="J1610" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1610" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1610">
+        <v>2</v>
+      </c>
+      <c r="M1610">
+        <v>1</v>
+      </c>
+      <c r="N1610">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:14" ht="15" customHeight="1">
+      <c r="A1611" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1611" s="14">
+        <v>184.58846153846156</v>
+      </c>
+      <c r="E1611" s="13">
+        <v>16.25</v>
+      </c>
+      <c r="F1611" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="G1611" s="13">
+        <v>34.58</v>
+      </c>
+      <c r="H1611" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="I1611" s="13">
+        <v>74</v>
+      </c>
+      <c r="J1611" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1611" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1611">
+        <v>2</v>
+      </c>
+      <c r="M1611">
+        <v>1</v>
+      </c>
+      <c r="N1611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:14" ht="15" customHeight="1">
+      <c r="A1612" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1612" s="14">
+        <v>253.19230769230768</v>
+      </c>
+      <c r="E1612" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="F1612" s="13">
+        <v>56.1</v>
+      </c>
+      <c r="G1612" s="13">
+        <v>46.84</v>
+      </c>
+      <c r="H1612" s="13">
+        <v>46.5</v>
+      </c>
+      <c r="I1612" s="13">
+        <v>88</v>
+      </c>
+      <c r="J1612" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1612" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1612">
+        <v>3</v>
+      </c>
+      <c r="M1612">
+        <v>2</v>
+      </c>
+      <c r="N1612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:14" ht="15" customHeight="1">
+      <c r="A1613" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>914</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>915</v>
+      </c>
+      <c r="D1613" s="14">
+        <v>159.85000000000002</v>
+      </c>
+      <c r="E1613" s="13">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="F1613" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1613" s="13">
+        <v>24.66</v>
+      </c>
+      <c r="H1613" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="I1613" s="13">
+        <v>32</v>
+      </c>
+      <c r="J1613" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1613" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1613">
+        <v>1</v>
+      </c>
+      <c r="M1613">
+        <v>1</v>
+      </c>
+      <c r="N1613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:14" ht="15" customHeight="1">
+      <c r="A1614" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1614" s="14">
+        <v>128.86923076923077</v>
+      </c>
+      <c r="E1614" s="13">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="F1614" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1614" s="13">
+        <v>24.66</v>
+      </c>
+      <c r="H1614" s="13">
+        <v>12.25</v>
+      </c>
+      <c r="I1614" s="13">
+        <v>32</v>
+      </c>
+      <c r="J1614" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1614" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1614">
+        <v>1</v>
+      </c>
+      <c r="M1614">
+        <v>1</v>
+      </c>
+      <c r="N1614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:14" ht="15" customHeight="1">
+      <c r="A1615" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>890</v>
+      </c>
+      <c r="D1615" s="14">
+        <v>207.50769230769231</v>
+      </c>
+      <c r="E1615" s="13">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="F1615" s="13">
+        <v>56.1</v>
+      </c>
+      <c r="G1615" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="H1615" s="13">
+        <v>40.42</v>
+      </c>
+      <c r="I1615" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1615" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1615" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1615">
+        <v>3</v>
+      </c>
+      <c r="M1615">
+        <v>1</v>
+      </c>
+      <c r="N1615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:14" ht="15" customHeight="1">
+      <c r="A1616" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>927</v>
+      </c>
+      <c r="D1616" s="14">
+        <v>142.82307692307694</v>
+      </c>
+      <c r="E1616" s="13">
+        <v>34.58</v>
+      </c>
+      <c r="F1616" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1616" s="13">
+        <v>32.75</v>
+      </c>
+      <c r="H1616" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="I1616" s="13">
+        <v>24</v>
+      </c>
+      <c r="J1616" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1616" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1616">
+        <v>1</v>
+      </c>
+      <c r="M1616">
+        <v>1</v>
+      </c>
+      <c r="N1616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:14" ht="15" customHeight="1">
+      <c r="A1617" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>892</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1617" s="14">
+        <v>195.14999999999998</v>
+      </c>
+      <c r="E1617" s="13">
+        <v>32.75</v>
+      </c>
+      <c r="F1617" s="13">
+        <v>51.22</v>
+      </c>
+      <c r="G1617" s="13">
+        <v>34.5</v>
+      </c>
+      <c r="H1617" s="13">
+        <v>44.66</v>
+      </c>
+      <c r="I1617" s="13">
+        <v>18</v>
+      </c>
+      <c r="J1617" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1617" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1617">
+        <v>3</v>
+      </c>
+      <c r="M1617">
+        <v>1</v>
+      </c>
+      <c r="N1617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:14" ht="15" customHeight="1">
+      <c r="A1618" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>925</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1618" s="14">
+        <v>172.2269230769231</v>
+      </c>
+      <c r="E1618" s="13">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="F1618" s="13">
+        <v>21.95</v>
+      </c>
+      <c r="G1618" s="13">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H1618" s="13">
+        <v>46.66</v>
+      </c>
+      <c r="I1618" s="13">
+        <v>22</v>
+      </c>
+      <c r="J1618" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1618" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1618">
+        <v>1</v>
+      </c>
+      <c r="M1618">
+        <v>1</v>
+      </c>
+      <c r="N1618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:14" ht="15" customHeight="1">
+      <c r="A1619" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1619" s="14">
+        <v>168.09615384615387</v>
+      </c>
+      <c r="E1619" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="F1619" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1619" s="13">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="H1619" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="I1619" s="13">
+        <v>40</v>
+      </c>
+      <c r="J1619" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1619" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1619">
+        <v>2</v>
+      </c>
+      <c r="M1619">
+        <v>1</v>
+      </c>
+      <c r="N1619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:14" ht="15" customHeight="1">
+      <c r="A1620" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1620" s="14">
+        <v>175.26923076923077</v>
+      </c>
+      <c r="E1620" s="13">
+        <v>30.75</v>
+      </c>
+      <c r="F1620" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1620" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="H1620" s="13">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="I1620" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1620" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1620" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1620">
+        <v>1</v>
+      </c>
+      <c r="M1620">
+        <v>1</v>
+      </c>
+      <c r="N1620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:14" ht="15" customHeight="1">
+      <c r="A1621" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1621" s="14">
+        <v>141.39615384615385</v>
+      </c>
+      <c r="E1621" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="F1621" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1621" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="H1621" s="13">
+        <v>32.42</v>
+      </c>
+      <c r="I1621" s="13">
+        <v>28</v>
+      </c>
+      <c r="J1621" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1621" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1621">
+        <v>1</v>
+      </c>
+      <c r="M1621">
+        <v>1</v>
+      </c>
+      <c r="N1621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:14" ht="15" customHeight="1">
+      <c r="A1622" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1622" s="14">
+        <v>155.02692307692311</v>
+      </c>
+      <c r="E1622" s="13">
+        <v>30.42</v>
+      </c>
+      <c r="F1622" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1622" s="13">
+        <v>20.34</v>
+      </c>
+      <c r="H1622" s="13">
+        <v>30.34</v>
+      </c>
+      <c r="I1622" s="13">
+        <v>50</v>
+      </c>
+      <c r="J1622" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1622" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1622">
+        <v>2</v>
+      </c>
+      <c r="M1622">
+        <v>1</v>
+      </c>
+      <c r="N1622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:14" ht="15" customHeight="1">
+      <c r="A1623" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>922</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1623" s="14">
+        <v>146.53846153846155</v>
+      </c>
+      <c r="E1623" s="13">
+        <v>28.75</v>
+      </c>
+      <c r="F1623" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1623" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="H1623" s="13">
+        <v>34.92</v>
+      </c>
+      <c r="I1623" s="13">
+        <v>24</v>
+      </c>
+      <c r="J1623" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1623" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1623">
+        <v>1</v>
+      </c>
+      <c r="M1623">
+        <v>1</v>
+      </c>
+      <c r="N1623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:14" ht="15" customHeight="1">
+      <c r="A1624" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>902</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1624" s="14">
+        <v>185.38846153846154</v>
+      </c>
+      <c r="E1624" s="13">
+        <v>28.84</v>
+      </c>
+      <c r="F1624" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1624" s="13">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="H1624" s="13">
+        <v>32.58</v>
+      </c>
+      <c r="I1624" s="13">
+        <v>72</v>
+      </c>
+      <c r="J1624" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1624" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1624">
+        <v>2</v>
+      </c>
+      <c r="M1624">
+        <v>1</v>
+      </c>
+      <c r="N1624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:14" ht="15" customHeight="1">
+      <c r="A1625" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1625" s="14">
+        <v>208.35384615384618</v>
+      </c>
+      <c r="E1625" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="F1625" s="13">
+        <v>53.66</v>
+      </c>
+      <c r="G1625" s="13">
+        <v>36.5</v>
+      </c>
+      <c r="H1625" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="I1625" s="13">
+        <v>64</v>
+      </c>
+      <c r="J1625" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1625" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1625">
+        <v>3</v>
+      </c>
+      <c r="M1625">
+        <v>1</v>
+      </c>
+      <c r="N1625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:14" ht="15" customHeight="1">
+      <c r="A1626" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>923</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>924</v>
+      </c>
+      <c r="D1626" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1626" s="13">
+        <v>28.5</v>
+      </c>
+      <c r="F1626" s="13">
+        <v>26.83</v>
+      </c>
+      <c r="G1626" s="13">
+        <v>30.58</v>
+      </c>
+      <c r="H1626" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="I1626" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J1626" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1626" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1626">
+        <v>1</v>
+      </c>
+      <c r="M1626">
+        <v>1</v>
+      </c>
+      <c r="N1626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:14" ht="15" customHeight="1">
+      <c r="A1627" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1627" s="14">
+        <v>160.3153846153846</v>
+      </c>
+      <c r="E1627" s="13">
+        <v>28.42</v>
+      </c>
+      <c r="F1627" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1627" s="13">
+        <v>24.5</v>
+      </c>
+      <c r="H1627" s="13">
+        <v>40.75</v>
+      </c>
+      <c r="I1627" s="13">
+        <v>48</v>
+      </c>
+      <c r="J1627" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1627" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1627">
+        <v>1</v>
+      </c>
+      <c r="M1627">
+        <v>1</v>
+      </c>
+      <c r="N1627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:14" ht="15" customHeight="1">
+      <c r="A1628" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>898</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>899</v>
+      </c>
+      <c r="D1628" s="14">
+        <v>164.73461538461535</v>
+      </c>
+      <c r="E1628" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="F1628" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1628" s="13">
+        <v>24.75</v>
+      </c>
+      <c r="H1628" s="13">
+        <v>38.42</v>
+      </c>
+      <c r="I1628" s="13">
+        <v>42</v>
+      </c>
+      <c r="J1628" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1628" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1628">
+        <v>2</v>
+      </c>
+      <c r="M1628">
+        <v>1</v>
+      </c>
+      <c r="N1628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:14" ht="15" customHeight="1">
+      <c r="A1629" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>913</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1629" s="14">
+        <v>177.05769230769232</v>
+      </c>
+      <c r="E1629" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="F1629" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1629" s="13">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="H1629" s="13">
+        <v>44.5</v>
+      </c>
+      <c r="I1629" s="13">
+        <v>54</v>
+      </c>
+      <c r="J1629" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1629" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1629">
+        <v>1</v>
+      </c>
+      <c r="M1629">
+        <v>1</v>
+      </c>
+      <c r="N1629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:14" ht="15" customHeight="1">
+      <c r="A1630" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>894</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>895</v>
+      </c>
+      <c r="D1630" s="14">
+        <v>173.92307692307693</v>
+      </c>
+      <c r="E1630" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="F1630" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="G1630" s="13">
+        <v>32.58</v>
+      </c>
+      <c r="H1630" s="13">
+        <v>34.42</v>
+      </c>
+      <c r="I1630" s="13">
+        <v>40</v>
+      </c>
+      <c r="J1630" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1630" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1630">
+        <v>2</v>
+      </c>
+      <c r="M1630">
+        <v>1</v>
+      </c>
+      <c r="N1630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:14" ht="15" customHeight="1">
+      <c r="A1631" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>907</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1631" s="14">
+        <v>200.55000000000004</v>
+      </c>
+      <c r="E1631" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="F1631" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1631" s="13">
+        <v>40.58</v>
+      </c>
+      <c r="H1631" s="13">
+        <v>48.58</v>
+      </c>
+      <c r="I1631" s="13">
+        <v>72</v>
+      </c>
+      <c r="J1631" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1631" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1631">
+        <v>1</v>
+      </c>
+      <c r="M1631">
+        <v>1</v>
+      </c>
+      <c r="N1631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:14" ht="15" customHeight="1">
+      <c r="A1632" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>896</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1632" s="14">
+        <v>193.89999999999998</v>
+      </c>
+      <c r="E1632" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1632" s="13">
+        <v>41.46</v>
+      </c>
+      <c r="G1632" s="13">
+        <v>28.66</v>
+      </c>
+      <c r="H1632" s="13">
+        <v>56.84</v>
+      </c>
+      <c r="I1632" s="13">
+        <v>44</v>
+      </c>
+      <c r="J1632" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1632" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1632">
+        <v>2</v>
+      </c>
+      <c r="M1632">
+        <v>1</v>
+      </c>
+      <c r="N1632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:14" ht="15" customHeight="1">
+      <c r="A1633" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1633" s="14">
+        <v>187.02692307692308</v>
+      </c>
+      <c r="E1633" s="13">
+        <v>26.42</v>
+      </c>
+      <c r="F1633" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G1633" s="13">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="H1633" s="13">
+        <v>44.42</v>
+      </c>
+      <c r="I1633" s="13">
+        <v>60</v>
+      </c>
+      <c r="J1633" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1633" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1633">
+        <v>2</v>
+      </c>
+      <c r="M1633">
+        <v>1</v>
+      </c>
+      <c r="N1633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:14" ht="15" customHeight="1">
+      <c r="A1634" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>911</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1634" s="14">
+        <v>145.73461538461535</v>
+      </c>
+      <c r="E1634" s="13">
+        <v>26.34</v>
+      </c>
+      <c r="F1634" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1634" s="13">
+        <v>24.58</v>
+      </c>
+      <c r="H1634" s="13">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="I1634" s="13">
+        <v>28</v>
+      </c>
+      <c r="J1634" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1634" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1634">
+        <v>1</v>
+      </c>
+      <c r="M1634">
+        <v>1</v>
+      </c>
+      <c r="N1634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:14" ht="15" customHeight="1">
+      <c r="A1635" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>916</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>917</v>
+      </c>
+      <c r="D1635" s="14">
+        <v>180.99615384615387</v>
+      </c>
+      <c r="E1635" s="13">
+        <v>24.5</v>
+      </c>
+      <c r="F1635" s="13">
+        <v>31.71</v>
+      </c>
+      <c r="G1635" s="13">
+        <v>30.66</v>
+      </c>
+      <c r="H1635" s="13">
+        <v>48.66</v>
+      </c>
+      <c r="I1635" s="13">
+        <v>64</v>
+      </c>
+      <c r="J1635" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1635" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1635">
+        <v>1</v>
+      </c>
+      <c r="M1635">
+        <v>1</v>
+      </c>
+      <c r="N1635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:14" ht="15" customHeight="1">
+      <c r="A1636" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>920</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1636" s="14">
+        <v>116.27307692307691</v>
+      </c>
+      <c r="E1636" s="13">
+        <v>22.75</v>
+      </c>
+      <c r="F1636" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1636" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="H1636" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="I1636" s="13">
+        <v>24</v>
+      </c>
+      <c r="J1636" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1636" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1636">
+        <v>1</v>
+      </c>
+      <c r="M1636">
+        <v>1</v>
+      </c>
+      <c r="N1636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:14" ht="15" customHeight="1">
+      <c r="A1637" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1637" s="14">
+        <v>167.90384615384616</v>
+      </c>
+      <c r="E1637" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="F1637" s="13">
+        <v>29.27</v>
+      </c>
+      <c r="G1637" s="13">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="H1637" s="13">
+        <v>38.42</v>
+      </c>
+      <c r="I1637" s="13">
+        <v>56</v>
+      </c>
+      <c r="J1637" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1637" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1637">
+        <v>1</v>
+      </c>
+      <c r="M1637">
+        <v>1</v>
+      </c>
+      <c r="N1637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:14" ht="15" customHeight="1">
+      <c r="A1638" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>900</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1638" s="14">
+        <v>140.01538461538462</v>
+      </c>
+      <c r="E1638" s="13">
+        <v>22.42</v>
+      </c>
+      <c r="F1638" s="13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1638" s="13">
+        <v>22.66</v>
+      </c>
+      <c r="H1638" s="13">
+        <v>26.58</v>
+      </c>
+      <c r="I1638" s="13">
+        <v>32</v>
+      </c>
+      <c r="J1638" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1638" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1638">
+        <v>2</v>
+      </c>
+      <c r="M1638">
+        <v>1</v>
+      </c>
+      <c r="N1638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:14" ht="15" customHeight="1">
+      <c r="A1639" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>905</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>906</v>
+      </c>
+      <c r="D1639" s="14">
+        <v>184.21538461538461</v>
+      </c>
+      <c r="E1639" s="13">
+        <v>20.58</v>
+      </c>
+      <c r="F1639" s="13">
+        <v>34.15</v>
+      </c>
+      <c r="G1639" s="13">
+        <v>32.75</v>
+      </c>
+      <c r="H1639" s="13">
+        <v>50.84</v>
+      </c>
+      <c r="I1639" s="13">
+        <v>64</v>
+      </c>
+      <c r="J1639" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1639" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1639">
+        <v>1</v>
+      </c>
+      <c r="M1639">
+        <v>1</v>
+      </c>
+      <c r="N1639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:14" ht="15" customHeight="1">
+      <c r="A1640" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1640" s="14">
+        <v>191.09230769230771</v>
+      </c>
+      <c r="E1640" s="13">
+        <v>20.34</v>
+      </c>
+      <c r="F1640" s="13">
+        <v>48.78</v>
+      </c>
+      <c r="G1640" s="13">
+        <v>42.66</v>
+      </c>
+      <c r="H1640" s="13">
+        <v>38.5</v>
+      </c>
+      <c r="I1640" s="13">
+        <v>46</v>
+      </c>
+      <c r="J1640" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1640" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1640">
+        <v>2</v>
+      </c>
+      <c r="M1640">
+        <v>1</v>
+      </c>
+      <c r="N1640">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:14" ht="15" customHeight="1">
+      <c r="A1641" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>928</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>929</v>
+      </c>
+      <c r="D1641" s="14">
+        <v>135.2076923076923</v>
+      </c>
+      <c r="E1641" s="13">
+        <v>18.34</v>
+      </c>
+      <c r="F1641" s="13">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="G1641" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="H1641" s="13">
+        <v>38.75</v>
+      </c>
+      <c r="I1641" s="13">
+        <v>36</v>
+      </c>
+      <c r="J1641" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1641" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1641">
+        <v>1</v>
+      </c>
+      <c r="M1641">
+        <v>1</v>
+      </c>
+      <c r="N1641">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\R_IEOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186F9C1-4062-4387-938E-C45970824F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE1A274-D5B9-474F-9D8F-75FF7EB49249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6169" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="1146">
   <si>
     <t>Grupo</t>
   </si>
@@ -3843,11 +3843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1641"/>
+  <dimension ref="A1:N1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1505" sqref="A1505:N1641"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1630" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1645" sqref="B1645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -76062,6 +76062,6122 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1642" spans="1:14" ht="15" customHeight="1">
+      <c r="A1642" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1642">
+        <v>252</v>
+      </c>
+      <c r="E1642">
+        <v>34</v>
+      </c>
+      <c r="F1642">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1642">
+        <v>60.34</v>
+      </c>
+      <c r="H1642">
+        <v>40</v>
+      </c>
+      <c r="I1642">
+        <v>52.73</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1642" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1642">
+        <v>3</v>
+      </c>
+      <c r="M1642">
+        <v>1</v>
+      </c>
+      <c r="N1642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:14" ht="15" customHeight="1">
+      <c r="A1643" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1643">
+        <v>300</v>
+      </c>
+      <c r="E1643">
+        <v>40</v>
+      </c>
+      <c r="F1643">
+        <v>87.8</v>
+      </c>
+      <c r="G1643">
+        <v>51.72</v>
+      </c>
+      <c r="H1643">
+        <v>58</v>
+      </c>
+      <c r="I1643">
+        <v>65.45</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1643" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1643">
+        <v>4</v>
+      </c>
+      <c r="M1643">
+        <v>2</v>
+      </c>
+      <c r="N1643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:14" ht="15" customHeight="1">
+      <c r="A1644" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1644">
+        <v>243</v>
+      </c>
+      <c r="E1644">
+        <v>36</v>
+      </c>
+      <c r="F1644">
+        <v>75.61</v>
+      </c>
+      <c r="G1644">
+        <v>37.93</v>
+      </c>
+      <c r="H1644">
+        <v>46</v>
+      </c>
+      <c r="I1644">
+        <v>43.64</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1644" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1644">
+        <v>4</v>
+      </c>
+      <c r="M1644">
+        <v>2</v>
+      </c>
+      <c r="N1644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:14" ht="15" customHeight="1">
+      <c r="A1645" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>930</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>931</v>
+      </c>
+      <c r="D1645">
+        <v>240</v>
+      </c>
+      <c r="E1645">
+        <v>40</v>
+      </c>
+      <c r="F1645">
+        <v>70.73</v>
+      </c>
+      <c r="G1645">
+        <v>36.21</v>
+      </c>
+      <c r="H1645">
+        <v>38</v>
+      </c>
+      <c r="I1645">
+        <v>67.27</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1645" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1645">
+        <v>4</v>
+      </c>
+      <c r="M1645">
+        <v>2</v>
+      </c>
+      <c r="N1645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:14" ht="15" customHeight="1">
+      <c r="A1646" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1646">
+        <v>251</v>
+      </c>
+      <c r="E1646">
+        <v>52</v>
+      </c>
+      <c r="F1646">
+        <v>56.1</v>
+      </c>
+      <c r="G1646">
+        <v>43.1</v>
+      </c>
+      <c r="H1646">
+        <v>44</v>
+      </c>
+      <c r="I1646">
+        <v>65.45</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1646" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1646">
+        <v>3</v>
+      </c>
+      <c r="M1646">
+        <v>3</v>
+      </c>
+      <c r="N1646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:14" ht="15" customHeight="1">
+      <c r="A1647" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>933</v>
+      </c>
+      <c r="D1647">
+        <v>299</v>
+      </c>
+      <c r="E1647">
+        <v>24</v>
+      </c>
+      <c r="F1647">
+        <v>87.8</v>
+      </c>
+      <c r="G1647">
+        <v>63.79</v>
+      </c>
+      <c r="H1647">
+        <v>54</v>
+      </c>
+      <c r="I1647">
+        <v>87.27</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1647" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1647">
+        <v>4</v>
+      </c>
+      <c r="M1647">
+        <v>1</v>
+      </c>
+      <c r="N1647">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:14" ht="15" customHeight="1">
+      <c r="A1648" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1648">
+        <v>143</v>
+      </c>
+      <c r="E1648">
+        <v>14</v>
+      </c>
+      <c r="F1648">
+        <v>48.78</v>
+      </c>
+      <c r="G1648">
+        <v>25.86</v>
+      </c>
+      <c r="H1648">
+        <v>20</v>
+      </c>
+      <c r="I1648">
+        <v>43.64</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1648" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1648">
+        <v>2</v>
+      </c>
+      <c r="M1648">
+        <v>1</v>
+      </c>
+      <c r="N1648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:14" ht="15" customHeight="1">
+      <c r="A1649" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>934</v>
+      </c>
+      <c r="D1649">
+        <v>297</v>
+      </c>
+      <c r="E1649">
+        <v>62</v>
+      </c>
+      <c r="F1649">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1649">
+        <v>72.41</v>
+      </c>
+      <c r="H1649">
+        <v>54</v>
+      </c>
+      <c r="I1649">
+        <v>89.09</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1649" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1649">
+        <v>2</v>
+      </c>
+      <c r="M1649">
+        <v>3</v>
+      </c>
+      <c r="N1649">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:14" ht="15" customHeight="1">
+      <c r="A1650" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1650">
+        <v>265</v>
+      </c>
+      <c r="E1650">
+        <v>36</v>
+      </c>
+      <c r="F1650">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1650">
+        <v>53.45</v>
+      </c>
+      <c r="H1650">
+        <v>50</v>
+      </c>
+      <c r="I1650">
+        <v>65.45</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1650" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1650">
+        <v>4</v>
+      </c>
+      <c r="M1650">
+        <v>2</v>
+      </c>
+      <c r="N1650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:14" ht="15" customHeight="1">
+      <c r="A1651" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1651">
+        <v>356</v>
+      </c>
+      <c r="E1651">
+        <v>64</v>
+      </c>
+      <c r="F1651">
+        <v>75.61</v>
+      </c>
+      <c r="G1651">
+        <v>70.69</v>
+      </c>
+      <c r="H1651">
+        <v>70</v>
+      </c>
+      <c r="I1651">
+        <v>83.64</v>
+      </c>
+      <c r="J1651" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1651" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1651">
+        <v>4</v>
+      </c>
+      <c r="M1651">
+        <v>3</v>
+      </c>
+      <c r="N1651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:14" ht="15" customHeight="1">
+      <c r="A1652" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1652">
+        <v>310</v>
+      </c>
+      <c r="E1652">
+        <v>50</v>
+      </c>
+      <c r="F1652">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1652">
+        <v>65.52</v>
+      </c>
+      <c r="H1652">
+        <v>58</v>
+      </c>
+      <c r="I1652">
+        <v>85.45</v>
+      </c>
+      <c r="J1652" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1652" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1652">
+        <v>3</v>
+      </c>
+      <c r="M1652">
+        <v>2</v>
+      </c>
+      <c r="N1652">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:14" ht="15" customHeight="1">
+      <c r="A1653" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1653">
+        <v>223</v>
+      </c>
+      <c r="E1653">
+        <v>34</v>
+      </c>
+      <c r="F1653">
+        <v>48.78</v>
+      </c>
+      <c r="G1653">
+        <v>51.72</v>
+      </c>
+      <c r="H1653">
+        <v>44</v>
+      </c>
+      <c r="I1653">
+        <v>41.82</v>
+      </c>
+      <c r="J1653" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1653" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1653">
+        <v>2</v>
+      </c>
+      <c r="M1653">
+        <v>1</v>
+      </c>
+      <c r="N1653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:14" ht="15" customHeight="1">
+      <c r="A1654" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1654">
+        <v>321</v>
+      </c>
+      <c r="E1654">
+        <v>38</v>
+      </c>
+      <c r="F1654">
+        <v>82.93</v>
+      </c>
+      <c r="G1654">
+        <v>70.69</v>
+      </c>
+      <c r="H1654">
+        <v>64</v>
+      </c>
+      <c r="I1654">
+        <v>65.45</v>
+      </c>
+      <c r="J1654" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1654" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1654">
+        <v>4</v>
+      </c>
+      <c r="M1654">
+        <v>2</v>
+      </c>
+      <c r="N1654">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:14" ht="15" customHeight="1">
+      <c r="A1655" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1655">
+        <v>127</v>
+      </c>
+      <c r="E1655">
+        <v>16</v>
+      </c>
+      <c r="F1655">
+        <v>60.98</v>
+      </c>
+      <c r="G1655">
+        <v>20.69</v>
+      </c>
+      <c r="H1655">
+        <v>12</v>
+      </c>
+      <c r="I1655">
+        <v>0</v>
+      </c>
+      <c r="J1655" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1655" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1655">
+        <v>3</v>
+      </c>
+      <c r="M1655">
+        <v>1</v>
+      </c>
+      <c r="N1655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:14" ht="15" customHeight="1">
+      <c r="A1656" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1656">
+        <v>231</v>
+      </c>
+      <c r="E1656">
+        <v>32</v>
+      </c>
+      <c r="F1656">
+        <v>63.41</v>
+      </c>
+      <c r="G1656">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H1656">
+        <v>58</v>
+      </c>
+      <c r="I1656">
+        <v>36.36</v>
+      </c>
+      <c r="J1656" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1656" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1656">
+        <v>3</v>
+      </c>
+      <c r="M1656">
+        <v>1</v>
+      </c>
+      <c r="N1656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:14" ht="15" customHeight="1">
+      <c r="A1657" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1657">
+        <v>295</v>
+      </c>
+      <c r="E1657">
+        <v>42</v>
+      </c>
+      <c r="F1657">
+        <v>82.93</v>
+      </c>
+      <c r="G1657">
+        <v>53.45</v>
+      </c>
+      <c r="H1657">
+        <v>58</v>
+      </c>
+      <c r="I1657">
+        <v>56.36</v>
+      </c>
+      <c r="J1657" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1657" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1657">
+        <v>4</v>
+      </c>
+      <c r="M1657">
+        <v>2</v>
+      </c>
+      <c r="N1657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:14" ht="15" customHeight="1">
+      <c r="A1658" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1658">
+        <v>222</v>
+      </c>
+      <c r="E1658">
+        <v>44</v>
+      </c>
+      <c r="F1658">
+        <v>58.54</v>
+      </c>
+      <c r="G1658">
+        <v>32.76</v>
+      </c>
+      <c r="H1658">
+        <v>34</v>
+      </c>
+      <c r="I1658">
+        <v>69.09</v>
+      </c>
+      <c r="J1658" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1658" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1658">
+        <v>3</v>
+      </c>
+      <c r="M1658">
+        <v>2</v>
+      </c>
+      <c r="N1658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:14" ht="15" customHeight="1">
+      <c r="A1659" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1659">
+        <v>245</v>
+      </c>
+      <c r="E1659">
+        <v>30</v>
+      </c>
+      <c r="F1659">
+        <v>58.54</v>
+      </c>
+      <c r="G1659">
+        <v>48.28</v>
+      </c>
+      <c r="H1659">
+        <v>46</v>
+      </c>
+      <c r="I1659">
+        <v>87.27</v>
+      </c>
+      <c r="J1659" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1659" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1659">
+        <v>3</v>
+      </c>
+      <c r="M1659">
+        <v>1</v>
+      </c>
+      <c r="N1659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:14" ht="15" customHeight="1">
+      <c r="A1660" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1660">
+        <v>322</v>
+      </c>
+      <c r="E1660">
+        <v>62</v>
+      </c>
+      <c r="F1660">
+        <v>60.98</v>
+      </c>
+      <c r="G1660">
+        <v>72.41</v>
+      </c>
+      <c r="H1660">
+        <v>54</v>
+      </c>
+      <c r="I1660">
+        <v>87.27</v>
+      </c>
+      <c r="J1660" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1660" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1660">
+        <v>3</v>
+      </c>
+      <c r="M1660">
+        <v>3</v>
+      </c>
+      <c r="N1660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:14" ht="15" customHeight="1">
+      <c r="A1661" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1661">
+        <v>208</v>
+      </c>
+      <c r="E1661">
+        <v>34</v>
+      </c>
+      <c r="F1661">
+        <v>51.22</v>
+      </c>
+      <c r="G1661">
+        <v>25.86</v>
+      </c>
+      <c r="H1661">
+        <v>48</v>
+      </c>
+      <c r="I1661">
+        <v>61.82</v>
+      </c>
+      <c r="J1661" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1661" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1661">
+        <v>3</v>
+      </c>
+      <c r="M1661">
+        <v>1</v>
+      </c>
+      <c r="N1661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:14" ht="15" customHeight="1">
+      <c r="A1662" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1662">
+        <v>184</v>
+      </c>
+      <c r="E1662">
+        <v>42</v>
+      </c>
+      <c r="F1662">
+        <v>41.46</v>
+      </c>
+      <c r="G1662">
+        <v>31.03</v>
+      </c>
+      <c r="H1662">
+        <v>26</v>
+      </c>
+      <c r="I1662">
+        <v>54.55</v>
+      </c>
+      <c r="J1662" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1662" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1662">
+        <v>2</v>
+      </c>
+      <c r="M1662">
+        <v>2</v>
+      </c>
+      <c r="N1662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:14" ht="15" customHeight="1">
+      <c r="A1663" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1663">
+        <v>263</v>
+      </c>
+      <c r="E1663">
+        <v>36</v>
+      </c>
+      <c r="F1663">
+        <v>85.37</v>
+      </c>
+      <c r="G1663">
+        <v>32.76</v>
+      </c>
+      <c r="H1663">
+        <v>50</v>
+      </c>
+      <c r="I1663">
+        <v>69.09</v>
+      </c>
+      <c r="J1663" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1663" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1663">
+        <v>4</v>
+      </c>
+      <c r="M1663">
+        <v>2</v>
+      </c>
+      <c r="N1663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:14" ht="15" customHeight="1">
+      <c r="A1664" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1664">
+        <v>294</v>
+      </c>
+      <c r="E1664">
+        <v>38</v>
+      </c>
+      <c r="F1664">
+        <v>82.93</v>
+      </c>
+      <c r="G1664">
+        <v>48.28</v>
+      </c>
+      <c r="H1664">
+        <v>66</v>
+      </c>
+      <c r="I1664">
+        <v>58.18</v>
+      </c>
+      <c r="J1664" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1664" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1664">
+        <v>4</v>
+      </c>
+      <c r="M1664">
+        <v>2</v>
+      </c>
+      <c r="N1664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:14" ht="15" customHeight="1">
+      <c r="A1665" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1665">
+        <v>254</v>
+      </c>
+      <c r="E1665">
+        <v>48</v>
+      </c>
+      <c r="F1665">
+        <v>70.73</v>
+      </c>
+      <c r="G1665">
+        <v>27.59</v>
+      </c>
+      <c r="H1665">
+        <v>56</v>
+      </c>
+      <c r="I1665">
+        <v>52.73</v>
+      </c>
+      <c r="J1665" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1665" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1665">
+        <v>4</v>
+      </c>
+      <c r="M1665">
+        <v>2</v>
+      </c>
+      <c r="N1665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:14" ht="15" customHeight="1">
+      <c r="A1666" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1666">
+        <v>182</v>
+      </c>
+      <c r="E1666">
+        <v>32</v>
+      </c>
+      <c r="F1666">
+        <v>58.54</v>
+      </c>
+      <c r="G1666">
+        <v>22.41</v>
+      </c>
+      <c r="H1666">
+        <v>30</v>
+      </c>
+      <c r="I1666">
+        <v>41.82</v>
+      </c>
+      <c r="J1666" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1666" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1666">
+        <v>3</v>
+      </c>
+      <c r="M1666">
+        <v>1</v>
+      </c>
+      <c r="N1666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:14" ht="15" customHeight="1">
+      <c r="A1667" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1667">
+        <v>269</v>
+      </c>
+      <c r="E1667">
+        <v>44</v>
+      </c>
+      <c r="F1667">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1667">
+        <v>56.9</v>
+      </c>
+      <c r="H1667">
+        <v>42</v>
+      </c>
+      <c r="I1667">
+        <v>72.73</v>
+      </c>
+      <c r="J1667" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1667" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1667">
+        <v>3</v>
+      </c>
+      <c r="M1667">
+        <v>2</v>
+      </c>
+      <c r="N1667">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:14" ht="15" customHeight="1">
+      <c r="A1668" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1668">
+        <v>207</v>
+      </c>
+      <c r="E1668">
+        <v>32</v>
+      </c>
+      <c r="F1668">
+        <v>58.54</v>
+      </c>
+      <c r="G1668">
+        <v>41.38</v>
+      </c>
+      <c r="H1668">
+        <v>34</v>
+      </c>
+      <c r="I1668">
+        <v>38.18</v>
+      </c>
+      <c r="J1668" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1668" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1668">
+        <v>3</v>
+      </c>
+      <c r="M1668">
+        <v>1</v>
+      </c>
+      <c r="N1668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:14" ht="15" customHeight="1">
+      <c r="A1669" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>936</v>
+      </c>
+      <c r="D1669">
+        <v>295</v>
+      </c>
+      <c r="E1669">
+        <v>50</v>
+      </c>
+      <c r="F1669">
+        <v>53.66</v>
+      </c>
+      <c r="G1669">
+        <v>62.07</v>
+      </c>
+      <c r="H1669">
+        <v>60</v>
+      </c>
+      <c r="I1669">
+        <v>87.27</v>
+      </c>
+      <c r="J1669" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1669" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1669">
+        <v>3</v>
+      </c>
+      <c r="M1669">
+        <v>2</v>
+      </c>
+      <c r="N1669">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:14" ht="15" customHeight="1">
+      <c r="A1670" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1670">
+        <v>247</v>
+      </c>
+      <c r="E1670">
+        <v>38</v>
+      </c>
+      <c r="F1670">
+        <v>56.1</v>
+      </c>
+      <c r="G1670">
+        <v>36.21</v>
+      </c>
+      <c r="H1670">
+        <v>62</v>
+      </c>
+      <c r="I1670">
+        <v>63.64</v>
+      </c>
+      <c r="J1670" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1670" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1670">
+        <v>3</v>
+      </c>
+      <c r="M1670">
+        <v>2</v>
+      </c>
+      <c r="N1670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:14" ht="15" customHeight="1">
+      <c r="A1671" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1671">
+        <v>210</v>
+      </c>
+      <c r="E1671">
+        <v>34</v>
+      </c>
+      <c r="F1671">
+        <v>48.78</v>
+      </c>
+      <c r="G1671">
+        <v>48.28</v>
+      </c>
+      <c r="H1671">
+        <v>28</v>
+      </c>
+      <c r="I1671">
+        <v>67.27</v>
+      </c>
+      <c r="J1671" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1671" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1671">
+        <v>2</v>
+      </c>
+      <c r="M1671">
+        <v>1</v>
+      </c>
+      <c r="N1671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:14" ht="15" customHeight="1">
+      <c r="A1672" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1672">
+        <v>302</v>
+      </c>
+      <c r="E1672">
+        <v>62</v>
+      </c>
+      <c r="F1672">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G1672">
+        <v>72.41</v>
+      </c>
+      <c r="H1672">
+        <v>58</v>
+      </c>
+      <c r="I1672">
+        <v>89.09</v>
+      </c>
+      <c r="J1672" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1672" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1672">
+        <v>2</v>
+      </c>
+      <c r="M1672">
+        <v>3</v>
+      </c>
+      <c r="N1672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:14" ht="15" customHeight="1">
+      <c r="A1673" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1673">
+        <v>228</v>
+      </c>
+      <c r="E1673">
+        <v>44</v>
+      </c>
+      <c r="F1673">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1673">
+        <v>31.03</v>
+      </c>
+      <c r="H1673">
+        <v>32</v>
+      </c>
+      <c r="I1673">
+        <v>72.73</v>
+      </c>
+      <c r="J1673" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1673" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1673">
+        <v>3</v>
+      </c>
+      <c r="M1673">
+        <v>2</v>
+      </c>
+      <c r="N1673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:14" ht="15" customHeight="1">
+      <c r="A1674" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1674">
+        <v>277</v>
+      </c>
+      <c r="E1674">
+        <v>52</v>
+      </c>
+      <c r="F1674">
+        <v>75.61</v>
+      </c>
+      <c r="G1674">
+        <v>31.03</v>
+      </c>
+      <c r="H1674">
+        <v>52</v>
+      </c>
+      <c r="I1674">
+        <v>87.27</v>
+      </c>
+      <c r="J1674" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1674" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1674">
+        <v>4</v>
+      </c>
+      <c r="M1674">
+        <v>3</v>
+      </c>
+      <c r="N1674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:14" ht="15" customHeight="1">
+      <c r="A1675" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1675">
+        <v>254</v>
+      </c>
+      <c r="E1675">
+        <v>50</v>
+      </c>
+      <c r="F1675">
+        <v>70.73</v>
+      </c>
+      <c r="G1675">
+        <v>29.31</v>
+      </c>
+      <c r="H1675">
+        <v>46</v>
+      </c>
+      <c r="I1675">
+        <v>70.91</v>
+      </c>
+      <c r="J1675" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1675" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1675">
+        <v>4</v>
+      </c>
+      <c r="M1675">
+        <v>2</v>
+      </c>
+      <c r="N1675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:14" ht="15" customHeight="1">
+      <c r="A1676" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1676">
+        <v>347</v>
+      </c>
+      <c r="E1676">
+        <v>70</v>
+      </c>
+      <c r="F1676">
+        <v>78.05</v>
+      </c>
+      <c r="G1676">
+        <v>63.79</v>
+      </c>
+      <c r="H1676">
+        <v>64</v>
+      </c>
+      <c r="I1676">
+        <v>74.55</v>
+      </c>
+      <c r="J1676" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1676" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1676">
+        <v>4</v>
+      </c>
+      <c r="M1676">
+        <v>3</v>
+      </c>
+      <c r="N1676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:14" ht="15" customHeight="1">
+      <c r="A1677" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1677">
+        <v>251</v>
+      </c>
+      <c r="E1677">
+        <v>54</v>
+      </c>
+      <c r="F1677">
+        <v>58.54</v>
+      </c>
+      <c r="G1677">
+        <v>31.03</v>
+      </c>
+      <c r="H1677">
+        <v>46</v>
+      </c>
+      <c r="I1677">
+        <v>83.64</v>
+      </c>
+      <c r="J1677" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1677" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1677">
+        <v>3</v>
+      </c>
+      <c r="M1677">
+        <v>3</v>
+      </c>
+      <c r="N1677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:14" ht="15" customHeight="1">
+      <c r="A1678" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1678">
+        <v>261</v>
+      </c>
+      <c r="E1678">
+        <v>36</v>
+      </c>
+      <c r="F1678">
+        <v>60.98</v>
+      </c>
+      <c r="G1678">
+        <v>55.17</v>
+      </c>
+      <c r="H1678">
+        <v>52</v>
+      </c>
+      <c r="I1678">
+        <v>63.64</v>
+      </c>
+      <c r="J1678" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1678" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1678">
+        <v>3</v>
+      </c>
+      <c r="M1678">
+        <v>2</v>
+      </c>
+      <c r="N1678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:14" ht="15" customHeight="1">
+      <c r="A1679" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1679">
+        <v>320</v>
+      </c>
+      <c r="E1679">
+        <v>50</v>
+      </c>
+      <c r="F1679">
+        <v>82.93</v>
+      </c>
+      <c r="G1679">
+        <v>48.28</v>
+      </c>
+      <c r="H1679">
+        <v>64</v>
+      </c>
+      <c r="I1679">
+        <v>94.55</v>
+      </c>
+      <c r="J1679" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1679" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1679">
+        <v>4</v>
+      </c>
+      <c r="M1679">
+        <v>2</v>
+      </c>
+      <c r="N1679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:14" ht="15" customHeight="1">
+      <c r="A1680" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1680">
+        <v>348</v>
+      </c>
+      <c r="E1680">
+        <v>64</v>
+      </c>
+      <c r="F1680">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1680">
+        <v>56.9</v>
+      </c>
+      <c r="H1680">
+        <v>68</v>
+      </c>
+      <c r="I1680">
+        <v>94.55</v>
+      </c>
+      <c r="J1680" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1680" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1680">
+        <v>4</v>
+      </c>
+      <c r="M1680">
+        <v>3</v>
+      </c>
+      <c r="N1680">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:14" ht="15" customHeight="1">
+      <c r="A1681" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1681">
+        <v>259</v>
+      </c>
+      <c r="E1681">
+        <v>44</v>
+      </c>
+      <c r="F1681">
+        <v>58.54</v>
+      </c>
+      <c r="G1681">
+        <v>48.28</v>
+      </c>
+      <c r="H1681">
+        <v>44</v>
+      </c>
+      <c r="I1681">
+        <v>87.27</v>
+      </c>
+      <c r="J1681" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1681" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1681">
+        <v>3</v>
+      </c>
+      <c r="M1681">
+        <v>2</v>
+      </c>
+      <c r="N1681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:14" ht="15" customHeight="1">
+      <c r="A1682" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1682">
+        <v>327</v>
+      </c>
+      <c r="E1682">
+        <v>52</v>
+      </c>
+      <c r="F1682">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1682">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H1682">
+        <v>56</v>
+      </c>
+      <c r="I1682">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1682" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1682" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1682">
+        <v>4</v>
+      </c>
+      <c r="M1682">
+        <v>3</v>
+      </c>
+      <c r="N1682">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:14" ht="15" customHeight="1">
+      <c r="A1683" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1683">
+        <v>289</v>
+      </c>
+      <c r="E1683">
+        <v>42</v>
+      </c>
+      <c r="F1683">
+        <v>82.93</v>
+      </c>
+      <c r="G1683">
+        <v>58.62</v>
+      </c>
+      <c r="H1683">
+        <v>40</v>
+      </c>
+      <c r="I1683">
+        <v>80</v>
+      </c>
+      <c r="J1683" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1683" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1683">
+        <v>4</v>
+      </c>
+      <c r="M1683">
+        <v>2</v>
+      </c>
+      <c r="N1683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:14" ht="15" customHeight="1">
+      <c r="A1684" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1684">
+        <v>307</v>
+      </c>
+      <c r="E1684">
+        <v>58</v>
+      </c>
+      <c r="F1684">
+        <v>75.61</v>
+      </c>
+      <c r="G1684">
+        <v>56.9</v>
+      </c>
+      <c r="H1684">
+        <v>50</v>
+      </c>
+      <c r="I1684">
+        <v>76.36</v>
+      </c>
+      <c r="J1684" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1684" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1684">
+        <v>4</v>
+      </c>
+      <c r="M1684">
+        <v>3</v>
+      </c>
+      <c r="N1684">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:14" ht="15" customHeight="1">
+      <c r="A1685" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1685">
+        <v>384</v>
+      </c>
+      <c r="E1685">
+        <v>80</v>
+      </c>
+      <c r="F1685">
+        <v>95.12</v>
+      </c>
+      <c r="G1685">
+        <v>63.79</v>
+      </c>
+      <c r="H1685">
+        <v>66</v>
+      </c>
+      <c r="I1685">
+        <v>83.64</v>
+      </c>
+      <c r="J1685" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1685" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1685">
+        <v>4</v>
+      </c>
+      <c r="M1685">
+        <v>4</v>
+      </c>
+      <c r="N1685">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:14" ht="15" customHeight="1">
+      <c r="A1686" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1686">
+        <v>149</v>
+      </c>
+      <c r="E1686">
+        <v>28</v>
+      </c>
+      <c r="F1686">
+        <v>53.66</v>
+      </c>
+      <c r="G1686">
+        <v>29.31</v>
+      </c>
+      <c r="H1686">
+        <v>18</v>
+      </c>
+      <c r="I1686">
+        <v>0</v>
+      </c>
+      <c r="J1686" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1686" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1686">
+        <v>3</v>
+      </c>
+      <c r="M1686">
+        <v>1</v>
+      </c>
+      <c r="N1686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:14" ht="15" customHeight="1">
+      <c r="A1687" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>938</v>
+      </c>
+      <c r="D1687">
+        <v>169</v>
+      </c>
+      <c r="E1687">
+        <v>36</v>
+      </c>
+      <c r="F1687">
+        <v>41.46</v>
+      </c>
+      <c r="G1687">
+        <v>18.97</v>
+      </c>
+      <c r="H1687">
+        <v>34</v>
+      </c>
+      <c r="I1687">
+        <v>47.27</v>
+      </c>
+      <c r="J1687" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1687" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1687">
+        <v>2</v>
+      </c>
+      <c r="M1687">
+        <v>2</v>
+      </c>
+      <c r="N1687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:14" ht="15" customHeight="1">
+      <c r="A1688" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1688">
+        <v>292</v>
+      </c>
+      <c r="E1688">
+        <v>80</v>
+      </c>
+      <c r="F1688">
+        <v>70.73</v>
+      </c>
+      <c r="G1688">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1688">
+        <v>32</v>
+      </c>
+      <c r="I1688">
+        <v>90.91</v>
+      </c>
+      <c r="J1688" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1688" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1688">
+        <v>4</v>
+      </c>
+      <c r="M1688">
+        <v>4</v>
+      </c>
+      <c r="N1688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:14" ht="15" customHeight="1">
+      <c r="A1689" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1689">
+        <v>311</v>
+      </c>
+      <c r="E1689">
+        <v>80</v>
+      </c>
+      <c r="F1689">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1689">
+        <v>58.62</v>
+      </c>
+      <c r="H1689">
+        <v>34</v>
+      </c>
+      <c r="I1689">
+        <v>92.73</v>
+      </c>
+      <c r="J1689" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1689" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1689">
+        <v>3</v>
+      </c>
+      <c r="M1689">
+        <v>4</v>
+      </c>
+      <c r="N1689">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:14" ht="15" customHeight="1">
+      <c r="A1690" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1690">
+        <v>287</v>
+      </c>
+      <c r="E1690">
+        <v>54</v>
+      </c>
+      <c r="F1690">
+        <v>56.1</v>
+      </c>
+      <c r="G1690">
+        <v>58.62</v>
+      </c>
+      <c r="H1690">
+        <v>52</v>
+      </c>
+      <c r="I1690">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1690" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1690" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1690">
+        <v>3</v>
+      </c>
+      <c r="M1690">
+        <v>3</v>
+      </c>
+      <c r="N1690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:14" ht="15" customHeight="1">
+      <c r="A1691" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1691">
+        <v>203</v>
+      </c>
+      <c r="E1691">
+        <v>22</v>
+      </c>
+      <c r="F1691">
+        <v>51.22</v>
+      </c>
+      <c r="G1691">
+        <v>37.93</v>
+      </c>
+      <c r="H1691">
+        <v>42</v>
+      </c>
+      <c r="I1691">
+        <v>67.27</v>
+      </c>
+      <c r="J1691" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1691" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1691">
+        <v>3</v>
+      </c>
+      <c r="M1691">
+        <v>1</v>
+      </c>
+      <c r="N1691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:14" ht="15" customHeight="1">
+      <c r="A1692" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1692">
+        <v>297</v>
+      </c>
+      <c r="E1692">
+        <v>52</v>
+      </c>
+      <c r="F1692">
+        <v>73.17</v>
+      </c>
+      <c r="G1692">
+        <v>46.55</v>
+      </c>
+      <c r="H1692">
+        <v>60</v>
+      </c>
+      <c r="I1692">
+        <v>76.36</v>
+      </c>
+      <c r="J1692" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1692" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1692">
+        <v>4</v>
+      </c>
+      <c r="M1692">
+        <v>3</v>
+      </c>
+      <c r="N1692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:14" ht="15" customHeight="1">
+      <c r="A1693" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1693">
+        <v>267</v>
+      </c>
+      <c r="E1693">
+        <v>40</v>
+      </c>
+      <c r="F1693">
+        <v>75.61</v>
+      </c>
+      <c r="G1693">
+        <v>41.38</v>
+      </c>
+      <c r="H1693">
+        <v>58</v>
+      </c>
+      <c r="I1693">
+        <v>49.09</v>
+      </c>
+      <c r="J1693" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1693" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1693">
+        <v>4</v>
+      </c>
+      <c r="M1693">
+        <v>2</v>
+      </c>
+      <c r="N1693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:14" ht="15" customHeight="1">
+      <c r="A1694" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1694">
+        <v>286</v>
+      </c>
+      <c r="E1694">
+        <v>48</v>
+      </c>
+      <c r="F1694">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1694">
+        <v>60.34</v>
+      </c>
+      <c r="H1694">
+        <v>44</v>
+      </c>
+      <c r="I1694">
+        <v>80</v>
+      </c>
+      <c r="J1694" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1694" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1694">
+        <v>4</v>
+      </c>
+      <c r="M1694">
+        <v>2</v>
+      </c>
+      <c r="N1694">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:14" ht="15" customHeight="1">
+      <c r="A1695" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1695">
+        <v>340</v>
+      </c>
+      <c r="E1695">
+        <v>78</v>
+      </c>
+      <c r="F1695">
+        <v>73.17</v>
+      </c>
+      <c r="G1695">
+        <v>62.07</v>
+      </c>
+      <c r="H1695">
+        <v>50</v>
+      </c>
+      <c r="I1695">
+        <v>92.73</v>
+      </c>
+      <c r="J1695" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1695" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1695">
+        <v>4</v>
+      </c>
+      <c r="M1695">
+        <v>4</v>
+      </c>
+      <c r="N1695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:14" ht="15" customHeight="1">
+      <c r="A1696" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1696">
+        <v>318</v>
+      </c>
+      <c r="E1696">
+        <v>66</v>
+      </c>
+      <c r="F1696">
+        <v>78.05</v>
+      </c>
+      <c r="G1696">
+        <v>62.07</v>
+      </c>
+      <c r="H1696">
+        <v>44</v>
+      </c>
+      <c r="I1696">
+        <v>76.36</v>
+      </c>
+      <c r="J1696" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1696" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1696">
+        <v>4</v>
+      </c>
+      <c r="M1696">
+        <v>3</v>
+      </c>
+      <c r="N1696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:14" ht="15" customHeight="1">
+      <c r="A1697" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1697">
+        <v>296</v>
+      </c>
+      <c r="E1697">
+        <v>70</v>
+      </c>
+      <c r="F1697">
+        <v>51.22</v>
+      </c>
+      <c r="G1697">
+        <v>60.34</v>
+      </c>
+      <c r="H1697">
+        <v>44</v>
+      </c>
+      <c r="I1697">
+        <v>90.91</v>
+      </c>
+      <c r="J1697" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1697" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1697">
+        <v>3</v>
+      </c>
+      <c r="M1697">
+        <v>3</v>
+      </c>
+      <c r="N1697">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:14" ht="15" customHeight="1">
+      <c r="A1698" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1698">
+        <v>338</v>
+      </c>
+      <c r="E1698">
+        <v>82</v>
+      </c>
+      <c r="F1698">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1698">
+        <v>58.62</v>
+      </c>
+      <c r="H1698">
+        <v>52</v>
+      </c>
+      <c r="I1698">
+        <v>94.55</v>
+      </c>
+      <c r="J1698" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1698" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1698">
+        <v>4</v>
+      </c>
+      <c r="M1698">
+        <v>4</v>
+      </c>
+      <c r="N1698">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:14" ht="15" customHeight="1">
+      <c r="A1699" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1699">
+        <v>220</v>
+      </c>
+      <c r="E1699">
+        <v>18</v>
+      </c>
+      <c r="F1699">
+        <v>60.98</v>
+      </c>
+      <c r="G1699">
+        <v>43.1</v>
+      </c>
+      <c r="H1699">
+        <v>42</v>
+      </c>
+      <c r="I1699">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1699" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1699" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1699">
+        <v>3</v>
+      </c>
+      <c r="M1699">
+        <v>1</v>
+      </c>
+      <c r="N1699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:14" ht="15" customHeight="1">
+      <c r="A1700" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1700">
+        <v>293</v>
+      </c>
+      <c r="E1700">
+        <v>54</v>
+      </c>
+      <c r="F1700">
+        <v>70.73</v>
+      </c>
+      <c r="G1700">
+        <v>56.9</v>
+      </c>
+      <c r="H1700">
+        <v>40</v>
+      </c>
+      <c r="I1700">
+        <v>94.55</v>
+      </c>
+      <c r="J1700" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1700" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1700">
+        <v>4</v>
+      </c>
+      <c r="M1700">
+        <v>3</v>
+      </c>
+      <c r="N1700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:14" ht="15" customHeight="1">
+      <c r="A1701" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1701">
+        <v>280</v>
+      </c>
+      <c r="E1701">
+        <v>60</v>
+      </c>
+      <c r="F1701">
+        <v>63.41</v>
+      </c>
+      <c r="G1701">
+        <v>51.72</v>
+      </c>
+      <c r="H1701">
+        <v>42</v>
+      </c>
+      <c r="I1701">
+        <v>76.36</v>
+      </c>
+      <c r="J1701" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1701" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1701">
+        <v>3</v>
+      </c>
+      <c r="M1701">
+        <v>3</v>
+      </c>
+      <c r="N1701">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:14" ht="15" customHeight="1">
+      <c r="A1702" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1702">
+        <v>260</v>
+      </c>
+      <c r="E1702">
+        <v>62</v>
+      </c>
+      <c r="F1702">
+        <v>60.98</v>
+      </c>
+      <c r="G1702">
+        <v>25.86</v>
+      </c>
+      <c r="H1702">
+        <v>50</v>
+      </c>
+      <c r="I1702">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1702" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1702" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1702">
+        <v>3</v>
+      </c>
+      <c r="M1702">
+        <v>3</v>
+      </c>
+      <c r="N1702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:14" ht="15" customHeight="1">
+      <c r="A1703" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1703">
+        <v>303</v>
+      </c>
+      <c r="E1703">
+        <v>68</v>
+      </c>
+      <c r="F1703">
+        <v>58.54</v>
+      </c>
+      <c r="G1703">
+        <v>62.07</v>
+      </c>
+      <c r="H1703">
+        <v>42</v>
+      </c>
+      <c r="I1703">
+        <v>94.55</v>
+      </c>
+      <c r="J1703" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1703" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1703">
+        <v>3</v>
+      </c>
+      <c r="M1703">
+        <v>3</v>
+      </c>
+      <c r="N1703">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:14" ht="15" customHeight="1">
+      <c r="A1704" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1704">
+        <v>273</v>
+      </c>
+      <c r="E1704">
+        <v>58</v>
+      </c>
+      <c r="F1704">
+        <v>60.98</v>
+      </c>
+      <c r="G1704">
+        <v>51.72</v>
+      </c>
+      <c r="H1704">
+        <v>40</v>
+      </c>
+      <c r="I1704">
+        <v>76.36</v>
+      </c>
+      <c r="J1704" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1704" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1704">
+        <v>3</v>
+      </c>
+      <c r="M1704">
+        <v>3</v>
+      </c>
+      <c r="N1704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:14" ht="15" customHeight="1">
+      <c r="A1705" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1705">
+        <v>298</v>
+      </c>
+      <c r="E1705">
+        <v>68</v>
+      </c>
+      <c r="F1705">
+        <v>51.22</v>
+      </c>
+      <c r="G1705">
+        <v>63.79</v>
+      </c>
+      <c r="H1705">
+        <v>44</v>
+      </c>
+      <c r="I1705">
+        <v>92.73</v>
+      </c>
+      <c r="J1705" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1705" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1705">
+        <v>3</v>
+      </c>
+      <c r="M1705">
+        <v>3</v>
+      </c>
+      <c r="N1705">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:14" ht="15" customHeight="1">
+      <c r="A1706" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1706">
+        <v>246</v>
+      </c>
+      <c r="E1706">
+        <v>30</v>
+      </c>
+      <c r="F1706">
+        <v>46.34</v>
+      </c>
+      <c r="G1706">
+        <v>63.79</v>
+      </c>
+      <c r="H1706">
+        <v>46</v>
+      </c>
+      <c r="I1706">
+        <v>80</v>
+      </c>
+      <c r="J1706" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1706" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1706">
+        <v>2</v>
+      </c>
+      <c r="M1706">
+        <v>1</v>
+      </c>
+      <c r="N1706">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:14" ht="15" customHeight="1">
+      <c r="A1707" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1707">
+        <v>298</v>
+      </c>
+      <c r="E1707">
+        <v>60</v>
+      </c>
+      <c r="F1707">
+        <v>56.1</v>
+      </c>
+      <c r="G1707">
+        <v>62.07</v>
+      </c>
+      <c r="H1707">
+        <v>48</v>
+      </c>
+      <c r="I1707">
+        <v>94.55</v>
+      </c>
+      <c r="J1707" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1707" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1707">
+        <v>3</v>
+      </c>
+      <c r="M1707">
+        <v>3</v>
+      </c>
+      <c r="N1707">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:14" ht="15" customHeight="1">
+      <c r="A1708" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1708">
+        <v>290</v>
+      </c>
+      <c r="E1708">
+        <v>34</v>
+      </c>
+      <c r="F1708">
+        <v>73.17</v>
+      </c>
+      <c r="G1708">
+        <v>65.52</v>
+      </c>
+      <c r="H1708">
+        <v>54</v>
+      </c>
+      <c r="I1708">
+        <v>72.73</v>
+      </c>
+      <c r="J1708" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1708" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1708">
+        <v>4</v>
+      </c>
+      <c r="M1708">
+        <v>1</v>
+      </c>
+      <c r="N1708">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:14" ht="15" customHeight="1">
+      <c r="A1709" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1709">
+        <v>217</v>
+      </c>
+      <c r="E1709">
+        <v>38</v>
+      </c>
+      <c r="F1709">
+        <v>53.66</v>
+      </c>
+      <c r="G1709">
+        <v>37.93</v>
+      </c>
+      <c r="H1709">
+        <v>32</v>
+      </c>
+      <c r="I1709">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1709" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1709" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1709">
+        <v>3</v>
+      </c>
+      <c r="M1709">
+        <v>2</v>
+      </c>
+      <c r="N1709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:14" ht="15" customHeight="1">
+      <c r="A1710" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1710">
+        <v>263</v>
+      </c>
+      <c r="E1710">
+        <v>48</v>
+      </c>
+      <c r="F1710">
+        <v>58.54</v>
+      </c>
+      <c r="G1710">
+        <v>50</v>
+      </c>
+      <c r="H1710">
+        <v>44</v>
+      </c>
+      <c r="I1710">
+        <v>80</v>
+      </c>
+      <c r="J1710" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1710" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1710">
+        <v>3</v>
+      </c>
+      <c r="M1710">
+        <v>2</v>
+      </c>
+      <c r="N1710">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:14" ht="15" customHeight="1">
+      <c r="A1711" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>939</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1711">
+        <v>281</v>
+      </c>
+      <c r="E1711">
+        <v>68</v>
+      </c>
+      <c r="F1711">
+        <v>53.66</v>
+      </c>
+      <c r="G1711">
+        <v>58.62</v>
+      </c>
+      <c r="H1711">
+        <v>40</v>
+      </c>
+      <c r="I1711">
+        <v>69.09</v>
+      </c>
+      <c r="J1711" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1711" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1711">
+        <v>3</v>
+      </c>
+      <c r="M1711">
+        <v>3</v>
+      </c>
+      <c r="N1711">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:14" ht="15" customHeight="1">
+      <c r="A1712" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1712">
+        <v>249</v>
+      </c>
+      <c r="E1712">
+        <v>40</v>
+      </c>
+      <c r="F1712">
+        <v>63.41</v>
+      </c>
+      <c r="G1712">
+        <v>37.93</v>
+      </c>
+      <c r="H1712">
+        <v>52</v>
+      </c>
+      <c r="I1712">
+        <v>67.27</v>
+      </c>
+      <c r="J1712" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1712" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1712">
+        <v>3</v>
+      </c>
+      <c r="M1712">
+        <v>2</v>
+      </c>
+      <c r="N1712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:14" ht="15" customHeight="1">
+      <c r="A1713" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1713">
+        <v>295</v>
+      </c>
+      <c r="E1713">
+        <v>42</v>
+      </c>
+      <c r="F1713">
+        <v>85.37</v>
+      </c>
+      <c r="G1713">
+        <v>48.28</v>
+      </c>
+      <c r="H1713">
+        <v>54</v>
+      </c>
+      <c r="I1713">
+        <v>76.36</v>
+      </c>
+      <c r="J1713" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1713" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1713">
+        <v>4</v>
+      </c>
+      <c r="M1713">
+        <v>2</v>
+      </c>
+      <c r="N1713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:14" ht="15" customHeight="1">
+      <c r="A1714" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1714">
+        <v>277</v>
+      </c>
+      <c r="E1714">
+        <v>34</v>
+      </c>
+      <c r="F1714">
+        <v>75.61</v>
+      </c>
+      <c r="G1714">
+        <v>48.28</v>
+      </c>
+      <c r="H1714">
+        <v>58</v>
+      </c>
+      <c r="I1714">
+        <v>70.91</v>
+      </c>
+      <c r="J1714" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1714" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1714">
+        <v>4</v>
+      </c>
+      <c r="M1714">
+        <v>1</v>
+      </c>
+      <c r="N1714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:14" ht="15" customHeight="1">
+      <c r="A1715" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1715">
+        <v>281</v>
+      </c>
+      <c r="E1715">
+        <v>44</v>
+      </c>
+      <c r="F1715">
+        <v>70.73</v>
+      </c>
+      <c r="G1715">
+        <v>56.9</v>
+      </c>
+      <c r="H1715">
+        <v>50</v>
+      </c>
+      <c r="I1715">
+        <v>65.45</v>
+      </c>
+      <c r="J1715" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1715" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1715">
+        <v>4</v>
+      </c>
+      <c r="M1715">
+        <v>2</v>
+      </c>
+      <c r="N1715">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:14" ht="15" customHeight="1">
+      <c r="A1716" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1716">
+        <v>307</v>
+      </c>
+      <c r="E1716">
+        <v>50</v>
+      </c>
+      <c r="F1716">
+        <v>78.05</v>
+      </c>
+      <c r="G1716">
+        <v>55.17</v>
+      </c>
+      <c r="H1716">
+        <v>56</v>
+      </c>
+      <c r="I1716">
+        <v>80</v>
+      </c>
+      <c r="J1716" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1716" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1716">
+        <v>4</v>
+      </c>
+      <c r="M1716">
+        <v>2</v>
+      </c>
+      <c r="N1716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:14" ht="15" customHeight="1">
+      <c r="A1717" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1717">
+        <v>264</v>
+      </c>
+      <c r="E1717">
+        <v>38</v>
+      </c>
+      <c r="F1717">
+        <v>78.05</v>
+      </c>
+      <c r="G1717">
+        <v>31.03</v>
+      </c>
+      <c r="H1717">
+        <v>54</v>
+      </c>
+      <c r="I1717">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1717" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1717" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1717">
+        <v>4</v>
+      </c>
+      <c r="M1717">
+        <v>2</v>
+      </c>
+      <c r="N1717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:14" ht="15" customHeight="1">
+      <c r="A1718" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1718">
+        <v>304</v>
+      </c>
+      <c r="E1718">
+        <v>52</v>
+      </c>
+      <c r="F1718">
+        <v>63.41</v>
+      </c>
+      <c r="G1718">
+        <v>75.86</v>
+      </c>
+      <c r="H1718">
+        <v>48</v>
+      </c>
+      <c r="I1718">
+        <v>70.91</v>
+      </c>
+      <c r="J1718" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1718" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1718">
+        <v>3</v>
+      </c>
+      <c r="M1718">
+        <v>3</v>
+      </c>
+      <c r="N1718">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:14" ht="15" customHeight="1">
+      <c r="A1719" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1719">
+        <v>300</v>
+      </c>
+      <c r="E1719">
+        <v>42</v>
+      </c>
+      <c r="F1719">
+        <v>75.61</v>
+      </c>
+      <c r="G1719">
+        <v>51.72</v>
+      </c>
+      <c r="H1719">
+        <v>68</v>
+      </c>
+      <c r="I1719">
+        <v>67.27</v>
+      </c>
+      <c r="J1719" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1719" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1719">
+        <v>4</v>
+      </c>
+      <c r="M1719">
+        <v>2</v>
+      </c>
+      <c r="N1719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:14" ht="15" customHeight="1">
+      <c r="A1720" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1720">
+        <v>299</v>
+      </c>
+      <c r="E1720">
+        <v>48</v>
+      </c>
+      <c r="F1720">
+        <v>78.05</v>
+      </c>
+      <c r="G1720">
+        <v>56.9</v>
+      </c>
+      <c r="H1720">
+        <v>56</v>
+      </c>
+      <c r="I1720">
+        <v>58.18</v>
+      </c>
+      <c r="J1720" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1720" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1720">
+        <v>4</v>
+      </c>
+      <c r="M1720">
+        <v>2</v>
+      </c>
+      <c r="N1720">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:14" ht="15" customHeight="1">
+      <c r="A1721" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1721">
+        <v>372</v>
+      </c>
+      <c r="E1721">
+        <v>64</v>
+      </c>
+      <c r="F1721">
+        <v>90.24</v>
+      </c>
+      <c r="G1721">
+        <v>60.34</v>
+      </c>
+      <c r="H1721">
+        <v>76</v>
+      </c>
+      <c r="I1721">
+        <v>94.55</v>
+      </c>
+      <c r="J1721" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1721" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1721">
+        <v>4</v>
+      </c>
+      <c r="M1721">
+        <v>3</v>
+      </c>
+      <c r="N1721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:14" ht="15" customHeight="1">
+      <c r="A1722" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1722">
+        <v>138</v>
+      </c>
+      <c r="E1722">
+        <v>32</v>
+      </c>
+      <c r="F1722">
+        <v>34.15</v>
+      </c>
+      <c r="G1722">
+        <v>24.14</v>
+      </c>
+      <c r="H1722">
+        <v>20</v>
+      </c>
+      <c r="I1722">
+        <v>25.45</v>
+      </c>
+      <c r="J1722" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1722" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1722">
+        <v>1</v>
+      </c>
+      <c r="M1722">
+        <v>1</v>
+      </c>
+      <c r="N1722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:14" ht="15" customHeight="1">
+      <c r="A1723" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1723">
+        <v>337</v>
+      </c>
+      <c r="E1723">
+        <v>72</v>
+      </c>
+      <c r="F1723">
+        <v>78.05</v>
+      </c>
+      <c r="G1723">
+        <v>55.17</v>
+      </c>
+      <c r="H1723">
+        <v>62</v>
+      </c>
+      <c r="I1723">
+        <v>72.73</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1723" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1723">
+        <v>4</v>
+      </c>
+      <c r="M1723">
+        <v>4</v>
+      </c>
+      <c r="N1723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:14" ht="15" customHeight="1">
+      <c r="A1724" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1724">
+        <v>236</v>
+      </c>
+      <c r="E1724">
+        <v>36</v>
+      </c>
+      <c r="F1724">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1724">
+        <v>43.1</v>
+      </c>
+      <c r="H1724">
+        <v>46</v>
+      </c>
+      <c r="I1724">
+        <v>40</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1724" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1724">
+        <v>3</v>
+      </c>
+      <c r="M1724">
+        <v>2</v>
+      </c>
+      <c r="N1724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:14" ht="15" customHeight="1">
+      <c r="A1725" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1725">
+        <v>301</v>
+      </c>
+      <c r="E1725">
+        <v>60</v>
+      </c>
+      <c r="F1725">
+        <v>48.78</v>
+      </c>
+      <c r="G1725">
+        <v>62.07</v>
+      </c>
+      <c r="H1725">
+        <v>64</v>
+      </c>
+      <c r="I1725">
+        <v>76.36</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1725" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1725">
+        <v>2</v>
+      </c>
+      <c r="M1725">
+        <v>3</v>
+      </c>
+      <c r="N1725">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:14" ht="15" customHeight="1">
+      <c r="A1726" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>942</v>
+      </c>
+      <c r="D1726">
+        <v>323</v>
+      </c>
+      <c r="E1726">
+        <v>56</v>
+      </c>
+      <c r="F1726">
+        <v>60.98</v>
+      </c>
+      <c r="G1726">
+        <v>77.59</v>
+      </c>
+      <c r="H1726">
+        <v>60</v>
+      </c>
+      <c r="I1726">
+        <v>74.55</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1726" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1726">
+        <v>3</v>
+      </c>
+      <c r="M1726">
+        <v>3</v>
+      </c>
+      <c r="N1726">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:14" ht="15" customHeight="1">
+      <c r="A1727" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1727">
+        <v>282</v>
+      </c>
+      <c r="E1727">
+        <v>44</v>
+      </c>
+      <c r="F1727">
+        <v>82.93</v>
+      </c>
+      <c r="G1727">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1727">
+        <v>54</v>
+      </c>
+      <c r="I1727">
+        <v>70.91</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1727" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1727">
+        <v>4</v>
+      </c>
+      <c r="M1727">
+        <v>2</v>
+      </c>
+      <c r="N1727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:14" ht="15" customHeight="1">
+      <c r="A1728" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1728">
+        <v>279</v>
+      </c>
+      <c r="E1728">
+        <v>52</v>
+      </c>
+      <c r="F1728">
+        <v>56.1</v>
+      </c>
+      <c r="G1728">
+        <v>60.34</v>
+      </c>
+      <c r="H1728">
+        <v>52</v>
+      </c>
+      <c r="I1728">
+        <v>63.64</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1728" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1728">
+        <v>3</v>
+      </c>
+      <c r="M1728">
+        <v>3</v>
+      </c>
+      <c r="N1728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:14" ht="15" customHeight="1">
+      <c r="A1729" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1729">
+        <v>304</v>
+      </c>
+      <c r="E1729">
+        <v>72</v>
+      </c>
+      <c r="F1729">
+        <v>78.05</v>
+      </c>
+      <c r="G1729">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1729">
+        <v>50</v>
+      </c>
+      <c r="I1729">
+        <v>70.91</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1729" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1729">
+        <v>4</v>
+      </c>
+      <c r="M1729">
+        <v>4</v>
+      </c>
+      <c r="N1729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:14" ht="15" customHeight="1">
+      <c r="A1730" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1730">
+        <v>407</v>
+      </c>
+      <c r="E1730">
+        <v>80</v>
+      </c>
+      <c r="F1730">
+        <v>85.37</v>
+      </c>
+      <c r="G1730">
+        <v>89.66</v>
+      </c>
+      <c r="H1730">
+        <v>72</v>
+      </c>
+      <c r="I1730">
+        <v>76.36</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1730" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1730">
+        <v>4</v>
+      </c>
+      <c r="M1730">
+        <v>4</v>
+      </c>
+      <c r="N1730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:14" ht="15" customHeight="1">
+      <c r="A1731" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1731">
+        <v>340</v>
+      </c>
+      <c r="E1731">
+        <v>64</v>
+      </c>
+      <c r="F1731">
+        <v>60.98</v>
+      </c>
+      <c r="G1731">
+        <v>77.59</v>
+      </c>
+      <c r="H1731">
+        <v>64</v>
+      </c>
+      <c r="I1731">
+        <v>83.64</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1731" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1731">
+        <v>3</v>
+      </c>
+      <c r="M1731">
+        <v>3</v>
+      </c>
+      <c r="N1731">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:14" ht="15" customHeight="1">
+      <c r="A1732" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1732">
+        <v>283</v>
+      </c>
+      <c r="E1732">
+        <v>66</v>
+      </c>
+      <c r="F1732">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1732">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1732">
+        <v>48</v>
+      </c>
+      <c r="I1732">
+        <v>76.36</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1732" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1732">
+        <v>3</v>
+      </c>
+      <c r="M1732">
+        <v>3</v>
+      </c>
+      <c r="N1732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:14" ht="15" customHeight="1">
+      <c r="A1733" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1733">
+        <v>311</v>
+      </c>
+      <c r="E1733">
+        <v>54</v>
+      </c>
+      <c r="F1733">
+        <v>73.17</v>
+      </c>
+      <c r="G1733">
+        <v>56.9</v>
+      </c>
+      <c r="H1733">
+        <v>60</v>
+      </c>
+      <c r="I1733">
+        <v>76.36</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1733" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1733">
+        <v>4</v>
+      </c>
+      <c r="M1733">
+        <v>3</v>
+      </c>
+      <c r="N1733">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:14" ht="15" customHeight="1">
+      <c r="A1734" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1734">
+        <v>256</v>
+      </c>
+      <c r="E1734">
+        <v>52</v>
+      </c>
+      <c r="F1734">
+        <v>58.54</v>
+      </c>
+      <c r="G1734">
+        <v>50</v>
+      </c>
+      <c r="H1734">
+        <v>46</v>
+      </c>
+      <c r="I1734">
+        <v>43.64</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1734" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1734">
+        <v>3</v>
+      </c>
+      <c r="M1734">
+        <v>3</v>
+      </c>
+      <c r="N1734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:14" ht="15" customHeight="1">
+      <c r="A1735" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1735">
+        <v>356</v>
+      </c>
+      <c r="E1735">
+        <v>72</v>
+      </c>
+      <c r="F1735">
+        <v>73.17</v>
+      </c>
+      <c r="G1735">
+        <v>75.86</v>
+      </c>
+      <c r="H1735">
+        <v>62</v>
+      </c>
+      <c r="I1735">
+        <v>76.36</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1735" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1735">
+        <v>4</v>
+      </c>
+      <c r="M1735">
+        <v>4</v>
+      </c>
+      <c r="N1735">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:14" ht="15" customHeight="1">
+      <c r="A1736" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1736">
+        <v>332</v>
+      </c>
+      <c r="E1736">
+        <v>64</v>
+      </c>
+      <c r="F1736">
+        <v>51.22</v>
+      </c>
+      <c r="G1736">
+        <v>82.76</v>
+      </c>
+      <c r="H1736">
+        <v>64</v>
+      </c>
+      <c r="I1736">
+        <v>76.36</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1736" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1736">
+        <v>3</v>
+      </c>
+      <c r="M1736">
+        <v>3</v>
+      </c>
+      <c r="N1736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:14" ht="15" customHeight="1">
+      <c r="A1737" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1737">
+        <v>273</v>
+      </c>
+      <c r="E1737">
+        <v>46</v>
+      </c>
+      <c r="F1737">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1737">
+        <v>58.62</v>
+      </c>
+      <c r="H1737">
+        <v>46</v>
+      </c>
+      <c r="I1737">
+        <v>58.18</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1737" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1737">
+        <v>3</v>
+      </c>
+      <c r="M1737">
+        <v>2</v>
+      </c>
+      <c r="N1737">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:14" ht="15" customHeight="1">
+      <c r="A1738" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1738">
+        <v>293</v>
+      </c>
+      <c r="E1738">
+        <v>52</v>
+      </c>
+      <c r="F1738">
+        <v>78.05</v>
+      </c>
+      <c r="G1738">
+        <v>51.72</v>
+      </c>
+      <c r="H1738">
+        <v>46</v>
+      </c>
+      <c r="I1738">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1738" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1738">
+        <v>4</v>
+      </c>
+      <c r="M1738">
+        <v>3</v>
+      </c>
+      <c r="N1738">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:14" ht="15" customHeight="1">
+      <c r="A1739" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1739">
+        <v>302</v>
+      </c>
+      <c r="E1739">
+        <v>60</v>
+      </c>
+      <c r="F1739">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1739">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H1739">
+        <v>62</v>
+      </c>
+      <c r="I1739">
+        <v>72.73</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1739" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1739">
+        <v>4</v>
+      </c>
+      <c r="M1739">
+        <v>3</v>
+      </c>
+      <c r="N1739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:14" ht="15" customHeight="1">
+      <c r="A1740" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1740">
+        <v>351</v>
+      </c>
+      <c r="E1740">
+        <v>72</v>
+      </c>
+      <c r="F1740">
+        <v>78.05</v>
+      </c>
+      <c r="G1740">
+        <v>70.69</v>
+      </c>
+      <c r="H1740">
+        <v>58</v>
+      </c>
+      <c r="I1740">
+        <v>76.36</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1740" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1740">
+        <v>4</v>
+      </c>
+      <c r="M1740">
+        <v>4</v>
+      </c>
+      <c r="N1740">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:14" ht="15" customHeight="1">
+      <c r="A1741" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1741">
+        <v>393</v>
+      </c>
+      <c r="E1741">
+        <v>76</v>
+      </c>
+      <c r="F1741">
+        <v>90.24</v>
+      </c>
+      <c r="G1741">
+        <v>81.03</v>
+      </c>
+      <c r="H1741">
+        <v>64</v>
+      </c>
+      <c r="I1741">
+        <v>85.45</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1741" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1741">
+        <v>4</v>
+      </c>
+      <c r="M1741">
+        <v>4</v>
+      </c>
+      <c r="N1741">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:14" ht="15" customHeight="1">
+      <c r="A1742" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1742">
+        <v>302</v>
+      </c>
+      <c r="E1742">
+        <v>42</v>
+      </c>
+      <c r="F1742">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1742">
+        <v>58.62</v>
+      </c>
+      <c r="H1742">
+        <v>54</v>
+      </c>
+      <c r="I1742">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1742" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1742">
+        <v>4</v>
+      </c>
+      <c r="M1742">
+        <v>2</v>
+      </c>
+      <c r="N1742">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:14" ht="15" customHeight="1">
+      <c r="A1743" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1743">
+        <v>274</v>
+      </c>
+      <c r="E1743">
+        <v>50</v>
+      </c>
+      <c r="F1743">
+        <v>73.17</v>
+      </c>
+      <c r="G1743">
+        <v>44.83</v>
+      </c>
+      <c r="H1743">
+        <v>48</v>
+      </c>
+      <c r="I1743">
+        <v>63.64</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1743" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1743">
+        <v>4</v>
+      </c>
+      <c r="M1743">
+        <v>2</v>
+      </c>
+      <c r="N1743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:14" ht="15" customHeight="1">
+      <c r="A1744" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1744">
+        <v>172</v>
+      </c>
+      <c r="E1744">
+        <v>16</v>
+      </c>
+      <c r="F1744">
+        <v>82.93</v>
+      </c>
+      <c r="G1744">
+        <v>29.31</v>
+      </c>
+      <c r="H1744">
+        <v>20</v>
+      </c>
+      <c r="I1744">
+        <v>0</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1744" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1744">
+        <v>4</v>
+      </c>
+      <c r="M1744">
+        <v>1</v>
+      </c>
+      <c r="N1744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:14" ht="15" customHeight="1">
+      <c r="A1745" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1745">
+        <v>336</v>
+      </c>
+      <c r="E1745">
+        <v>56</v>
+      </c>
+      <c r="F1745">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1745">
+        <v>65.52</v>
+      </c>
+      <c r="H1745">
+        <v>62</v>
+      </c>
+      <c r="I1745">
+        <v>80</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1745" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1745">
+        <v>4</v>
+      </c>
+      <c r="M1745">
+        <v>3</v>
+      </c>
+      <c r="N1745">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:14" ht="15" customHeight="1">
+      <c r="A1746" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1746">
+        <v>257</v>
+      </c>
+      <c r="E1746">
+        <v>48</v>
+      </c>
+      <c r="F1746">
+        <v>60.98</v>
+      </c>
+      <c r="G1746">
+        <v>53.45</v>
+      </c>
+      <c r="H1746">
+        <v>44</v>
+      </c>
+      <c r="I1746">
+        <v>47.27</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1746" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1746">
+        <v>3</v>
+      </c>
+      <c r="M1746">
+        <v>2</v>
+      </c>
+      <c r="N1746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:14" ht="15" customHeight="1">
+      <c r="A1747" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1747">
+        <v>207</v>
+      </c>
+      <c r="E1747">
+        <v>30</v>
+      </c>
+      <c r="F1747">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1747">
+        <v>25.86</v>
+      </c>
+      <c r="H1747">
+        <v>42</v>
+      </c>
+      <c r="I1747">
+        <v>45.45</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1747" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1747">
+        <v>3</v>
+      </c>
+      <c r="M1747">
+        <v>1</v>
+      </c>
+      <c r="N1747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:14" ht="15" customHeight="1">
+      <c r="A1748" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1748">
+        <v>248</v>
+      </c>
+      <c r="E1748">
+        <v>44</v>
+      </c>
+      <c r="F1748">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1748">
+        <v>41.38</v>
+      </c>
+      <c r="H1748">
+        <v>46</v>
+      </c>
+      <c r="I1748">
+        <v>43.64</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1748" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1748">
+        <v>4</v>
+      </c>
+      <c r="M1748">
+        <v>2</v>
+      </c>
+      <c r="N1748">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:14" ht="15" customHeight="1">
+      <c r="A1749" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1749">
+        <v>227</v>
+      </c>
+      <c r="E1749">
+        <v>44</v>
+      </c>
+      <c r="F1749">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1749">
+        <v>41.38</v>
+      </c>
+      <c r="H1749">
+        <v>32</v>
+      </c>
+      <c r="I1749">
+        <v>40</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1749" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1749">
+        <v>3</v>
+      </c>
+      <c r="M1749">
+        <v>2</v>
+      </c>
+      <c r="N1749">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:14" ht="15" customHeight="1">
+      <c r="A1750" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1750">
+        <v>299</v>
+      </c>
+      <c r="E1750">
+        <v>50</v>
+      </c>
+      <c r="F1750">
+        <v>63.41</v>
+      </c>
+      <c r="G1750">
+        <v>68.97</v>
+      </c>
+      <c r="H1750">
+        <v>50</v>
+      </c>
+      <c r="I1750">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1750" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1750">
+        <v>3</v>
+      </c>
+      <c r="M1750">
+        <v>2</v>
+      </c>
+      <c r="N1750">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:14" ht="15" customHeight="1">
+      <c r="A1751" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1751">
+        <v>154</v>
+      </c>
+      <c r="E1751">
+        <v>26</v>
+      </c>
+      <c r="F1751">
+        <v>60.98</v>
+      </c>
+      <c r="G1751">
+        <v>22.41</v>
+      </c>
+      <c r="H1751">
+        <v>24</v>
+      </c>
+      <c r="I1751">
+        <v>0</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1751" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1751">
+        <v>3</v>
+      </c>
+      <c r="M1751">
+        <v>1</v>
+      </c>
+      <c r="N1751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:14" ht="15" customHeight="1">
+      <c r="A1752" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1752">
+        <v>292</v>
+      </c>
+      <c r="E1752">
+        <v>58</v>
+      </c>
+      <c r="F1752">
+        <v>70.73</v>
+      </c>
+      <c r="G1752">
+        <v>63.79</v>
+      </c>
+      <c r="H1752">
+        <v>44</v>
+      </c>
+      <c r="I1752">
+        <v>47.27</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1752" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1752">
+        <v>4</v>
+      </c>
+      <c r="M1752">
+        <v>3</v>
+      </c>
+      <c r="N1752">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:14" ht="15" customHeight="1">
+      <c r="A1753" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1753">
+        <v>346</v>
+      </c>
+      <c r="E1753">
+        <v>62</v>
+      </c>
+      <c r="F1753">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G1753">
+        <v>70.69</v>
+      </c>
+      <c r="H1753">
+        <v>56</v>
+      </c>
+      <c r="I1753">
+        <v>90.91</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1753" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1753">
+        <v>4</v>
+      </c>
+      <c r="M1753">
+        <v>3</v>
+      </c>
+      <c r="N1753">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:14" ht="15" customHeight="1">
+      <c r="A1754" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1754">
+        <v>252</v>
+      </c>
+      <c r="E1754">
+        <v>42</v>
+      </c>
+      <c r="F1754">
+        <v>58.54</v>
+      </c>
+      <c r="G1754">
+        <v>53.45</v>
+      </c>
+      <c r="H1754">
+        <v>48</v>
+      </c>
+      <c r="I1754">
+        <v>47.27</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1754" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1754">
+        <v>3</v>
+      </c>
+      <c r="M1754">
+        <v>2</v>
+      </c>
+      <c r="N1754">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:14" ht="15" customHeight="1">
+      <c r="A1755" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1755">
+        <v>251</v>
+      </c>
+      <c r="E1755">
+        <v>38</v>
+      </c>
+      <c r="F1755">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1755">
+        <v>53.45</v>
+      </c>
+      <c r="H1755">
+        <v>42</v>
+      </c>
+      <c r="I1755">
+        <v>45.45</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1755" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1755">
+        <v>4</v>
+      </c>
+      <c r="M1755">
+        <v>2</v>
+      </c>
+      <c r="N1755">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:14" ht="15" customHeight="1">
+      <c r="A1756" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1756">
+        <v>307</v>
+      </c>
+      <c r="E1756">
+        <v>54</v>
+      </c>
+      <c r="F1756">
+        <v>82.93</v>
+      </c>
+      <c r="G1756">
+        <v>50</v>
+      </c>
+      <c r="H1756">
+        <v>50</v>
+      </c>
+      <c r="I1756">
+        <v>87.27</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1756" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1756">
+        <v>4</v>
+      </c>
+      <c r="M1756">
+        <v>3</v>
+      </c>
+      <c r="N1756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:14" ht="15" customHeight="1">
+      <c r="A1757" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1757">
+        <v>331</v>
+      </c>
+      <c r="E1757">
+        <v>66</v>
+      </c>
+      <c r="F1757">
+        <v>75.61</v>
+      </c>
+      <c r="G1757">
+        <v>68.97</v>
+      </c>
+      <c r="H1757">
+        <v>54</v>
+      </c>
+      <c r="I1757">
+        <v>65.45</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1757" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1757">
+        <v>4</v>
+      </c>
+      <c r="M1757">
+        <v>3</v>
+      </c>
+      <c r="N1757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:14" ht="15" customHeight="1">
+      <c r="A1758" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1758">
+        <v>384</v>
+      </c>
+      <c r="E1758">
+        <v>76</v>
+      </c>
+      <c r="F1758">
+        <v>87.8</v>
+      </c>
+      <c r="G1758">
+        <v>70.69</v>
+      </c>
+      <c r="H1758">
+        <v>68</v>
+      </c>
+      <c r="I1758">
+        <v>89.09</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1758" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1758">
+        <v>4</v>
+      </c>
+      <c r="M1758">
+        <v>4</v>
+      </c>
+      <c r="N1758">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:14" ht="15" customHeight="1">
+      <c r="A1759" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1759">
+        <v>404</v>
+      </c>
+      <c r="E1759">
+        <v>80</v>
+      </c>
+      <c r="F1759">
+        <v>87.8</v>
+      </c>
+      <c r="G1759">
+        <v>79.31</v>
+      </c>
+      <c r="H1759">
+        <v>76</v>
+      </c>
+      <c r="I1759">
+        <v>80</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1759" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1759">
+        <v>4</v>
+      </c>
+      <c r="M1759">
+        <v>4</v>
+      </c>
+      <c r="N1759">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:14" ht="15" customHeight="1">
+      <c r="A1760" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1760">
+        <v>214</v>
+      </c>
+      <c r="E1760">
+        <v>32</v>
+      </c>
+      <c r="F1760">
+        <v>87.8</v>
+      </c>
+      <c r="G1760">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H1760">
+        <v>26</v>
+      </c>
+      <c r="I1760">
+        <v>0</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1760" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1760">
+        <v>4</v>
+      </c>
+      <c r="M1760">
+        <v>1</v>
+      </c>
+      <c r="N1760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:14" ht="15" customHeight="1">
+      <c r="A1761" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1761">
+        <v>182</v>
+      </c>
+      <c r="E1761">
+        <v>30</v>
+      </c>
+      <c r="F1761">
+        <v>53.66</v>
+      </c>
+      <c r="G1761">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H1761">
+        <v>26</v>
+      </c>
+      <c r="I1761">
+        <v>40</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1761" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1761">
+        <v>3</v>
+      </c>
+      <c r="M1761">
+        <v>1</v>
+      </c>
+      <c r="N1761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:14" ht="15" customHeight="1">
+      <c r="A1762" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1762">
+        <v>156</v>
+      </c>
+      <c r="E1762">
+        <v>22</v>
+      </c>
+      <c r="F1762">
+        <v>43.9</v>
+      </c>
+      <c r="G1762">
+        <v>32.76</v>
+      </c>
+      <c r="H1762">
+        <v>26</v>
+      </c>
+      <c r="I1762">
+        <v>29.09</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1762" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1762">
+        <v>2</v>
+      </c>
+      <c r="M1762">
+        <v>1</v>
+      </c>
+      <c r="N1762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:14" ht="15" customHeight="1">
+      <c r="A1763" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1763">
+        <v>194</v>
+      </c>
+      <c r="E1763">
+        <v>18</v>
+      </c>
+      <c r="F1763">
+        <v>56.1</v>
+      </c>
+      <c r="G1763">
+        <v>31.03</v>
+      </c>
+      <c r="H1763">
+        <v>42</v>
+      </c>
+      <c r="I1763">
+        <v>61.82</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1763" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1763">
+        <v>3</v>
+      </c>
+      <c r="M1763">
+        <v>1</v>
+      </c>
+      <c r="N1763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:14" ht="15" customHeight="1">
+      <c r="A1764" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1764">
+        <v>276</v>
+      </c>
+      <c r="E1764">
+        <v>50</v>
+      </c>
+      <c r="F1764">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1764">
+        <v>53.45</v>
+      </c>
+      <c r="H1764">
+        <v>52</v>
+      </c>
+      <c r="I1764">
+        <v>52.73</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1764" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1764">
+        <v>3</v>
+      </c>
+      <c r="M1764">
+        <v>2</v>
+      </c>
+      <c r="N1764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:14" ht="15" customHeight="1">
+      <c r="A1765" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1765">
+        <v>333</v>
+      </c>
+      <c r="E1765">
+        <v>72</v>
+      </c>
+      <c r="F1765">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G1765">
+        <v>74.14</v>
+      </c>
+      <c r="H1765">
+        <v>56</v>
+      </c>
+      <c r="I1765">
+        <v>61.82</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1765" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1765">
+        <v>3</v>
+      </c>
+      <c r="M1765">
+        <v>4</v>
+      </c>
+      <c r="N1765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:14" ht="15" customHeight="1">
+      <c r="A1766" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1766">
+        <v>294</v>
+      </c>
+      <c r="E1766">
+        <v>44</v>
+      </c>
+      <c r="F1766">
+        <v>85.37</v>
+      </c>
+      <c r="G1766">
+        <v>60.34</v>
+      </c>
+      <c r="H1766">
+        <v>50</v>
+      </c>
+      <c r="I1766">
+        <v>43.64</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1766" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1766">
+        <v>4</v>
+      </c>
+      <c r="M1766">
+        <v>2</v>
+      </c>
+      <c r="N1766">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:14" ht="15" customHeight="1">
+      <c r="A1767" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1767">
+        <v>304</v>
+      </c>
+      <c r="E1767">
+        <v>40</v>
+      </c>
+      <c r="F1767">
+        <v>75.61</v>
+      </c>
+      <c r="G1767">
+        <v>70.69</v>
+      </c>
+      <c r="H1767">
+        <v>52</v>
+      </c>
+      <c r="I1767">
+        <v>74.55</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1767" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1767">
+        <v>4</v>
+      </c>
+      <c r="M1767">
+        <v>2</v>
+      </c>
+      <c r="N1767">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:14" ht="15" customHeight="1">
+      <c r="A1768" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1768">
+        <v>267</v>
+      </c>
+      <c r="E1768">
+        <v>50</v>
+      </c>
+      <c r="F1768">
+        <v>56.1</v>
+      </c>
+      <c r="G1768">
+        <v>65.52</v>
+      </c>
+      <c r="H1768">
+        <v>44</v>
+      </c>
+      <c r="I1768">
+        <v>45.45</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1768" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1768">
+        <v>3</v>
+      </c>
+      <c r="M1768">
+        <v>2</v>
+      </c>
+      <c r="N1768">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:14" ht="15" customHeight="1">
+      <c r="A1769" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1769">
+        <v>295</v>
+      </c>
+      <c r="E1769">
+        <v>60</v>
+      </c>
+      <c r="F1769">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G1769">
+        <v>62.07</v>
+      </c>
+      <c r="H1769">
+        <v>50</v>
+      </c>
+      <c r="I1769">
+        <v>45.45</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1769" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1769">
+        <v>4</v>
+      </c>
+      <c r="M1769">
+        <v>3</v>
+      </c>
+      <c r="N1769">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:14" ht="15" customHeight="1">
+      <c r="A1770" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1770">
+        <v>389</v>
+      </c>
+      <c r="E1770">
+        <v>72</v>
+      </c>
+      <c r="F1770">
+        <v>85.37</v>
+      </c>
+      <c r="G1770">
+        <v>77.59</v>
+      </c>
+      <c r="H1770">
+        <v>72</v>
+      </c>
+      <c r="I1770">
+        <v>89.09</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1770" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1770">
+        <v>4</v>
+      </c>
+      <c r="M1770">
+        <v>4</v>
+      </c>
+      <c r="N1770">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:14" ht="15" customHeight="1">
+      <c r="A1771" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1771">
+        <v>319</v>
+      </c>
+      <c r="E1771">
+        <v>50</v>
+      </c>
+      <c r="F1771">
+        <v>95.12</v>
+      </c>
+      <c r="G1771">
+        <v>56.9</v>
+      </c>
+      <c r="H1771">
+        <v>50</v>
+      </c>
+      <c r="I1771">
+        <v>70.91</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1771" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1771">
+        <v>4</v>
+      </c>
+      <c r="M1771">
+        <v>2</v>
+      </c>
+      <c r="N1771">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:14" ht="15" customHeight="1">
+      <c r="A1772" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1772">
+        <v>308</v>
+      </c>
+      <c r="E1772">
+        <v>56</v>
+      </c>
+      <c r="F1772">
+        <v>70.73</v>
+      </c>
+      <c r="G1772">
+        <v>63.79</v>
+      </c>
+      <c r="H1772">
+        <v>46</v>
+      </c>
+      <c r="I1772">
+        <v>90.91</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1772" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1772">
+        <v>4</v>
+      </c>
+      <c r="M1772">
+        <v>3</v>
+      </c>
+      <c r="N1772">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:14" ht="15" customHeight="1">
+      <c r="A1773" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1773">
+        <v>229</v>
+      </c>
+      <c r="E1773">
+        <v>34</v>
+      </c>
+      <c r="F1773">
+        <v>58.54</v>
+      </c>
+      <c r="G1773">
+        <v>41.38</v>
+      </c>
+      <c r="H1773">
+        <v>38</v>
+      </c>
+      <c r="I1773">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1773" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1773">
+        <v>3</v>
+      </c>
+      <c r="M1773">
+        <v>1</v>
+      </c>
+      <c r="N1773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:14" ht="15" customHeight="1">
+      <c r="A1774" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>947</v>
+      </c>
+      <c r="D1774">
+        <v>300</v>
+      </c>
+      <c r="E1774">
+        <v>42</v>
+      </c>
+      <c r="F1774">
+        <v>75.61</v>
+      </c>
+      <c r="G1774">
+        <v>60.34</v>
+      </c>
+      <c r="H1774">
+        <v>54</v>
+      </c>
+      <c r="I1774">
+        <v>83.64</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1774" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1774">
+        <v>4</v>
+      </c>
+      <c r="M1774">
+        <v>2</v>
+      </c>
+      <c r="N1774">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:14" ht="15" customHeight="1">
+      <c r="A1775" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1775">
+        <v>321</v>
+      </c>
+      <c r="E1775">
+        <v>58</v>
+      </c>
+      <c r="F1775">
+        <v>73.17</v>
+      </c>
+      <c r="G1775">
+        <v>62.07</v>
+      </c>
+      <c r="H1775">
+        <v>56</v>
+      </c>
+      <c r="I1775">
+        <v>85.45</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1775" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1775">
+        <v>4</v>
+      </c>
+      <c r="M1775">
+        <v>3</v>
+      </c>
+      <c r="N1775">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:14" ht="15" customHeight="1">
+      <c r="A1776" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1776">
+        <v>210</v>
+      </c>
+      <c r="E1776">
+        <v>36</v>
+      </c>
+      <c r="F1776">
+        <v>53.66</v>
+      </c>
+      <c r="G1776">
+        <v>25.86</v>
+      </c>
+      <c r="H1776">
+        <v>46</v>
+      </c>
+      <c r="I1776">
+        <v>60</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1776" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1776">
+        <v>3</v>
+      </c>
+      <c r="M1776">
+        <v>2</v>
+      </c>
+      <c r="N1776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:14" ht="15" customHeight="1">
+      <c r="A1777" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1777">
+        <v>259</v>
+      </c>
+      <c r="E1777">
+        <v>58</v>
+      </c>
+      <c r="F1777">
+        <v>75.61</v>
+      </c>
+      <c r="G1777">
+        <v>48.28</v>
+      </c>
+      <c r="H1777">
+        <v>28</v>
+      </c>
+      <c r="I1777">
+        <v>41.82</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1777" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1777">
+        <v>4</v>
+      </c>
+      <c r="M1777">
+        <v>3</v>
+      </c>
+      <c r="N1777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:14" ht="15" customHeight="1">
+      <c r="A1778" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1778">
+        <v>293</v>
+      </c>
+      <c r="E1778">
+        <v>50</v>
+      </c>
+      <c r="F1778">
+        <v>70.73</v>
+      </c>
+      <c r="G1778">
+        <v>56.9</v>
+      </c>
+      <c r="H1778">
+        <v>58</v>
+      </c>
+      <c r="I1778">
+        <v>52.73</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1778" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1778">
+        <v>4</v>
+      </c>
+      <c r="M1778">
+        <v>2</v>
+      </c>
+      <c r="N1778">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:14" ht="15" customHeight="1">
+      <c r="A1779" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1779">
+        <v>206</v>
+      </c>
+      <c r="E1779">
+        <v>34</v>
+      </c>
+      <c r="F1779">
+        <v>51.22</v>
+      </c>
+      <c r="G1779">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H1779">
+        <v>46</v>
+      </c>
+      <c r="I1779">
+        <v>38.18</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1779" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1779">
+        <v>3</v>
+      </c>
+      <c r="M1779">
+        <v>1</v>
+      </c>
+      <c r="N1779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:14" ht="15" customHeight="1">
+      <c r="A1780" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1780">
+        <v>403</v>
+      </c>
+      <c r="E1780">
+        <v>88</v>
+      </c>
+      <c r="F1780">
+        <v>87.8</v>
+      </c>
+      <c r="G1780">
+        <v>75.86</v>
+      </c>
+      <c r="H1780">
+        <v>70</v>
+      </c>
+      <c r="I1780">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1780" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1780">
+        <v>4</v>
+      </c>
+      <c r="M1780">
+        <v>4</v>
+      </c>
+      <c r="N1780">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1356" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\R_IEOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE1A274-D5B9-474F-9D8F-75FF7EB49249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ACDAC-1BE8-4CAC-BD37-404DEAE4D0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$1356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$1825</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7579" uniqueCount="1146">
   <si>
     <t>Grupo</t>
   </si>
@@ -3843,11 +3843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1780"/>
+  <dimension ref="A1:N1923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1630" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1645" sqref="B1645"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1905" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1922" sqref="G1922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -82178,8 +82178,6300 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1781" spans="1:14" ht="15" customHeight="1">
+      <c r="A1781" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1781">
+        <v>224</v>
+      </c>
+      <c r="E1781">
+        <v>42</v>
+      </c>
+      <c r="F1781">
+        <v>55</v>
+      </c>
+      <c r="G1781">
+        <v>39</v>
+      </c>
+      <c r="H1781">
+        <v>45</v>
+      </c>
+      <c r="I1781">
+        <v>40</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1781" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1781">
+        <v>3</v>
+      </c>
+      <c r="M1781">
+        <v>2</v>
+      </c>
+      <c r="N1781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:14" ht="15" customHeight="1">
+      <c r="A1782" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1782">
+        <v>218</v>
+      </c>
+      <c r="E1782">
+        <v>35</v>
+      </c>
+      <c r="F1782">
+        <v>53</v>
+      </c>
+      <c r="G1782">
+        <v>43</v>
+      </c>
+      <c r="H1782">
+        <v>46</v>
+      </c>
+      <c r="I1782">
+        <v>36</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1782" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1782">
+        <v>3</v>
+      </c>
+      <c r="M1782">
+        <v>1</v>
+      </c>
+      <c r="N1782">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:14" ht="15" customHeight="1">
+      <c r="A1783" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1783">
+        <v>306</v>
+      </c>
+      <c r="E1783">
+        <v>63</v>
+      </c>
+      <c r="F1783">
+        <v>66</v>
+      </c>
+      <c r="G1783">
+        <v>54</v>
+      </c>
+      <c r="H1783">
+        <v>61</v>
+      </c>
+      <c r="I1783">
+        <v>63</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1783" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1783">
+        <v>4</v>
+      </c>
+      <c r="M1783">
+        <v>3</v>
+      </c>
+      <c r="N1783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:14" ht="15" customHeight="1">
+      <c r="A1784" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1784">
+        <v>297</v>
+      </c>
+      <c r="E1784">
+        <v>60</v>
+      </c>
+      <c r="F1784">
+        <v>67</v>
+      </c>
+      <c r="G1784">
+        <v>52</v>
+      </c>
+      <c r="H1784">
+        <v>58</v>
+      </c>
+      <c r="I1784">
+        <v>60</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1784" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1784">
+        <v>4</v>
+      </c>
+      <c r="M1784">
+        <v>3</v>
+      </c>
+      <c r="N1784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:14" ht="15" customHeight="1">
+      <c r="A1785" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>930</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>931</v>
+      </c>
+      <c r="D1785">
+        <v>265</v>
+      </c>
+      <c r="E1785">
+        <v>48</v>
+      </c>
+      <c r="F1785">
+        <v>61</v>
+      </c>
+      <c r="G1785">
+        <v>50</v>
+      </c>
+      <c r="H1785">
+        <v>52</v>
+      </c>
+      <c r="I1785">
+        <v>57</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1785" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1785">
+        <v>3</v>
+      </c>
+      <c r="M1785">
+        <v>2</v>
+      </c>
+      <c r="N1785">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:14" ht="15" customHeight="1">
+      <c r="A1786" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1786">
+        <v>267</v>
+      </c>
+      <c r="E1786">
+        <v>55</v>
+      </c>
+      <c r="F1786">
+        <v>56</v>
+      </c>
+      <c r="G1786">
+        <v>52</v>
+      </c>
+      <c r="H1786">
+        <v>51</v>
+      </c>
+      <c r="I1786">
+        <v>53</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1786" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1786">
+        <v>3</v>
+      </c>
+      <c r="M1786">
+        <v>3</v>
+      </c>
+      <c r="N1786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:14" ht="15" customHeight="1">
+      <c r="A1787" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>933</v>
+      </c>
+      <c r="D1787">
+        <v>283</v>
+      </c>
+      <c r="E1787">
+        <v>60</v>
+      </c>
+      <c r="F1787">
+        <v>63</v>
+      </c>
+      <c r="G1787">
+        <v>54</v>
+      </c>
+      <c r="H1787">
+        <v>51</v>
+      </c>
+      <c r="I1787">
+        <v>51</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1787" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1787">
+        <v>3</v>
+      </c>
+      <c r="M1787">
+        <v>3</v>
+      </c>
+      <c r="N1787">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:14" ht="15" customHeight="1">
+      <c r="A1788" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1788">
+        <v>175</v>
+      </c>
+      <c r="E1788">
+        <v>25</v>
+      </c>
+      <c r="F1788">
+        <v>49</v>
+      </c>
+      <c r="G1788">
+        <v>38</v>
+      </c>
+      <c r="H1788">
+        <v>26</v>
+      </c>
+      <c r="I1788">
+        <v>41</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1788" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1788">
+        <v>2</v>
+      </c>
+      <c r="M1788">
+        <v>1</v>
+      </c>
+      <c r="N1788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:14" ht="15" customHeight="1">
+      <c r="A1789" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>934</v>
+      </c>
+      <c r="D1789">
+        <v>230</v>
+      </c>
+      <c r="E1789">
+        <v>46</v>
+      </c>
+      <c r="F1789">
+        <v>52</v>
+      </c>
+      <c r="G1789">
+        <v>46</v>
+      </c>
+      <c r="H1789">
+        <v>33</v>
+      </c>
+      <c r="I1789">
+        <v>66</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1789" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1789">
+        <v>3</v>
+      </c>
+      <c r="M1789">
+        <v>2</v>
+      </c>
+      <c r="N1789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:14" ht="15" customHeight="1">
+      <c r="A1790" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1790">
+        <v>232</v>
+      </c>
+      <c r="E1790">
+        <v>53</v>
+      </c>
+      <c r="F1790">
+        <v>55</v>
+      </c>
+      <c r="G1790">
+        <v>38</v>
+      </c>
+      <c r="H1790">
+        <v>37</v>
+      </c>
+      <c r="I1790">
+        <v>55</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1790" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1790">
+        <v>3</v>
+      </c>
+      <c r="M1790">
+        <v>3</v>
+      </c>
+      <c r="N1790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:14" ht="15" customHeight="1">
+      <c r="A1791" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1791">
+        <v>298</v>
+      </c>
+      <c r="E1791">
+        <v>59</v>
+      </c>
+      <c r="F1791">
+        <v>62</v>
+      </c>
+      <c r="G1791">
+        <v>51</v>
+      </c>
+      <c r="H1791">
+        <v>66</v>
+      </c>
+      <c r="I1791">
+        <v>0</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1791" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1791">
+        <v>3</v>
+      </c>
+      <c r="M1791">
+        <v>3</v>
+      </c>
+      <c r="N1791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:14" ht="15" customHeight="1">
+      <c r="A1792" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1792">
+        <v>192</v>
+      </c>
+      <c r="E1792">
+        <v>41</v>
+      </c>
+      <c r="F1792">
+        <v>43</v>
+      </c>
+      <c r="G1792">
+        <v>30</v>
+      </c>
+      <c r="H1792">
+        <v>41</v>
+      </c>
+      <c r="I1792">
+        <v>33</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1792" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1792">
+        <v>2</v>
+      </c>
+      <c r="M1792">
+        <v>2</v>
+      </c>
+      <c r="N1792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:14" ht="15" customHeight="1">
+      <c r="A1793" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1793">
+        <v>182</v>
+      </c>
+      <c r="E1793">
+        <v>39</v>
+      </c>
+      <c r="F1793">
+        <v>36</v>
+      </c>
+      <c r="G1793">
+        <v>36</v>
+      </c>
+      <c r="H1793">
+        <v>38</v>
+      </c>
+      <c r="I1793">
+        <v>26</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1793" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1793">
+        <v>2</v>
+      </c>
+      <c r="M1793">
+        <v>2</v>
+      </c>
+      <c r="N1793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:14" ht="15" customHeight="1">
+      <c r="A1794" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1794">
+        <v>312</v>
+      </c>
+      <c r="E1794">
+        <v>56</v>
+      </c>
+      <c r="F1794">
+        <v>67</v>
+      </c>
+      <c r="G1794">
+        <v>62</v>
+      </c>
+      <c r="H1794">
+        <v>64</v>
+      </c>
+      <c r="I1794">
+        <v>63</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1794" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1794">
+        <v>4</v>
+      </c>
+      <c r="M1794">
+        <v>3</v>
+      </c>
+      <c r="N1794">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:14" ht="15" customHeight="1">
+      <c r="A1795" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1795">
+        <v>264</v>
+      </c>
+      <c r="E1795">
+        <v>58</v>
+      </c>
+      <c r="F1795">
+        <v>60</v>
+      </c>
+      <c r="G1795">
+        <v>50</v>
+      </c>
+      <c r="H1795">
+        <v>44</v>
+      </c>
+      <c r="I1795">
+        <v>50</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1795" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1795">
+        <v>3</v>
+      </c>
+      <c r="M1795">
+        <v>3</v>
+      </c>
+      <c r="N1795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:14" ht="15" customHeight="1">
+      <c r="A1796" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1796">
+        <v>262</v>
+      </c>
+      <c r="E1796">
+        <v>54</v>
+      </c>
+      <c r="F1796">
+        <v>57</v>
+      </c>
+      <c r="G1796">
+        <v>48</v>
+      </c>
+      <c r="H1796">
+        <v>54</v>
+      </c>
+      <c r="I1796">
+        <v>42</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1796" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1796">
+        <v>3</v>
+      </c>
+      <c r="M1796">
+        <v>3</v>
+      </c>
+      <c r="N1796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:14" ht="15" customHeight="1">
+      <c r="A1797" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1797">
+        <v>257</v>
+      </c>
+      <c r="E1797">
+        <v>52</v>
+      </c>
+      <c r="F1797">
+        <v>50</v>
+      </c>
+      <c r="G1797">
+        <v>47</v>
+      </c>
+      <c r="H1797">
+        <v>60</v>
+      </c>
+      <c r="I1797">
+        <v>42</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1797" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1797">
+        <v>2</v>
+      </c>
+      <c r="M1797">
+        <v>3</v>
+      </c>
+      <c r="N1797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:14" ht="15" customHeight="1">
+      <c r="A1798" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1798">
+        <v>256</v>
+      </c>
+      <c r="E1798">
+        <v>49</v>
+      </c>
+      <c r="F1798">
+        <v>62</v>
+      </c>
+      <c r="G1798">
+        <v>46</v>
+      </c>
+      <c r="H1798">
+        <v>52</v>
+      </c>
+      <c r="I1798">
+        <v>39</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1798" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1798">
+        <v>3</v>
+      </c>
+      <c r="M1798">
+        <v>2</v>
+      </c>
+      <c r="N1798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:14" ht="15" customHeight="1">
+      <c r="A1799" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1799">
+        <v>313</v>
+      </c>
+      <c r="E1799">
+        <v>55</v>
+      </c>
+      <c r="F1799">
+        <v>70</v>
+      </c>
+      <c r="G1799">
+        <v>61</v>
+      </c>
+      <c r="H1799">
+        <v>65</v>
+      </c>
+      <c r="I1799">
+        <v>62</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1799" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1799">
+        <v>4</v>
+      </c>
+      <c r="M1799">
+        <v>3</v>
+      </c>
+      <c r="N1799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:14" ht="15" customHeight="1">
+      <c r="A1800" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1800">
+        <v>233</v>
+      </c>
+      <c r="E1800">
+        <v>58</v>
+      </c>
+      <c r="F1800">
+        <v>56</v>
+      </c>
+      <c r="G1800">
+        <v>47</v>
+      </c>
+      <c r="H1800">
+        <v>28</v>
+      </c>
+      <c r="I1800">
+        <v>40</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1800" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1800">
+        <v>3</v>
+      </c>
+      <c r="M1800">
+        <v>3</v>
+      </c>
+      <c r="N1800">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:14" ht="15" customHeight="1">
+      <c r="A1801" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1801">
+        <v>258</v>
+      </c>
+      <c r="E1801">
+        <v>43</v>
+      </c>
+      <c r="F1801">
+        <v>58</v>
+      </c>
+      <c r="G1801">
+        <v>54</v>
+      </c>
+      <c r="H1801">
+        <v>50</v>
+      </c>
+      <c r="I1801">
+        <v>55</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1801" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1801">
+        <v>3</v>
+      </c>
+      <c r="M1801">
+        <v>2</v>
+      </c>
+      <c r="N1801">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:14" ht="15" customHeight="1">
+      <c r="A1802" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1802">
+        <v>252</v>
+      </c>
+      <c r="E1802">
+        <v>47</v>
+      </c>
+      <c r="F1802">
+        <v>54</v>
+      </c>
+      <c r="G1802">
+        <v>49</v>
+      </c>
+      <c r="H1802">
+        <v>51</v>
+      </c>
+      <c r="I1802">
+        <v>53</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1802" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1802">
+        <v>3</v>
+      </c>
+      <c r="M1802">
+        <v>2</v>
+      </c>
+      <c r="N1802">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:14" ht="15" customHeight="1">
+      <c r="A1803" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1803">
+        <v>268</v>
+      </c>
+      <c r="E1803">
+        <v>49</v>
+      </c>
+      <c r="F1803">
+        <v>57</v>
+      </c>
+      <c r="G1803">
+        <v>51</v>
+      </c>
+      <c r="H1803">
+        <v>57</v>
+      </c>
+      <c r="I1803">
+        <v>0</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1803" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1803">
+        <v>3</v>
+      </c>
+      <c r="M1803">
+        <v>2</v>
+      </c>
+      <c r="N1803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:14" ht="15" customHeight="1">
+      <c r="A1804" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1804">
+        <v>206</v>
+      </c>
+      <c r="E1804">
+        <v>47</v>
+      </c>
+      <c r="F1804">
+        <v>42</v>
+      </c>
+      <c r="G1804">
+        <v>37</v>
+      </c>
+      <c r="H1804">
+        <v>38</v>
+      </c>
+      <c r="I1804">
+        <v>44</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1804" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1804">
+        <v>2</v>
+      </c>
+      <c r="M1804">
+        <v>2</v>
+      </c>
+      <c r="N1804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:14" ht="15" customHeight="1">
+      <c r="A1805" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1805">
+        <v>302</v>
+      </c>
+      <c r="E1805">
+        <v>54</v>
+      </c>
+      <c r="F1805">
+        <v>65</v>
+      </c>
+      <c r="G1805">
+        <v>58</v>
+      </c>
+      <c r="H1805">
+        <v>64</v>
+      </c>
+      <c r="I1805">
+        <v>62</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1805" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1805">
+        <v>3</v>
+      </c>
+      <c r="M1805">
+        <v>3</v>
+      </c>
+      <c r="N1805">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:14" ht="15" customHeight="1">
+      <c r="A1806" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1806">
+        <v>296</v>
+      </c>
+      <c r="E1806">
+        <v>50</v>
+      </c>
+      <c r="F1806">
+        <v>65</v>
+      </c>
+      <c r="G1806">
+        <v>59</v>
+      </c>
+      <c r="H1806">
+        <v>62</v>
+      </c>
+      <c r="I1806">
+        <v>61</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1806" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1806">
+        <v>3</v>
+      </c>
+      <c r="M1806">
+        <v>2</v>
+      </c>
+      <c r="N1806">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:14" ht="15" customHeight="1">
+      <c r="A1807" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1807">
+        <v>245</v>
+      </c>
+      <c r="E1807">
+        <v>33</v>
+      </c>
+      <c r="F1807">
+        <v>64</v>
+      </c>
+      <c r="G1807">
+        <v>47</v>
+      </c>
+      <c r="H1807">
+        <v>50</v>
+      </c>
+      <c r="I1807">
+        <v>55</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1807" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1807">
+        <v>3</v>
+      </c>
+      <c r="M1807">
+        <v>1</v>
+      </c>
+      <c r="N1807">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:14" ht="15" customHeight="1">
+      <c r="A1808" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1808">
+        <v>198</v>
+      </c>
+      <c r="E1808">
+        <v>52</v>
+      </c>
+      <c r="F1808">
+        <v>45</v>
+      </c>
+      <c r="G1808">
+        <v>25</v>
+      </c>
+      <c r="H1808">
+        <v>35</v>
+      </c>
+      <c r="I1808">
+        <v>44</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1808" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1808">
+        <v>2</v>
+      </c>
+      <c r="M1808">
+        <v>3</v>
+      </c>
+      <c r="N1808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:14" ht="15" customHeight="1">
+      <c r="A1809" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1809">
+        <v>265</v>
+      </c>
+      <c r="E1809">
+        <v>55</v>
+      </c>
+      <c r="F1809">
+        <v>57</v>
+      </c>
+      <c r="G1809">
+        <v>52</v>
+      </c>
+      <c r="H1809">
+        <v>51</v>
+      </c>
+      <c r="I1809">
+        <v>44</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1809" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1809">
+        <v>3</v>
+      </c>
+      <c r="M1809">
+        <v>3</v>
+      </c>
+      <c r="N1809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:14" ht="15" customHeight="1">
+      <c r="A1810" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1810">
+        <v>247</v>
+      </c>
+      <c r="E1810">
+        <v>53</v>
+      </c>
+      <c r="F1810">
+        <v>50</v>
+      </c>
+      <c r="G1810">
+        <v>51</v>
+      </c>
+      <c r="H1810">
+        <v>45</v>
+      </c>
+      <c r="I1810">
+        <v>46</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1810" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1810">
+        <v>2</v>
+      </c>
+      <c r="M1810">
+        <v>3</v>
+      </c>
+      <c r="N1810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:14" ht="15" customHeight="1">
+      <c r="A1811" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>936</v>
+      </c>
+      <c r="D1811">
+        <v>257</v>
+      </c>
+      <c r="E1811">
+        <v>61</v>
+      </c>
+      <c r="F1811">
+        <v>48</v>
+      </c>
+      <c r="G1811">
+        <v>52</v>
+      </c>
+      <c r="H1811">
+        <v>47</v>
+      </c>
+      <c r="I1811">
+        <v>44</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1811" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1811">
+        <v>2</v>
+      </c>
+      <c r="M1811">
+        <v>3</v>
+      </c>
+      <c r="N1811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:14" ht="15" customHeight="1">
+      <c r="A1812" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1812">
+        <v>281</v>
+      </c>
+      <c r="E1812">
+        <v>50</v>
+      </c>
+      <c r="F1812">
+        <v>61</v>
+      </c>
+      <c r="G1812">
+        <v>58</v>
+      </c>
+      <c r="H1812">
+        <v>56</v>
+      </c>
+      <c r="I1812">
+        <v>0</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1812" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1812">
+        <v>3</v>
+      </c>
+      <c r="M1812">
+        <v>2</v>
+      </c>
+      <c r="N1812">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:14" ht="15" customHeight="1">
+      <c r="A1813" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1813">
+        <v>244</v>
+      </c>
+      <c r="E1813">
+        <v>46</v>
+      </c>
+      <c r="F1813">
+        <v>53</v>
+      </c>
+      <c r="G1813">
+        <v>45</v>
+      </c>
+      <c r="H1813">
+        <v>47</v>
+      </c>
+      <c r="I1813">
+        <v>61</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1813" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1813">
+        <v>3</v>
+      </c>
+      <c r="M1813">
+        <v>2</v>
+      </c>
+      <c r="N1813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:14" ht="15" customHeight="1">
+      <c r="A1814" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1814">
+        <v>205</v>
+      </c>
+      <c r="E1814">
+        <v>46</v>
+      </c>
+      <c r="F1814">
+        <v>46</v>
+      </c>
+      <c r="G1814">
+        <v>39</v>
+      </c>
+      <c r="H1814">
+        <v>35</v>
+      </c>
+      <c r="I1814">
+        <v>36</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1814" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1814">
+        <v>2</v>
+      </c>
+      <c r="M1814">
+        <v>2</v>
+      </c>
+      <c r="N1814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:14" ht="15" customHeight="1">
+      <c r="A1815" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1815">
+        <v>249</v>
+      </c>
+      <c r="E1815">
+        <v>45</v>
+      </c>
+      <c r="F1815">
+        <v>58</v>
+      </c>
+      <c r="G1815">
+        <v>52</v>
+      </c>
+      <c r="H1815">
+        <v>45</v>
+      </c>
+      <c r="I1815">
+        <v>48</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1815" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1815">
+        <v>3</v>
+      </c>
+      <c r="M1815">
+        <v>2</v>
+      </c>
+      <c r="N1815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:14" ht="15" customHeight="1">
+      <c r="A1816" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1816">
+        <v>253</v>
+      </c>
+      <c r="E1816">
+        <v>56</v>
+      </c>
+      <c r="F1816">
+        <v>62</v>
+      </c>
+      <c r="G1816">
+        <v>46</v>
+      </c>
+      <c r="H1816">
+        <v>38</v>
+      </c>
+      <c r="I1816">
+        <v>53</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1816" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1816">
+        <v>3</v>
+      </c>
+      <c r="M1816">
+        <v>3</v>
+      </c>
+      <c r="N1816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:14" ht="15" customHeight="1">
+      <c r="A1817" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1817">
+        <v>262</v>
+      </c>
+      <c r="E1817">
+        <v>62</v>
+      </c>
+      <c r="F1817">
+        <v>58</v>
+      </c>
+      <c r="G1817">
+        <v>44</v>
+      </c>
+      <c r="H1817">
+        <v>45</v>
+      </c>
+      <c r="I1817">
+        <v>54</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1817" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1817">
+        <v>3</v>
+      </c>
+      <c r="M1817">
+        <v>3</v>
+      </c>
+      <c r="N1817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:14" ht="15" customHeight="1">
+      <c r="A1818" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1818">
+        <v>334</v>
+      </c>
+      <c r="E1818">
+        <v>68</v>
+      </c>
+      <c r="F1818">
+        <v>68</v>
+      </c>
+      <c r="G1818">
+        <v>64</v>
+      </c>
+      <c r="H1818">
+        <v>66</v>
+      </c>
+      <c r="I1818">
+        <v>71</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1818" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1818">
+        <v>4</v>
+      </c>
+      <c r="M1818">
+        <v>3</v>
+      </c>
+      <c r="N1818">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:14" ht="15" customHeight="1">
+      <c r="A1819" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1819">
+        <v>215</v>
+      </c>
+      <c r="E1819">
+        <v>42</v>
+      </c>
+      <c r="F1819">
+        <v>55</v>
+      </c>
+      <c r="G1819">
+        <v>31</v>
+      </c>
+      <c r="H1819">
+        <v>45</v>
+      </c>
+      <c r="I1819">
+        <v>40</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1819" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1819">
+        <v>3</v>
+      </c>
+      <c r="M1819">
+        <v>2</v>
+      </c>
+      <c r="N1819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:14" ht="15" customHeight="1">
+      <c r="A1820" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1820">
+        <v>290</v>
+      </c>
+      <c r="E1820">
+        <v>56</v>
+      </c>
+      <c r="F1820">
+        <v>57</v>
+      </c>
+      <c r="G1820">
+        <v>61</v>
+      </c>
+      <c r="H1820">
+        <v>56</v>
+      </c>
+      <c r="I1820">
+        <v>64</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1820" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1820">
+        <v>3</v>
+      </c>
+      <c r="M1820">
+        <v>3</v>
+      </c>
+      <c r="N1820">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:14" ht="15" customHeight="1">
+      <c r="A1821" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1821">
+        <v>284</v>
+      </c>
+      <c r="E1821">
+        <v>52</v>
+      </c>
+      <c r="F1821">
+        <v>62</v>
+      </c>
+      <c r="G1821">
+        <v>51</v>
+      </c>
+      <c r="H1821">
+        <v>63</v>
+      </c>
+      <c r="I1821">
+        <v>55</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1821" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1821">
+        <v>3</v>
+      </c>
+      <c r="M1821">
+        <v>3</v>
+      </c>
+      <c r="N1821">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:14" ht="15" customHeight="1">
+      <c r="A1822" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1822">
+        <v>336</v>
+      </c>
+      <c r="E1822">
+        <v>69</v>
+      </c>
+      <c r="F1822">
+        <v>64</v>
+      </c>
+      <c r="G1822">
+        <v>61</v>
+      </c>
+      <c r="H1822">
+        <v>75</v>
+      </c>
+      <c r="I1822">
+        <v>0</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1822" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1822">
+        <v>3</v>
+      </c>
+      <c r="M1822">
+        <v>3</v>
+      </c>
+      <c r="N1822">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:14" ht="15" customHeight="1">
+      <c r="A1823" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1823">
+        <v>190</v>
+      </c>
+      <c r="E1823">
+        <v>29</v>
+      </c>
+      <c r="F1823">
+        <v>47</v>
+      </c>
+      <c r="G1823">
+        <v>30</v>
+      </c>
+      <c r="H1823">
+        <v>42</v>
+      </c>
+      <c r="I1823">
+        <v>50</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1823" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1823">
+        <v>2</v>
+      </c>
+      <c r="M1823">
+        <v>1</v>
+      </c>
+      <c r="N1823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:14" ht="15" customHeight="1">
+      <c r="A1824" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1824">
+        <v>265</v>
+      </c>
+      <c r="E1824">
+        <v>55</v>
+      </c>
+      <c r="F1824">
+        <v>60</v>
+      </c>
+      <c r="G1824">
+        <v>48</v>
+      </c>
+      <c r="H1824">
+        <v>51</v>
+      </c>
+      <c r="I1824">
+        <v>48</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1824" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1824">
+        <v>3</v>
+      </c>
+      <c r="M1824">
+        <v>3</v>
+      </c>
+      <c r="N1824">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:14" ht="15" customHeight="1">
+      <c r="A1825" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1825">
+        <v>286</v>
+      </c>
+      <c r="E1825">
+        <v>50</v>
+      </c>
+      <c r="F1825">
+        <v>66</v>
+      </c>
+      <c r="G1825">
+        <v>55</v>
+      </c>
+      <c r="H1825">
+        <v>59</v>
+      </c>
+      <c r="I1825">
+        <v>54</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1825" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1825">
+        <v>4</v>
+      </c>
+      <c r="M1825">
+        <v>2</v>
+      </c>
+      <c r="N1825">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:14" ht="15" customHeight="1">
+      <c r="A1826" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1826">
+        <v>265</v>
+      </c>
+      <c r="E1826">
+        <v>48</v>
+      </c>
+      <c r="F1826">
+        <v>61</v>
+      </c>
+      <c r="G1826">
+        <v>40</v>
+      </c>
+      <c r="H1826">
+        <v>63</v>
+      </c>
+      <c r="I1826">
+        <v>0</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1826" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1826">
+        <v>3</v>
+      </c>
+      <c r="M1826">
+        <v>2</v>
+      </c>
+      <c r="N1826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:14" ht="15" customHeight="1">
+      <c r="A1827" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1827">
+        <v>359</v>
+      </c>
+      <c r="E1827">
+        <v>77</v>
+      </c>
+      <c r="F1827">
+        <v>68</v>
+      </c>
+      <c r="G1827">
+        <v>67</v>
+      </c>
+      <c r="H1827">
+        <v>75</v>
+      </c>
+      <c r="I1827">
+        <v>73</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1827" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1827">
+        <v>4</v>
+      </c>
+      <c r="M1827">
+        <v>4</v>
+      </c>
+      <c r="N1827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:14" ht="15" customHeight="1">
+      <c r="A1828" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1828">
+        <v>197</v>
+      </c>
+      <c r="E1828">
+        <v>30</v>
+      </c>
+      <c r="F1828">
+        <v>51</v>
+      </c>
+      <c r="G1828">
+        <v>42</v>
+      </c>
+      <c r="H1828">
+        <v>33</v>
+      </c>
+      <c r="I1828">
+        <v>45</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1828" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1828">
+        <v>3</v>
+      </c>
+      <c r="M1828">
+        <v>1</v>
+      </c>
+      <c r="N1828">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:14" ht="15" customHeight="1">
+      <c r="A1829" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1829">
+        <v>229</v>
+      </c>
+      <c r="E1829">
+        <v>48</v>
+      </c>
+      <c r="F1829">
+        <v>55</v>
+      </c>
+      <c r="G1829">
+        <v>46</v>
+      </c>
+      <c r="H1829">
+        <v>40</v>
+      </c>
+      <c r="I1829">
+        <v>29</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1829" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1829">
+        <v>3</v>
+      </c>
+      <c r="M1829">
+        <v>2</v>
+      </c>
+      <c r="N1829">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:14" ht="15" customHeight="1">
+      <c r="A1830" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1830">
+        <v>305</v>
+      </c>
+      <c r="E1830">
+        <v>58</v>
+      </c>
+      <c r="F1830">
+        <v>65</v>
+      </c>
+      <c r="G1830">
+        <v>67</v>
+      </c>
+      <c r="H1830">
+        <v>54</v>
+      </c>
+      <c r="I1830">
+        <v>0</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1830" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1830">
+        <v>3</v>
+      </c>
+      <c r="M1830">
+        <v>3</v>
+      </c>
+      <c r="N1830">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:14" ht="15" customHeight="1">
+      <c r="A1831" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1831">
+        <v>225</v>
+      </c>
+      <c r="E1831">
+        <v>43</v>
+      </c>
+      <c r="F1831">
+        <v>56</v>
+      </c>
+      <c r="G1831">
+        <v>39</v>
+      </c>
+      <c r="H1831">
+        <v>35</v>
+      </c>
+      <c r="I1831">
+        <v>67</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1831" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1831">
+        <v>3</v>
+      </c>
+      <c r="M1831">
+        <v>2</v>
+      </c>
+      <c r="N1831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:14" ht="15" customHeight="1">
+      <c r="A1832" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1832">
+        <v>223</v>
+      </c>
+      <c r="E1832">
+        <v>48</v>
+      </c>
+      <c r="F1832">
+        <v>47</v>
+      </c>
+      <c r="G1832">
+        <v>43</v>
+      </c>
+      <c r="H1832">
+        <v>42</v>
+      </c>
+      <c r="I1832">
+        <v>41</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1832" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1832">
+        <v>2</v>
+      </c>
+      <c r="M1832">
+        <v>2</v>
+      </c>
+      <c r="N1832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:14" ht="15" customHeight="1">
+      <c r="A1833" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1833">
+        <v>261</v>
+      </c>
+      <c r="E1833">
+        <v>59</v>
+      </c>
+      <c r="F1833">
+        <v>50</v>
+      </c>
+      <c r="G1833">
+        <v>52</v>
+      </c>
+      <c r="H1833">
+        <v>48</v>
+      </c>
+      <c r="I1833">
+        <v>0</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1833" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1833">
+        <v>2</v>
+      </c>
+      <c r="M1833">
+        <v>3</v>
+      </c>
+      <c r="N1833">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:14" ht="15" customHeight="1">
+      <c r="A1834" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1834">
+        <v>291</v>
+      </c>
+      <c r="E1834">
+        <v>62</v>
+      </c>
+      <c r="F1834">
+        <v>61</v>
+      </c>
+      <c r="G1834">
+        <v>52</v>
+      </c>
+      <c r="H1834">
+        <v>59</v>
+      </c>
+      <c r="I1834">
+        <v>55</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1834" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1834">
+        <v>3</v>
+      </c>
+      <c r="M1834">
+        <v>3</v>
+      </c>
+      <c r="N1834">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:14" ht="15" customHeight="1">
+      <c r="A1835" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1835">
+        <v>249</v>
+      </c>
+      <c r="E1835">
+        <v>53</v>
+      </c>
+      <c r="F1835">
+        <v>60</v>
+      </c>
+      <c r="G1835">
+        <v>37</v>
+      </c>
+      <c r="H1835">
+        <v>46</v>
+      </c>
+      <c r="I1835">
+        <v>59</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1835" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1835">
+        <v>3</v>
+      </c>
+      <c r="M1835">
+        <v>3</v>
+      </c>
+      <c r="N1835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:14" ht="15" customHeight="1">
+      <c r="A1836" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1836">
+        <v>248</v>
+      </c>
+      <c r="E1836">
+        <v>48</v>
+      </c>
+      <c r="F1836">
+        <v>62</v>
+      </c>
+      <c r="G1836">
+        <v>45</v>
+      </c>
+      <c r="H1836">
+        <v>44</v>
+      </c>
+      <c r="I1836">
+        <v>49</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1836" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1836">
+        <v>3</v>
+      </c>
+      <c r="M1836">
+        <v>2</v>
+      </c>
+      <c r="N1836">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:14" ht="15" customHeight="1">
+      <c r="A1837" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1837">
+        <v>283</v>
+      </c>
+      <c r="E1837">
+        <v>60</v>
+      </c>
+      <c r="F1837">
+        <v>56</v>
+      </c>
+      <c r="G1837">
+        <v>57</v>
+      </c>
+      <c r="H1837">
+        <v>49</v>
+      </c>
+      <c r="I1837">
+        <v>70</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1837" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1837">
+        <v>3</v>
+      </c>
+      <c r="M1837">
+        <v>3</v>
+      </c>
+      <c r="N1837">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:14" ht="15" customHeight="1">
+      <c r="A1838" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1838">
+        <v>254</v>
+      </c>
+      <c r="E1838">
+        <v>64</v>
+      </c>
+      <c r="F1838">
+        <v>53</v>
+      </c>
+      <c r="G1838">
+        <v>48</v>
+      </c>
+      <c r="H1838">
+        <v>37</v>
+      </c>
+      <c r="I1838">
+        <v>54</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1838" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1838">
+        <v>3</v>
+      </c>
+      <c r="M1838">
+        <v>3</v>
+      </c>
+      <c r="N1838">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:14" ht="15" customHeight="1">
+      <c r="A1839" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1839">
+        <v>263</v>
+      </c>
+      <c r="E1839">
+        <v>53</v>
+      </c>
+      <c r="F1839">
+        <v>60</v>
+      </c>
+      <c r="G1839">
+        <v>43</v>
+      </c>
+      <c r="H1839">
+        <v>52</v>
+      </c>
+      <c r="I1839">
+        <v>60</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1839" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1839">
+        <v>3</v>
+      </c>
+      <c r="M1839">
+        <v>3</v>
+      </c>
+      <c r="N1839">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:14" ht="15" customHeight="1">
+      <c r="A1840" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1840">
+        <v>193</v>
+      </c>
+      <c r="E1840">
+        <v>32</v>
+      </c>
+      <c r="F1840">
+        <v>45</v>
+      </c>
+      <c r="G1840">
+        <v>37</v>
+      </c>
+      <c r="H1840">
+        <v>31</v>
+      </c>
+      <c r="I1840">
+        <v>67</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1840" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1840">
+        <v>2</v>
+      </c>
+      <c r="M1840">
+        <v>1</v>
+      </c>
+      <c r="N1840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:14" ht="15" customHeight="1">
+      <c r="A1841" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1841">
+        <v>304</v>
+      </c>
+      <c r="E1841">
+        <v>58</v>
+      </c>
+      <c r="F1841">
+        <v>66</v>
+      </c>
+      <c r="G1841">
+        <v>57</v>
+      </c>
+      <c r="H1841">
+        <v>62</v>
+      </c>
+      <c r="I1841">
+        <v>0</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1841" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1841">
+        <v>4</v>
+      </c>
+      <c r="M1841">
+        <v>3</v>
+      </c>
+      <c r="N1841">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:14" ht="15" customHeight="1">
+      <c r="A1842" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1842">
+        <v>270</v>
+      </c>
+      <c r="E1842">
+        <v>60</v>
+      </c>
+      <c r="F1842">
+        <v>61</v>
+      </c>
+      <c r="G1842">
+        <v>48</v>
+      </c>
+      <c r="H1842">
+        <v>44</v>
+      </c>
+      <c r="I1842">
+        <v>63</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1842" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1842">
+        <v>3</v>
+      </c>
+      <c r="M1842">
+        <v>3</v>
+      </c>
+      <c r="N1842">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:14" ht="15" customHeight="1">
+      <c r="A1843" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1843">
+        <v>264</v>
+      </c>
+      <c r="E1843">
+        <v>59</v>
+      </c>
+      <c r="F1843">
+        <v>53</v>
+      </c>
+      <c r="G1843">
+        <v>46</v>
+      </c>
+      <c r="H1843">
+        <v>49</v>
+      </c>
+      <c r="I1843">
+        <v>66</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1843" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1843">
+        <v>3</v>
+      </c>
+      <c r="M1843">
+        <v>3</v>
+      </c>
+      <c r="N1843">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:14" ht="15" customHeight="1">
+      <c r="A1844" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1844">
+        <v>297</v>
+      </c>
+      <c r="E1844">
+        <v>63</v>
+      </c>
+      <c r="F1844">
+        <v>64</v>
+      </c>
+      <c r="G1844">
+        <v>59</v>
+      </c>
+      <c r="H1844">
+        <v>57</v>
+      </c>
+      <c r="I1844">
+        <v>42</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1844" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1844">
+        <v>3</v>
+      </c>
+      <c r="M1844">
+        <v>3</v>
+      </c>
+      <c r="N1844">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:14" ht="15" customHeight="1">
+      <c r="A1845" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1845">
+        <v>299</v>
+      </c>
+      <c r="E1845">
+        <v>56</v>
+      </c>
+      <c r="F1845">
+        <v>64</v>
+      </c>
+      <c r="G1845">
+        <v>64</v>
+      </c>
+      <c r="H1845">
+        <v>55</v>
+      </c>
+      <c r="I1845">
+        <v>0</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1845" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1845">
+        <v>3</v>
+      </c>
+      <c r="M1845">
+        <v>3</v>
+      </c>
+      <c r="N1845">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:14" ht="15" customHeight="1">
+      <c r="A1846" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1846">
+        <v>270</v>
+      </c>
+      <c r="E1846">
+        <v>54</v>
+      </c>
+      <c r="F1846">
+        <v>60</v>
+      </c>
+      <c r="G1846">
+        <v>55</v>
+      </c>
+      <c r="H1846">
+        <v>50</v>
+      </c>
+      <c r="I1846">
+        <v>46</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1846" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1846">
+        <v>3</v>
+      </c>
+      <c r="M1846">
+        <v>3</v>
+      </c>
+      <c r="N1846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:14" ht="15" customHeight="1">
+      <c r="A1847" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1847">
+        <v>270</v>
+      </c>
+      <c r="E1847">
+        <v>63</v>
+      </c>
+      <c r="F1847">
+        <v>57</v>
+      </c>
+      <c r="G1847">
+        <v>50</v>
+      </c>
+      <c r="H1847">
+        <v>53</v>
+      </c>
+      <c r="I1847">
+        <v>34</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1847" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1847">
+        <v>3</v>
+      </c>
+      <c r="M1847">
+        <v>3</v>
+      </c>
+      <c r="N1847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:14" ht="15" customHeight="1">
+      <c r="A1848" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1848">
+        <v>285</v>
+      </c>
+      <c r="E1848">
+        <v>58</v>
+      </c>
+      <c r="F1848">
+        <v>62</v>
+      </c>
+      <c r="G1848">
+        <v>55</v>
+      </c>
+      <c r="H1848">
+        <v>53</v>
+      </c>
+      <c r="I1848">
+        <v>0</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1848" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1848">
+        <v>3</v>
+      </c>
+      <c r="M1848">
+        <v>3</v>
+      </c>
+      <c r="N1848">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:14" ht="15" customHeight="1">
+      <c r="A1849" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1849">
+        <v>272</v>
+      </c>
+      <c r="E1849">
+        <v>51</v>
+      </c>
+      <c r="F1849">
+        <v>54</v>
+      </c>
+      <c r="G1849">
+        <v>55</v>
+      </c>
+      <c r="H1849">
+        <v>56</v>
+      </c>
+      <c r="I1849">
+        <v>58</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1849" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1849">
+        <v>3</v>
+      </c>
+      <c r="M1849">
+        <v>3</v>
+      </c>
+      <c r="N1849">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:14" ht="15" customHeight="1">
+      <c r="A1850" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1850">
+        <v>250</v>
+      </c>
+      <c r="E1850">
+        <v>46</v>
+      </c>
+      <c r="F1850">
+        <v>52</v>
+      </c>
+      <c r="G1850">
+        <v>53</v>
+      </c>
+      <c r="H1850">
+        <v>43</v>
+      </c>
+      <c r="I1850">
+        <v>67</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1850" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1850">
+        <v>3</v>
+      </c>
+      <c r="M1850">
+        <v>2</v>
+      </c>
+      <c r="N1850">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:14" ht="15" customHeight="1">
+      <c r="A1851" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1851">
+        <v>237</v>
+      </c>
+      <c r="E1851">
+        <v>51</v>
+      </c>
+      <c r="F1851">
+        <v>47</v>
+      </c>
+      <c r="G1851">
+        <v>49</v>
+      </c>
+      <c r="H1851">
+        <v>39</v>
+      </c>
+      <c r="I1851">
+        <v>59</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1851" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1851">
+        <v>2</v>
+      </c>
+      <c r="M1851">
+        <v>3</v>
+      </c>
+      <c r="N1851">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:14" ht="15" customHeight="1">
+      <c r="A1852" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>939</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1852">
+        <v>253</v>
+      </c>
+      <c r="E1852">
+        <v>42</v>
+      </c>
+      <c r="F1852">
+        <v>62</v>
+      </c>
+      <c r="G1852">
+        <v>50</v>
+      </c>
+      <c r="H1852">
+        <v>42</v>
+      </c>
+      <c r="I1852">
+        <v>69</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1852" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1852">
+        <v>3</v>
+      </c>
+      <c r="M1852">
+        <v>2</v>
+      </c>
+      <c r="N1852">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:14" ht="15" customHeight="1">
+      <c r="A1853" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1853">
+        <v>213</v>
+      </c>
+      <c r="E1853">
+        <v>29</v>
+      </c>
+      <c r="F1853">
+        <v>54</v>
+      </c>
+      <c r="G1853">
+        <v>34</v>
+      </c>
+      <c r="H1853">
+        <v>50</v>
+      </c>
+      <c r="I1853">
+        <v>54</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1853" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1853">
+        <v>3</v>
+      </c>
+      <c r="M1853">
+        <v>1</v>
+      </c>
+      <c r="N1853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:14" ht="15" customHeight="1">
+      <c r="A1854" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1854">
+        <v>323</v>
+      </c>
+      <c r="E1854">
+        <v>64</v>
+      </c>
+      <c r="F1854">
+        <v>73</v>
+      </c>
+      <c r="G1854">
+        <v>54</v>
+      </c>
+      <c r="H1854">
+        <v>65</v>
+      </c>
+      <c r="I1854">
+        <v>72</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1854" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1854">
+        <v>4</v>
+      </c>
+      <c r="M1854">
+        <v>3</v>
+      </c>
+      <c r="N1854">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:14" ht="15" customHeight="1">
+      <c r="A1855" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1855">
+        <v>275</v>
+      </c>
+      <c r="E1855">
+        <v>70</v>
+      </c>
+      <c r="F1855">
+        <v>53</v>
+      </c>
+      <c r="G1855">
+        <v>43</v>
+      </c>
+      <c r="H1855">
+        <v>53</v>
+      </c>
+      <c r="I1855">
+        <v>59</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1855" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1855">
+        <v>3</v>
+      </c>
+      <c r="M1855">
+        <v>3</v>
+      </c>
+      <c r="N1855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:14" ht="15" customHeight="1">
+      <c r="A1856" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1856">
+        <v>279</v>
+      </c>
+      <c r="E1856">
+        <v>51</v>
+      </c>
+      <c r="F1856">
+        <v>61</v>
+      </c>
+      <c r="G1856">
+        <v>53</v>
+      </c>
+      <c r="H1856">
+        <v>58</v>
+      </c>
+      <c r="I1856">
+        <v>57</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1856" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1856">
+        <v>3</v>
+      </c>
+      <c r="M1856">
+        <v>3</v>
+      </c>
+      <c r="N1856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:14" ht="15" customHeight="1">
+      <c r="A1857" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1857">
+        <v>299</v>
+      </c>
+      <c r="E1857">
+        <v>58</v>
+      </c>
+      <c r="F1857">
+        <v>62</v>
+      </c>
+      <c r="G1857">
+        <v>56</v>
+      </c>
+      <c r="H1857">
+        <v>63</v>
+      </c>
+      <c r="I1857">
+        <v>61</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1857" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1857">
+        <v>3</v>
+      </c>
+      <c r="M1857">
+        <v>3</v>
+      </c>
+      <c r="N1857">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:14" ht="15" customHeight="1">
+      <c r="A1858" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1858">
+        <v>252</v>
+      </c>
+      <c r="E1858">
+        <v>53</v>
+      </c>
+      <c r="F1858">
+        <v>54</v>
+      </c>
+      <c r="G1858">
+        <v>41</v>
+      </c>
+      <c r="H1858">
+        <v>51</v>
+      </c>
+      <c r="I1858">
+        <v>59</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1858" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1858">
+        <v>3</v>
+      </c>
+      <c r="M1858">
+        <v>3</v>
+      </c>
+      <c r="N1858">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:14" ht="15" customHeight="1">
+      <c r="A1859" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1859">
+        <v>230</v>
+      </c>
+      <c r="E1859">
+        <v>58</v>
+      </c>
+      <c r="F1859">
+        <v>45</v>
+      </c>
+      <c r="G1859">
+        <v>46</v>
+      </c>
+      <c r="H1859">
+        <v>31</v>
+      </c>
+      <c r="I1859">
+        <v>57</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1859" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1859">
+        <v>2</v>
+      </c>
+      <c r="M1859">
+        <v>3</v>
+      </c>
+      <c r="N1859">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:14" ht="15" customHeight="1">
+      <c r="A1860" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1860">
+        <v>303</v>
+      </c>
+      <c r="E1860">
+        <v>58</v>
+      </c>
+      <c r="F1860">
+        <v>67</v>
+      </c>
+      <c r="G1860">
+        <v>56</v>
+      </c>
+      <c r="H1860">
+        <v>61</v>
+      </c>
+      <c r="I1860">
+        <v>63</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1860" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1860">
+        <v>4</v>
+      </c>
+      <c r="M1860">
+        <v>3</v>
+      </c>
+      <c r="N1860">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:14" ht="15" customHeight="1">
+      <c r="A1861" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1861">
+        <v>289</v>
+      </c>
+      <c r="E1861">
+        <v>51</v>
+      </c>
+      <c r="F1861">
+        <v>64</v>
+      </c>
+      <c r="G1861">
+        <v>62</v>
+      </c>
+      <c r="H1861">
+        <v>57</v>
+      </c>
+      <c r="I1861">
+        <v>50</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1861" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1861">
+        <v>3</v>
+      </c>
+      <c r="M1861">
+        <v>3</v>
+      </c>
+      <c r="N1861">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:14" ht="15" customHeight="1">
+      <c r="A1862" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1862">
+        <v>339</v>
+      </c>
+      <c r="E1862">
+        <v>62</v>
+      </c>
+      <c r="F1862">
+        <v>71</v>
+      </c>
+      <c r="G1862">
+        <v>62</v>
+      </c>
+      <c r="H1862">
+        <v>71</v>
+      </c>
+      <c r="I1862">
+        <v>83</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1862" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1862">
+        <v>4</v>
+      </c>
+      <c r="M1862">
+        <v>3</v>
+      </c>
+      <c r="N1862">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:14" ht="15" customHeight="1">
+      <c r="A1863" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1863">
+        <v>186</v>
+      </c>
+      <c r="E1863">
+        <v>34</v>
+      </c>
+      <c r="F1863">
+        <v>40</v>
+      </c>
+      <c r="G1863">
+        <v>32</v>
+      </c>
+      <c r="H1863">
+        <v>43</v>
+      </c>
+      <c r="I1863">
+        <v>0</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1863" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1863">
+        <v>2</v>
+      </c>
+      <c r="M1863">
+        <v>1</v>
+      </c>
+      <c r="N1863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:14" ht="15" customHeight="1">
+      <c r="A1864" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1864">
+        <v>298</v>
+      </c>
+      <c r="E1864">
+        <v>66</v>
+      </c>
+      <c r="F1864">
+        <v>63</v>
+      </c>
+      <c r="G1864">
+        <v>50</v>
+      </c>
+      <c r="H1864">
+        <v>58</v>
+      </c>
+      <c r="I1864">
+        <v>64</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1864" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1864">
+        <v>3</v>
+      </c>
+      <c r="M1864">
+        <v>3</v>
+      </c>
+      <c r="N1864">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:14" ht="15" customHeight="1">
+      <c r="A1865" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1865">
+        <v>222</v>
+      </c>
+      <c r="E1865">
+        <v>45</v>
+      </c>
+      <c r="F1865">
+        <v>51</v>
+      </c>
+      <c r="G1865">
+        <v>41</v>
+      </c>
+      <c r="H1865">
+        <v>37</v>
+      </c>
+      <c r="I1865">
+        <v>55</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1865" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1865">
+        <v>3</v>
+      </c>
+      <c r="M1865">
+        <v>2</v>
+      </c>
+      <c r="N1865">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:14" ht="15" customHeight="1">
+      <c r="A1866" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1866">
+        <v>198</v>
+      </c>
+      <c r="E1866">
+        <v>46</v>
+      </c>
+      <c r="F1866">
+        <v>44</v>
+      </c>
+      <c r="G1866">
+        <v>38</v>
+      </c>
+      <c r="H1866">
+        <v>30</v>
+      </c>
+      <c r="I1866">
+        <v>41</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1866" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1866">
+        <v>2</v>
+      </c>
+      <c r="M1866">
+        <v>2</v>
+      </c>
+      <c r="N1866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:14" ht="15" customHeight="1">
+      <c r="A1867" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>942</v>
+      </c>
+      <c r="D1867">
+        <v>234</v>
+      </c>
+      <c r="E1867">
+        <v>58</v>
+      </c>
+      <c r="F1867">
+        <v>47</v>
+      </c>
+      <c r="G1867">
+        <v>51</v>
+      </c>
+      <c r="H1867">
+        <v>34</v>
+      </c>
+      <c r="I1867">
+        <v>39</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1867" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1867">
+        <v>2</v>
+      </c>
+      <c r="M1867">
+        <v>3</v>
+      </c>
+      <c r="N1867">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:14" ht="15" customHeight="1">
+      <c r="A1868" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1868">
+        <v>292</v>
+      </c>
+      <c r="E1868">
+        <v>56</v>
+      </c>
+      <c r="F1868">
+        <v>63</v>
+      </c>
+      <c r="G1868">
+        <v>57</v>
+      </c>
+      <c r="H1868">
+        <v>55</v>
+      </c>
+      <c r="I1868">
+        <v>66</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1868" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1868">
+        <v>3</v>
+      </c>
+      <c r="M1868">
+        <v>3</v>
+      </c>
+      <c r="N1868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:14" ht="15" customHeight="1">
+      <c r="A1869" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1869">
+        <v>197</v>
+      </c>
+      <c r="E1869">
+        <v>38</v>
+      </c>
+      <c r="F1869">
+        <v>46</v>
+      </c>
+      <c r="G1869">
+        <v>35</v>
+      </c>
+      <c r="H1869">
+        <v>35</v>
+      </c>
+      <c r="I1869">
+        <v>49</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1869" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1869">
+        <v>2</v>
+      </c>
+      <c r="M1869">
+        <v>2</v>
+      </c>
+      <c r="N1869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:14" ht="15" customHeight="1">
+      <c r="A1870" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1870">
+        <v>234</v>
+      </c>
+      <c r="E1870">
+        <v>53</v>
+      </c>
+      <c r="F1870">
+        <v>47</v>
+      </c>
+      <c r="G1870">
+        <v>46</v>
+      </c>
+      <c r="H1870">
+        <v>41</v>
+      </c>
+      <c r="I1870">
+        <v>47</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1870" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1870">
+        <v>2</v>
+      </c>
+      <c r="M1870">
+        <v>3</v>
+      </c>
+      <c r="N1870">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:14" ht="15" customHeight="1">
+      <c r="A1871" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1871">
+        <v>377</v>
+      </c>
+      <c r="E1871">
+        <v>79</v>
+      </c>
+      <c r="F1871">
+        <v>76</v>
+      </c>
+      <c r="G1871">
+        <v>77</v>
+      </c>
+      <c r="H1871">
+        <v>71</v>
+      </c>
+      <c r="I1871">
+        <v>71</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1871" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1871">
+        <v>4</v>
+      </c>
+      <c r="M1871">
+        <v>4</v>
+      </c>
+      <c r="N1871">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:14" ht="15" customHeight="1">
+      <c r="A1872" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1872">
+        <v>229</v>
+      </c>
+      <c r="E1872">
+        <v>38</v>
+      </c>
+      <c r="F1872">
+        <v>55</v>
+      </c>
+      <c r="G1872">
+        <v>43</v>
+      </c>
+      <c r="H1872">
+        <v>44</v>
+      </c>
+      <c r="I1872">
+        <v>56</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1872" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1872">
+        <v>3</v>
+      </c>
+      <c r="M1872">
+        <v>2</v>
+      </c>
+      <c r="N1872">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:14" ht="15" customHeight="1">
+      <c r="A1873" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1873">
+        <v>260</v>
+      </c>
+      <c r="E1873">
+        <v>55</v>
+      </c>
+      <c r="F1873">
+        <v>56</v>
+      </c>
+      <c r="G1873">
+        <v>50</v>
+      </c>
+      <c r="H1873">
+        <v>47</v>
+      </c>
+      <c r="I1873">
+        <v>53</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1873" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1873">
+        <v>3</v>
+      </c>
+      <c r="M1873">
+        <v>3</v>
+      </c>
+      <c r="N1873">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:14" ht="15" customHeight="1">
+      <c r="A1874" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1874">
+        <v>242</v>
+      </c>
+      <c r="E1874">
+        <v>43</v>
+      </c>
+      <c r="F1874">
+        <v>62</v>
+      </c>
+      <c r="G1874">
+        <v>48</v>
+      </c>
+      <c r="H1874">
+        <v>41</v>
+      </c>
+      <c r="I1874">
+        <v>48</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1874" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1874">
+        <v>3</v>
+      </c>
+      <c r="M1874">
+        <v>2</v>
+      </c>
+      <c r="N1874">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:14" ht="15" customHeight="1">
+      <c r="A1875" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1875">
+        <v>243</v>
+      </c>
+      <c r="E1875">
+        <v>49</v>
+      </c>
+      <c r="F1875">
+        <v>51</v>
+      </c>
+      <c r="G1875">
+        <v>44</v>
+      </c>
+      <c r="H1875">
+        <v>48</v>
+      </c>
+      <c r="I1875">
+        <v>57</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1875" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1875">
+        <v>3</v>
+      </c>
+      <c r="M1875">
+        <v>2</v>
+      </c>
+      <c r="N1875">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:14" ht="15" customHeight="1">
+      <c r="A1876" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1876">
+        <v>281</v>
+      </c>
+      <c r="E1876">
+        <v>56</v>
+      </c>
+      <c r="F1876">
+        <v>65</v>
+      </c>
+      <c r="G1876">
+        <v>48</v>
+      </c>
+      <c r="H1876">
+        <v>59</v>
+      </c>
+      <c r="I1876">
+        <v>46</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1876" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1876">
+        <v>3</v>
+      </c>
+      <c r="M1876">
+        <v>3</v>
+      </c>
+      <c r="N1876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:14" ht="15" customHeight="1">
+      <c r="A1877" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1877">
+        <v>213</v>
+      </c>
+      <c r="E1877">
+        <v>32</v>
+      </c>
+      <c r="F1877">
+        <v>50</v>
+      </c>
+      <c r="G1877">
+        <v>46</v>
+      </c>
+      <c r="H1877">
+        <v>37</v>
+      </c>
+      <c r="I1877">
+        <v>59</v>
+      </c>
+      <c r="J1877" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1877" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1877">
+        <v>2</v>
+      </c>
+      <c r="M1877">
+        <v>1</v>
+      </c>
+      <c r="N1877">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:14" ht="15" customHeight="1">
+      <c r="A1878" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1878">
+        <v>264</v>
+      </c>
+      <c r="E1878">
+        <v>56</v>
+      </c>
+      <c r="F1878">
+        <v>58</v>
+      </c>
+      <c r="G1878">
+        <v>49</v>
+      </c>
+      <c r="H1878">
+        <v>49</v>
+      </c>
+      <c r="I1878">
+        <v>51</v>
+      </c>
+      <c r="J1878" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1878" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1878">
+        <v>3</v>
+      </c>
+      <c r="M1878">
+        <v>3</v>
+      </c>
+      <c r="N1878">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:14" ht="15" customHeight="1">
+      <c r="A1879" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1879">
+        <v>245</v>
+      </c>
+      <c r="E1879">
+        <v>45</v>
+      </c>
+      <c r="F1879">
+        <v>57</v>
+      </c>
+      <c r="G1879">
+        <v>42</v>
+      </c>
+      <c r="H1879">
+        <v>49</v>
+      </c>
+      <c r="I1879">
+        <v>57</v>
+      </c>
+      <c r="J1879" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1879" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1879">
+        <v>3</v>
+      </c>
+      <c r="M1879">
+        <v>2</v>
+      </c>
+      <c r="N1879">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:14" ht="15" customHeight="1">
+      <c r="A1880" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1880">
+        <v>307</v>
+      </c>
+      <c r="E1880">
+        <v>59</v>
+      </c>
+      <c r="F1880">
+        <v>72</v>
+      </c>
+      <c r="G1880">
+        <v>49</v>
+      </c>
+      <c r="H1880">
+        <v>61</v>
+      </c>
+      <c r="I1880">
+        <v>74</v>
+      </c>
+      <c r="J1880" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1880" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1880">
+        <v>4</v>
+      </c>
+      <c r="M1880">
+        <v>3</v>
+      </c>
+      <c r="N1880">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:14" ht="15" customHeight="1">
+      <c r="A1881" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1881">
+        <v>199</v>
+      </c>
+      <c r="E1881">
+        <v>42</v>
+      </c>
+      <c r="F1881">
+        <v>49</v>
+      </c>
+      <c r="G1881">
+        <v>35</v>
+      </c>
+      <c r="H1881">
+        <v>37</v>
+      </c>
+      <c r="I1881">
+        <v>29</v>
+      </c>
+      <c r="J1881" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1881" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1881">
+        <v>2</v>
+      </c>
+      <c r="M1881">
+        <v>2</v>
+      </c>
+      <c r="N1881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:14" ht="15" customHeight="1">
+      <c r="A1882" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1882">
+        <v>342</v>
+      </c>
+      <c r="E1882">
+        <v>73</v>
+      </c>
+      <c r="F1882">
+        <v>71</v>
+      </c>
+      <c r="G1882">
+        <v>66</v>
+      </c>
+      <c r="H1882">
+        <v>61</v>
+      </c>
+      <c r="I1882">
+        <v>76</v>
+      </c>
+      <c r="J1882" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1882" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1882">
+        <v>4</v>
+      </c>
+      <c r="M1882">
+        <v>4</v>
+      </c>
+      <c r="N1882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:14" ht="15" customHeight="1">
+      <c r="A1883" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1883">
+        <v>312</v>
+      </c>
+      <c r="E1883">
+        <v>63</v>
+      </c>
+      <c r="F1883">
+        <v>64</v>
+      </c>
+      <c r="G1883">
+        <v>64</v>
+      </c>
+      <c r="H1883">
+        <v>55</v>
+      </c>
+      <c r="I1883">
+        <v>74</v>
+      </c>
+      <c r="J1883" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1883" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1883">
+        <v>3</v>
+      </c>
+      <c r="M1883">
+        <v>3</v>
+      </c>
+      <c r="N1883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:14" ht="15" customHeight="1">
+      <c r="A1884" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1884">
+        <v>270</v>
+      </c>
+      <c r="E1884">
+        <v>59</v>
+      </c>
+      <c r="F1884">
+        <v>60</v>
+      </c>
+      <c r="G1884">
+        <v>50</v>
+      </c>
+      <c r="H1884">
+        <v>47</v>
+      </c>
+      <c r="I1884">
+        <v>54</v>
+      </c>
+      <c r="J1884" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1884" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1884">
+        <v>3</v>
+      </c>
+      <c r="M1884">
+        <v>3</v>
+      </c>
+      <c r="N1884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:14" ht="15" customHeight="1">
+      <c r="A1885" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1885">
+        <v>248</v>
+      </c>
+      <c r="E1885">
+        <v>52</v>
+      </c>
+      <c r="F1885">
+        <v>47</v>
+      </c>
+      <c r="G1885">
+        <v>49</v>
+      </c>
+      <c r="H1885">
+        <v>52</v>
+      </c>
+      <c r="I1885">
+        <v>46</v>
+      </c>
+      <c r="J1885" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1885" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1885">
+        <v>2</v>
+      </c>
+      <c r="M1885">
+        <v>3</v>
+      </c>
+      <c r="N1885">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:14" ht="15" customHeight="1">
+      <c r="A1886" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1886">
+        <v>313</v>
+      </c>
+      <c r="E1886">
+        <v>61</v>
+      </c>
+      <c r="F1886">
+        <v>63</v>
+      </c>
+      <c r="G1886">
+        <v>64</v>
+      </c>
+      <c r="H1886">
+        <v>59</v>
+      </c>
+      <c r="I1886">
+        <v>73</v>
+      </c>
+      <c r="J1886" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1886" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1886">
+        <v>3</v>
+      </c>
+      <c r="M1886">
+        <v>3</v>
+      </c>
+      <c r="N1886">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:14" ht="15" customHeight="1">
+      <c r="A1887" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1887">
+        <v>242</v>
+      </c>
+      <c r="E1887">
+        <v>58</v>
+      </c>
+      <c r="F1887">
+        <v>52</v>
+      </c>
+      <c r="G1887">
+        <v>37</v>
+      </c>
+      <c r="H1887">
+        <v>50</v>
+      </c>
+      <c r="I1887">
+        <v>38</v>
+      </c>
+      <c r="J1887" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1887" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1887">
+        <v>3</v>
+      </c>
+      <c r="M1887">
+        <v>3</v>
+      </c>
+      <c r="N1887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:14" ht="15" customHeight="1">
+      <c r="A1888" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1888">
+        <v>269</v>
+      </c>
+      <c r="E1888">
+        <v>47</v>
+      </c>
+      <c r="F1888">
+        <v>54</v>
+      </c>
+      <c r="G1888">
+        <v>54</v>
+      </c>
+      <c r="H1888">
+        <v>61</v>
+      </c>
+      <c r="I1888">
+        <v>51</v>
+      </c>
+      <c r="J1888" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1888" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1888">
+        <v>3</v>
+      </c>
+      <c r="M1888">
+        <v>2</v>
+      </c>
+      <c r="N1888">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:14" ht="15" customHeight="1">
+      <c r="A1889" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1889">
+        <v>235</v>
+      </c>
+      <c r="E1889">
+        <v>46</v>
+      </c>
+      <c r="F1889">
+        <v>54</v>
+      </c>
+      <c r="G1889">
+        <v>56</v>
+      </c>
+      <c r="H1889">
+        <v>32</v>
+      </c>
+      <c r="I1889">
+        <v>47</v>
+      </c>
+      <c r="J1889" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1889" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1889">
+        <v>3</v>
+      </c>
+      <c r="M1889">
+        <v>2</v>
+      </c>
+      <c r="N1889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:14" ht="15" customHeight="1">
+      <c r="A1890" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1890">
+        <v>228</v>
+      </c>
+      <c r="E1890">
+        <v>30</v>
+      </c>
+      <c r="F1890">
+        <v>60</v>
+      </c>
+      <c r="G1890">
+        <v>45</v>
+      </c>
+      <c r="H1890">
+        <v>47</v>
+      </c>
+      <c r="I1890">
+        <v>48</v>
+      </c>
+      <c r="J1890" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1890" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1890">
+        <v>3</v>
+      </c>
+      <c r="M1890">
+        <v>1</v>
+      </c>
+      <c r="N1890">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:14" ht="15" customHeight="1">
+      <c r="A1891" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1891">
+        <v>291</v>
+      </c>
+      <c r="E1891">
+        <v>63</v>
+      </c>
+      <c r="F1891">
+        <v>58</v>
+      </c>
+      <c r="G1891">
+        <v>61</v>
+      </c>
+      <c r="H1891">
+        <v>47</v>
+      </c>
+      <c r="I1891">
+        <v>69</v>
+      </c>
+      <c r="J1891" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1891" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1891">
+        <v>3</v>
+      </c>
+      <c r="M1891">
+        <v>3</v>
+      </c>
+      <c r="N1891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:14" ht="15" customHeight="1">
+      <c r="A1892" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1892">
+        <v>250</v>
+      </c>
+      <c r="E1892">
+        <v>58</v>
+      </c>
+      <c r="F1892">
+        <v>56</v>
+      </c>
+      <c r="G1892">
+        <v>47</v>
+      </c>
+      <c r="H1892">
+        <v>45</v>
+      </c>
+      <c r="I1892">
+        <v>33</v>
+      </c>
+      <c r="J1892" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1892" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1892">
+        <v>3</v>
+      </c>
+      <c r="M1892">
+        <v>3</v>
+      </c>
+      <c r="N1892">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:14" ht="15" customHeight="1">
+      <c r="A1893" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1893">
+        <v>258</v>
+      </c>
+      <c r="E1893">
+        <v>56</v>
+      </c>
+      <c r="F1893">
+        <v>55</v>
+      </c>
+      <c r="G1893">
+        <v>54</v>
+      </c>
+      <c r="H1893">
+        <v>46</v>
+      </c>
+      <c r="I1893">
+        <v>37</v>
+      </c>
+      <c r="J1893" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1893" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1893">
+        <v>3</v>
+      </c>
+      <c r="M1893">
+        <v>3</v>
+      </c>
+      <c r="N1893">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:14" ht="15" customHeight="1">
+      <c r="A1894" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1894">
+        <v>314</v>
+      </c>
+      <c r="E1894">
+        <v>63</v>
+      </c>
+      <c r="F1894">
+        <v>61</v>
+      </c>
+      <c r="G1894">
+        <v>58</v>
+      </c>
+      <c r="H1894">
+        <v>65</v>
+      </c>
+      <c r="I1894">
+        <v>75</v>
+      </c>
+      <c r="J1894" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1894" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1894">
+        <v>3</v>
+      </c>
+      <c r="M1894">
+        <v>3</v>
+      </c>
+      <c r="N1894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:14" ht="15" customHeight="1">
+      <c r="A1895" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1895">
+        <v>217</v>
+      </c>
+      <c r="E1895">
+        <v>36</v>
+      </c>
+      <c r="F1895">
+        <v>45</v>
+      </c>
+      <c r="G1895">
+        <v>50</v>
+      </c>
+      <c r="H1895">
+        <v>40</v>
+      </c>
+      <c r="I1895">
+        <v>50</v>
+      </c>
+      <c r="J1895" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1895" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1895">
+        <v>2</v>
+      </c>
+      <c r="M1895">
+        <v>2</v>
+      </c>
+      <c r="N1895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:14" ht="15" customHeight="1">
+      <c r="A1896" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1896">
+        <v>288</v>
+      </c>
+      <c r="E1896">
+        <v>62</v>
+      </c>
+      <c r="F1896">
+        <v>56</v>
+      </c>
+      <c r="G1896">
+        <v>61</v>
+      </c>
+      <c r="H1896">
+        <v>53</v>
+      </c>
+      <c r="I1896">
+        <v>53</v>
+      </c>
+      <c r="J1896" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1896" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1896">
+        <v>3</v>
+      </c>
+      <c r="M1896">
+        <v>3</v>
+      </c>
+      <c r="N1896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:14" ht="15" customHeight="1">
+      <c r="A1897" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1897">
+        <v>236</v>
+      </c>
+      <c r="E1897">
+        <v>42</v>
+      </c>
+      <c r="F1897">
+        <v>54</v>
+      </c>
+      <c r="G1897">
+        <v>55</v>
+      </c>
+      <c r="H1897">
+        <v>36</v>
+      </c>
+      <c r="I1897">
+        <v>53</v>
+      </c>
+      <c r="J1897" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1897" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1897">
+        <v>3</v>
+      </c>
+      <c r="M1897">
+        <v>2</v>
+      </c>
+      <c r="N1897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:14" ht="15" customHeight="1">
+      <c r="A1898" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1898">
+        <v>307</v>
+      </c>
+      <c r="E1898">
+        <v>65</v>
+      </c>
+      <c r="F1898">
+        <v>62</v>
+      </c>
+      <c r="G1898">
+        <v>56</v>
+      </c>
+      <c r="H1898">
+        <v>59</v>
+      </c>
+      <c r="I1898">
+        <v>72</v>
+      </c>
+      <c r="J1898" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1898" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1898">
+        <v>3</v>
+      </c>
+      <c r="M1898">
+        <v>3</v>
+      </c>
+      <c r="N1898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:14" ht="15" customHeight="1">
+      <c r="A1899" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1899">
+        <v>270</v>
+      </c>
+      <c r="E1899">
+        <v>61</v>
+      </c>
+      <c r="F1899">
+        <v>62</v>
+      </c>
+      <c r="G1899">
+        <v>40</v>
+      </c>
+      <c r="H1899">
+        <v>52</v>
+      </c>
+      <c r="I1899">
+        <v>58</v>
+      </c>
+      <c r="J1899" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1899" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1899">
+        <v>3</v>
+      </c>
+      <c r="M1899">
+        <v>3</v>
+      </c>
+      <c r="N1899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:14" ht="15" customHeight="1">
+      <c r="A1900" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1900">
+        <v>342</v>
+      </c>
+      <c r="E1900">
+        <v>75</v>
+      </c>
+      <c r="F1900">
+        <v>70</v>
+      </c>
+      <c r="G1900">
+        <v>59</v>
+      </c>
+      <c r="H1900">
+        <v>65</v>
+      </c>
+      <c r="I1900">
+        <v>83</v>
+      </c>
+      <c r="J1900" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1900" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1900">
+        <v>4</v>
+      </c>
+      <c r="M1900">
+        <v>4</v>
+      </c>
+      <c r="N1900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:14" ht="15" customHeight="1">
+      <c r="A1901" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1901">
+        <v>385</v>
+      </c>
+      <c r="E1901">
+        <v>82</v>
+      </c>
+      <c r="F1901">
+        <v>78</v>
+      </c>
+      <c r="G1901">
+        <v>73</v>
+      </c>
+      <c r="H1901">
+        <v>76</v>
+      </c>
+      <c r="I1901">
+        <v>73</v>
+      </c>
+      <c r="J1901" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1901" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1901">
+        <v>4</v>
+      </c>
+      <c r="M1901">
+        <v>4</v>
+      </c>
+      <c r="N1901">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:14" ht="15" customHeight="1">
+      <c r="A1902" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1902">
+        <v>320</v>
+      </c>
+      <c r="E1902">
+        <v>68</v>
+      </c>
+      <c r="F1902">
+        <v>63</v>
+      </c>
+      <c r="G1902">
+        <v>64</v>
+      </c>
+      <c r="H1902">
+        <v>57</v>
+      </c>
+      <c r="I1902">
+        <v>76</v>
+      </c>
+      <c r="J1902" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1902" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1902">
+        <v>3</v>
+      </c>
+      <c r="M1902">
+        <v>3</v>
+      </c>
+      <c r="N1902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:14" ht="15" customHeight="1">
+      <c r="A1903" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1903">
+        <v>191</v>
+      </c>
+      <c r="E1903">
+        <v>47</v>
+      </c>
+      <c r="F1903">
+        <v>44</v>
+      </c>
+      <c r="G1903">
+        <v>40</v>
+      </c>
+      <c r="H1903">
+        <v>22</v>
+      </c>
+      <c r="I1903">
+        <v>0</v>
+      </c>
+      <c r="J1903" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1903" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1903">
+        <v>2</v>
+      </c>
+      <c r="M1903">
+        <v>2</v>
+      </c>
+      <c r="N1903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:14" ht="15" customHeight="1">
+      <c r="A1904" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1904">
+        <v>189</v>
+      </c>
+      <c r="E1904">
+        <v>26</v>
+      </c>
+      <c r="F1904">
+        <v>52</v>
+      </c>
+      <c r="G1904">
+        <v>42</v>
+      </c>
+      <c r="H1904">
+        <v>35</v>
+      </c>
+      <c r="I1904">
+        <v>27</v>
+      </c>
+      <c r="J1904" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1904" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1904">
+        <v>3</v>
+      </c>
+      <c r="M1904">
+        <v>1</v>
+      </c>
+      <c r="N1904">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:14" ht="15" customHeight="1">
+      <c r="A1905" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1905">
+        <v>245</v>
+      </c>
+      <c r="E1905">
+        <v>48</v>
+      </c>
+      <c r="F1905">
+        <v>58</v>
+      </c>
+      <c r="G1905">
+        <v>44</v>
+      </c>
+      <c r="H1905">
+        <v>47</v>
+      </c>
+      <c r="I1905">
+        <v>45</v>
+      </c>
+      <c r="J1905" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1905" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1905">
+        <v>3</v>
+      </c>
+      <c r="M1905">
+        <v>2</v>
+      </c>
+      <c r="N1905">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:14" ht="15" customHeight="1">
+      <c r="A1906" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1906">
+        <v>329</v>
+      </c>
+      <c r="E1906">
+        <v>67</v>
+      </c>
+      <c r="F1906">
+        <v>60</v>
+      </c>
+      <c r="G1906">
+        <v>68</v>
+      </c>
+      <c r="H1906">
+        <v>68</v>
+      </c>
+      <c r="I1906">
+        <v>0</v>
+      </c>
+      <c r="J1906" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1906" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1906">
+        <v>3</v>
+      </c>
+      <c r="M1906">
+        <v>3</v>
+      </c>
+      <c r="N1906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:14" ht="15" customHeight="1">
+      <c r="A1907" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1907">
+        <v>282</v>
+      </c>
+      <c r="E1907">
+        <v>55</v>
+      </c>
+      <c r="F1907">
+        <v>61</v>
+      </c>
+      <c r="G1907">
+        <v>60</v>
+      </c>
+      <c r="H1907">
+        <v>49</v>
+      </c>
+      <c r="I1907">
+        <v>58</v>
+      </c>
+      <c r="J1907" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1907" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1907">
+        <v>3</v>
+      </c>
+      <c r="M1907">
+        <v>3</v>
+      </c>
+      <c r="N1907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:14" ht="15" customHeight="1">
+      <c r="A1908" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1908">
+        <v>350</v>
+      </c>
+      <c r="E1908">
+        <v>78</v>
+      </c>
+      <c r="F1908">
+        <v>68</v>
+      </c>
+      <c r="G1908">
+        <v>69</v>
+      </c>
+      <c r="H1908">
+        <v>67</v>
+      </c>
+      <c r="I1908">
+        <v>63</v>
+      </c>
+      <c r="J1908" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1908" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1908">
+        <v>4</v>
+      </c>
+      <c r="M1908">
+        <v>4</v>
+      </c>
+      <c r="N1908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:14" ht="15" customHeight="1">
+      <c r="A1909" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1909">
+        <v>292</v>
+      </c>
+      <c r="E1909">
+        <v>60</v>
+      </c>
+      <c r="F1909">
+        <v>63</v>
+      </c>
+      <c r="G1909">
+        <v>49</v>
+      </c>
+      <c r="H1909">
+        <v>65</v>
+      </c>
+      <c r="I1909">
+        <v>49</v>
+      </c>
+      <c r="J1909" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1909" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1909">
+        <v>3</v>
+      </c>
+      <c r="M1909">
+        <v>3</v>
+      </c>
+      <c r="N1909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:14" ht="15" customHeight="1">
+      <c r="A1910" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1910">
+        <v>283</v>
+      </c>
+      <c r="E1910">
+        <v>30</v>
+      </c>
+      <c r="F1910">
+        <v>68</v>
+      </c>
+      <c r="G1910">
+        <v>67</v>
+      </c>
+      <c r="H1910">
+        <v>58</v>
+      </c>
+      <c r="I1910">
+        <v>66</v>
+      </c>
+      <c r="J1910" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1910" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1910">
+        <v>4</v>
+      </c>
+      <c r="M1910">
+        <v>1</v>
+      </c>
+      <c r="N1910">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:14" ht="15" customHeight="1">
+      <c r="A1911" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1911">
+        <v>209</v>
+      </c>
+      <c r="E1911">
+        <v>37</v>
+      </c>
+      <c r="F1911">
+        <v>50</v>
+      </c>
+      <c r="G1911">
+        <v>36</v>
+      </c>
+      <c r="H1911">
+        <v>43</v>
+      </c>
+      <c r="I1911">
+        <v>45</v>
+      </c>
+      <c r="J1911" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1911" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1911">
+        <v>2</v>
+      </c>
+      <c r="M1911">
+        <v>2</v>
+      </c>
+      <c r="N1911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:14" ht="15" customHeight="1">
+      <c r="A1912" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1912">
+        <v>220</v>
+      </c>
+      <c r="E1912">
+        <v>44</v>
+      </c>
+      <c r="F1912">
+        <v>52</v>
+      </c>
+      <c r="G1912">
+        <v>40</v>
+      </c>
+      <c r="H1912">
+        <v>41</v>
+      </c>
+      <c r="I1912">
+        <v>40</v>
+      </c>
+      <c r="J1912" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1912" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1912">
+        <v>3</v>
+      </c>
+      <c r="M1912">
+        <v>2</v>
+      </c>
+      <c r="N1912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:14" ht="15" customHeight="1">
+      <c r="A1913" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1913">
+        <v>352</v>
+      </c>
+      <c r="E1913">
+        <v>69</v>
+      </c>
+      <c r="F1913">
+        <v>75</v>
+      </c>
+      <c r="G1913">
+        <v>69</v>
+      </c>
+      <c r="H1913">
+        <v>67</v>
+      </c>
+      <c r="I1913">
+        <v>76</v>
+      </c>
+      <c r="J1913" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1913" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1913">
+        <v>4</v>
+      </c>
+      <c r="M1913">
+        <v>3</v>
+      </c>
+      <c r="N1913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:14" ht="15" customHeight="1">
+      <c r="A1914" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1914">
+        <v>305</v>
+      </c>
+      <c r="E1914">
+        <v>58</v>
+      </c>
+      <c r="F1914">
+        <v>74</v>
+      </c>
+      <c r="G1914">
+        <v>58</v>
+      </c>
+      <c r="H1914">
+        <v>54</v>
+      </c>
+      <c r="I1914">
+        <v>62</v>
+      </c>
+      <c r="J1914" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1914" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1914">
+        <v>4</v>
+      </c>
+      <c r="M1914">
+        <v>3</v>
+      </c>
+      <c r="N1914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:14" ht="15" customHeight="1">
+      <c r="A1915" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1915">
+        <v>302</v>
+      </c>
+      <c r="E1915">
+        <v>57</v>
+      </c>
+      <c r="F1915">
+        <v>64</v>
+      </c>
+      <c r="G1915">
+        <v>57</v>
+      </c>
+      <c r="H1915">
+        <v>60</v>
+      </c>
+      <c r="I1915">
+        <v>72</v>
+      </c>
+      <c r="J1915" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1915" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1915">
+        <v>3</v>
+      </c>
+      <c r="M1915">
+        <v>3</v>
+      </c>
+      <c r="N1915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:14" ht="15" customHeight="1">
+      <c r="A1916" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1916">
+        <v>261</v>
+      </c>
+      <c r="E1916">
+        <v>57</v>
+      </c>
+      <c r="F1916">
+        <v>55</v>
+      </c>
+      <c r="G1916">
+        <v>53</v>
+      </c>
+      <c r="H1916">
+        <v>43</v>
+      </c>
+      <c r="I1916">
+        <v>54</v>
+      </c>
+      <c r="J1916" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1916" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1916">
+        <v>3</v>
+      </c>
+      <c r="M1916">
+        <v>3</v>
+      </c>
+      <c r="N1916">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:14" ht="15" customHeight="1">
+      <c r="A1917" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>947</v>
+      </c>
+      <c r="D1917">
+        <v>327</v>
+      </c>
+      <c r="E1917">
+        <v>57</v>
+      </c>
+      <c r="F1917">
+        <v>71</v>
+      </c>
+      <c r="G1917">
+        <v>62</v>
+      </c>
+      <c r="H1917">
+        <v>67</v>
+      </c>
+      <c r="I1917">
+        <v>80</v>
+      </c>
+      <c r="J1917" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1917" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1917">
+        <v>4</v>
+      </c>
+      <c r="M1917">
+        <v>3</v>
+      </c>
+      <c r="N1917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:14" ht="15" customHeight="1">
+      <c r="A1918" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1918">
+        <v>326</v>
+      </c>
+      <c r="E1918">
+        <v>63</v>
+      </c>
+      <c r="F1918">
+        <v>66</v>
+      </c>
+      <c r="G1918">
+        <v>69</v>
+      </c>
+      <c r="H1918">
+        <v>61</v>
+      </c>
+      <c r="I1918">
+        <v>71</v>
+      </c>
+      <c r="J1918" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1918" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1918">
+        <v>4</v>
+      </c>
+      <c r="M1918">
+        <v>3</v>
+      </c>
+      <c r="N1918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:14" ht="15" customHeight="1">
+      <c r="A1919" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1919">
+        <v>249</v>
+      </c>
+      <c r="E1919">
+        <v>44</v>
+      </c>
+      <c r="F1919">
+        <v>53</v>
+      </c>
+      <c r="G1919">
+        <v>53</v>
+      </c>
+      <c r="H1919">
+        <v>48</v>
+      </c>
+      <c r="I1919">
+        <v>54</v>
+      </c>
+      <c r="J1919" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1919" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1919">
+        <v>3</v>
+      </c>
+      <c r="M1919">
+        <v>2</v>
+      </c>
+      <c r="N1919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:14" ht="15" customHeight="1">
+      <c r="A1920" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1920">
+        <v>271</v>
+      </c>
+      <c r="E1920">
+        <v>67</v>
+      </c>
+      <c r="F1920">
+        <v>59</v>
+      </c>
+      <c r="G1920">
+        <v>41</v>
+      </c>
+      <c r="H1920">
+        <v>52</v>
+      </c>
+      <c r="I1920">
+        <v>47</v>
+      </c>
+      <c r="J1920" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1920" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1920">
+        <v>3</v>
+      </c>
+      <c r="M1920">
+        <v>3</v>
+      </c>
+      <c r="N1920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:14" ht="15" customHeight="1">
+      <c r="A1921" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1921">
+        <v>275</v>
+      </c>
+      <c r="E1921">
+        <v>50</v>
+      </c>
+      <c r="F1921">
+        <v>55</v>
+      </c>
+      <c r="G1921">
+        <v>57</v>
+      </c>
+      <c r="H1921">
+        <v>57</v>
+      </c>
+      <c r="I1921">
+        <v>59</v>
+      </c>
+      <c r="J1921" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1921" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1921">
+        <v>3</v>
+      </c>
+      <c r="M1921">
+        <v>2</v>
+      </c>
+      <c r="N1921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:14" ht="15" customHeight="1">
+      <c r="A1922" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1922">
+        <v>214</v>
+      </c>
+      <c r="E1922">
+        <v>40</v>
+      </c>
+      <c r="F1922">
+        <v>49</v>
+      </c>
+      <c r="G1922">
+        <v>40</v>
+      </c>
+      <c r="H1922">
+        <v>40</v>
+      </c>
+      <c r="I1922">
+        <v>50</v>
+      </c>
+      <c r="J1922" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1922" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1922">
+        <v>2</v>
+      </c>
+      <c r="M1922">
+        <v>2</v>
+      </c>
+      <c r="N1922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:14" ht="15" customHeight="1">
+      <c r="A1923" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1923">
+        <v>376</v>
+      </c>
+      <c r="E1923">
+        <v>80</v>
+      </c>
+      <c r="F1923">
+        <v>75</v>
+      </c>
+      <c r="G1923">
+        <v>72</v>
+      </c>
+      <c r="H1923">
+        <v>75</v>
+      </c>
+      <c r="I1923">
+        <v>72</v>
+      </c>
+      <c r="J1923" t="s">
+        <v>949</v>
+      </c>
+      <c r="K1923" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1923">
+        <v>4</v>
+      </c>
+      <c r="M1923">
+        <v>4</v>
+      </c>
+      <c r="N1923">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1356" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1825" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
